--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -1406,7 +1406,7 @@
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
@@ -1475,7 +1475,7 @@
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
@@ -1613,7 +1613,7 @@
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
@@ -1751,7 +1751,7 @@
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
@@ -1820,7 +1820,7 @@
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1889,7 +1889,7 @@
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -1958,7 +1958,7 @@
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
@@ -2648,7 +2648,7 @@
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2938</v>
+        <v>1.3092</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-5.31</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>3.58</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 05:00</t>
+          <t>2019-12-04 22:51</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -3265,25 +3265,25 @@
         <v>234.2</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2179</v>
+        <v>1.2401</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2406</v>
+        <v>1.2266</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>41.64</v>
+        <v>-0.0109</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-24.77</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:30</t>
+          <t>2019-12-04 22:48</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2938</v>
+        <v>1.3092</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-8.279999999999999</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>5.58</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 05:00</t>
+          <t>2019-12-04 22:51</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3476,7 +3476,7 @@
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.2938</v>
+        <v>1.3092</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>-154.36</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>104.03</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 05:00</t>
+          <t>2019-12-04 22:51</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4373,7 +4373,7 @@
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
@@ -7827,17 +7827,17 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.2938</v>
+        <v>1.3092</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.007</v>
-      </c>
-      <c r="K107" s="8" t="n">
-        <v>-12.95</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K107" s="9" t="n">
+        <v>8.73</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 05:00</t>
+          <t>2019-12-04 22:51</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7961,7 +7961,7 @@
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
@@ -8164,25 +8164,25 @@
         <v>93.68000000000001</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2179</v>
+        <v>1.2401</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2406</v>
+        <v>1.2266</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0187</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>16.66</v>
+        <v>-0.0109</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>-9.91</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:30</t>
+          <t>2019-12-04 22:48</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,11 +54,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
@@ -70,6 +65,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,7 +109,14 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -118,14 +125,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6525</v>
+        <v>1.6515</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2280.92</v>
+        <v>2352.23</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3801.35</v>
+        <v>3784.74</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-83.36</v>
+        <v>-99.97</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.616</v>
+        <v>1.609</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6082</v>
+        <v>1.6111</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-17.79</v>
+        <v>4.94</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>1.4266</v>
+      </c>
+      <c r="D3" s="5" t="n">
+        <v>2620.53</v>
+      </c>
+      <c r="E3" s="5" t="n">
+        <v>3731.63</v>
+      </c>
+      <c r="F3" s="5" t="n">
+        <v>-6.81</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>1.424</v>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I3" s="4" t="n">
         <v>1.4264</v>
       </c>
-      <c r="D3" s="5" t="n">
-        <v>2540.22</v>
-      </c>
-      <c r="E3" s="5" t="n">
-        <v>3750.12</v>
-      </c>
-      <c r="F3" s="5" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.431</v>
-      </c>
-      <c r="H3" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.4237</v>
-      </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-18.54</v>
+        <v>6.29</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3268.16</v>
+        <v>3244.66</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>221.22</v>
+        <v>197.76</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.446</v>
+        <v>1.4356</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4291</v>
+        <v>1.4418</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0117</v>
+        <v>0.0043</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>-38.2</v>
+        <v>14.01</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -769,37 +769,37 @@
         <v>3318</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9336</v>
+        <v>0.9330000000000001</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3390.61</v>
+        <v>3509.02</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3214.05</v>
+        <v>3212.16</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-59.95</v>
+        <v>-61.76</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9159</v>
+        <v>0.9154</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9153</v>
+        <v>0.9192</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0042</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-2.03</v>
+        <v>13.33</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -838,37 +838,37 @@
         <v>70023</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>1.7965</v>
+        <v>1.7987</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1314.93</v>
+        <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2528.76</v>
+        <v>2531.51</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>76.48</v>
+        <v>79.20999999999999</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8547</v>
+        <v>1.8568</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.857</v>
+        <v>1.8621</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>3.02</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>7.23</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1218</v>
+        <v>2.1233</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>973.88</v>
+        <v>1017.99</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2194.01</v>
+        <v>2197.74</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>32.48</v>
+        <v>36.24</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1551</v>
+        <v>2.1589</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.159</v>
+        <v>2.1614</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>3.8</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>2.54</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,37 +976,37 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9605</v>
+        <v>0.9587</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>887.74</v>
+        <v>980.46</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>921.64</v>
+        <v>922.91</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-18.29</v>
+        <v>-17.06</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>1.15</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>5.78</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>515.9400000000001</v>
+        <v>513.63</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-24.95</v>
+        <v>-27.24</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9374</v>
+        <v>0.9332</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9354</v>
+        <v>0.9367</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0022</v>
+        <v>0.0037</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-1.1</v>
+        <v>1.93</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>400.39</v>
+        <v>402.04</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>43.61</v>
+        <v>45.26</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7528</v>
+        <v>0.7559</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7557</v>
+        <v>0.7624</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>1.54</v>
+        <v>0.0086</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>3.46</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>321.79</v>
+        <v>320.3</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8.529999999999999</v>
+        <v>7.04</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.298</v>
+        <v>1.292</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2916</v>
+        <v>1.2973</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0049</v>
+        <v>0.0041</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>-1.59</v>
+        <v>1.31</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>87.34999999999999</v>
+        <v>86.91</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.36</v>
+        <v>-5.8</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4339</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4337</v>
+        <v>1.4364</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.45</v>
+        <v>0.15</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,690 +1312,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B13" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C13" s="11" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D13" s="12" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="13" t="n">
-        <v>9159.030000000001</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>-2840.97</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>0.5474</v>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0.5487</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>21.75</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
+      <c r="E13" s="12" t="n">
+        <v>9179.110000000001</v>
+      </c>
+      <c r="F13" s="12" t="n">
+        <v>-2820.99</v>
+      </c>
+      <c r="G13" s="11" t="n">
+        <v>0.5486</v>
+      </c>
+      <c r="H13" s="13" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I13" s="11" t="n">
+        <v>0.5535</v>
+      </c>
+      <c r="J13" s="14" t="n">
+        <v>0.0089</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>81.98999999999999</v>
+      </c>
+      <c r="L13" s="13" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:11</t>
+        </is>
+      </c>
+      <c r="M13" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N13" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O13" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="14" t="inlineStr">
+      <c r="P13" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="14" t="inlineStr">
+      <c r="Q13" s="13" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="16" t="inlineStr">
+      <c r="A14" s="15" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="17" t="n">
+      <c r="B14" s="16" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="18" t="n">
+      <c r="C14" s="17" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="19" t="n">
+      <c r="D14" s="18" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="19" t="n">
-        <v>7848.9</v>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>1539</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>2.907</v>
-      </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>2.901</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>-0.0021</v>
+      <c r="E14" s="18" t="n">
+        <v>7830</v>
+      </c>
+      <c r="F14" s="18" t="n">
+        <v>1520.1</v>
+      </c>
+      <c r="G14" s="17" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="H14" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I14" s="17" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="J14" s="20" t="n">
+        <v>0.0034</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>-16.2</v>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
+        <v>29.7</v>
+      </c>
+      <c r="L14" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M14" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="20" t="inlineStr">
+      <c r="N14" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="20" t="inlineStr">
+      <c r="O14" s="19" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="20" t="inlineStr">
+      <c r="P14" s="19" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="20" t="inlineStr">
+      <c r="Q14" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="18" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="19" t="n">
-        <v>35590.1</v>
-      </c>
-      <c r="F15" s="19" t="n">
-        <v>4222.4</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>3.911</v>
-      </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="n">
-        <v>3.913</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M15" s="20" t="inlineStr">
+      <c r="E15" s="18" t="n">
+        <v>35599.2</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>4231.5</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>3.912</v>
+      </c>
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>136.5</v>
+      </c>
+      <c r="L15" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="N15" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="O15" s="19" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P15" s="19" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
+      <c r="Q15" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>5.601</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="18" t="n">
         <v>38800</v>
       </c>
-      <c r="E16" s="19" t="n">
-        <v>206804</v>
-      </c>
-      <c r="F16" s="19" t="n">
-        <v>-10514.8</v>
-      </c>
-      <c r="G16" s="18" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="H16" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="n">
-        <v>5.319</v>
-      </c>
-      <c r="J16" s="21" t="n">
-        <v>-0.0021</v>
+      <c r="E16" s="18" t="n">
+        <v>206450.92</v>
+      </c>
+      <c r="F16" s="18" t="n">
+        <v>-10867.88</v>
+      </c>
+      <c r="G16" s="17" t="n">
+        <v>5.3209</v>
+      </c>
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>5.349</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.0056</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-426.8</v>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M16" s="20" t="inlineStr">
+        <v>1090.28</v>
+      </c>
+      <c r="L16" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="20" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="20" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="20" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="18" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="19" t="n">
-        <v>24640.2</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <v>-5002.4</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>0.729</v>
-      </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>0.73</v>
-      </c>
-      <c r="J17" s="21" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>33.8</v>
-      </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M17" s="20" t="inlineStr">
+      <c r="E17" s="18" t="n">
+        <v>24687.52</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>-4955.08</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>0.7304</v>
+      </c>
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>0.737</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>0.009599999999999999</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>223.08</v>
+      </c>
+      <c r="L17" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="20" t="inlineStr">
+      <c r="N17" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O17" s="19" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="P17" s="19" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="Q17" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="18" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="19" t="n">
-        <v>29757</v>
-      </c>
-      <c r="F18" s="19" t="n">
-        <v>4152.9</v>
-      </c>
-      <c r="G18" s="18" t="n">
-        <v>0.91</v>
-      </c>
-      <c r="H18" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-03</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0.907</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>-0.0033</v>
+      <c r="E18" s="18" t="n">
+        <v>29688.33</v>
+      </c>
+      <c r="F18" s="18" t="n">
+        <v>4084.23</v>
+      </c>
+      <c r="G18" s="17" t="n">
+        <v>0.9079</v>
+      </c>
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>0.915</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.008800000000000001</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>-98.09999999999999</v>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M18" s="20" t="inlineStr">
+        <v>232.17</v>
+      </c>
+      <c r="L18" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="20" t="inlineStr">
+      <c r="N18" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="20" t="inlineStr">
+      <c r="O18" s="19" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr">
+      <c r="P18" s="19" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="20" t="inlineStr">
+      <c r="Q18" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="19" t="n">
-        <v>25779.6</v>
-      </c>
-      <c r="F19" s="19" t="n">
-        <v>-3853.3</v>
-      </c>
-      <c r="G19" s="18" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="n">
-        <v>0.756</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M19" s="20" t="inlineStr">
+      <c r="E19" s="18" t="n">
+        <v>25707.99</v>
+      </c>
+      <c r="F19" s="18" t="n">
+        <v>-3924.91</v>
+      </c>
+      <c r="G19" s="17" t="n">
+        <v>0.7539</v>
+      </c>
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.758</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>139.81</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="N19" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="O19" s="19" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P19" s="19" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="20" t="inlineStr">
+      <c r="Q19" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D20" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="19" t="n">
-        <v>14746.5</v>
-      </c>
-      <c r="F20" s="19" t="n">
-        <v>1894.5</v>
-      </c>
-      <c r="G20" s="18" t="n">
-        <v>3.277</v>
-      </c>
-      <c r="H20" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="n">
-        <v>3.337</v>
-      </c>
-      <c r="J20" s="21" t="n">
-        <v>0.0183</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>270</v>
-      </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:00</t>
-        </is>
-      </c>
-      <c r="M20" s="20" t="inlineStr">
+      <c r="E20" s="18" t="n">
+        <v>15075.9</v>
+      </c>
+      <c r="F20" s="18" t="n">
+        <v>2223.9</v>
+      </c>
+      <c r="G20" s="17" t="n">
+        <v>3.3502</v>
+      </c>
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>3.318</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>-0.0057</v>
+      </c>
+      <c r="K20" s="21" t="n">
+        <v>-144.9</v>
+      </c>
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N20" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O20" s="19" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P20" s="19" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="20" t="inlineStr">
+      <c r="Q20" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="19" t="n">
-        <v>14839.6</v>
-      </c>
-      <c r="F21" s="19" t="n">
-        <v>1968.8</v>
-      </c>
-      <c r="G21" s="18" t="n">
-        <v>1.613</v>
-      </c>
-      <c r="H21" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I21" s="18" t="n">
-        <v>1.612</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>-0.0005999999999999999</v>
+      <c r="E21" s="18" t="n">
+        <v>14825.8</v>
+      </c>
+      <c r="F21" s="18" t="n">
+        <v>1955</v>
+      </c>
+      <c r="G21" s="17" t="n">
+        <v>1.6115</v>
+      </c>
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>1.637</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>0.0155</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>-9.199999999999999</v>
-      </c>
-      <c r="L21" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:04</t>
-        </is>
-      </c>
-      <c r="M21" s="20" t="inlineStr">
+        <v>234.6</v>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="N21" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O21" s="19" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="20" t="inlineStr">
+      <c r="P21" s="19" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="20" t="inlineStr">
+      <c r="Q21" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="19" t="n">
-        <v>19008</v>
-      </c>
-      <c r="F22" s="19" t="n">
-        <v>705.6</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.323</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>43.2</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-04 15:04</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+      <c r="E22" s="18" t="n">
+        <v>19078.56</v>
+      </c>
+      <c r="F22" s="18" t="n">
+        <v>776.16</v>
+      </c>
+      <c r="G22" s="17" t="n">
+        <v>1.3249</v>
+      </c>
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-04</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.0091</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>145.44</v>
+      </c>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-05 13:12</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N22" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O22" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P22" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q22" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2017,31 +2017,31 @@
         <v>4157.52</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>8090.53</v>
+        <v>8081.8</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>86.53</v>
+        <v>77.75</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.946</v>
+        <v>1.9439</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9438</v>
+        <v>1.9548</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-9.15</v>
+        <v>45.32</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5321.82</v>
+        <v>5333.49</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-14.18</v>
+        <v>-2.92</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5474</v>
+        <v>0.5486</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5487</v>
+        <v>0.5535</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>12.64</v>
+        <v>0.0089</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>47.64</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4646.83</v>
+        <v>4653.75</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-22.17</v>
+        <v>-15.33</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>6.43</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>29.17</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4043.99</v>
+        <v>4036.61</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>41.99</v>
+        <v>34.68</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.548</v>
+        <v>0.547</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5474</v>
+        <v>0.5501</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-4.43</v>
+        <v>22.88</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4016.85</v>
+        <v>4002.19</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>14.85</v>
+        <v>0.37</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.096</v>
+        <v>1.092</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0907</v>
+        <v>1.0935</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-19.42</v>
+        <v>5.5</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3451.14</v>
+        <v>3447.5</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>116.14</v>
+        <v>112.4</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7584</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7575</v>
+        <v>0.7608</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0012</v>
+        <v>0.0042</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-4.1</v>
+        <v>14.56</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>695.17</v>
+        <v>694.61</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>28.17</v>
+        <v>27.6</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7352</v>
+        <v>1.7338</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7336</v>
+        <v>1.762</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.001</v>
+        <v>0.0162</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>-0.64</v>
+        <v>11.3</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>694.48</v>
+        <v>693.59</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>27.48</v>
+        <v>26.58</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9432</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9423</v>
+        <v>0.9573</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.001</v>
+        <v>0.0162</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>-0.66</v>
+        <v>11.27</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>463.14</v>
+        <v>461.86</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-3.76</v>
+        <v>-5.02</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9774</v>
+        <v>0.9747</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9746</v>
+        <v>0.9828</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0029</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-1.33</v>
+        <v>3.84</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,13 +2638,13 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1934.49</v>
+        <v>1907.99</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-66.51000000000001</v>
+        <v>-92.75</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.374</v>
+        <v>0.36</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0053</v>
+        <v>0.0134</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>-10.6</v>
+        <v>90.09999999999999</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:04</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>751.5700000000001</v>
+        <v>746.38</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>84.56999999999999</v>
+        <v>79.37</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.303</v>
+        <v>1.294</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3092</v>
+        <v>1.2989</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>3.58</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>2.83</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 22:51</t>
+          <t>2019-12-05 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>679.12</v>
+        <v>672.5</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>12.12</v>
+        <v>5.52</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4774</v>
+        <v>1.463</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4599</v>
+        <v>1.4692</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0118</v>
+        <v>0.0043</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-8.039999999999999</v>
+        <v>2.85</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,17 +2845,17 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>722.48</v>
+        <v>726.76</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>55.48</v>
+        <v>59.77</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="9" t="n">
+      <c r="K35" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2036.94</v>
+        <v>2034.74</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>36.94</v>
+        <v>34.75</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.946</v>
+        <v>1.9439</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9438</v>
+        <v>1.9548</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-2.3</v>
+        <v>11.41</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2001.19</v>
+        <v>1993.88</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>1.19</v>
+        <v>-6.21</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.096</v>
+        <v>1.092</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0907</v>
+        <v>1.0935</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-9.68</v>
+        <v>2.74</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1055.99</v>
+        <v>1052.81</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>55.99</v>
+        <v>52.85</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.9943</v>
+        <v>0.9974</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0028</v>
+        <v>0.0034</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-2.86</v>
+        <v>3.6</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>993.36</v>
+        <v>991.55</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-6.64</v>
+        <v>-8.52</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.548</v>
+        <v>0.547</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5474</v>
+        <v>0.5501</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-1.09</v>
+        <v>5.62</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>930.58</v>
+        <v>929.6</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-69.42</v>
+        <v>-70.43000000000001</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7584</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7575</v>
+        <v>0.7608</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0012</v>
+        <v>0.0042</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-1.1</v>
+        <v>3.93</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,10 +3259,10 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2234.2</v>
+        <v>2274.93</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>234.2</v>
+        <v>274.99</v>
       </c>
       <c r="G41" s="24" t="n">
         <v>1.2401</v>
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2266</v>
+        <v>1.2287</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0109</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>-24.77</v>
+        <v>-0.0092</v>
+      </c>
+      <c r="K41" s="21" t="n">
+        <v>-20.91</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 22:48</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1172.47</v>
+        <v>1164.37</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>172.47</v>
+        <v>164.4</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.303</v>
+        <v>1.294</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3092</v>
+        <v>1.2989</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>5.58</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>4.41</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 22:51</t>
+          <t>2019-12-05 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1017.96</v>
+        <v>1008.04</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>17.96</v>
+        <v>8.06</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4774</v>
+        <v>1.463</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4599</v>
+        <v>1.4692</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0118</v>
+        <v>0.0043</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-12.06</v>
+        <v>4.27</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,13 +3466,13 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1736.63</v>
+        <v>1712.84</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-263.37</v>
+        <v>-287.38</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.374</v>
+        <v>0.36</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0053</v>
+        <v>0.0134</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-9.52</v>
+        <v>80.88</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:04</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,17 +3535,17 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1126.63</v>
+        <v>1133.3</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>126.63</v>
+        <v>133.27</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="9" t="n">
+      <c r="K45" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>595.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1002.18</v>
+        <v>1002.77</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>2.18</v>
+        <v>2.8</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6833</v>
+        <v>1.6894</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>0.18</v>
+        <v>0.0032</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>3.22</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>65064.33</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>71310.5</v>
+        <v>71050.25</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>4990.5</v>
+        <v>4730.18</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.096</v>
+        <v>1.092</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.0907</v>
+        <v>1.0935</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>-344.84</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>63490</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>59674.25</v>
+        <v>59763.14</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>1474.25</v>
+        <v>1561.85</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>82.54000000000001</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>374.59</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>32370.29</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37167.56</v>
+        <v>37128.72</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5167.56</v>
+        <v>5127.45</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1482</v>
+        <v>1.147</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1478</v>
+        <v>1.1487</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0004</v>
+        <v>0.0015</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-12.95</v>
+        <v>55.03</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33805.79</v>
+        <v>33825.88</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1805.79</v>
+        <v>1825.87</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6833</v>
+        <v>1.6894</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>6.03</v>
+        <v>0.0032</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>108.47</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>41014.88</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>33763.44</v>
+        <v>33907</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3203.44</v>
+        <v>3346.81</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8232</v>
+        <v>0.8267</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.833</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>143.55</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>258.39</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,17 +4018,17 @@
         <v>20716.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24466.34</v>
+        <v>24611.36</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>1866.34</v>
+        <v>2009.51</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
@@ -4037,7 +4037,7 @@
       <c r="J52" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="9" t="n">
+      <c r="K52" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>14624.61</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23487.12</v>
+        <v>23472.5</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4287.12</v>
+        <v>4271.85</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.606</v>
+        <v>1.605</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6055</v>
+        <v>1.6111</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0038</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-7.31</v>
+        <v>89.20999999999999</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>21163.93</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22956.51</v>
+        <v>22857.04</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3756.51</v>
+        <v>3655.01</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.0847</v>
+        <v>1.08</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0798</v>
+        <v>1.0835</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0046</v>
+        <v>0.0032</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-103.7</v>
+        <v>74.06999999999999</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>16778.47</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21862.34</v>
+        <v>21711.34</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2662.34</v>
+        <v>2510.06</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.303</v>
+        <v>1.294</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3092</v>
+        <v>1.2989</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>104.03</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>82.20999999999999</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 22:51</t>
+          <t>2019-12-05 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15257.22</v>
+        <v>15238.17</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2457.22</v>
+        <v>2437.73</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.601</v>
+        <v>1.599</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.5992</v>
+        <v>1.6075</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0053</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-17.15</v>
+        <v>81</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,13 +4363,13 @@
         <v>37267.45</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>13602.61</v>
+        <v>13416.28</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5597.39</v>
+        <v>-5783.91</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.374</v>
+        <v>0.36</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0053</v>
+        <v>0.0134</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-74.53</v>
+        <v>633.55</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:04</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>6798.52</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>10044.13</v>
+        <v>9946.23</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>144.13</v>
+        <v>46.23</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.4774</v>
+        <v>1.463</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4599</v>
+        <v>1.4692</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0118</v>
+        <v>0.0043</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>-118.97</v>
+        <v>42.15</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,17 +4501,17 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7556.38</v>
+        <v>7545.17</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2411.26</v>
+        <v>2399.87</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>0</v>
+        <v>1.345</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="9" t="n">
+      <c r="K59" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7337.3</v>
+        <v>7353.39</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>937.3</v>
+        <v>953.02</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5474</v>
+        <v>0.5486</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5487</v>
+        <v>0.5535</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>17.43</v>
+        <v>0.0089</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>65.68000000000001</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7236.79</v>
+        <v>7236.27</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>836.79</v>
+        <v>836.0599999999999</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3581</v>
+        <v>1.358</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3572</v>
+        <v>1.3625</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0007</v>
+        <v>0.0033</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>-4.8</v>
+        <v>23.98</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6723.07</v>
+        <v>6718.41</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-276.93</v>
+        <v>-282.36</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8643</v>
+        <v>0.8637</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8633</v>
+        <v>0.8681</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0051</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-7.78</v>
+        <v>34.23</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:06</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>3299.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6421.09</v>
+        <v>6414.17</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>21.09</v>
+        <v>13.86</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.946</v>
+        <v>1.9439</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9438</v>
+        <v>1.9548</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-7.26</v>
+        <v>35.97</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>7852.99</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>5955.7</v>
+        <v>5949.43</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-444.3</v>
+        <v>-450.76</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7584</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7575</v>
+        <v>0.7608</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0012</v>
+        <v>0.0042</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-7.07</v>
+        <v>25.13</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4925,21 +4925,21 @@
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9337</v>
+        <v>0.9389</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>5.01</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>23.63</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>171152.16</v>
       </c>
       <c r="E66" s="25" t="n">
-        <v>176081.34</v>
+        <v>176098.46</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>41.34</v>
+        <v>51.35</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>1.0288</v>
+        <v>1.0289</v>
       </c>
       <c r="H66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I66" s="24" t="n">
-        <v>1.0288</v>
+        <v>1.029</v>
       </c>
       <c r="J66" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>17.12</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5056,28 +5056,28 @@
         <v>16991.92</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>-8.08</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="G67" s="24" t="n">
         <v>1.465</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4684</v>
+        <v>1.4806</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>39.44</v>
+        <v>0.0106</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>180.94</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5125,28 +5125,28 @@
         <v>138658.05</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>18.05</v>
+        <v>12.89</v>
       </c>
       <c r="G68" s="24" t="n">
         <v>1.076</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.076</v>
+        <v>1.0761</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>12.89</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5194,28 +5194,28 @@
         <v>143071.99</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>-48.01</v>
+        <v>-53.09</v>
       </c>
       <c r="G69" s="24" t="n">
         <v>1.078</v>
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.078</v>
+        <v>1.0781</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>13.27</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5263,28 +5263,28 @@
         <v>74009.42</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>-230.58</v>
+        <v>-232.77</v>
       </c>
       <c r="G70" s="24" t="n">
         <v>1.24</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2395</v>
+        <v>1.2404</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>-0.0004</v>
+        <v>0.0003</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>-29.84</v>
+        <v>23.87</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>76964.17</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99129.85000000001</v>
+        <v>99052.89</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>-110.15</v>
+        <v>-184.71</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.288</v>
+        <v>1.287</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2867</v>
+        <v>1.2878</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>-0.001</v>
+        <v>0.0007</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-100.05</v>
+        <v>61.57</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>140577.44</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>151669</v>
+        <v>151683.06</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>-51</v>
+        <v>-42.17</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.0789</v>
+        <v>1.079</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.0789</v>
+        <v>1.0791</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>14.06</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5461,37 +5461,37 @@
         <v>519671</v>
       </c>
       <c r="C73" s="4" t="n">
-        <v>1.4262</v>
+        <v>1.4263</v>
       </c>
       <c r="D73" s="5" t="n">
-        <v>1013.26</v>
+        <v>1029.32</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1472.99</v>
+        <v>1465.75</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>4.88</v>
+        <v>-2.37</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.431</v>
+        <v>1.424</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4237</v>
+        <v>1.4264</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-7.4</v>
+        <v>2.47</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5530,37 +5530,37 @@
         <v>90010</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>1.6528</v>
+        <v>1.6522</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>859.89</v>
+        <v>874.15</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1412.66</v>
+        <v>1406.51</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-31.65</v>
+        <v>-37.76</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.616</v>
+        <v>1.609</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6082</v>
+        <v>1.6111</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-6.71</v>
+        <v>1.84</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1298.57</v>
+        <v>1289.23</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>87.59999999999999</v>
+        <v>78.22</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.446</v>
+        <v>1.4356</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4291</v>
+        <v>1.4418</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0117</v>
+        <v>0.0043</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-15.18</v>
+        <v>5.57</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5668,37 +5668,37 @@
         <v>3318</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.9331</v>
+        <v>0.9328</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>1312.53</v>
+        <v>1336.21</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1223.87</v>
+        <v>1223.17</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-22.56</v>
+        <v>-23.25</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9159</v>
+        <v>0.9154</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9153</v>
+        <v>0.9192</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0042</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-0.79</v>
+        <v>5.08</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5737,37 +5737,37 @@
         <v>70023</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.7954</v>
+        <v>1.7966</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>482.9</v>
+        <v>492.58</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>913.62</v>
+        <v>914.62</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>28.64</v>
+        <v>29.65</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.8547</v>
+        <v>1.8568</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.857</v>
+        <v>1.8621</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>1.11</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>2.61</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5806,37 +5806,37 @@
         <v>530015</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>2.1198</v>
+        <v>2.1207</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>389.84</v>
+        <v>398.66</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>859.1799999999999</v>
+        <v>860.67</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>13.74</v>
+        <v>15.23</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1551</v>
+        <v>2.1589</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.159</v>
+        <v>2.1614</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>1.52</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>1</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5875,37 +5875,37 @@
         <v>968</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.9608</v>
+        <v>0.9599</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>354.88</v>
+        <v>373.42</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>351</v>
+        <v>351.5</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-7.43</v>
+        <v>-6.95</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>0.46</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>2.2</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>201.44</v>
+        <v>200.54</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-9.779999999999999</v>
+        <v>-10.68</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9374</v>
+        <v>0.9332</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9354</v>
+        <v>0.9367</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0022</v>
+        <v>0.0037</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-0.43</v>
+        <v>0.75</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>160.15</v>
+        <v>160.81</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>17.45</v>
+        <v>18.1</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7528</v>
+        <v>0.7559</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7557</v>
+        <v>0.7624</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>0.62</v>
+        <v>0.0086</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>1.38</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>80.59</v>
+        <v>80.22</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>0.55</v>
+        <v>0.18</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.298</v>
+        <v>1.292</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.2916</v>
+        <v>1.2973</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0049</v>
+        <v>0.0041</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>-0.4</v>
+        <v>0.33</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>24.24</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>34.93</v>
+        <v>34.76</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-2.15</v>
+        <v>-2.32</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4339</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.4337</v>
+        <v>1.4364</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.18</v>
+        <v>0.06</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6220,37 +6220,37 @@
         <v>90010</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1.6581</v>
+        <v>1.6569</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>917.91</v>
+        <v>946.4299999999999</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1529.49</v>
+        <v>1522.81</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-38.69</v>
+        <v>-45.33</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.616</v>
+        <v>1.609</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6082</v>
+        <v>1.6111</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-7.16</v>
+        <v>1.99</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6289,37 +6289,37 @@
         <v>519671</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.4245</v>
+        <v>1.4248</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>993.53</v>
+        <v>1025.65</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1467.77</v>
+        <v>1460.53</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>6.43</v>
+        <v>-0.82</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.431</v>
+        <v>1.424</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4237</v>
+        <v>1.4264</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-7.25</v>
+        <v>2.46</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1324.49</v>
+        <v>1314.97</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>86.65000000000001</v>
+        <v>77.12</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.446</v>
+        <v>1.4356</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4291</v>
+        <v>1.4418</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0117</v>
+        <v>0.0043</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-15.48</v>
+        <v>5.68</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6427,37 +6427,37 @@
         <v>3318</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.9339</v>
+        <v>0.9334</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>1320.32</v>
+        <v>1367.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1252.72</v>
+        <v>1251.98</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-23.83</v>
+        <v>-24.62</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9159</v>
+        <v>0.9154</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9153</v>
+        <v>0.9192</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0042</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>-0.79</v>
+        <v>5.2</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6496,37 +6496,37 @@
         <v>70023</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.7969</v>
+        <v>1.7992</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>509.62</v>
+        <v>528.99</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>981.17</v>
+        <v>982.23</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>29.43</v>
+        <v>30.47</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.8547</v>
+        <v>1.8568</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.857</v>
+        <v>1.8621</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>1.17</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>2.8</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6565,37 +6565,37 @@
         <v>530015</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>2.1207</v>
+        <v>2.1224</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>372.65</v>
+        <v>390.29</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>841.1799999999999</v>
+        <v>842.6</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>12.81</v>
+        <v>14.25</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1551</v>
+        <v>2.1589</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.159</v>
+        <v>2.1614</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>1.45</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>0.98</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6634,37 +6634,37 @@
         <v>968</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0.9605</v>
+        <v>0.9586</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>355.1</v>
+        <v>392.19</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>368.66</v>
+        <v>369.17</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-7.3</v>
+        <v>-6.78</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>0.46</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>2.31</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>213.28</v>
+        <v>212.32</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-10.23</v>
+        <v>-11.19</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9374</v>
+        <v>0.9332</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9354</v>
+        <v>0.9367</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>-0.0022</v>
+        <v>0.0037</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-0.46</v>
+        <v>0.8</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>184.45</v>
+        <v>183.59</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>2</v>
+        <v>1.14</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.298</v>
+        <v>1.292</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.2916</v>
+        <v>1.2973</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>-0.0049</v>
+        <v>0.0041</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>-0.91</v>
+        <v>0.75</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>160.15</v>
+        <v>160.81</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>17.45</v>
+        <v>18.1</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7528</v>
+        <v>0.7559</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7557</v>
+        <v>0.7624</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>0.62</v>
+        <v>0.0086</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>1.38</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>34.93</v>
+        <v>34.76</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-2.15</v>
+        <v>-2.32</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.4411</v>
+        <v>1.4339</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.4337</v>
+        <v>1.4364</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>-0.0051</v>
+        <v>0.0017</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>-0.18</v>
+        <v>0.06</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>9697.57</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>10490.83</v>
+        <v>10483.07</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>290.83</v>
+        <v>282.2</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.0818</v>
+        <v>1.081</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.0806</v>
+        <v>1.0868</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0053</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-11.64</v>
+        <v>56.25</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>8677.6</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>9510.639999999999</v>
+        <v>9475.940000000001</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>710.64</v>
+        <v>675.12</v>
       </c>
       <c r="G96" s="30" t="n">
-        <v>1.096</v>
+        <v>1.092</v>
       </c>
       <c r="H96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.0907</v>
+        <v>1.0935</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>-0.0048</v>
+        <v>0.0013</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>-45.99</v>
+        <v>13.02</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>6096.21</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>5729.82</v>
+        <v>5738.36</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>529.8200000000001</v>
+        <v>538.3</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>0.9399</v>
+        <v>0.9413</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9412</v>
+        <v>0.9472</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>7.93</v>
+        <v>0.0063</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>35.97</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5556.83</v>
+        <v>5580.46</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>756.83</v>
+        <v>780.33</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8232</v>
+        <v>0.8267</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.833</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0043</v>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>23.63</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>42.53</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>2760.12</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4432.75</v>
+        <v>4429.99</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>832.75</v>
+        <v>829.97</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.606</v>
+        <v>1.605</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6055</v>
+        <v>1.6111</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0038</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>-1.38</v>
+        <v>16.84</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>4423.48</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3354.76</v>
+        <v>3351.23</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>154.76</v>
+        <v>150.84</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7584</v>
+        <v>0.7576000000000001</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7575</v>
+        <v>0.7608</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0012</v>
+        <v>0.0042</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-3.98</v>
+        <v>14.16</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>1981.84</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3335.43</v>
+        <v>3337.42</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>144.43</v>
+        <v>146.26</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.683</v>
+        <v>1.684</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.6833</v>
+        <v>1.6894</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>0.59</v>
+        <v>0.0032</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>10.7</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3277.19</v>
+        <v>3273.11</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>565.08</v>
+        <v>560.87</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.601</v>
+        <v>1.599</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.5992</v>
+        <v>1.6075</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0053</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-3.68</v>
+        <v>17.4</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3256.9</v>
+        <v>3264.04</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>56.9</v>
+        <v>63.66</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5474</v>
+        <v>0.5486</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5487</v>
+        <v>0.5535</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0024</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>7.73</v>
+        <v>0.0089</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>29.15</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,17 +7606,17 @@
         <v>1884.74</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2225.87</v>
+        <v>2239.07</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>225.87</v>
+        <v>238.99</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>0</v>
+        <v>1.188</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
@@ -7625,7 +7625,7 @@
       <c r="J104" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K104" s="9" t="n">
+      <c r="K104" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>1213.09</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2104.95</v>
+        <v>2103.26</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>504.95</v>
+        <v>503.19</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7352</v>
+        <v>1.7338</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7336</v>
+        <v>1.762</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.001</v>
+        <v>0.0162</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>-1.94</v>
+        <v>34.21</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1630.08</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1871.65</v>
+        <v>1869.7</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>271.65</v>
+        <v>269.62</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.1482</v>
+        <v>1.147</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1478</v>
+        <v>1.1487</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0004</v>
+        <v>0.0015</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>-0.65</v>
+        <v>2.77</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>1407.29</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1833.69</v>
+        <v>1821.03</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>233.69</v>
+        <v>220.94</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.303</v>
+        <v>1.294</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-02</t>
+          <t>2019-12-03</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3092</v>
+        <v>1.2989</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>8.73</v>
+        <v>0.0038</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>6.9</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 22:51</t>
+          <t>2019-12-05 05:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1338.46</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1334.44</v>
+        <v>1330.43</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>134.44</v>
+        <v>130.37</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>0.997</v>
+        <v>0.994</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>0.9943</v>
+        <v>0.9974</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0028</v>
+        <v>0.0034</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>-3.61</v>
+        <v>4.55</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,13 +7951,13 @@
         <v>3350.7</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1223</v>
+        <v>1206.25</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-377</v>
+        <v>-394.04</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.374</v>
+        <v>0.36</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.372</v>
+        <v>0.377</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0053</v>
+        <v>0.0134</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-6.7</v>
+        <v>56.96</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:04</t>
+          <t>2019-12-05 13:12</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1495.03</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1188.99</v>
+        <v>1191.09</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>-11.01</v>
+        <v>-8.970000000000001</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.7953</v>
+        <v>0.7967</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.7965</v>
+        <v>0.8022</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K110" s="9" t="n">
-        <v>1.79</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>8.220000000000001</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:09</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>900.35</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>976.6</v>
+        <v>972.38</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>176.6</v>
+        <v>172.33</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.0847</v>
+        <v>1.08</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0798</v>
+        <v>1.0835</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0046</v>
+        <v>0.0032</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>-4.41</v>
+        <v>3.15</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,10 +8158,10 @@
         <v>733.79</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>893.6799999999999</v>
+        <v>909.97</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>93.68000000000001</v>
+        <v>109.92</v>
       </c>
       <c r="G112" s="30" t="n">
         <v>1.2401</v>
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2266</v>
+        <v>1.2287</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0109</v>
-      </c>
-      <c r="K112" s="8" t="n">
-        <v>-9.91</v>
+        <v>-0.0092</v>
+      </c>
+      <c r="K112" s="21" t="n">
+        <v>-8.369999999999999</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 22:48</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>496.13</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>484.91</v>
+        <v>483.58</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>84.91</v>
+        <v>83.55</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9774</v>
+        <v>0.9747</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9746</v>
+        <v>0.9828</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0029</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>-1.39</v>
+        <v>4.02</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>333.04</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>452.3</v>
+        <v>452.27</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>52.3</v>
+        <v>52.25</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.3581</v>
+        <v>1.358</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3572</v>
+        <v>1.3625</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>-0.0007</v>
+        <v>0.0033</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>-0.3</v>
+        <v>1.5</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>325.61</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>420.03</v>
+        <v>419.71</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>20.03</v>
+        <v>19.7</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.29</v>
+        <v>1.289</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2896</v>
+        <v>1.2941</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.004</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>-0.13</v>
+        <v>1.66</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:10</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>275.49</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>407</v>
+        <v>403.04</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>7</v>
+        <v>3.03</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.4774</v>
+        <v>1.463</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4599</v>
+        <v>1.4692</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>-0.0118</v>
+        <v>0.0043</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>-4.82</v>
+        <v>1.71</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 16:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>206.23</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>401.32</v>
+        <v>400.89</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>1.32</v>
+        <v>0.89</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.946</v>
+        <v>1.9439</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9438</v>
+        <v>1.9548</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0056</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>-0.45</v>
+        <v>2.25</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:11</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>275.96</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>238.51</v>
+        <v>238.35</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>9.75</v>
+        <v>9.58</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.8643</v>
+        <v>0.8637</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-04</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8633</v>
+        <v>0.8681</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0011</v>
+        <v>0.0051</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>-0.28</v>
+        <v>1.21</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04 15:00</t>
+          <t>2019-12-05 13:06</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16.8"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16.8" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,31 +568,31 @@
         <v>2352.23</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3784.74</v>
+        <v>3805.91</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-99.97</v>
+        <v>-78.8</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.609</v>
+        <v>1.618</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6185</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0015</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>4.94</v>
+        <v>1.18</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2620.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3731.63</v>
+        <v>3752.6</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-6.81</v>
+        <v>14.15</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.424</v>
+        <v>1.432</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.4323</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>6.29</v>
+        <v>0.79</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3244.66</v>
+        <v>3315.63</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>197.76</v>
+        <v>268.73</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.467</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4818</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0101</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>14.01</v>
+        <v>33.45</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3509.02</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3212.16</v>
+        <v>3254.97</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-61.76</v>
+        <v>-18.95</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9276</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9277</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.0057</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>13.33</v>
+        <v>0.35</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2531.51</v>
+        <v>2557.55</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79.20999999999999</v>
+        <v>105.25</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.8759</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8758</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>7.23</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>-0.14</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1017.99</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2197.74</v>
+        <v>2215.55</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36.24</v>
+        <v>54.06</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1764</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1766</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0041</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>2.54</v>
+        <v>0.2</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>980.46</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>922.91</v>
+        <v>940.0700000000001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-17.06</v>
+        <v>0.1</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>5.78</v>
+        <v>0.29</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>513.63</v>
+        <v>519.14</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-27.24</v>
+        <v>-21.74</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9432</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9434</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0041</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.93</v>
+        <v>0.11</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402.04</v>
+        <v>409.06</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45.26</v>
+        <v>52.28</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7691</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7691</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0086</v>
+        <v>0.0048</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>3.46</v>
+        <v>0</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320.3</v>
+        <v>325.26</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.04</v>
+        <v>12</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.292</v>
+        <v>1.312</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3144</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0095</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>1.31</v>
+        <v>0.59</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86.91</v>
+        <v>82.12</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.8</v>
+        <v>-10.59</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3549</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3553</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,690 +1312,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="11" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>9179.110000000001</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>-2820.99</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>0.5486</v>
-      </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>0.5535</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>0.0089</v>
+      <c r="E13" s="13" t="n">
+        <v>9338.059999999999</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>-2662.04</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>0.5581</v>
+      </c>
+      <c r="H13" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.5583</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>0.0059</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="L13" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:11</t>
-        </is>
-      </c>
-      <c r="M13" s="13" t="inlineStr">
+        <v>3.35</v>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="13" t="inlineStr">
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="13" t="inlineStr">
+      <c r="O13" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="13" t="inlineStr">
+      <c r="P13" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="13" t="inlineStr">
+      <c r="Q13" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="17" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="18" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="18" t="n">
-        <v>7830</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <v>1520.1</v>
-      </c>
-      <c r="G14" s="17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="J14" s="20" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="L14" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M14" s="19" t="inlineStr">
+      <c r="E14" s="19" t="n">
+        <v>7935.3</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>1625.4</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>2.939</v>
+      </c>
+      <c r="H14" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>0.0058</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="L14" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="19" t="inlineStr">
+      <c r="N14" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="19" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="19" t="inlineStr">
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="Q14" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="17" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="18" t="n">
-        <v>35599.2</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <v>4231.5</v>
-      </c>
-      <c r="G15" s="17" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="H15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <v>0.0036</v>
+      <c r="E15" s="19" t="n">
+        <v>36045.1</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>4677.4</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>3.961</v>
+      </c>
+      <c r="H15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>3.966</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>0.0061</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="L15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M15" s="19" t="inlineStr">
+        <v>45.5</v>
+      </c>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M15" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="19" t="inlineStr">
+      <c r="N15" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="19" t="inlineStr">
+      <c r="O15" s="20" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="19" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="19" t="inlineStr">
+      <c r="Q15" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <v>5.601</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>38800</v>
       </c>
-      <c r="E16" s="18" t="n">
-        <v>206450.92</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>-10867.88</v>
-      </c>
-      <c r="G16" s="17" t="n">
-        <v>5.3209</v>
-      </c>
-      <c r="H16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>5.349</v>
-      </c>
-      <c r="J16" s="20" t="n">
-        <v>0.0056</v>
+      <c r="E16" s="19" t="n">
+        <v>210233.92</v>
+      </c>
+      <c r="F16" s="19" t="n">
+        <v>-7084.88</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>5.4184</v>
+      </c>
+      <c r="H16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>5.421</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0.0097</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1090.28</v>
-      </c>
-      <c r="L16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M16" s="19" t="inlineStr">
+        <v>100.88</v>
+      </c>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="19" t="inlineStr">
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="19" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="18" t="n">
-        <v>24687.52</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>-4955.08</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>0.7304</v>
-      </c>
-      <c r="H17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>223.08</v>
-      </c>
-      <c r="L17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M17" s="19" t="inlineStr">
+      <c r="E17" s="19" t="n">
+        <v>25137.06</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>-4505.54</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>0.7437</v>
+      </c>
+      <c r="H17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0.742</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.0041</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-57.46</v>
+      </c>
+      <c r="L17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M17" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="19" t="inlineStr">
+      <c r="N17" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="19" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="19" t="inlineStr">
+      <c r="P17" s="20" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="19" t="inlineStr">
+      <c r="Q17" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="18" t="n">
-        <v>29688.33</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>4084.23</v>
-      </c>
-      <c r="G18" s="17" t="n">
-        <v>0.9079</v>
-      </c>
-      <c r="H18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>0.915</v>
-      </c>
-      <c r="J18" s="20" t="n">
-        <v>0.008800000000000001</v>
+      <c r="E18" s="19" t="n">
+        <v>30280.2</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>4676.1</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="H18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0.926</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>0.0054</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>232.17</v>
-      </c>
-      <c r="L18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M18" s="19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="19" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="19" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="19" t="inlineStr">
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="19" t="inlineStr">
+      <c r="Q18" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="18" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="18" t="n">
-        <v>25707.99</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>-3924.91</v>
-      </c>
-      <c r="G19" s="17" t="n">
-        <v>0.7539</v>
-      </c>
-      <c r="H19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>139.81</v>
-      </c>
-      <c r="L19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M19" s="19" t="inlineStr">
+      <c r="E19" s="19" t="n">
+        <v>26379.76</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>-3253.14</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>0.7736</v>
+      </c>
+      <c r="H19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0.773</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>0.0078</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-20.46</v>
+      </c>
+      <c r="L19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M19" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="19" t="inlineStr">
+      <c r="N19" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="19" t="inlineStr">
+      <c r="O19" s="20" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="19" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="19" t="inlineStr">
+      <c r="Q19" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="18" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="19" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="18" t="n">
-        <v>15075.9</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <v>2223.9</v>
-      </c>
-      <c r="G20" s="17" t="n">
-        <v>3.3502</v>
-      </c>
-      <c r="H20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="J20" s="20" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K20" s="21" t="n">
-        <v>-144.9</v>
-      </c>
-      <c r="L20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M20" s="19" t="inlineStr">
+      <c r="E20" s="19" t="n">
+        <v>14872.5</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>2020.5</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>3.305</v>
+      </c>
+      <c r="H20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>3.297</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>-0.0072</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-36</v>
+      </c>
+      <c r="L20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:00</t>
+        </is>
+      </c>
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="19" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="19" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="19" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="19" t="inlineStr">
+      <c r="Q20" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="18" t="n">
-        <v>14825.8</v>
-      </c>
-      <c r="F21" s="18" t="n">
-        <v>1955</v>
-      </c>
-      <c r="G21" s="17" t="n">
-        <v>1.6115</v>
-      </c>
-      <c r="H21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>1.637</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <v>0.0155</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="L21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M21" s="19" t="inlineStr">
+      <c r="E21" s="19" t="n">
+        <v>15294.08</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>2423.28</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>1.6624</v>
+      </c>
+      <c r="H21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>1.662</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-3.68</v>
+      </c>
+      <c r="L21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:04</t>
+        </is>
+      </c>
+      <c r="M21" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="19" t="inlineStr">
+      <c r="N21" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="19" t="inlineStr">
+      <c r="O21" s="20" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="19" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="19" t="inlineStr">
+      <c r="Q21" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="18" t="n">
-        <v>19078.56</v>
-      </c>
-      <c r="F22" s="18" t="n">
-        <v>776.16</v>
-      </c>
-      <c r="G22" s="17" t="n">
-        <v>1.3249</v>
-      </c>
-      <c r="H22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>145.44</v>
-      </c>
-      <c r="L22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M22" s="19" t="inlineStr">
+      <c r="E22" s="19" t="n">
+        <v>19396.8</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>1094.4</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>1.347</v>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.344</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>0.0022</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-06 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="19" t="inlineStr">
+      <c r="N22" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="19" t="inlineStr">
+      <c r="O22" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="19" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="19" t="inlineStr">
+      <c r="Q22" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2017,31 +2017,31 @@
         <v>4157.52</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>8081.8</v>
+        <v>8205.700000000001</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>77.75</v>
+        <v>201.64</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9439</v>
+        <v>1.9737</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9548</v>
+        <v>1.9761</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>45.32</v>
+        <v>9.98</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5333.49</v>
+        <v>5425.85</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-2.92</v>
+        <v>89.44</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5486</v>
+        <v>0.5581</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5535</v>
+        <v>0.5583</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0089</v>
+        <v>0.0059</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>47.64</v>
+        <v>1.94</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4653.75</v>
+        <v>4740.27</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-15.33</v>
+        <v>71.19</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>29.17</v>
+        <v>1.48</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4036.61</v>
+        <v>4103.02</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>34.68</v>
+        <v>101.1</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5501</v>
+        <v>0.5565</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>22.88</v>
+        <v>3.69</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4002.19</v>
+        <v>4027.85</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>0.37</v>
+        <v>26.02</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.092</v>
+        <v>1.099</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0935</v>
+        <v>1.0987</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>5.5</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-1.1</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3447.5</v>
+        <v>3532.59</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>112.4</v>
+        <v>197.49</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7763</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7608</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0042</v>
+        <v>0.0136</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>14.56</v>
+        <v>1.82</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>694.61</v>
+        <v>715.3200000000001</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>27.6</v>
+        <v>48.32</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7338</v>
+        <v>1.7855</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.762</v>
+        <v>1.7855</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0162</v>
+        <v>0.0094</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>11.3</v>
+        <v>0</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>693.59</v>
+        <v>713.4</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>26.58</v>
+        <v>46.39</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9689</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9573</v>
+        <v>0.9693000000000001</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0162</v>
+        <v>0.0094</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>11.27</v>
+        <v>0.29</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>461.86</v>
+        <v>470.63</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-5.02</v>
+        <v>3.74</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9747</v>
+        <v>0.9932</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9828</v>
+        <v>0.9933</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0041</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>3.84</v>
+        <v>0.05</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1907.99</v>
+        <v>1950.39</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-92.75</v>
+        <v>-50.35</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.36</v>
+        <v>0.368</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0134</v>
+        <v>-0.0053</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>90.09999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 15:04</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>746.38</v>
+        <v>753.3</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>79.37</v>
+        <v>86.29000000000001</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.294</v>
+        <v>1.306</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2989</v>
+        <v>1.3173</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0038</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>2.83</v>
+        <v>6.52</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-07 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>672.5</v>
+        <v>682.89</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>5.52</v>
+        <v>15.9</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.463</v>
+        <v>1.4856</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4692</v>
+        <v>1.5007</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.0102</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>2.85</v>
+        <v>6.94</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,17 +2845,17 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>726.76</v>
+        <v>732.88</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>59.77</v>
+        <v>65.89</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2034.74</v>
+        <v>2065.93</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>34.75</v>
+        <v>65.94</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9439</v>
+        <v>1.9737</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9548</v>
+        <v>1.9761</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>11.41</v>
+        <v>2.51</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1993.88</v>
+        <v>2006.66</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-6.21</v>
+        <v>6.57</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.092</v>
+        <v>1.099</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0935</v>
+        <v>1.0987</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>2.74</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-0.55</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1052.81</v>
+        <v>1065.53</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>52.85</v>
+        <v>65.56</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>0.994</v>
+        <v>1.006</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.9974</v>
+        <v>1.0068</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0034</v>
+        <v>0.0058</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>3.6</v>
+        <v>0.85</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>991.55</v>
+        <v>1007.86</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-8.52</v>
+        <v>7.79</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.547</v>
+        <v>0.556</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5501</v>
+        <v>0.5565</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>5.62</v>
+        <v>0.91</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>929.6</v>
+        <v>952.54</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-70.43000000000001</v>
+        <v>-47.49</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7763</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7608</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0042</v>
+        <v>0.0136</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>3.93</v>
+        <v>0.49</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2274.93</v>
+        <v>2245.21</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>274.99</v>
+        <v>245.27</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2401</v>
+        <v>1.2239</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2287</v>
+        <v>1.2238</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0092</v>
-      </c>
-      <c r="K41" s="21" t="n">
-        <v>-20.91</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1164.37</v>
+        <v>1175.16</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>164.4</v>
+        <v>175.19</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.294</v>
+        <v>1.306</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2989</v>
+        <v>1.3173</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0038</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>4.41</v>
+        <v>10.17</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-07 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1008.04</v>
+        <v>1023.61</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>8.06</v>
+        <v>23.63</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.463</v>
+        <v>1.4856</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4692</v>
+        <v>1.5007</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.0102</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>4.27</v>
+        <v>10.4</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1712.84</v>
+        <v>1750.91</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-287.38</v>
+        <v>-249.31</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.36</v>
+        <v>0.368</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0134</v>
+        <v>-0.0053</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>80.88</v>
+        <v>33.31</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 15:04</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,17 +3535,17 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1133.3</v>
+        <v>1142.84</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>133.27</v>
+        <v>142.81</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
@@ -3604,31 +3604,31 @@
         <v>595.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1002.77</v>
+        <v>1009.32</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>2.8</v>
+        <v>9.35</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.684</v>
+        <v>1.695</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6894</v>
+        <v>1.6947</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>3.22</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>65064.33</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>71050.25</v>
+        <v>71505.7</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>4730.18</v>
+        <v>5185.63</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.092</v>
+        <v>1.099</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.0935</v>
+        <v>1.0987</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>97.59999999999999</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-19.52</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>63490</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>59763.14</v>
+        <v>60874.21</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>1561.85</v>
+        <v>2672.93</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>374.59</v>
+        <v>19.05</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>32370.29</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37128.72</v>
+        <v>37436.24</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5127.45</v>
+        <v>5434.97</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.147</v>
+        <v>1.1565</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1487</v>
+        <v>1.1538</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>55.03</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-87.40000000000001</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33825.88</v>
+        <v>34046.84</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1825.87</v>
+        <v>2046.83</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.684</v>
+        <v>1.695</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6894</v>
+        <v>1.6947</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>108.47</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-6.03</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>41014.88</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>33907</v>
+        <v>34436.09</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3346.81</v>
+        <v>3875.91</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.8396</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.833</v>
+        <v>0.8397</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0053</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>258.39</v>
+        <v>4.1</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,17 +4018,17 @@
         <v>20716.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24611.36</v>
+        <v>24818.52</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2009.51</v>
+        <v>2216.68</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
@@ -4087,31 +4087,31 @@
         <v>14624.61</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23472.5</v>
+        <v>23794.24</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4271.85</v>
+        <v>4593.59</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.605</v>
+        <v>1.627</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6111</v>
+        <v>1.6261</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>89.20999999999999</v>
+        <v>0.0056</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-13.16</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>21163.93</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22857.04</v>
+        <v>23064.45</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3655.01</v>
+        <v>3862.42</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.08</v>
+        <v>1.0898</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0835</v>
+        <v>1.0899</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0032</v>
+        <v>0.0021</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>74.06999999999999</v>
+        <v>2.12</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>16778.47</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21711.34</v>
+        <v>21912.68</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2510.06</v>
+        <v>2711.4</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.294</v>
+        <v>1.306</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.2989</v>
+        <v>1.3173</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0038</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>82.20999999999999</v>
+        <v>189.6</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-07 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15238.17</v>
+        <v>15466.88</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2437.73</v>
+        <v>2666.44</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.599</v>
+        <v>1.623</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6075</v>
+        <v>1.6252</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>81</v>
+        <v>20.97</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>37267.45</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>13416.28</v>
+        <v>13714.42</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5783.91</v>
+        <v>-5485.77</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.36</v>
+        <v>0.368</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0134</v>
+        <v>-0.0053</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>633.55</v>
+        <v>260.87</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 15:04</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>6798.52</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>9946.23</v>
+        <v>10099.88</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>46.23</v>
+        <v>199.88</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.463</v>
+        <v>1.4856</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4692</v>
+        <v>1.5007</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.0102</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>42.15</v>
+        <v>102.66</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,17 +4501,17 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7545.17</v>
+        <v>7567.61</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2399.87</v>
+        <v>2422.31</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.345</v>
+        <v>1.349</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7353.39</v>
+        <v>7480.73</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>953.02</v>
+        <v>1080.36</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5486</v>
+        <v>0.5581</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5535</v>
+        <v>0.5583</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0089</v>
+        <v>0.0059</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>65.68000000000001</v>
+        <v>2.68</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7236.27</v>
+        <v>7272.5</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>836.0599999999999</v>
+        <v>872.3</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.358</v>
+        <v>1.3648</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3625</v>
+        <v>1.3652</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0033</v>
+        <v>0.0021</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>23.98</v>
+        <v>2.13</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6718.41</v>
+        <v>6830.42</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-282.36</v>
+        <v>-170.35</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8637</v>
+        <v>0.8781</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8681</v>
+        <v>0.8784</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0051</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>34.23</v>
+        <v>2.33</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:06</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>3299.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6414.17</v>
+        <v>6512.5</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>13.86</v>
+        <v>112.19</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9439</v>
+        <v>1.9737</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9548</v>
+        <v>1.9761</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>35.97</v>
+        <v>7.92</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>7852.99</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>5949.43</v>
+        <v>6096.28</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-450.76</v>
+        <v>-303.91</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7763</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7608</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0042</v>
+        <v>0.0136</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>25.13</v>
+        <v>3.14</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>3580.2</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>3337.82</v>
+        <v>3392.96</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-162.18</v>
+        <v>-107.05</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.9323</v>
+        <v>0.9477</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9389</v>
+        <v>0.9493</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0067</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>23.63</v>
+        <v>5.73</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>171152.16</v>
       </c>
       <c r="E66" s="25" t="n">
-        <v>176098.46</v>
+        <v>176132.69</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>51.35</v>
+        <v>85.58</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>1.0289</v>
+        <v>1.0291</v>
       </c>
       <c r="H66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I66" s="24" t="n">
-        <v>1.029</v>
+        <v>1.0291</v>
       </c>
       <c r="J66" s="27" t="n">
         <v>0.0001</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>17.12</v>
+        <v>0</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>11598.58</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>16991.92</v>
+        <v>17189.1</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>-8.119999999999999</v>
+        <v>189.06</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.465</v>
+        <v>1.482</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4806</v>
+        <v>1.4925</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0106</v>
+        <v>0.0098</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>180.94</v>
+        <v>121.79</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5260,31 +5260,31 @@
         <v>59685.02</v>
       </c>
       <c r="E70" s="25" t="n">
-        <v>74009.42</v>
+        <v>74188.48</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>-232.77</v>
+        <v>-53.72</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>1.24</v>
+        <v>1.243</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2404</v>
+        <v>1.2424</v>
       </c>
       <c r="J70" s="27" t="n">
         <v>0.0003</v>
       </c>
-      <c r="K70" s="8" t="n">
-        <v>23.87</v>
+      <c r="K70" s="9" t="n">
+        <v>-35.81</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>76964.17</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99052.89</v>
+        <v>99360.74000000001</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>-184.71</v>
+        <v>123.14</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.287</v>
+        <v>1.291</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2878</v>
+        <v>1.2907</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>61.57</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>-23.09</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5398,17 +5398,17 @@
         <v>140577.44</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>151683.06</v>
+        <v>151697.12</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>-42.17</v>
+        <v>-28.12</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.079</v>
+        <v>1.0791</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
@@ -5418,11 +5418,11 @@
         <v>0.0001</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>14.06</v>
+        <v>0</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>1029.32</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1465.75</v>
+        <v>1473.99</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>-2.37</v>
+        <v>5.87</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.424</v>
+        <v>1.432</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.4323</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>2.47</v>
+        <v>0.31</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>874.15</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1406.51</v>
+        <v>1414.37</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-37.76</v>
+        <v>-29.9</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.609</v>
+        <v>1.618</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6185</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0015</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>1.84</v>
+        <v>0.44</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1289.23</v>
+        <v>1317.42</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>78.22</v>
+        <v>106.42</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.467</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4818</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0101</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>5.57</v>
+        <v>13.29</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>1336.21</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1223.17</v>
+        <v>1239.47</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-23.25</v>
+        <v>-6.95</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9276</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9277</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.0057</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>5.08</v>
+        <v>0.13</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>914.62</v>
+        <v>924.03</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>29.65</v>
+        <v>39.06</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.8759</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8758</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>2.61</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>398.66</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>860.67</v>
+        <v>867.64</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>15.23</v>
+        <v>22.21</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1764</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1766</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0041</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>1</v>
+        <v>0.08</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>373.42</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>351.5</v>
+        <v>358.04</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-6.95</v>
+        <v>-0.41</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>2.2</v>
+        <v>0.11</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>200.54</v>
+        <v>202.68</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-10.68</v>
+        <v>-8.529999999999999</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9432</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9434</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0041</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.75</v>
+        <v>0.04</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>160.81</v>
+        <v>163.62</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>18.1</v>
+        <v>20.91</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7691</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7691</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0086</v>
+        <v>0.0048</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>80.22</v>
+        <v>81.45999999999999</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>0.18</v>
+        <v>1.42</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.292</v>
+        <v>1.312</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3144</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0095</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.33</v>
+        <v>0.15</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>24.24</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>34.76</v>
+        <v>32.84</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-2.32</v>
+        <v>-4.24</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3549</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3553</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1522.81</v>
+        <v>1531.32</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-45.33</v>
+        <v>-36.82</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.609</v>
+        <v>1.618</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6185</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0015</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>1.99</v>
+        <v>0.47</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>1025.65</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1460.53</v>
+        <v>1468.73</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>-0.82</v>
+        <v>7.38</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.424</v>
+        <v>1.432</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.4323</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>2.46</v>
+        <v>0.31</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1314.97</v>
+        <v>1343.73</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>77.12</v>
+        <v>105.89</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.467</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4818</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.0101</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>5.68</v>
+        <v>13.56</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>1367.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1251.98</v>
+        <v>1268.67</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-24.62</v>
+        <v>-7.93</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9276</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9277</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0042</v>
+        <v>0.0057</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>5.2</v>
+        <v>0.14</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>528.99</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>982.23</v>
+        <v>992.33</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>30.47</v>
+        <v>40.57</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.8759</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8758</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K88" s="8" t="n">
-        <v>2.8</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>390.29</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>842.6</v>
+        <v>849.4299999999999</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>14.25</v>
+        <v>21.08</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1764</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1766</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0041</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>0.98</v>
+        <v>0.08</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>392.19</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>369.17</v>
+        <v>376.03</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-6.78</v>
+        <v>0.08</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>2.31</v>
+        <v>0.12</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>212.32</v>
+        <v>214.6</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-11.19</v>
+        <v>-8.92</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9432</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9434</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0041</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.8</v>
+        <v>0.05</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>183.59</v>
+        <v>186.44</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>1.14</v>
+        <v>3.98</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.292</v>
+        <v>1.312</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3144</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0095</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.75</v>
+        <v>0.34</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>160.81</v>
+        <v>163.62</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>18.1</v>
+        <v>20.91</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7691</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7691</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0086</v>
+        <v>0.0048</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>1.38</v>
+        <v>0</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>34.76</v>
+        <v>32.84</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-2.32</v>
+        <v>-4.24</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3549</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3553</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0017</v>
+        <v>0.0016</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>9697.57</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>10483.07</v>
+        <v>10658.6</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>282.2</v>
+        <v>457.73</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.081</v>
+        <v>1.0991</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.0868</v>
+        <v>1.0995</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>56.25</v>
+        <v>3.88</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>8677.6</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>9475.940000000001</v>
+        <v>9536.68</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>675.12</v>
+        <v>735.86</v>
       </c>
       <c r="G96" s="30" t="n">
-        <v>1.092</v>
+        <v>1.099</v>
       </c>
       <c r="H96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.0935</v>
+        <v>1.0987</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>13.02</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>-2.6</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>6096.21</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>5738.36</v>
+        <v>5845.05</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>538.3</v>
+        <v>644.98</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>0.9413</v>
+        <v>0.9588</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9472</v>
+        <v>0.9591</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.0089</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>35.97</v>
+        <v>1.83</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5580.46</v>
+        <v>5667.54</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>780.33</v>
+        <v>867.41</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.8396</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.833</v>
+        <v>0.8397</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0053</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>42.53</v>
+        <v>0.68</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>2760.12</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4429.99</v>
+        <v>4490.72</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>829.97</v>
+        <v>890.6900000000001</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.605</v>
+        <v>1.627</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6111</v>
+        <v>1.6261</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0038</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>16.84</v>
+        <v>0.0056</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>-2.48</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>4423.48</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3351.23</v>
+        <v>3433.95</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>150.84</v>
+        <v>233.56</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7763</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7608</v>
+        <v>0.7766999999999999</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0042</v>
+        <v>0.0136</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>14.16</v>
+        <v>1.77</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>1981.84</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3337.42</v>
+        <v>3359.22</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>146.26</v>
+        <v>168.06</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.684</v>
+        <v>1.695</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.6894</v>
+        <v>1.6947</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>10.7</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>-0.59</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3273.11</v>
+        <v>3322.23</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>560.87</v>
+        <v>610</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.599</v>
+        <v>1.623</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6075</v>
+        <v>1.6252</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>17.4</v>
+        <v>4.5</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3264.04</v>
+        <v>3320.57</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>63.66</v>
+        <v>120.19</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5486</v>
+        <v>0.5581</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5535</v>
+        <v>0.5583</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0089</v>
+        <v>0.0059</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>29.15</v>
+        <v>1.19</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,17 +7606,17 @@
         <v>1884.74</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2239.07</v>
+        <v>2257.92</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>238.99</v>
+        <v>257.83</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
@@ -7675,31 +7675,31 @@
         <v>1213.09</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2103.26</v>
+        <v>2165.97</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>503.19</v>
+        <v>565.91</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7338</v>
+        <v>1.7855</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.762</v>
+        <v>1.7855</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0162</v>
+        <v>0.0094</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>34.21</v>
+        <v>0</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1630.08</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1869.7</v>
+        <v>1885.19</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>269.62</v>
+        <v>285.1</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.147</v>
+        <v>1.1565</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1487</v>
+        <v>1.1538</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>2.77</v>
+        <v>0.0022</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-4.4</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>1407.29</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1821.03</v>
+        <v>1837.92</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>220.94</v>
+        <v>237.83</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.294</v>
+        <v>1.306</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.2989</v>
+        <v>1.3173</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0038</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>6.9</v>
+        <v>15.9</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-07 05:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1338.46</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1330.43</v>
+        <v>1346.49</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>130.37</v>
+        <v>146.43</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>0.994</v>
+        <v>1.006</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>0.9974</v>
+        <v>1.0068</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0034</v>
+        <v>0.0058</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>4.55</v>
+        <v>1.07</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>3350.7</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1206.25</v>
+        <v>1233.06</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-394.04</v>
+        <v>-367.24</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.36</v>
+        <v>0.368</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-05</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.377</v>
+        <v>0.375</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0134</v>
+        <v>-0.0053</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>56.96</v>
+        <v>23.45</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-06 15:04</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1495.03</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1191.09</v>
+        <v>1212.17</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>-8.970000000000001</v>
+        <v>12.11</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.7967</v>
+        <v>0.8108</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8022</v>
+        <v>0.8107</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>8.220000000000001</v>
+        <v>0.0067</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>-0.15</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>900.35</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>972.38</v>
+        <v>981.2</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>172.33</v>
+        <v>181.15</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.08</v>
+        <v>1.0898</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0835</v>
+        <v>1.0899</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0032</v>
+        <v>0.0021</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>3.15</v>
+        <v>0.09</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>733.79</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>909.97</v>
+        <v>898.09</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>109.92</v>
+        <v>98.03</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2401</v>
+        <v>1.2239</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2287</v>
+        <v>1.2238</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0092</v>
-      </c>
-      <c r="K112" s="21" t="n">
-        <v>-8.369999999999999</v>
+        <v>-0.0056</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:30</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>496.13</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>483.58</v>
+        <v>492.76</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>83.55</v>
+        <v>92.73</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9747</v>
+        <v>0.9932</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9828</v>
+        <v>0.9933</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0041</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>4.02</v>
+        <v>0.05</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>333.04</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>452.27</v>
+        <v>454.53</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>52.25</v>
+        <v>54.52</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.358</v>
+        <v>1.3648</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3625</v>
+        <v>1.3652</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0033</v>
+        <v>0.0021</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>1.5</v>
+        <v>0.13</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>325.61</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>419.71</v>
+        <v>425.25</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>19.7</v>
+        <v>25.23</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.289</v>
+        <v>1.306</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2941</v>
+        <v>1.3063</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.004</v>
+        <v>0.0056</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>1.66</v>
+        <v>0.1</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>275.49</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>403.04</v>
+        <v>409.27</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>3.03</v>
+        <v>9.26</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.463</v>
+        <v>1.4856</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4692</v>
+        <v>1.5007</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.0102</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>1.71</v>
+        <v>4.16</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 16:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>206.23</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>400.89</v>
+        <v>407.04</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>0.89</v>
+        <v>7.03</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9439</v>
+        <v>1.9737</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9548</v>
+        <v>1.9761</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>2.25</v>
+        <v>0.49</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>275.96</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>238.35</v>
+        <v>242.32</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>9.58</v>
+        <v>13.55</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.8637</v>
+        <v>0.8781</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8681</v>
+        <v>0.8784</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0051</v>
+        <v>0.008200000000000001</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>1.21</v>
+        <v>0.08</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:06</t>
+          <t>2019-12-06 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8626,6 +8626,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -568,31 +568,31 @@
         <v>2352.23</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3805.91</v>
+        <v>3822.37</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-78.8</v>
+        <v>-62.33</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.618</v>
+        <v>1.625</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6185</v>
+        <v>1.6225</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0015</v>
+        <v>-0.0015</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>1.18</v>
+        <v>-5.88</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2620.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3752.6</v>
+        <v>3763.08</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>14.15</v>
+        <v>24.63</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.432</v>
+        <v>1.436</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4329</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>0.79</v>
+        <v>-8.119999999999999</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3315.63</v>
+        <v>3311.56</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>268.73</v>
+        <v>264.66</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.467</v>
+        <v>1.4652</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4818</v>
+        <v>1.465</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0101</v>
+        <v>-0.0001</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>33.45</v>
+        <v>-0.45</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3509.02</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3254.97</v>
+        <v>3267.25</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-18.95</v>
+        <v>-6.67</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9276</v>
+        <v>0.9311</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9277</v>
+        <v>0.9349</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>0.35</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>13.33</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2557.55</v>
+        <v>2566</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>105.25</v>
+        <v>113.71</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8759</v>
+        <v>1.8821</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8758</v>
+        <v>1.8798</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>-0.14</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>-3.14</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1017.99</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2215.55</v>
+        <v>2222.88</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54.06</v>
+        <v>61.38</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1764</v>
+        <v>2.1836</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1766</v>
+        <v>2.1792</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0041</v>
+        <v>-0.002</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0.2</v>
+        <v>-4.48</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>980.46</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>940.0700000000001</v>
+        <v>936.54</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1</v>
+        <v>-3.43</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>0.29</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>4.22</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>519.14</v>
+        <v>524.2</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-21.74</v>
+        <v>-16.68</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9432</v>
+        <v>0.9524</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9434</v>
+        <v>0.9534</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0.11</v>
+        <v>0.001</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>0.55</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>409.06</v>
+        <v>404.7</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>52.28</v>
+        <v>47.92</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7609</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7657</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>2.55</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1199,21 +1199,21 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3144</v>
+        <v>1.3146</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0.59</v>
+        <v>0.002</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.64</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82.12</v>
+        <v>82.27</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-10.59</v>
+        <v>-10.44</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.3549</v>
+        <v>1.3574</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3553</v>
+        <v>1.3544</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.18</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9338.059999999999</v>
+        <v>9343.08</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2662.04</v>
+        <v>-2657.02</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5581</v>
+        <v>0.5584</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5583</v>
+        <v>0.5595</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>3.35</v>
+        <v>0.002</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>18.41</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>7935.3</v>
+        <v>7916.4</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1625.4</v>
+        <v>1606.5</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>2.939</v>
+        <v>2.932</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.936</v>
+        <v>2.933</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0058</v>
+        <v>0.0007</v>
       </c>
       <c r="K14" s="9" t="n">
-        <v>-8.1</v>
+        <v>2.7</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36045.1</v>
+        <v>35978.67</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4677.4</v>
+        <v>4610.97</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.961</v>
+        <v>3.9537</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.966</v>
+        <v>3.957</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0061</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>45.5</v>
+        <v>0.001</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>30.03</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>210233.92</v>
+        <v>210885.76</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-7084.88</v>
+        <v>-6433.04</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.4184</v>
+        <v>5.4352</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.421</v>
+        <v>5.466</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0097</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>100.88</v>
+        <v>0.0061</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>1195.04</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>25137.06</v>
+        <v>25150.58</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4505.54</v>
+        <v>-4492.02</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.7437</v>
+        <v>0.7441</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.742</v>
+        <v>0.744</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>-57.46</v>
+        <v>0.0013</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-3.38</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30280.2</v>
+        <v>30231.15</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4676.1</v>
+        <v>4627.05</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.926</v>
+        <v>0.9245</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.926</v>
+        <v>0.923</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0054</v>
+        <v>-0.0011</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>0</v>
+        <v>-49.05</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26379.76</v>
+        <v>26482.06</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3253.14</v>
+        <v>-3150.84</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.7736</v>
+        <v>0.7766</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.773</v>
+        <v>0.783</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0078</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-20.46</v>
+        <v>218.24</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14872.5</v>
+        <v>14770.35</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>2020.5</v>
+        <v>1918.35</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.305</v>
+        <v>3.2823</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.297</v>
+        <v>3.278</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0072</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>-36</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-19.35</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15294.08</v>
+        <v>15243.48</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2423.28</v>
+        <v>2372.68</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.6624</v>
+        <v>1.6569</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.662</v>
+        <v>1.666</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.008500000000000001</v>
+        <v>0.006</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-3.68</v>
+        <v>83.72</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>19396.8</v>
+        <v>19105.92</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>1094.4</v>
+        <v>803.52</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.347</v>
+        <v>1.3268</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.344</v>
+        <v>1.336</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0022</v>
+        <v>0.0083</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-43.2</v>
+        <v>132.48</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>4157.52</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>8205.700000000001</v>
+        <v>8228.98</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>201.64</v>
+        <v>224.92</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9737</v>
+        <v>1.9793</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9761</v>
+        <v>1.9883</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>9.98</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>37.42</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5425.85</v>
+        <v>5428.76</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>89.44</v>
+        <v>92.36</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5581</v>
+        <v>0.5584</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5583</v>
+        <v>0.5595</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>1.94</v>
+        <v>0.002</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>10.69</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4740.27</v>
+        <v>4722.47</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>71.19</v>
+        <v>53.39</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>1.48</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>21.26</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4103.02</v>
+        <v>4117.78</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>101.1</v>
+        <v>115.86</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.556</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5565</v>
+        <v>0.5605</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>3.69</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>18.45</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4027.85</v>
+        <v>4049.84</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>26.02</v>
+        <v>48.01</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.099</v>
+        <v>1.105</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0987</v>
+        <v>1.1033</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>-1.1</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-6.23</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3532.59</v>
+        <v>3545.79</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>197.49</v>
+        <v>210.69</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7763</v>
+        <v>0.7792</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.7858000000000001</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>1.82</v>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>30.03</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>715.3200000000001</v>
+        <v>713.04</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>48.32</v>
+        <v>46.03</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7855</v>
+        <v>1.7798</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7855</v>
+        <v>1.7903</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>0</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>4.21</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>713.4</v>
+        <v>711.12</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>46.39</v>
+        <v>44.1</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9689</v>
+        <v>0.9658</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9693000000000001</v>
+        <v>0.9716</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>0.29</v>
+        <v>0.006</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>4.27</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>470.63</v>
+        <v>469.87</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>3.74</v>
+        <v>2.99</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9932</v>
+        <v>0.9916</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9933</v>
+        <v>0.9901</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0041</v>
+        <v>-0.0015</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.71</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1950.39</v>
+        <v>2008.68</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-50.35</v>
+        <v>7.95</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.368</v>
+        <v>0.379</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>37.1</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>5.3</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>753.3</v>
+        <v>759.65</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>86.29000000000001</v>
+        <v>92.63</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.306</v>
+        <v>1.317</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3173</v>
+        <v>1.3135</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.008699999999999999</v>
+        <v>-0.0027</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>6.52</v>
+        <v>-2.02</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-07 05:00</t>
+          <t>2019-12-10 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>682.89</v>
+        <v>682.79</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>15.9</v>
+        <v>15.81</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4856</v>
+        <v>1.4854</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.5007</v>
+        <v>1.485</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0102</v>
+        <v>-0.0002</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>6.94</v>
+        <v>-0.18</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,17 +2845,17 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>732.88</v>
+        <v>738.99</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>65.89</v>
+        <v>72</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.198</v>
+        <v>1.208</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2065.93</v>
+        <v>2071.79</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>65.94</v>
+        <v>71.81</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9737</v>
+        <v>1.9793</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9761</v>
+        <v>1.9883</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>2.51</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>9.42</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2006.66</v>
+        <v>2017.62</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>6.57</v>
+        <v>17.53</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.099</v>
+        <v>1.105</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0987</v>
+        <v>1.1033</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>-0.55</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>-3.1</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1065.53</v>
+        <v>1063.41</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>65.56</v>
+        <v>63.44</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.006</v>
+        <v>1.004</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0068</v>
+        <v>1.0049</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>0.85</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>0.95</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1007.86</v>
+        <v>1011.49</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>7.79</v>
+        <v>11.42</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.556</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5565</v>
+        <v>0.5605</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>0.91</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>4.53</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>952.54</v>
+        <v>956.1</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-47.49</v>
+        <v>-43.93</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7763</v>
+        <v>0.7792</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.7858000000000001</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>0.49</v>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>8.1</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2245.21</v>
+        <v>2229.61</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>245.27</v>
+        <v>229.68</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2239</v>
+        <v>1.2154</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2238</v>
+        <v>1.215</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0056</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>-0.18</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>-0.73</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:30</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1175.16</v>
+        <v>1185.06</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>175.19</v>
+        <v>185.09</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.306</v>
+        <v>1.317</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3173</v>
+        <v>1.3135</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.008699999999999999</v>
+        <v>-0.0027</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>10.17</v>
+        <v>-3.15</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-07 05:00</t>
+          <t>2019-12-10 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1023.61</v>
+        <v>1023.47</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>23.63</v>
+        <v>23.5</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4856</v>
+        <v>1.4854</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.5007</v>
+        <v>1.485</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0102</v>
+        <v>-0.0002</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>10.4</v>
+        <v>-0.28</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1750.91</v>
+        <v>1803.24</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-249.31</v>
+        <v>-196.98</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.368</v>
+        <v>0.379</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>33.31</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>4.76</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,17 +3535,17 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1142.84</v>
+        <v>1152.38</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>142.81</v>
+        <v>152.35</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.198</v>
+        <v>1.208</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>595.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1009.32</v>
+        <v>1008.13</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>9.35</v>
+        <v>8.16</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.695</v>
+        <v>1.693</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6947</v>
+        <v>1.6964</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0022</v>
+        <v>0.002</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-0.18</v>
+        <v>2.02</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>65064.33</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>71505.7</v>
+        <v>71896.08</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>5185.63</v>
+        <v>5576.01</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.099</v>
+        <v>1.105</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.0987</v>
+        <v>1.1033</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>-19.52</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>-110.61</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>63490</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>60874.21</v>
+        <v>60645.65</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>2672.93</v>
+        <v>2444.37</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>19.05</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>273.01</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>32370.29</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37436.24</v>
+        <v>37462.14</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5434.97</v>
+        <v>5460.87</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1565</v>
+        <v>1.1573</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1538</v>
+        <v>1.1573</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="K49" s="9" t="n">
-        <v>-87.40000000000001</v>
+        <v>0</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34046.84</v>
+        <v>34006.66</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2046.83</v>
+        <v>2006.65</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.695</v>
+        <v>1.693</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6947</v>
+        <v>1.6964</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0022</v>
+        <v>0.002</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>-6.03</v>
+        <v>68.29000000000001</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>41014.88</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34436.09</v>
+        <v>33952.12</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3875.91</v>
+        <v>3391.93</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8396</v>
+        <v>0.8278</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8397</v>
+        <v>0.8333</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>4.1</v>
+        <v>0.0067</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>225.58</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,17 +4018,17 @@
         <v>20716.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24818.52</v>
+        <v>25025.69</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2216.68</v>
+        <v>2423.85</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.198</v>
+        <v>1.208</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
@@ -4037,7 +4037,7 @@
       <c r="J52" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>14624.61</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23794.24</v>
+        <v>23750.37</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4593.59</v>
+        <v>4549.72</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.627</v>
+        <v>1.624</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6261</v>
+        <v>1.6254</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.0009</v>
       </c>
       <c r="K53" s="9" t="n">
-        <v>-13.16</v>
+        <v>20.47</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>21163.93</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>23064.45</v>
+        <v>23085.61</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3862.42</v>
+        <v>3883.58</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.0898</v>
+        <v>1.0908</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0899</v>
+        <v>1.0883</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0021</v>
+        <v>-0.0023</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>2.12</v>
+        <v>-52.91</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>16778.47</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21912.68</v>
+        <v>22097.24</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2711.4</v>
+        <v>2895.96</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.306</v>
+        <v>1.317</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3173</v>
+        <v>1.3135</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.008699999999999999</v>
+        <v>-0.0027</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>189.6</v>
+        <v>-58.72</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-07 05:00</t>
+          <t>2019-12-10 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15466.88</v>
+        <v>15533.59</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2666.44</v>
+        <v>2733.15</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.623</v>
+        <v>1.63</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6252</v>
+        <v>1.6376</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>20.97</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>72.43000000000001</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>37267.45</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>13714.42</v>
+        <v>14124.36</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5485.77</v>
+        <v>-5075.83</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.368</v>
+        <v>0.379</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>260.87</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>37.27</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>6798.52</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>10099.88</v>
+        <v>10098.52</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>199.88</v>
+        <v>198.52</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.4856</v>
+        <v>1.4854</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.5007</v>
+        <v>1.485</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0102</v>
+        <v>-0.0002</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>102.66</v>
+        <v>-2.72</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,17 +4501,17 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7567.61</v>
+        <v>7556.39</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2422.31</v>
+        <v>2411.09</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.349</v>
+        <v>1.347</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7480.73</v>
+        <v>7484.75</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>1080.36</v>
+        <v>1084.38</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5581</v>
+        <v>0.5584</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5583</v>
+        <v>0.5595</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>2.68</v>
+        <v>0.002</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>14.74</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7272.5</v>
+        <v>7289.55</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>872.3</v>
+        <v>889.35</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3648</v>
+        <v>1.368</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3652</v>
+        <v>1.3715</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>2.13</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>18.65</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6830.42</v>
+        <v>6848.31</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-170.35</v>
+        <v>-152.46</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8781</v>
+        <v>0.8804</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.8844</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>2.33</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>31.11</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>3299.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6512.5</v>
+        <v>6530.98</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>112.19</v>
+        <v>130.67</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9737</v>
+        <v>1.9793</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9761</v>
+        <v>1.9883</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>7.92</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>29.7</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>7852.99</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6096.28</v>
+        <v>6119.05</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-303.91</v>
+        <v>-281.14</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7763</v>
+        <v>0.7792</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.7858000000000001</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>3.14</v>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>51.83</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>3580.2</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>3392.96</v>
+        <v>3405.84</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-107.05</v>
+        <v>-94.16</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.9477</v>
+        <v>0.9513</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9493</v>
+        <v>0.9559</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0067</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>5.73</v>
+        <v>0.0048</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>16.47</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>171152.16</v>
       </c>
       <c r="E66" s="25" t="n">
-        <v>176132.69</v>
+        <v>176184.03</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>85.58</v>
+        <v>136.92</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>1.0291</v>
+        <v>1.0294</v>
       </c>
       <c r="H66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I66" s="24" t="n">
-        <v>1.0291</v>
+        <v>1.0297</v>
       </c>
       <c r="J66" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>0</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>51.35</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>11598.58</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>17189.1</v>
+        <v>17258.69</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>189.06</v>
+        <v>258.65</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.482</v>
+        <v>1.488</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4925</v>
+        <v>1.4921</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0098</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>121.79</v>
+        <v>0.0028</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>47.55</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5122,31 +5122,31 @@
         <v>128864.36</v>
       </c>
       <c r="E68" s="25" t="n">
-        <v>138658.05</v>
+        <v>138786.92</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>12.89</v>
+        <v>141.75</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>1.076</v>
+        <v>1.077</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.0761</v>
+        <v>1.0773</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K68" s="8" t="n">
-        <v>12.89</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K68" s="9" t="n">
+        <v>38.66</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5191,31 +5191,31 @@
         <v>132719.84</v>
       </c>
       <c r="E69" s="25" t="n">
-        <v>143071.99</v>
+        <v>143204.71</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>-53.09</v>
+        <v>79.63</v>
       </c>
       <c r="G69" s="24" t="n">
-        <v>1.078</v>
+        <v>1.079</v>
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0781</v>
+        <v>1.0792</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K69" s="8" t="n">
-        <v>13.27</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>26.54</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5260,31 +5260,31 @@
         <v>59685.02</v>
       </c>
       <c r="E70" s="25" t="n">
-        <v>74188.48</v>
+        <v>74248.16</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>-53.72</v>
+        <v>5.97</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>1.243</v>
+        <v>1.244</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2424</v>
+        <v>1.2441</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="K70" s="9" t="n">
-        <v>-35.81</v>
+        <v>5.97</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>76964.17</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99360.74000000001</v>
+        <v>99437.71000000001</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>123.14</v>
+        <v>200.11</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.291</v>
+        <v>1.292</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2907</v>
+        <v>1.2915</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>-23.09</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>-38.48</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>140577.44</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>151697.12</v>
+        <v>151739.29</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>-28.12</v>
+        <v>14.06</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0794</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0796</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K72" s="8" t="n">
-        <v>0</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>28.12</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>1029.32</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1473.99</v>
+        <v>1478.1</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>5.87</v>
+        <v>9.98</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.432</v>
+        <v>1.436</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4329</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>0.31</v>
+        <v>-3.19</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>874.15</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1414.37</v>
+        <v>1420.49</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-29.9</v>
+        <v>-23.78</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.618</v>
+        <v>1.625</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6185</v>
+        <v>1.6225</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0015</v>
+        <v>-0.0015</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>0.44</v>
+        <v>-2.19</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1317.42</v>
+        <v>1315.81</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>106.42</v>
+        <v>104.8</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.467</v>
+        <v>1.4652</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4818</v>
+        <v>1.465</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0101</v>
+        <v>-0.0001</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>13.29</v>
+        <v>-0.18</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>1336.21</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1239.47</v>
+        <v>1244.15</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-6.95</v>
+        <v>-2.27</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9276</v>
+        <v>0.9311</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9277</v>
+        <v>0.9349</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>0.13</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>5.08</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>924.03</v>
+        <v>927.08</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>39.06</v>
+        <v>42.12</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.8759</v>
+        <v>1.8821</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8758</v>
+        <v>1.8798</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>-0.05</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>-1.13</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>398.66</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>867.64</v>
+        <v>870.51</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>22.21</v>
+        <v>25.08</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1764</v>
+        <v>2.1836</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1766</v>
+        <v>2.1792</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0041</v>
+        <v>-0.002</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>0.08</v>
+        <v>-1.75</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>373.42</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>358.04</v>
+        <v>356.69</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-0.41</v>
+        <v>-1.76</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>0.11</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>1.61</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>202.68</v>
+        <v>204.66</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-8.529999999999999</v>
+        <v>-6.55</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9432</v>
+        <v>0.9524</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9434</v>
+        <v>0.9534</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K80" s="8" t="n">
-        <v>0.04</v>
+        <v>0.001</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>0.21</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>163.62</v>
+        <v>161.87</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>20.91</v>
+        <v>19.17</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7609</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7657</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>0</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>1.02</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6098,21 +6098,21 @@
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.3144</v>
+        <v>1.3146</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <v>0.15</v>
+        <v>0.002</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0.16</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>24.24</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>32.84</v>
+        <v>32.9</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-4.24</v>
+        <v>-4.18</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.3549</v>
+        <v>1.3574</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3553</v>
+        <v>1.3544</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1531.32</v>
+        <v>1537.95</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-36.82</v>
+        <v>-30.19</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.618</v>
+        <v>1.625</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6185</v>
+        <v>1.6225</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0015</v>
+        <v>-0.0015</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>0.47</v>
+        <v>-2.37</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>1025.65</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1468.73</v>
+        <v>1472.83</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>7.38</v>
+        <v>11.49</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.432</v>
+        <v>1.436</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4323</v>
+        <v>1.4329</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>0.31</v>
+        <v>-3.18</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1343.73</v>
+        <v>1342.08</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>105.89</v>
+        <v>104.24</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.467</v>
+        <v>1.4652</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4818</v>
+        <v>1.465</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0101</v>
+        <v>-0.0001</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>13.56</v>
+        <v>-0.18</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>1367.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1268.67</v>
+        <v>1273.46</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-7.93</v>
+        <v>-3.15</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9276</v>
+        <v>0.9311</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9277</v>
+        <v>0.9349</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>0.14</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>5.2</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>528.99</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>992.33</v>
+        <v>995.61</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>40.57</v>
+        <v>43.85</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.8759</v>
+        <v>1.8821</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8758</v>
+        <v>1.8798</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>-0.05</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>-1.22</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>390.29</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>849.4299999999999</v>
+        <v>852.24</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>21.08</v>
+        <v>23.89</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1764</v>
+        <v>2.1836</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1766</v>
+        <v>2.1792</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0041</v>
+        <v>-0.002</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>0.08</v>
+        <v>-1.72</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>392.19</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>376.03</v>
+        <v>374.62</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>0.08</v>
+        <v>-1.33</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K90" s="8" t="n">
-        <v>0.12</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>1.69</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>214.6</v>
+        <v>216.69</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-8.92</v>
+        <v>-6.83</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9432</v>
+        <v>0.9524</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9434</v>
+        <v>0.9534</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K91" s="8" t="n">
-        <v>0.05</v>
+        <v>0.001</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>0.23</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6788,21 +6788,21 @@
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.3144</v>
+        <v>1.3146</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0095</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>0.34</v>
+        <v>0.002</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>0.37</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>163.62</v>
+        <v>161.87</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>20.91</v>
+        <v>19.17</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7609</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7691</v>
+        <v>0.7657</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>0</v>
+        <v>0.0064</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>1.02</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>32.84</v>
+        <v>32.9</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-4.24</v>
+        <v>-4.18</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.3549</v>
+        <v>1.3574</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3553</v>
+        <v>1.3544</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0016</v>
+        <v>-0.0022</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>9697.57</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>10658.6</v>
+        <v>10686.72</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>457.73</v>
+        <v>485.85</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.0991</v>
+        <v>1.102</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.0995</v>
+        <v>1.1071</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>3.88</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>49.46</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>8677.6</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>9536.68</v>
+        <v>9588.75</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>735.86</v>
+        <v>787.9299999999999</v>
       </c>
       <c r="G96" s="30" t="n">
-        <v>1.099</v>
+        <v>1.105</v>
       </c>
       <c r="H96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.0987</v>
+        <v>1.1033</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>-2.6</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>-14.75</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>6096.21</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>5845.05</v>
+        <v>5823.1</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>644.98</v>
+        <v>623.03</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>0.9588</v>
+        <v>0.9552</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9591</v>
+        <v>0.9595</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K97" s="8" t="n">
-        <v>1.83</v>
+        <v>0.0045</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>26.21</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5667.54</v>
+        <v>5587.88</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>867.41</v>
+        <v>787.76</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8396</v>
+        <v>0.8278</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8397</v>
+        <v>0.8333</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0053</v>
-      </c>
-      <c r="K98" s="8" t="n">
-        <v>0.68</v>
+        <v>0.0067</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>37.13</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>2760.12</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4490.72</v>
+        <v>4482.43</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>890.6900000000001</v>
+        <v>882.41</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.627</v>
+        <v>1.624</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6261</v>
+        <v>1.6254</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.0009</v>
       </c>
       <c r="K99" s="9" t="n">
-        <v>-2.48</v>
+        <v>3.86</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>4423.48</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3433.95</v>
+        <v>3446.78</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>233.56</v>
+        <v>246.39</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7763</v>
+        <v>0.7792</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7766999999999999</v>
+        <v>0.7858000000000001</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="K100" s="8" t="n">
-        <v>1.77</v>
+        <v>0.008500000000000001</v>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>29.19</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>1981.84</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3359.22</v>
+        <v>3355.26</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>168.06</v>
+        <v>164.1</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.695</v>
+        <v>1.693</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.6947</v>
+        <v>1.6964</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0022</v>
+        <v>0.002</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>-0.59</v>
+        <v>6.74</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3322.23</v>
+        <v>3336.56</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>610</v>
+        <v>624.33</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.623</v>
+        <v>1.63</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6252</v>
+        <v>1.6376</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>4.5</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>15.56</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3320.57</v>
+        <v>3322.35</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>120.19</v>
+        <v>121.97</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5581</v>
+        <v>0.5584</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5583</v>
+        <v>0.5595</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K103" s="8" t="n">
-        <v>1.19</v>
+        <v>0.002</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>6.54</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,17 +7606,17 @@
         <v>1884.74</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2257.92</v>
+        <v>2276.77</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>257.83</v>
+        <v>276.68</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.198</v>
+        <v>1.208</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
@@ -7625,7 +7625,7 @@
       <c r="J104" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K104" s="8" t="n">
+      <c r="K104" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>1213.09</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2165.97</v>
+        <v>2159.06</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>565.91</v>
+        <v>558.99</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7855</v>
+        <v>1.7798</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7855</v>
+        <v>1.7903</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0094</v>
-      </c>
-      <c r="K105" s="8" t="n">
-        <v>0</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>12.74</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1630.08</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1885.19</v>
+        <v>1886.49</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>285.1</v>
+        <v>286.41</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.1565</v>
+        <v>1.1573</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1538</v>
+        <v>1.1573</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0022</v>
+        <v>0</v>
       </c>
       <c r="K106" s="9" t="n">
-        <v>-4.4</v>
+        <v>0</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>1407.29</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1837.92</v>
+        <v>1853.4</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>237.83</v>
+        <v>253.31</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.306</v>
+        <v>1.317</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3173</v>
+        <v>1.3135</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.008699999999999999</v>
+        <v>-0.0027</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>15.9</v>
+        <v>-4.93</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-07 05:00</t>
+          <t>2019-12-10 05:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1338.46</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1346.49</v>
+        <v>1343.81</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>146.43</v>
+        <v>143.75</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.006</v>
+        <v>1.004</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.0068</v>
+        <v>1.0049</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>1.07</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>1.2</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>3350.7</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1233.06</v>
+        <v>1269.92</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-367.24</v>
+        <v>-330.38</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.368</v>
+        <v>0.379</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05</t>
+          <t>2019-12-06</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.375</v>
+        <v>0.38</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>23.45</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>3.35</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:04</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1495.03</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1212.17</v>
+        <v>1216.36</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>12.11</v>
+        <v>16.3</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8108</v>
+        <v>0.8136</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8107</v>
+        <v>0.8175</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0067</v>
+        <v>0.0048</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-0.15</v>
+        <v>5.83</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>900.35</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>981.2</v>
+        <v>982.1</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>181.15</v>
+        <v>182.05</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.0898</v>
+        <v>1.0908</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0899</v>
+        <v>1.0883</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0021</v>
+        <v>-0.0023</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>0.09</v>
+        <v>-2.25</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>733.79</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>898.09</v>
+        <v>891.85</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>98.03</v>
+        <v>91.8</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2239</v>
+        <v>1.2154</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2238</v>
+        <v>1.215</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0056</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>-0.29</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:30</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>496.13</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>492.76</v>
+        <v>491.96</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>92.73</v>
+        <v>91.93000000000001</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9932</v>
+        <v>0.9916</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9933</v>
+        <v>0.9901</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0041</v>
+        <v>-0.0015</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.74</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>333.04</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>454.53</v>
+        <v>455.6</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>54.52</v>
+        <v>55.58</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.3648</v>
+        <v>1.368</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3652</v>
+        <v>1.3715</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K114" s="8" t="n">
-        <v>0.13</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>1.17</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:11</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>325.61</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>425.25</v>
+        <v>424.6</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>25.23</v>
+        <v>24.58</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.306</v>
+        <v>1.304</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.3063</v>
+        <v>1.3051</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>0.1</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>0.36</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>275.49</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>409.27</v>
+        <v>409.21</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>9.26</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.4856</v>
+        <v>1.4854</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.5007</v>
+        <v>1.485</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0102</v>
+        <v>-0.0002</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>4.16</v>
+        <v>-0.11</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 16:00</t>
+          <t>2019-12-10 14:13</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>206.23</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>407.04</v>
+        <v>408.19</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>7.03</v>
+        <v>8.19</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9737</v>
+        <v>1.9793</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9761</v>
+        <v>1.9883</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K117" s="8" t="n">
-        <v>0.49</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>1.86</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>275.96</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>242.32</v>
+        <v>242.96</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>13.55</v>
+        <v>14.18</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.8781</v>
+        <v>0.8804</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.8844</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.008200000000000001</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>0.08</v>
+        <v>0.0046</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>1.1</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-06 15:00</t>
+          <t>2019-12-10 14:12</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,14 +109,7 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -125,7 +118,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -462,7 +462,7 @@
     <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
     <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
     <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16.8"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -568,31 +568,31 @@
         <v>2352.23</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3784.74</v>
+        <v>3820.02</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-99.97</v>
+        <v>-64.69</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.609</v>
+        <v>1.624</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6241</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>4.94</v>
+        <v>0.24</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2620.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3731.63</v>
+        <v>3755.22</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>-6.81</v>
+        <v>16.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.424</v>
+        <v>1.433</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.433</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>6.29</v>
+        <v>0</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3244.66</v>
+        <v>3297.09</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>197.76</v>
+        <v>250.2</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.4588</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4622</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>14.01</v>
+        <v>7.68</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3509.02</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3212.16</v>
+        <v>3279.88</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-61.76</v>
+        <v>5.97</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9347</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9345</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>13.33</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>-0.7</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2531.51</v>
+        <v>2564.5</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>79.20999999999999</v>
+        <v>112.21</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.881</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8808</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>7.23</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>-0.27</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1017.99</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2197.74</v>
+        <v>2220.03</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>36.24</v>
+        <v>58.53</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1808</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1807</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>2.54</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>980.46</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>922.91</v>
+        <v>941.24</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-17.06</v>
+        <v>1.27</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>5.78</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>513.63</v>
+        <v>523.65</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-27.24</v>
+        <v>-17.23</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9514</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9533</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.001</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.93</v>
+        <v>1.05</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>402.04</v>
+        <v>408.1</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45.26</v>
+        <v>51.33</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7673</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7669</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>3.46</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>-0.21</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>320.3</v>
+        <v>326</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7.04</v>
+        <v>12.74</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.292</v>
+        <v>1.315</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3151</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0024</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>1.31</v>
+        <v>0.02</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86.91</v>
+        <v>82.09</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-5.8</v>
+        <v>-10.62</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3544</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3546</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1312,690 +1312,690 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="9" t="inlineStr">
+      <c r="A13" s="10" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="10" t="n">
+      <c r="B13" s="11" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="11" t="n">
+      <c r="C13" s="12" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="12" t="n">
+      <c r="D13" s="13" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="12" t="n">
-        <v>9179.110000000001</v>
-      </c>
-      <c r="F13" s="12" t="n">
-        <v>-2820.99</v>
-      </c>
-      <c r="G13" s="11" t="n">
-        <v>0.5486</v>
-      </c>
-      <c r="H13" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I13" s="11" t="n">
-        <v>0.5535</v>
-      </c>
-      <c r="J13" s="14" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>81.98999999999999</v>
-      </c>
-      <c r="L13" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:11</t>
-        </is>
-      </c>
-      <c r="M13" s="13" t="inlineStr">
+      <c r="E13" s="13" t="n">
+        <v>9368.18</v>
+      </c>
+      <c r="F13" s="13" t="n">
+        <v>-2631.92</v>
+      </c>
+      <c r="G13" s="12" t="n">
+        <v>0.5599</v>
+      </c>
+      <c r="H13" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I13" s="12" t="n">
+        <v>0.5598</v>
+      </c>
+      <c r="J13" s="15" t="n">
+        <v>0.0026</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="L13" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="13" t="inlineStr">
+      <c r="N13" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="13" t="inlineStr">
+      <c r="O13" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="13" t="inlineStr">
+      <c r="P13" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="13" t="inlineStr">
+      <c r="Q13" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="15" t="inlineStr">
+      <c r="A14" s="16" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B14" s="16" t="n">
+      <c r="B14" s="17" t="n">
         <v>510050</v>
       </c>
-      <c r="C14" s="17" t="n">
+      <c r="C14" s="18" t="n">
         <v>2.337</v>
       </c>
-      <c r="D14" s="18" t="n">
+      <c r="D14" s="19" t="n">
         <v>2700</v>
       </c>
-      <c r="E14" s="18" t="n">
-        <v>7830</v>
-      </c>
-      <c r="F14" s="18" t="n">
-        <v>1520.1</v>
-      </c>
-      <c r="G14" s="17" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="H14" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I14" s="17" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="J14" s="20" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>29.7</v>
-      </c>
-      <c r="L14" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M14" s="19" t="inlineStr">
+      <c r="E14" s="19" t="n">
+        <v>7927.2</v>
+      </c>
+      <c r="F14" s="19" t="n">
+        <v>1617.3</v>
+      </c>
+      <c r="G14" s="18" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="H14" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I14" s="18" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="J14" s="21" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>-8.1</v>
+      </c>
+      <c r="L14" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="19" t="inlineStr">
+      <c r="N14" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O14" s="19" t="inlineStr">
+      <c r="O14" s="20" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P14" s="19" t="inlineStr">
+      <c r="P14" s="20" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q14" s="19" t="inlineStr">
+      <c r="Q14" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="17" t="n">
         <v>510300</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <v>3.447</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>9100</v>
       </c>
-      <c r="E15" s="18" t="n">
-        <v>35599.2</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <v>4231.5</v>
-      </c>
-      <c r="G15" s="17" t="n">
-        <v>3.912</v>
-      </c>
-      <c r="H15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>3.927</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <v>0.0036</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>136.5</v>
-      </c>
-      <c r="L15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M15" s="19" t="inlineStr">
+      <c r="E15" s="19" t="n">
+        <v>36029.63</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>4661.93</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>3.9593</v>
+      </c>
+      <c r="H15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>3.956</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>-30.03</v>
+      </c>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M15" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="19" t="inlineStr">
+      <c r="N15" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="19" t="inlineStr">
+      <c r="O15" s="20" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P15" s="19" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q15" s="19" t="inlineStr">
+      <c r="Q15" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <v>510500</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <v>5.601</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>38800</v>
       </c>
-      <c r="E16" s="18" t="n">
-        <v>206450.92</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>-10867.88</v>
-      </c>
-      <c r="G16" s="17" t="n">
-        <v>5.3209</v>
-      </c>
-      <c r="H16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>5.349</v>
-      </c>
-      <c r="J16" s="20" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>1090.28</v>
-      </c>
-      <c r="L16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M16" s="19" t="inlineStr">
+      <c r="E16" s="19" t="n">
+        <v>211960.52</v>
+      </c>
+      <c r="F16" s="19" t="n">
+        <v>-5358.28</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>5.4629</v>
+      </c>
+      <c r="H16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>5.458</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0.0046</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>-190.12</v>
+      </c>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P16" s="19" t="inlineStr">
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q16" s="19" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <v>512580</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="18" t="n">
         <v>0.877</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>33800</v>
       </c>
-      <c r="E17" s="18" t="n">
-        <v>24687.52</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>-4955.08</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>0.7304</v>
-      </c>
-      <c r="H17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>0.737</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>0.009599999999999999</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>223.08</v>
-      </c>
-      <c r="L17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M17" s="19" t="inlineStr">
+      <c r="E17" s="19" t="n">
+        <v>25221.56</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>-4421.04</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>0.7462</v>
+      </c>
+      <c r="H17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>0.743</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-108.16</v>
+      </c>
+      <c r="L17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M17" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="19" t="inlineStr">
+      <c r="N17" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O17" s="19" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P17" s="19" t="inlineStr">
+      <c r="P17" s="20" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q17" s="19" t="inlineStr">
+      <c r="Q17" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>512880</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>32700</v>
       </c>
-      <c r="E18" s="18" t="n">
-        <v>29688.33</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>4084.23</v>
-      </c>
-      <c r="G18" s="17" t="n">
-        <v>0.9079</v>
-      </c>
-      <c r="H18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>0.915</v>
-      </c>
-      <c r="J18" s="20" t="n">
-        <v>0.008800000000000001</v>
+      <c r="E18" s="19" t="n">
+        <v>30172.29</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>4568.19</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>0.9227</v>
+      </c>
+      <c r="H18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0.923</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>-0.0011</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>232.17</v>
-      </c>
-      <c r="L18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M18" s="19" t="inlineStr">
+        <v>9.81</v>
+      </c>
+      <c r="L18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="19" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="19" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P18" s="19" t="inlineStr">
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q18" s="19" t="inlineStr">
+      <c r="Q18" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>512980</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="18" t="n">
         <v>0.869</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>34100</v>
       </c>
-      <c r="E19" s="18" t="n">
-        <v>25707.99</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>-3924.91</v>
-      </c>
-      <c r="G19" s="17" t="n">
-        <v>0.7539</v>
-      </c>
-      <c r="H19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0.758</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>0.0026</v>
+      <c r="E19" s="19" t="n">
+        <v>26710.53</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>-2922.37</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>0.7833</v>
+      </c>
+      <c r="H19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0.784</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>0.0103</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>139.81</v>
-      </c>
-      <c r="L19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M19" s="19" t="inlineStr">
+        <v>23.87</v>
+      </c>
+      <c r="L19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M19" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="19" t="inlineStr">
+      <c r="N19" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="19" t="inlineStr">
+      <c r="O19" s="20" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P19" s="19" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q19" s="19" t="inlineStr">
+      <c r="Q19" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>518880</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="18" t="n">
         <v>2.856</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="19" t="n">
         <v>4500</v>
       </c>
-      <c r="E20" s="18" t="n">
-        <v>15075.9</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <v>2223.9</v>
-      </c>
-      <c r="G20" s="17" t="n">
-        <v>3.3502</v>
-      </c>
-      <c r="H20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>3.318</v>
-      </c>
-      <c r="J20" s="20" t="n">
-        <v>-0.0057</v>
-      </c>
-      <c r="K20" s="21" t="n">
-        <v>-144.9</v>
-      </c>
-      <c r="L20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M20" s="19" t="inlineStr">
+      <c r="E20" s="19" t="n">
+        <v>14817.6</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>1965.6</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>3.2928</v>
+      </c>
+      <c r="H20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>0.0015</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-57.6</v>
+      </c>
+      <c r="L20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:00</t>
+        </is>
+      </c>
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N20" s="19" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O20" s="19" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P20" s="19" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>511</t>
         </is>
       </c>
-      <c r="Q20" s="19" t="inlineStr">
+      <c r="Q20" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>159915</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <v>1.399</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>9200</v>
       </c>
-      <c r="E21" s="18" t="n">
-        <v>14825.8</v>
-      </c>
-      <c r="F21" s="18" t="n">
-        <v>1955</v>
-      </c>
-      <c r="G21" s="17" t="n">
-        <v>1.6115</v>
-      </c>
-      <c r="H21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>1.637</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <v>0.0155</v>
+      <c r="E21" s="19" t="n">
+        <v>15356.64</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>2485.84</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>1.6692</v>
+      </c>
+      <c r="H21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>0.008500000000000001</v>
       </c>
       <c r="K21" s="8" t="n">
-        <v>234.6</v>
-      </c>
-      <c r="L21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M21" s="19" t="inlineStr">
+        <v>7.36</v>
+      </c>
+      <c r="L21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:04</t>
+        </is>
+      </c>
+      <c r="M21" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N21" s="19" t="inlineStr">
+      <c r="N21" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O21" s="19" t="inlineStr">
+      <c r="O21" s="20" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P21" s="19" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q21" s="19" t="inlineStr">
+      <c r="Q21" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="18" t="n">
-        <v>19078.56</v>
-      </c>
-      <c r="F22" s="18" t="n">
-        <v>776.16</v>
-      </c>
-      <c r="G22" s="17" t="n">
-        <v>1.3249</v>
-      </c>
-      <c r="H22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-04</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="J22" s="20" t="n">
+      <c r="E22" s="19" t="n">
+        <v>19267.2</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>964.8</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.337</v>
+      </c>
+      <c r="J22" s="21" t="n">
         <v>0.0091</v>
       </c>
-      <c r="K22" s="8" t="n">
-        <v>145.44</v>
-      </c>
-      <c r="L22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-05 13:12</t>
-        </is>
-      </c>
-      <c r="M22" s="19" t="inlineStr">
+      <c r="K22" s="9" t="n">
+        <v>-14.4</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="19" t="inlineStr">
+      <c r="N22" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="19" t="inlineStr">
+      <c r="O22" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="19" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="19" t="inlineStr">
+      <c r="Q22" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2017,31 +2017,31 @@
         <v>4157.52</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>8081.8</v>
+        <v>8261.41</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>77.75</v>
+        <v>257.35</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9439</v>
+        <v>1.9871</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9548</v>
+        <v>1.9885</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.0047</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>45.32</v>
+        <v>5.82</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5333.49</v>
+        <v>5443.35</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>-2.92</v>
+        <v>106.94</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5486</v>
+        <v>0.5599</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5535</v>
+        <v>0.5598</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>47.64</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-0.97</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4653.75</v>
+        <v>4746.2</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>-15.33</v>
+        <v>77.13</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>29.17</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-0.49</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4036.61</v>
+        <v>4139.92</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>34.68</v>
+        <v>138</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.547</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5501</v>
+        <v>0.5606</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>22.88</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-2.95</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4002.19</v>
+        <v>4046.17</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>0.37</v>
+        <v>44.35</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.092</v>
+        <v>1.104</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.0935</v>
+        <v>1.1044</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>5.5</v>
+        <v>1.47</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3447.5</v>
+        <v>3574.46</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>112.4</v>
+        <v>239.36</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7855</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7608</v>
+        <v>0.7854</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>14.56</v>
+        <v>0.008</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-0.46</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>694.61</v>
+        <v>718.05</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>27.6</v>
+        <v>51.04</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7338</v>
+        <v>1.7923</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.762</v>
+        <v>1.7925</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0162</v>
+        <v>0.0071</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>11.3</v>
+        <v>0.08</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>693.59</v>
+        <v>716.05</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>26.58</v>
+        <v>49.04</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9419999999999999</v>
+        <v>0.9725</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9573</v>
+        <v>0.9727</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0162</v>
+        <v>0.0071</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>11.27</v>
+        <v>0.15</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>461.86</v>
+        <v>469.06</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>-5.02</v>
+        <v>2.18</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9747</v>
+        <v>0.9899</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9828</v>
+        <v>0.9897</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>3.84</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>1907.99</v>
+        <v>2019.28</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>-92.75</v>
+        <v>18.55</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.36</v>
+        <v>0.381</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>90.09999999999999</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-5.3</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 15:04</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>746.38</v>
+        <v>753.88</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>79.37</v>
+        <v>86.87</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.294</v>
+        <v>1.307</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.2989</v>
+        <v>1.3161</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0038</v>
+        <v>-0.0007</v>
       </c>
       <c r="K33" s="8" t="n">
-        <v>2.83</v>
+        <v>5.25</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>672.5</v>
+        <v>681.37</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>5.52</v>
+        <v>14.39</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.463</v>
+        <v>1.4823</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4692</v>
+        <v>1.4823</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>2.85</v>
+        <v>0</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,17 +2845,17 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>726.76</v>
+        <v>732.88</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>59.77</v>
+        <v>65.89</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2034.74</v>
+        <v>2079.96</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>34.75</v>
+        <v>79.97</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9439</v>
+        <v>1.9871</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9548</v>
+        <v>1.9885</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0056</v>
+        <v>0.0047</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>11.41</v>
+        <v>1.47</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>1993.88</v>
+        <v>2015.79</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>-6.21</v>
+        <v>15.7</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.092</v>
+        <v>1.104</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.0935</v>
+        <v>1.1044</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>2.74</v>
+        <v>0.73</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1052.81</v>
+        <v>1065.53</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>52.85</v>
+        <v>65.56</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>0.994</v>
+        <v>1.006</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>0.9974</v>
+        <v>1.0052</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>3.6</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-0.85</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>991.55</v>
+        <v>1016.92</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>-8.52</v>
+        <v>16.86</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.547</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5501</v>
+        <v>0.5606</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0056</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>5.62</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-0.73</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>929.6</v>
+        <v>963.83</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-70.43000000000001</v>
+        <v>-36.2</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7855</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7608</v>
+        <v>0.7854</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>3.93</v>
+        <v>0.008</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-0.12</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2274.93</v>
+        <v>2236.4</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>274.99</v>
+        <v>236.46</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2401</v>
+        <v>1.2191</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2287</v>
+        <v>1.2124</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0092</v>
-      </c>
-      <c r="K41" s="21" t="n">
-        <v>-20.91</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-12.29</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-11 02:29</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1164.37</v>
+        <v>1176.06</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>164.4</v>
+        <v>176.09</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.294</v>
+        <v>1.307</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2989</v>
+        <v>1.3161</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0038</v>
+        <v>-0.0007</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>4.41</v>
+        <v>8.19</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1008.04</v>
+        <v>1021.33</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>8.06</v>
+        <v>21.36</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.463</v>
+        <v>1.4823</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4692</v>
+        <v>1.4823</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>4.27</v>
+        <v>0</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1712.84</v>
+        <v>1812.76</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-287.38</v>
+        <v>-187.46</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.36</v>
+        <v>0.381</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>80.88</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-4.76</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 15:04</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,17 +3535,17 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1133.3</v>
+        <v>1142.84</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>133.27</v>
+        <v>142.81</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
@@ -3604,31 +3604,31 @@
         <v>595.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1002.77</v>
+        <v>1015.28</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>2.8</v>
+        <v>15.3</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.684</v>
+        <v>1.705</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6894</v>
+        <v>1.6966</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>3.22</v>
+        <v>0.0021</v>
+      </c>
+      <c r="K46" s="9" t="n">
+        <v>-5</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>65064.33</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>71050.25</v>
+        <v>71831.02</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>4730.18</v>
+        <v>5510.95</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.092</v>
+        <v>1.104</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.0935</v>
+        <v>1.1044</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>97.59999999999999</v>
+        <v>26.03</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>63490</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>59763.14</v>
+        <v>60950.4</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>1561.85</v>
+        <v>2749.12</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>374.59</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-6.35</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>32370.29</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37128.72</v>
+        <v>37779.37</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5127.45</v>
+        <v>5778.1</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.147</v>
+        <v>1.1671</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1487</v>
+        <v>1.1576</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>55.03</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-307.52</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>33825.88</v>
+        <v>34247.7</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>1825.87</v>
+        <v>2247.69</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.684</v>
+        <v>1.705</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6894</v>
+        <v>1.6966</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>108.47</v>
+        <v>0.0021</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-168.73</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>41014.88</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>33907</v>
+        <v>34218.71</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3346.81</v>
+        <v>3658.53</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.8343</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.833</v>
+        <v>0.8344</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.008</v>
       </c>
       <c r="K51" s="8" t="n">
-        <v>258.39</v>
+        <v>4.1</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,17 +4018,17 @@
         <v>20716.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24611.36</v>
+        <v>24818.52</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2009.51</v>
+        <v>2216.68</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
@@ -4087,31 +4087,31 @@
         <v>14624.61</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23472.5</v>
+        <v>23764.99</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4271.85</v>
+        <v>4564.34</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.605</v>
+        <v>1.625</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6111</v>
+        <v>1.626</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0038</v>
+        <v>0.0012</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>89.20999999999999</v>
+        <v>14.62</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>21163.93</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>22857.04</v>
+        <v>23026.36</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3655.01</v>
+        <v>3824.32</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.08</v>
+        <v>1.088</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0835</v>
+        <v>1.088</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0032</v>
+        <v>-0.0026</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>74.06999999999999</v>
+        <v>0</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>16778.47</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21711.34</v>
+        <v>21929.46</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2510.06</v>
+        <v>2728.18</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.294</v>
+        <v>1.307</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.2989</v>
+        <v>1.3161</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0038</v>
+        <v>-0.0007</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>82.20999999999999</v>
+        <v>152.68</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15238.17</v>
+        <v>15590.77</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2437.73</v>
+        <v>2790.33</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.599</v>
+        <v>1.636</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6075</v>
+        <v>1.6376</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.0047</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>81</v>
+        <v>15.25</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>37267.45</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>13416.28</v>
+        <v>14198.9</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5783.91</v>
+        <v>-5001.29</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.36</v>
+        <v>0.381</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>633.55</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-37.27</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 15:04</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>6798.52</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>9946.23</v>
+        <v>10077.45</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>46.23</v>
+        <v>177.44</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.463</v>
+        <v>1.4823</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4692</v>
+        <v>1.4823</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>42.15</v>
+        <v>0</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,17 +4501,17 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7545.17</v>
+        <v>7556.39</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2399.87</v>
+        <v>2411.09</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.345</v>
+        <v>1.347</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7353.39</v>
+        <v>7504.85</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>953.02</v>
+        <v>1104.48</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5486</v>
+        <v>0.5599</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5535</v>
+        <v>0.5598</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K60" s="8" t="n">
-        <v>65.68000000000001</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K60" s="9" t="n">
+        <v>-1.34</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7236.27</v>
+        <v>7306.6</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>836.0599999999999</v>
+        <v>906.4</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.358</v>
+        <v>1.3712</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3625</v>
+        <v>1.3715</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0033</v>
+        <v>0.0025</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>23.98</v>
+        <v>1.6</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6718.41</v>
+        <v>6877.87</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-282.36</v>
+        <v>-122.9</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8637</v>
+        <v>0.8842</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8681</v>
+        <v>0.8845</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>34.23</v>
+        <v>2.33</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:06</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>3299.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6414.17</v>
+        <v>6556.71</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>13.86</v>
+        <v>156.4</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9439</v>
+        <v>1.9871</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9548</v>
+        <v>1.9885</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.0047</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>35.97</v>
+        <v>4.62</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>7852.99</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>5949.43</v>
+        <v>6168.52</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-450.76</v>
+        <v>-231.66</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7855</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7608</v>
+        <v>0.7854</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>25.13</v>
+        <v>0.008</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-0.79</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>3580.2</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>3337.82</v>
+        <v>3419.09</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-162.18</v>
+        <v>-80.91</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.9323</v>
+        <v>0.955</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9389</v>
+        <v>0.9568</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0058</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>23.63</v>
+        <v>6.44</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>171152.16</v>
       </c>
       <c r="E66" s="25" t="n">
-        <v>176098.46</v>
+        <v>176201.15</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>51.35</v>
+        <v>154.04</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>1.0289</v>
+        <v>1.0295</v>
       </c>
       <c r="H66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I66" s="24" t="n">
-        <v>1.029</v>
+        <v>1.0297</v>
       </c>
       <c r="J66" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>17.12</v>
+        <v>34.23</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5033,7 +5033,7 @@
       </c>
       <c r="Q66" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5053,31 +5053,31 @@
         <v>11598.58</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>16991.92</v>
+        <v>17339.88</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>-8.119999999999999</v>
+        <v>339.84</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.465</v>
+        <v>1.495</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4806</v>
+        <v>1.493</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0106</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>180.94</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>-23.2</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Q67" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5122,31 +5122,31 @@
         <v>128864.36</v>
       </c>
       <c r="E68" s="25" t="n">
-        <v>138658.05</v>
+        <v>138786.92</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>12.89</v>
+        <v>141.75</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>1.076</v>
+        <v>1.077</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.0761</v>
+        <v>1.0773</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>12.89</v>
+        <v>38.66</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="Q68" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5191,31 +5191,31 @@
         <v>132719.84</v>
       </c>
       <c r="E69" s="25" t="n">
-        <v>143071.99</v>
+        <v>143204.71</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>-53.09</v>
+        <v>79.63</v>
       </c>
       <c r="G69" s="24" t="n">
-        <v>1.078</v>
+        <v>1.079</v>
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0781</v>
+        <v>1.0792</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>13.27</v>
+        <v>26.54</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="Q69" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5260,31 +5260,31 @@
         <v>59685.02</v>
       </c>
       <c r="E70" s="25" t="n">
-        <v>74009.42</v>
+        <v>74307.85000000001</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>-232.77</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>1.24</v>
+        <v>1.245</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2404</v>
+        <v>1.2441</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>23.87</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>-53.72</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="Q70" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5329,31 +5329,31 @@
         <v>76964.17</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99052.89</v>
+        <v>99514.67</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>-184.71</v>
+        <v>277.07</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.287</v>
+        <v>1.293</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2878</v>
+        <v>1.2915</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>61.57</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>-115.45</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="Q71" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5398,31 +5398,31 @@
         <v>140577.44</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>151683.06</v>
+        <v>151753.35</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>-42.17</v>
+        <v>28.12</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.079</v>
+        <v>1.0795</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0796</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K72" s="8" t="n">
         <v>14.06</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="Q72" s="26" t="inlineStr">
         <is>
-          <t>我要稳稳的幸福</t>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -5467,31 +5467,31 @@
         <v>1029.32</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1465.75</v>
+        <v>1475.02</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>-2.37</v>
+        <v>6.9</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.424</v>
+        <v>1.433</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.433</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>2.47</v>
+        <v>0</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>874.15</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1406.51</v>
+        <v>1419.62</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-37.76</v>
+        <v>-24.65</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.609</v>
+        <v>1.624</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6241</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>1.84</v>
+        <v>0.09</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1289.23</v>
+        <v>1310.06</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>78.22</v>
+        <v>99.05</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.4588</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4622</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>5.57</v>
+        <v>3.05</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>1336.21</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1223.17</v>
+        <v>1248.96</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-23.25</v>
+        <v>2.54</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9347</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9345</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>5.08</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>-0.27</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>914.62</v>
+        <v>926.54</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>29.65</v>
+        <v>41.57</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.881</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8808</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>2.61</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>398.66</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>860.67</v>
+        <v>869.4</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>15.23</v>
+        <v>23.96</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1808</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1807</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>1</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>373.42</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>351.5</v>
+        <v>358.48</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-6.95</v>
+        <v>0.04</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>2.2</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>200.54</v>
+        <v>204.45</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-10.68</v>
+        <v>-6.77</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9514</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9533</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.001</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.75</v>
+        <v>0.41</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>160.81</v>
+        <v>163.24</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>18.1</v>
+        <v>20.53</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7673</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7669</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>1.38</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>80.22</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>0.18</v>
+        <v>1.61</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.292</v>
+        <v>1.315</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3151</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0024</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.33</v>
+        <v>0.01</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>24.24</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>34.76</v>
+        <v>32.83</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-2.32</v>
+        <v>-4.25</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3544</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3546</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1522.81</v>
+        <v>1537</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-45.33</v>
+        <v>-31.14</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.609</v>
+        <v>1.624</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6111</v>
+        <v>1.6241</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>1.99</v>
+        <v>0.09</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>1025.65</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1460.53</v>
+        <v>1469.76</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>-0.82</v>
+        <v>8.41</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.424</v>
+        <v>1.433</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.433</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>2.46</v>
+        <v>0</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1314.97</v>
+        <v>1336.22</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>77.12</v>
+        <v>98.38</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4356</v>
+        <v>1.4588</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4418</v>
+        <v>1.4622</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>5.68</v>
+        <v>3.11</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>1367.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1251.98</v>
+        <v>1278.38</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-24.62</v>
+        <v>1.78</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9154</v>
+        <v>0.9347</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9345</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>5.2</v>
+        <v>0.0037</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-0.27</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>528.99</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>982.23</v>
+        <v>995.03</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>30.47</v>
+        <v>43.27</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.8568</v>
+        <v>1.881</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8621</v>
+        <v>1.8808</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K88" s="8" t="n">
-        <v>2.8</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>-0.11</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>390.29</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>842.6</v>
+        <v>851.14</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>14.25</v>
+        <v>22.79</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1589</v>
+        <v>2.1808</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1614</v>
+        <v>2.1807</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>0.98</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>392.19</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>369.17</v>
+        <v>376.5</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-6.78</v>
+        <v>0.55</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K90" s="8" t="n">
-        <v>2.31</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>212.32</v>
+        <v>216.46</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-11.19</v>
+        <v>-7.05</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9332</v>
+        <v>0.9514</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9367</v>
+        <v>0.9533</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.001</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.8</v>
+        <v>0.43</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>183.59</v>
+        <v>186.86</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>1.14</v>
+        <v>4.41</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.292</v>
+        <v>1.315</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.2973</v>
+        <v>1.3151</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0024</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.75</v>
+        <v>0.01</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>160.81</v>
+        <v>163.24</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>18.1</v>
+        <v>20.53</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7559</v>
+        <v>0.7673</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7624</v>
+        <v>0.7669</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0086</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>1.38</v>
+        <v>0.007900000000000001</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>34.76</v>
+        <v>32.83</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-2.32</v>
+        <v>-4.25</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.4339</v>
+        <v>1.3544</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.4364</v>
+        <v>1.3546</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0017</v>
+        <v>-0.0021</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>9697.57</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>10483.07</v>
+        <v>10733.27</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>282.2</v>
+        <v>532.4</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.081</v>
+        <v>1.1068</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.0868</v>
+        <v>1.1071</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.0047</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>56.25</v>
+        <v>2.91</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>8677.6</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>9475.940000000001</v>
+        <v>9580.07</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>675.12</v>
+        <v>779.25</v>
       </c>
       <c r="G96" s="30" t="n">
-        <v>1.092</v>
+        <v>1.104</v>
       </c>
       <c r="H96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.0935</v>
+        <v>1.1044</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>0.0013</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>13.02</v>
+        <v>3.47</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>6096.21</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>5738.36</v>
+        <v>5852.36</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>538.3</v>
+        <v>652.29</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>0.9413</v>
+        <v>0.96</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9472</v>
+        <v>0.9599</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0063</v>
-      </c>
-      <c r="K97" s="8" t="n">
-        <v>35.97</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>-0.61</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5580.46</v>
+        <v>5631.76</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>780.33</v>
+        <v>831.63</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8267</v>
+        <v>0.8343</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.833</v>
+        <v>0.8344</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.008</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>42.53</v>
+        <v>0.68</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>2760.12</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4429.99</v>
+        <v>4485.19</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>829.97</v>
+        <v>885.17</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.605</v>
+        <v>1.625</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6111</v>
+        <v>1.626</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0038</v>
+        <v>0.0012</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>16.84</v>
+        <v>2.76</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>4423.48</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3351.23</v>
+        <v>3474.64</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>150.84</v>
+        <v>274.26</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7576000000000001</v>
+        <v>0.7855</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7608</v>
+        <v>0.7854</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0042</v>
-      </c>
-      <c r="K100" s="8" t="n">
-        <v>14.16</v>
+        <v>0.008</v>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>-0.44</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>1981.84</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3337.42</v>
+        <v>3379.04</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>146.26</v>
+        <v>187.88</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.684</v>
+        <v>1.705</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.6894</v>
+        <v>1.6966</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0032</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>10.7</v>
+        <v>0.0021</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>-16.65</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3273.11</v>
+        <v>3348.84</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>560.87</v>
+        <v>636.61</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.599</v>
+        <v>1.636</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6075</v>
+        <v>1.6376</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0053</v>
+        <v>0.0047</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>17.4</v>
+        <v>3.28</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3264.04</v>
+        <v>3331.28</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>63.66</v>
+        <v>130.89</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5486</v>
+        <v>0.5599</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5535</v>
+        <v>0.5598</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0089</v>
-      </c>
-      <c r="K103" s="8" t="n">
-        <v>29.15</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>-0.59</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,17 +7606,17 @@
         <v>1884.74</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2239.07</v>
+        <v>2257.92</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>238.99</v>
+        <v>257.83</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.188</v>
+        <v>1.198</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
@@ -7675,31 +7675,31 @@
         <v>1213.09</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2103.26</v>
+        <v>2174.22</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>503.19</v>
+        <v>574.16</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7338</v>
+        <v>1.7923</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.762</v>
+        <v>1.7925</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0162</v>
+        <v>0.0071</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>34.21</v>
+        <v>0.24</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1630.08</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1869.7</v>
+        <v>1902.47</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>269.62</v>
+        <v>302.38</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.147</v>
+        <v>1.1671</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1487</v>
+        <v>1.1576</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>2.77</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-15.49</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>1407.29</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1821.03</v>
+        <v>1839.33</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>220.94</v>
+        <v>239.24</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.294</v>
+        <v>1.307</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.2989</v>
+        <v>1.3161</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0038</v>
+        <v>-0.0007</v>
       </c>
       <c r="K107" s="8" t="n">
-        <v>6.9</v>
+        <v>12.81</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 05:00</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1338.46</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1330.43</v>
+        <v>1346.49</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>130.37</v>
+        <v>146.43</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>0.994</v>
+        <v>1.006</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>0.9974</v>
+        <v>1.0052</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0034</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>4.55</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>-1.07</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>3350.7</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1206.25</v>
+        <v>1276.62</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-394.04</v>
+        <v>-323.68</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.36</v>
+        <v>0.381</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-03</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.377</v>
+        <v>0.38</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0134</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>56.96</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-3.35</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:12</t>
+          <t>2019-12-10 15:04</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1495.03</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1191.09</v>
+        <v>1223.53</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>-8.970000000000001</v>
+        <v>23.47</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.7967</v>
+        <v>0.8184</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8022</v>
+        <v>0.8183</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>8.220000000000001</v>
+        <v>0.0058</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>-0.15</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:09</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>900.35</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>972.38</v>
+        <v>979.58</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>172.33</v>
+        <v>179.53</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.08</v>
+        <v>1.088</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0835</v>
+        <v>1.088</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0032</v>
+        <v>-0.0026</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>3.15</v>
+        <v>0</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>733.79</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>909.97</v>
+        <v>894.5599999999999</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>109.92</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2401</v>
+        <v>1.2191</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2287</v>
+        <v>1.2124</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0092</v>
-      </c>
-      <c r="K112" s="21" t="n">
-        <v>-8.369999999999999</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>-4.92</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-11 02:29</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>496.13</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>483.58</v>
+        <v>491.12</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>83.55</v>
+        <v>91.09</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9747</v>
+        <v>0.9899</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9828</v>
+        <v>0.9897</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K113" s="8" t="n">
-        <v>4.02</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K113" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>333.04</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>452.27</v>
+        <v>456.66</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>52.25</v>
+        <v>56.65</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.358</v>
+        <v>1.3712</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3625</v>
+        <v>1.3715</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0033</v>
+        <v>0.0025</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>1.5</v>
+        <v>0.1</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>325.61</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>419.71</v>
+        <v>424.92</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>19.7</v>
+        <v>24.91</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.289</v>
+        <v>1.305</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2941</v>
+        <v>1.3056</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.004</v>
+        <v>0.0012</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>1.66</v>
+        <v>0.2</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:10</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>275.49</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>403.04</v>
+        <v>408.36</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>3.03</v>
+        <v>8.35</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.463</v>
+        <v>1.4823</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4692</v>
+        <v>1.4823</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0043</v>
+        <v>-0.0021</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>1.71</v>
+        <v>0</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 16:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>206.23</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>400.89</v>
+        <v>409.8</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>0.89</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9439</v>
+        <v>1.9871</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9548</v>
+        <v>1.9885</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0056</v>
+        <v>0.0047</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>2.25</v>
+        <v>0.29</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:11</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>275.96</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>238.35</v>
+        <v>244</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>9.58</v>
+        <v>15.23</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.8637</v>
+        <v>0.8842</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-04</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8681</v>
+        <v>0.8845</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0051</v>
+        <v>0.0047</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>1.21</v>
+        <v>0.08</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-05 13:06</t>
+          <t>2019-12-10 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6241</v>
+        <v>1.6309</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0.24</v>
+        <v>16.23</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.433</v>
+        <v>1.4389</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>0</v>
+        <v>15.46</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4622</v>
+        <v>1.4633</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>7.68</v>
+        <v>10.17</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9345</v>
+        <v>0.9324</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0025</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-0.7</v>
+        <v>-8.07</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8808</v>
+        <v>1.8787</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0012</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>-0.27</v>
+        <v>-3.14</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1807</v>
+        <v>2.1827</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>-0.1</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>1.93</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>-0.1</v>
+        <v>-4.51</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9533</v>
+        <v>0.9525</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.05</v>
+        <v>0.61</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7669</v>
+        <v>0.7634</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.007900000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>-0.21</v>
+        <v>-2.07</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3151</v>
+        <v>1.3202</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0024</v>
+        <v>0.004</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>0.02</v>
+        <v>1.29</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3546</v>
+        <v>1.3599</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.01</v>
+        <v>0.33</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5598</v>
+        <v>0.5558</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>-1.67</v>
+        <v>-68.59999999999999</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.933</v>
+        <v>2.938</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>-8.1</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>5.4</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.956</v>
+        <v>3.892</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0008</v>
+        <v>-0.0005</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>-30.03</v>
+        <v>-612.4299999999999</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.458</v>
+        <v>5.433</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0046</v>
+        <v>-0.0046</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-190.12</v>
+        <v>-1160.12</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.743</v>
+        <v>0.738</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0</v>
+        <v>-0.0067</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-108.16</v>
+        <v>-277.16</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.923</v>
+        <v>0.927</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0011</v>
+        <v>0.0043</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>9.81</v>
+        <v>140.61</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.784</v>
+        <v>0.781</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0103</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>23.87</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>-78.43000000000001</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.28</v>
+        <v>3.283</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0015</v>
+        <v>0.0009</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-57.6</v>
+        <v>-44.1</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:29</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1854,7 +1854,7 @@
       </c>
       <c r="P20" s="20" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.67</v>
+        <v>1.655</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>7.36</v>
+        <v>-0.008999999999999999</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-130.64</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.337</v>
+        <v>1.334</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0091</v>
+        <v>-0.0022</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-14.4</v>
+        <v>-57.6</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9885</v>
+        <v>1.9784</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>5.82</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-36.17</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5598</v>
+        <v>0.5558</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>-0.97</v>
+        <v>-39.86</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>-0.49</v>
+        <v>-22.74</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5606</v>
+        <v>0.5585</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0047</v>
+        <v>-0.0044</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>-2.95</v>
+        <v>-18.45</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1044</v>
+        <v>1.1087</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>1.47</v>
+        <v>17.23</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7854</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.008</v>
+        <v>-0.0009</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>-0.46</v>
+        <v>-3.19</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7925</v>
+        <v>1.779</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>0.08</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>-5.33</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9727</v>
+        <v>0.9653</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>0.15</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>-5.3</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9897</v>
+        <v>0.9941</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K31" s="9" t="n">
-        <v>-0.09</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K31" s="8" t="n">
+        <v>1.99</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="J32" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="K32" s="9" t="n">
-        <v>-5.3</v>
+      <c r="K32" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2682,7 +2682,7 @@
       </c>
       <c r="P32" s="26" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q32" s="26" t="inlineStr">
@@ -2721,13 +2721,13 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3161</v>
+        <v>1.3061</v>
       </c>
       <c r="J33" s="27" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="K33" s="8" t="n">
-        <v>5.25</v>
+      <c r="K33" s="9" t="n">
+        <v>-0.52</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.4869</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>0</v>
+        <v>2.11</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9885</v>
+        <v>1.9784</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K36" s="8" t="n">
-        <v>1.47</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K36" s="9" t="n">
+        <v>-9.109999999999999</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1044</v>
+        <v>1.1087</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>0.73</v>
+        <v>8.58</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0052</v>
+        <v>1.008</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>-0.85</v>
+        <v>0.002</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>2.12</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5606</v>
+        <v>0.5585</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0047</v>
+        <v>-0.0044</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>-0.73</v>
+        <v>-4.53</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7854</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.008</v>
+        <v>-0.0009</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>-0.12</v>
+        <v>-0.86</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2124</v>
+        <v>1.2163</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0025</v>
+        <v>-0.0023</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-12.29</v>
+        <v>-5.14</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 02:29</t>
+          <t>2019-12-11 11:35</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3303,7 +3303,7 @@
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3342,13 +3342,13 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3161</v>
+        <v>1.3061</v>
       </c>
       <c r="J42" s="27" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="K42" s="8" t="n">
-        <v>8.19</v>
+      <c r="K42" s="9" t="n">
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.4869</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>0</v>
+        <v>3.17</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="J44" s="27" t="n">
         <v>0.0026</v>
       </c>
-      <c r="K44" s="9" t="n">
-        <v>-4.76</v>
+      <c r="K44" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P44" s="26" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q44" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.6966</v>
+        <v>1.7046</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>0.0021</v>
+        <v>-0.0002</v>
       </c>
       <c r="K46" s="9" t="n">
-        <v>-5</v>
+        <v>-0.24</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3648,7 +3648,7 @@
       </c>
       <c r="P46" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q46" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.1044</v>
+        <v>1.1087</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>26.03</v>
+        <v>305.8</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>-6.35</v>
+        <v>-292.05</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1576</v>
+        <v>1.1678</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>-307.52</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>22.66</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3855,7 +3855,7 @@
       </c>
       <c r="P49" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.6966</v>
+        <v>1.7046</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0021</v>
+        <v>-0.0002</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>-168.73</v>
+        <v>-8.029999999999999</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3924,7 +3924,7 @@
       </c>
       <c r="P50" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8344</v>
+        <v>0.832</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>4.1</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-94.33</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.626</v>
+        <v>1.6244</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K53" s="8" t="n">
-        <v>14.62</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K53" s="9" t="n">
+        <v>-8.77</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.088</v>
+        <v>1.0929</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0026</v>
+        <v>0.0045</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>0</v>
+        <v>103.7</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4200,7 +4200,7 @@
       </c>
       <c r="P54" s="32" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q54" s="32" t="inlineStr">
@@ -4239,13 +4239,13 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3161</v>
+        <v>1.3061</v>
       </c>
       <c r="J55" s="33" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="K55" s="8" t="n">
-        <v>152.68</v>
+      <c r="K55" s="9" t="n">
+        <v>-15.1</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6376</v>
+        <v>1.6289</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>15.25</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>-67.66</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="J57" s="33" t="n">
         <v>0.0026</v>
       </c>
-      <c r="K57" s="9" t="n">
-        <v>-37.27</v>
+      <c r="K57" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4407,7 +4407,7 @@
       </c>
       <c r="P57" s="32" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4823</v>
+        <v>1.4869</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>0</v>
+        <v>31.27</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4545,7 +4545,7 @@
       </c>
       <c r="P59" s="32" t="inlineStr">
         <is>
-          <t>421</t>
+          <t>521</t>
         </is>
       </c>
       <c r="Q59" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5598</v>
+        <v>0.5558</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>-1.34</v>
+        <v>-54.96</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3715</v>
+        <v>1.3726</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0025</v>
+        <v>0.001</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>1.6</v>
+        <v>7.46</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4683,7 +4683,7 @@
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8845</v>
+        <v>0.8803</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>2.33</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-30.34</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9885</v>
+        <v>1.9784</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>4.62</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-28.71</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7854</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.008</v>
+        <v>-0.0009</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>-0.79</v>
+        <v>-5.5</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9568</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0058</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>6.44</v>
+        <v>-0.003</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-10.38</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="24" t="n">
-        <v>1.0297</v>
+        <v>1.0296</v>
       </c>
       <c r="J66" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>34.23</v>
+        <v>17.12</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5028,7 +5028,7 @@
       </c>
       <c r="P66" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q66" s="26" t="inlineStr">
@@ -5067,22 +5067,22 @@
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.493</v>
+        <v>1.4951</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>-23.2</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>1.16</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N67" s="26" t="inlineStr">
@@ -5097,7 +5097,7 @@
       </c>
       <c r="P67" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q67" s="26" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.0773</v>
+        <v>1.0771</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0001</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>38.66</v>
+        <v>12.89</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5166,7 +5166,7 @@
       </c>
       <c r="P68" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q68" s="26" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0792</v>
+        <v>1.0791</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>26.54</v>
+        <v>13.27</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5235,7 +5235,7 @@
       </c>
       <c r="P69" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q69" s="26" t="inlineStr">
@@ -5274,22 +5274,22 @@
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2441</v>
+        <v>1.2451</v>
       </c>
       <c r="J70" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K70" s="9" t="n">
-        <v>-53.72</v>
+      <c r="K70" s="8" t="n">
+        <v>5.97</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N70" s="26" t="inlineStr">
@@ -5304,7 +5304,7 @@
       </c>
       <c r="P70" s="26" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q70" s="26" t="inlineStr">
@@ -5343,22 +5343,22 @@
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2915</v>
+        <v>1.2934</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>-115.45</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>30.79</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
         <is>
-          <t>主动型</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N71" s="26" t="inlineStr">
@@ -5373,7 +5373,7 @@
       </c>
       <c r="P71" s="26" t="inlineStr">
         <is>
-          <t>612</t>
+          <t>412</t>
         </is>
       </c>
       <c r="Q71" s="26" t="inlineStr">
@@ -5415,14 +5415,14 @@
         <v>1.0796</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K72" s="8" t="n">
         <v>14.06</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5442,7 +5442,7 @@
       </c>
       <c r="P72" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q72" s="26" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.433</v>
+        <v>1.4389</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>0</v>
+        <v>6.07</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6241</v>
+        <v>1.6309</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>0.09</v>
+        <v>6.03</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4622</v>
+        <v>1.4633</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>3.05</v>
+        <v>4.04</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9345</v>
+        <v>0.9324</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0025</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-0.27</v>
+        <v>-3.07</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8808</v>
+        <v>1.8787</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0012</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>-0.1</v>
+        <v>-1.13</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1807</v>
+        <v>2.1827</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>-0.04</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>0.76</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K79" s="9" t="n">
-        <v>-0.04</v>
+        <v>-1.72</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9533</v>
+        <v>0.9525</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.41</v>
+        <v>0.24</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7669</v>
+        <v>0.7634</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.007900000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>-0.09</v>
+        <v>-0.83</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.3151</v>
+        <v>1.3202</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0024</v>
+        <v>0.004</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.01</v>
+        <v>0.32</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3546</v>
+        <v>1.3599</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6241</v>
+        <v>1.6309</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>0.09</v>
+        <v>6.53</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.433</v>
+        <v>1.4389</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>0</v>
+        <v>6.05</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4622</v>
+        <v>1.4633</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>3.11</v>
+        <v>4.12</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9345</v>
+        <v>0.9324</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0037</v>
+        <v>-0.0025</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>-0.27</v>
+        <v>-3.15</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8808</v>
+        <v>1.8787</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0007</v>
+        <v>-0.0012</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>-0.11</v>
+        <v>-1.22</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1807</v>
+        <v>2.1827</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>-0.04</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>0.74</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K90" s="9" t="n">
-        <v>-0.04</v>
+        <v>-1.8</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9533</v>
+        <v>0.9525</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0011</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.3151</v>
+        <v>1.3202</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0024</v>
+        <v>0.004</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.01</v>
+        <v>0.74</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7669</v>
+        <v>0.7634</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.007900000000000001</v>
+        <v>-0.005</v>
       </c>
       <c r="K93" s="9" t="n">
-        <v>-0.09</v>
+        <v>-0.83</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3546</v>
+        <v>1.3599</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>-0.0021</v>
+        <v>0.0041</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0</v>
+        <v>0.13</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.1071</v>
+        <v>1.102</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>2.91</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>-46.55</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.1044</v>
+        <v>1.1087</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0043</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>3.47</v>
+        <v>40.78</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9599</v>
+        <v>0.9554</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>0.0049</v>
+        <v>-0.0048</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>-0.61</v>
+        <v>-28.04</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8344</v>
+        <v>0.832</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K98" s="8" t="n">
-        <v>0.68</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>-15.53</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.626</v>
+        <v>1.6244</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>2.76</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>-1.66</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7854</v>
+        <v>0.7848000000000001</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.008</v>
+        <v>-0.0009</v>
       </c>
       <c r="K100" s="9" t="n">
-        <v>-0.44</v>
+        <v>-3.1</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.6966</v>
+        <v>1.7046</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0021</v>
+        <v>-0.0002</v>
       </c>
       <c r="K101" s="9" t="n">
-        <v>-16.65</v>
+        <v>-0.79</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7443,7 +7443,7 @@
       </c>
       <c r="P101" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6376</v>
+        <v>1.6289</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>3.28</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>-14.53</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5598</v>
+        <v>0.5558</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0026</v>
+        <v>-0.0073</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>-0.59</v>
+        <v>-24.39</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7925</v>
+        <v>1.779</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0071</v>
-      </c>
-      <c r="K105" s="8" t="n">
-        <v>0.24</v>
+        <v>-0.0074</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>-16.13</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1576</v>
+        <v>1.1678</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>-15.49</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>1.14</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7788,7 +7788,7 @@
       </c>
       <c r="P106" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q106" s="32" t="inlineStr">
@@ -7827,13 +7827,13 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3161</v>
+        <v>1.3061</v>
       </c>
       <c r="J107" s="33" t="n">
         <v>-0.0007</v>
       </c>
-      <c r="K107" s="8" t="n">
-        <v>12.81</v>
+      <c r="K107" s="9" t="n">
+        <v>-1.27</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.0052</v>
+        <v>1.008</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K108" s="9" t="n">
-        <v>-1.07</v>
+        <v>0.002</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>2.68</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.38</v>
+        <v>0.381</v>
       </c>
       <c r="J109" s="33" t="n">
         <v>0.0026</v>
       </c>
-      <c r="K109" s="9" t="n">
-        <v>-3.35</v>
+      <c r="K109" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:04</t>
+          <t>2019-12-11 12:26</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -7995,7 +7995,7 @@
       </c>
       <c r="P109" s="32" t="inlineStr">
         <is>
-          <t>513</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q109" s="32" t="inlineStr">
@@ -8034,17 +8034,17 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8183</v>
+        <v>0.8159</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0058</v>
+        <v>-0.003</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-0.15</v>
+        <v>-3.74</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.088</v>
+        <v>1.0929</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0026</v>
+        <v>0.0045</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>0</v>
+        <v>4.41</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8133,7 +8133,7 @@
       </c>
       <c r="P111" s="32" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q111" s="32" t="inlineStr">
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2124</v>
+        <v>1.2163</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0025</v>
+        <v>-0.0023</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-4.92</v>
+        <v>-2.05</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 02:29</t>
+          <t>2019-12-11 11:35</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8202,7 +8202,7 @@
       </c>
       <c r="P112" s="32" t="inlineStr">
         <is>
-          <t>511</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q112" s="32" t="inlineStr">
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9897</v>
+        <v>0.9941</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K113" s="9" t="n">
-        <v>-0.1</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K113" s="8" t="n">
+        <v>2.08</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8310,17 +8310,17 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3715</v>
+        <v>1.3726</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0025</v>
+        <v>0.001</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>0.1</v>
+        <v>0.47</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8340,7 +8340,7 @@
       </c>
       <c r="P114" s="32" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q114" s="32" t="inlineStr">
@@ -8379,17 +8379,17 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.3056</v>
+        <v>1.3045</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>0.2</v>
+        <v>-0.0004</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4823</v>
+        <v>1.4869</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>-0.0021</v>
+        <v>0.0031</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 16:00</t>
+          <t>2019-12-11 12:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8517,17 +8517,17 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9885</v>
+        <v>1.9784</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K117" s="8" t="n">
-        <v>0.29</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>-1.79</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8586,17 +8586,17 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8845</v>
+        <v>0.8803</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0047</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>0.08</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>-1.08</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10 15:00</t>
+          <t>2019-12-11 11:30</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6309</v>
+        <v>1.6322</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>16.23</v>
+        <v>19.29</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4389</v>
+        <v>1.4423</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>15.46</v>
+        <v>24.37</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4633</v>
+        <v>1.4698</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0031</v>
+        <v>0.0075</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>10.17</v>
+        <v>24.86</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9324</v>
+        <v>0.9316</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0033</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-8.07</v>
+        <v>-10.88</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8787</v>
+        <v>1.8769</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0012</v>
+        <v>-0.0022</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>-3.14</v>
+        <v>-5.59</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1827</v>
+        <v>2.1806</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>1.93</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>-4.51</v>
+        <v>-4.61</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9525</v>
+        <v>0.9529</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.61</v>
+        <v>0.83</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.005</v>
+        <v>-0.0048</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>-2.07</v>
+        <v>-1.97</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3202</v>
+        <v>1.326</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.004</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>1.29</v>
+        <v>2.73</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3599</v>
+        <v>1.3631</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.33</v>
+        <v>0.53</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5558</v>
+        <v>0.5557</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0073</v>
+        <v>-0.0075</v>
       </c>
       <c r="K13" s="9" t="n">
-        <v>-68.59999999999999</v>
+        <v>-70.27</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.938</v>
+        <v>2.945</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0017</v>
+        <v>0.0041</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>5.4</v>
+        <v>24.3</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.892</v>
+        <v>3.898</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0005</v>
+        <v>0.001</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>-612.4299999999999</v>
+        <v>-557.83</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.433</v>
+        <v>5.436</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0046</v>
+        <v>-0.004</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-1160.12</v>
+        <v>-1043.72</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0067</v>
+        <v>-0.0054</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-277.16</v>
+        <v>-243.36</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.927</v>
+        <v>0.924</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0043</v>
+        <v>0.0011</v>
       </c>
       <c r="K18" s="8" t="n">
-        <v>140.61</v>
+        <v>42.51</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.781</v>
+        <v>0.779</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0038</v>
+        <v>-0.0064</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-78.43000000000001</v>
+        <v>-146.63</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1834,7 +1834,7 @@
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 11:29</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.655</v>
+        <v>1.654</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.008999999999999999</v>
+        <v>-0.009599999999999999</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-130.64</v>
+        <v>-139.84</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.334</v>
+        <v>1.333</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0022</v>
+        <v>-0.003</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-57.6</v>
+        <v>-72</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9784</v>
+        <v>1.9782</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K23" s="9" t="n">
-        <v>-36.17</v>
+        <v>-37</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5558</v>
+        <v>0.5557</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0073</v>
+        <v>-0.0075</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>-39.86</v>
+        <v>-40.83</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>-22.74</v>
+        <v>-23.24</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2241,14 +2241,14 @@
         <v>0.5585</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K26" s="9" t="n">
         <v>-18.45</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1087</v>
+        <v>1.1096</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>17.23</v>
+        <v>20.52</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0009</v>
+        <v>-0.0048</v>
       </c>
       <c r="K28" s="9" t="n">
-        <v>-3.19</v>
+        <v>-16.84</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.779</v>
+        <v>1.7771</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0074</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>-5.33</v>
+        <v>-6.09</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9653</v>
+        <v>0.9643</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0074</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>-5.3</v>
+        <v>-6.04</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9941</v>
+        <v>0.9908</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.001</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>1.99</v>
+        <v>0.43</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2662,7 +2662,7 @@
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2790,17 +2790,17 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4869</v>
+        <v>1.4936</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0031</v>
+        <v>0.0076</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>2.11</v>
+        <v>5.19</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2928,17 +2928,17 @@
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9784</v>
+        <v>1.9782</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K36" s="9" t="n">
-        <v>-9.109999999999999</v>
+        <v>-9.32</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1087</v>
+        <v>1.1096</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>8.58</v>
+        <v>10.23</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.008</v>
+        <v>1.0093</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>2.12</v>
+        <v>3.5</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3138,14 +3138,14 @@
         <v>0.5585</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K39" s="9" t="n">
         <v>-4.53</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0009</v>
+        <v>-0.0048</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>-0.86</v>
+        <v>-4.54</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2163</v>
+        <v>1.2162</v>
       </c>
       <c r="J41" s="27" t="n">
         <v>-0.0023</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-5.14</v>
+        <v>-5.32</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:35</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3411,17 +3411,17 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4869</v>
+        <v>1.4936</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0031</v>
+        <v>0.0076</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>3.17</v>
+        <v>7.79</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3490,7 +3490,7 @@
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3618,17 +3618,17 @@
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.7046</v>
+        <v>1.7057</v>
       </c>
       <c r="J46" s="27" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K46" s="9" t="n">
-        <v>-0.24</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>0.42</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.1087</v>
+        <v>1.1096</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K47" s="8" t="n">
-        <v>305.8</v>
+        <v>364.36</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K48" s="9" t="n">
-        <v>-292.05</v>
+        <v>-298.4</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1678</v>
+        <v>1.1685</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0012</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>22.66</v>
+        <v>45.32</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.7046</v>
+        <v>1.7057</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>-8.029999999999999</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>14.06</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.832</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0026</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-94.33</v>
+        <v>-86.13</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4101,17 +4101,17 @@
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6244</v>
+        <v>1.625</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K53" s="9" t="n">
-        <v>-8.77</v>
+        <v>0</v>
+      </c>
+      <c r="K53" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0929</v>
+        <v>1.0947</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0045</v>
+        <v>0.0062</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>103.7</v>
+        <v>141.8</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4308,17 +4308,17 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6289</v>
+        <v>1.6287</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>-67.66</v>
+        <v>-69.56999999999999</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4387,7 +4387,7 @@
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4869</v>
+        <v>1.4936</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0031</v>
+        <v>0.0076</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>31.27</v>
+        <v>76.81999999999999</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4584,17 +4584,17 @@
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5558</v>
+        <v>0.5557</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0073</v>
+        <v>-0.0075</v>
       </c>
       <c r="K60" s="9" t="n">
-        <v>-54.96</v>
+        <v>-56.3</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3726</v>
+        <v>1.3732</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>7.46</v>
+        <v>10.66</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8803</v>
+        <v>0.8802</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0046</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>-30.34</v>
+        <v>-31.11</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9784</v>
+        <v>1.9782</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>-28.71</v>
+        <v>-29.37</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0009</v>
+        <v>-0.0048</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>-5.5</v>
+        <v>-29.06</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9514</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>-10.38</v>
+        <v>-12.89</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4951</v>
+        <v>1.495</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0001</v>
+        <v>0</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>1.16</v>
+        <v>0</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5146,7 +5146,7 @@
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5215,7 +5215,7 @@
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2451</v>
+        <v>1.2452</v>
       </c>
       <c r="J70" s="27" t="n">
         <v>0.0001</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>5.97</v>
+        <v>11.94</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2934</v>
+        <v>1.2938</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0003</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>30.79</v>
+        <v>61.57</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5422,7 +5422,7 @@
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4389</v>
+        <v>1.4423</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>6.07</v>
+        <v>9.57</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6309</v>
+        <v>1.6322</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>6.03</v>
+        <v>7.17</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4633</v>
+        <v>1.4698</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0031</v>
+        <v>0.0075</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>4.04</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9324</v>
+        <v>0.9316</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0033</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-3.07</v>
+        <v>-4.14</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8787</v>
+        <v>1.8769</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0012</v>
+        <v>-0.0022</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>-1.13</v>
+        <v>-2.02</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1827</v>
+        <v>2.1806</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>0.76</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>-0.08</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K79" s="9" t="n">
-        <v>-1.72</v>
+        <v>-1.76</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9525</v>
+        <v>0.9529</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.24</v>
+        <v>0.32</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.005</v>
+        <v>-0.0048</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>-0.83</v>
+        <v>-0.79</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.3202</v>
+        <v>1.326</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.004</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.32</v>
+        <v>0.68</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3599</v>
+        <v>1.3631</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6309</v>
+        <v>1.6322</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>6.53</v>
+        <v>7.76</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4389</v>
+        <v>1.4423</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>6.05</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4633</v>
+        <v>1.4698</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0031</v>
+        <v>0.0075</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>4.12</v>
+        <v>10.08</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9324</v>
+        <v>0.9316</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0025</v>
+        <v>-0.0033</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>-3.15</v>
+        <v>-4.24</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8787</v>
+        <v>1.8769</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0012</v>
+        <v>-0.0022</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>-1.22</v>
+        <v>-2.17</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1827</v>
+        <v>2.1806</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>0.74</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-0.08</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K90" s="9" t="n">
-        <v>-1.8</v>
+        <v>-1.84</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9525</v>
+        <v>0.9529</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0016</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.25</v>
+        <v>0.34</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.3202</v>
+        <v>1.326</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.004</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.74</v>
+        <v>1.56</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7635999999999999</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.005</v>
+        <v>-0.0048</v>
       </c>
       <c r="K93" s="9" t="n">
-        <v>-0.83</v>
+        <v>-0.79</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3599</v>
+        <v>1.3631</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0041</v>
+        <v>0.0065</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0.13</v>
+        <v>0.21</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.102</v>
+        <v>1.1018</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0046</v>
       </c>
       <c r="K95" s="9" t="n">
-        <v>-46.55</v>
+        <v>-48.49</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.1087</v>
+        <v>1.1096</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.005</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>40.78</v>
+        <v>48.59</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9554</v>
+        <v>0.9553</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0049</v>
       </c>
       <c r="K97" s="9" t="n">
-        <v>-28.04</v>
+        <v>-28.65</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.832</v>
+        <v>0.8322000000000001</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0026</v>
       </c>
       <c r="K98" s="9" t="n">
-        <v>-15.53</v>
+        <v>-14.18</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6244</v>
+        <v>1.625</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>-1.66</v>
+        <v>0</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7848000000000001</v>
+        <v>0.7818000000000001</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0009</v>
+        <v>-0.0048</v>
       </c>
       <c r="K100" s="9" t="n">
-        <v>-3.1</v>
+        <v>-16.37</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.7046</v>
+        <v>1.7057</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>-0.79</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>1.39</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6289</v>
+        <v>1.6287</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>-14.53</v>
+        <v>-14.94</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5558</v>
+        <v>0.5557</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0073</v>
+        <v>-0.0075</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>-24.39</v>
+        <v>-24.99</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.779</v>
+        <v>1.7771</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0074</v>
+        <v>-0.008500000000000001</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>-16.13</v>
+        <v>-18.44</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1678</v>
+        <v>1.1685</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0012</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>1.14</v>
+        <v>2.28</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.008</v>
+        <v>1.0093</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.002</v>
+        <v>0.0033</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>2.68</v>
+        <v>4.42</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7975,7 +7975,7 @@
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 12:26</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8034,17 +8034,17 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8159</v>
+        <v>0.8153</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.003</v>
+        <v>-0.0038</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-3.74</v>
+        <v>-4.63</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0929</v>
+        <v>1.0947</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0045</v>
+        <v>0.0062</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>4.41</v>
+        <v>6.03</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2163</v>
+        <v>1.2162</v>
       </c>
       <c r="J112" s="33" t="n">
         <v>-0.0023</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-2.05</v>
+        <v>-2.13</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:35</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9941</v>
+        <v>0.9908</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.001</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>2.08</v>
+        <v>0.45</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8310,17 +8310,17 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3726</v>
+        <v>1.3732</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0015</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>0.47</v>
+        <v>0.67</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8379,17 +8379,17 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.3045</v>
+        <v>1.305</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0004</v>
-      </c>
-      <c r="K115" s="9" t="n">
-        <v>-0.16</v>
+        <v>0</v>
+      </c>
+      <c r="K115" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4869</v>
+        <v>1.4936</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0031</v>
+        <v>0.0076</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>1.27</v>
+        <v>3.11</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 12:00</t>
+          <t>2019-12-11 14:41</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8517,17 +8517,17 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9784</v>
+        <v>1.9782</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0045</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>-1.79</v>
+        <v>-1.84</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:39</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8586,17 +8586,17 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8803</v>
+        <v>0.8802</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0044</v>
+        <v>-0.0046</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>-1.08</v>
+        <v>-1.1</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 11:30</t>
+          <t>2019-12-11 14:40</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,16 +562,16 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6515</v>
+        <v>1.6508</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2352.23</v>
+        <v>2422.08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3820.02</v>
+        <v>3933.46</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-64.69</v>
+        <v>-64.91</v>
       </c>
       <c r="G2" s="4" t="n">
         <v>1.624</v>
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.6336</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0059</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>19.29</v>
+        <v>23.25</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,16 +631,16 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4266</v>
+        <v>1.4268</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2620.53</v>
+        <v>2699.6</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3755.22</v>
+        <v>3868.53</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>16.77</v>
+        <v>16.74</v>
       </c>
       <c r="G3" s="4" t="n">
         <v>1.433</v>
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4423</v>
+        <v>1.4429</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0065</v>
+        <v>0.0069</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>24.37</v>
+        <v>26.73</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -693,26 +693,26 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.3481</v>
+        <v>0.9331</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2260.14</v>
+        <v>3620.67</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3297.09</v>
+        <v>3384.24</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250.2</v>
+        <v>5.79</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4588</v>
+        <v>0.9347</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
@@ -720,37 +720,37 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4698</v>
+        <v>0.9322</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>24.86</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>-9.050000000000001</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N4" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q4" s="6" t="inlineStr">
@@ -762,64 +762,64 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.3481</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3509.02</v>
+        <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3279.88</v>
+        <v>3325.8</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.97</v>
+        <v>278.9</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9347</v>
+        <v>1.4715</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9316</v>
+        <v>1.4696</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0033</v>
+        <v>0.0074</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-10.88</v>
+        <v>-4.29</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N5" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O5" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8769</v>
+        <v>1.8772</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.002</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>-5.59</v>
+        <v>-5.18</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,16 +907,16 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1233</v>
+        <v>2.1257</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1017.99</v>
+        <v>1059.44</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2220.03</v>
+        <v>2310.43</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58.53</v>
+        <v>58.38</v>
       </c>
       <c r="G7" s="4" t="n">
         <v>2.1808</v>
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1806</v>
+        <v>2.1808</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>-0.2</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,16 +976,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9587</v>
+        <v>0.9589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>980.46</v>
+        <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>941.24</v>
+        <v>1024.72</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.96</v>
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.0053</v>
       </c>
       <c r="K8" s="9" t="n">
-        <v>-4.61</v>
+        <v>-5.44</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9529</v>
+        <v>0.9536</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0023</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.83</v>
+        <v>1.21</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7639</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0048</v>
+        <v>-0.0044</v>
       </c>
       <c r="K10" s="9" t="n">
-        <v>-1.97</v>
+        <v>-1.81</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.326</v>
+        <v>1.3259</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0083</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>2.73</v>
+        <v>2.7</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1245,233 +1245,233 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>85.65000000000001</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>104.96</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1.2254</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1.2256</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>310398</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>1.5296</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>60.61</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>82.09</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>-10.62</v>
-      </c>
-      <c r="G12" s="4" t="n">
+      <c r="C13" s="4" t="n">
+        <v>1.4374</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>87.36</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-5.35</v>
+      </c>
+      <c r="G13" s="4" t="n">
         <v>1.3544</v>
       </c>
-      <c r="H12" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I12" s="4" t="n">
-        <v>1.3631</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>0.53</v>
-      </c>
-      <c r="L12" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1.3638</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N12" s="6" t="inlineStr">
+      <c r="N13" s="6" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O12" s="6" t="inlineStr">
+      <c r="O13" s="6" t="inlineStr">
         <is>
           <t>300价值</t>
         </is>
       </c>
-      <c r="P12" s="6" t="inlineStr">
+      <c r="P13" s="6" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="Q12" s="6" t="inlineStr">
+      <c r="Q13" s="6" t="inlineStr">
         <is>
           <t>螺丝钉定投</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B13" s="11" t="n">
+      <c r="B14" s="11" t="n">
         <v>1064</v>
       </c>
-      <c r="C13" s="12" t="n">
+      <c r="C14" s="12" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D13" s="13" t="n">
+      <c r="D14" s="13" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E13" s="13" t="n">
+      <c r="E14" s="13" t="n">
         <v>9368.18</v>
       </c>
-      <c r="F13" s="13" t="n">
+      <c r="F14" s="13" t="n">
         <v>-2631.92</v>
       </c>
-      <c r="G13" s="12" t="n">
+      <c r="G14" s="12" t="n">
         <v>0.5599</v>
       </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0.5557</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>-70.27</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
+      <c r="H14" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>0.5556</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>-0.0076</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>-71.95</v>
+      </c>
+      <c r="L14" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N14" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O14" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="14" t="inlineStr">
+      <c r="P14" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="14" t="inlineStr">
+      <c r="Q14" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="D14" s="19" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E14" s="19" t="n">
-        <v>7927.2</v>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>1617.3</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>2.936</v>
-      </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>2.945</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>24.3</v>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:41</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N14" s="20" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O14" s="20" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="P14" s="20" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Q14" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B15" s="17" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C15" s="18" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D15" s="19" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36029.63</v>
+        <v>7927.2</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4661.93</v>
+        <v>1617.3</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.9593</v>
+        <v>2.936</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.898</v>
+        <v>2.947</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>-557.83</v>
+        <v>0.0048</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>29.7</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="O15" s="20" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P15" s="20" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q15" s="20" t="inlineStr">
@@ -1521,26 +1521,26 @@
     <row r="16">
       <c r="A16" s="16" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B16" s="17" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C16" s="18" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D16" s="19" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>211960.52</v>
+        <v>36029.63</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-5358.28</v>
+        <v>4661.93</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.4629</v>
+        <v>3.9593</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.436</v>
+        <v>3.9</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.004</v>
+        <v>0.0015</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-1043.72</v>
+        <v>-539.63</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O16" s="20" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P16" s="20" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q16" s="20" t="inlineStr">
@@ -1590,26 +1590,26 @@
     <row r="17">
       <c r="A17" s="16" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B17" s="17" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D17" s="19" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>25221.56</v>
+        <v>211960.52</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4421.04</v>
+        <v>-5358.28</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.7462</v>
+        <v>5.4629</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.739</v>
+        <v>5.437</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0054</v>
+        <v>-0.0038</v>
       </c>
       <c r="K17" s="9" t="n">
-        <v>-243.36</v>
+        <v>-1004.92</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="N17" s="20" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O17" s="20" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P17" s="20" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q17" s="20" t="inlineStr">
@@ -1659,26 +1659,26 @@
     <row r="18">
       <c r="A18" s="16" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B18" s="17" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C18" s="18" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D18" s="19" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30172.29</v>
+        <v>25221.56</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4568.19</v>
+        <v>-4421.04</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9227</v>
+        <v>0.7462</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.924</v>
+        <v>0.738</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0011</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>42.51</v>
+        <v>-0.0067</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-277.16</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="O18" s="20" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P18" s="20" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q18" s="20" t="inlineStr">
@@ -1728,26 +1728,26 @@
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B19" s="17" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C19" s="18" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D19" s="19" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26710.53</v>
+        <v>30172.29</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-2922.37</v>
+        <v>4568.19</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.7833</v>
+        <v>0.9227</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.779</v>
+        <v>0.924</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0064</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>-146.63</v>
+        <v>0.0011</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>42.51</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="O19" s="20" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P19" s="20" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q19" s="20" t="inlineStr">
@@ -1797,26 +1797,26 @@
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B20" s="17" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C20" s="18" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D20" s="19" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14817.6</v>
+        <v>26710.53</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1965.6</v>
+        <v>-2922.37</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.2928</v>
+        <v>0.7833</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
@@ -1824,37 +1824,37 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.283</v>
+        <v>0.78</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0009</v>
+        <v>-0.0051</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-44.1</v>
+        <v>-112.53</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N20" s="20" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O20" s="20" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P20" s="20" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q20" s="20" t="inlineStr">
@@ -1866,26 +1866,26 @@
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B21" s="17" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C21" s="18" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D21" s="19" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15356.64</v>
+        <v>14817.6</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2485.84</v>
+        <v>1965.6</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.6692</v>
+        <v>3.2928</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
@@ -1893,37 +1893,37 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.654</v>
+        <v>3.282</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.009599999999999999</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-139.84</v>
+        <v>-48.6</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N21" s="20" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O21" s="20" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P21" s="20" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q21" s="20" t="inlineStr">
@@ -1935,164 +1935,164 @@
     <row r="22">
       <c r="A22" s="16" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C22" s="18" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D22" s="19" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>15356.64</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>2485.84</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>1.6692</v>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.653</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>-0.0102</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-149.04</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N22" s="20" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O22" s="20" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="P22" s="20" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="Q22" s="20" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B23" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C23" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D23" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E23" s="19" t="n">
         <v>19267.2</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F23" s="19" t="n">
         <v>964.8</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G23" s="18" t="n">
         <v>1.338</v>
       </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.333</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>-0.003</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>-72</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:41</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+      <c r="H23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>1.335</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>-0.0015</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-43.2</v>
+      </c>
+      <c r="L23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:04</t>
+        </is>
+      </c>
+      <c r="M23" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N23" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O23" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P23" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q23" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="n">
-        <v>478</v>
-      </c>
-      <c r="C23" s="24" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D23" s="25" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E23" s="25" t="n">
-        <v>8261.41</v>
-      </c>
-      <c r="F23" s="25" t="n">
-        <v>257.35</v>
-      </c>
-      <c r="G23" s="24" t="n">
-        <v>1.9871</v>
-      </c>
-      <c r="H23" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I23" s="24" t="n">
-        <v>1.9782</v>
-      </c>
-      <c r="J23" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>-37</v>
-      </c>
-      <c r="L23" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M23" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N23" s="26" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O23" s="26" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P23" s="26" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q23" s="26" t="inlineStr">
-        <is>
-          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5443.35</v>
+        <v>8261.41</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>106.94</v>
+        <v>257.35</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5599</v>
+        <v>1.9871</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5557</v>
+        <v>1.979</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0075</v>
+        <v>-0.0041</v>
       </c>
       <c r="K24" s="9" t="n">
-        <v>-40.83</v>
+        <v>-33.68</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="N24" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O24" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P24" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q24" s="26" t="inlineStr">
@@ -2142,26 +2142,26 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4746.2</v>
+        <v>5443.35</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>77.13</v>
+        <v>106.94</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.96</v>
+        <v>0.5599</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9553</v>
+        <v>0.5556</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0049</v>
+        <v>-0.0076</v>
       </c>
       <c r="K25" s="9" t="n">
-        <v>-23.24</v>
+        <v>-41.8</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="O25" s="26" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P25" s="26" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q25" s="26" t="inlineStr">
@@ -2211,26 +2211,26 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4139.92</v>
+        <v>4746.2</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>138</v>
+        <v>77.13</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.96</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5585</v>
+        <v>0.9549</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0045</v>
+        <v>-0.0053</v>
       </c>
       <c r="K26" s="9" t="n">
-        <v>-18.45</v>
+        <v>-25.21</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2258,17 +2258,17 @@
       </c>
       <c r="N26" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O26" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P26" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q26" s="26" t="inlineStr">
@@ -2280,26 +2280,26 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4046.17</v>
+        <v>4139.92</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>44.35</v>
+        <v>138</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.104</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1096</v>
+        <v>0.5587</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>20.52</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-16.97</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="N27" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O27" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P27" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q27" s="26" t="inlineStr">
@@ -2349,26 +2349,26 @@
     <row r="28">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B28" s="23" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C28" s="24" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D28" s="25" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3574.46</v>
+        <v>4046.17</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>239.36</v>
+        <v>44.35</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7855</v>
+        <v>1.104</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7818000000000001</v>
+        <v>1.1105</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>-16.84</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>23.82</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="N28" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O28" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P28" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q28" s="26" t="inlineStr">
@@ -2418,26 +2418,26 @@
     <row r="29">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B29" s="23" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C29" s="24" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D29" s="25" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>718.05</v>
+        <v>3574.46</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>51.04</v>
+        <v>239.36</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7923</v>
+        <v>0.7855</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7771</v>
+        <v>0.7812</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0054</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>-6.09</v>
+        <v>-19.57</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2465,17 +2465,17 @@
       </c>
       <c r="N29" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O29" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P29" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q29" s="26" t="inlineStr">
@@ -2487,26 +2487,26 @@
     <row r="30">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="23" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C30" s="24" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D30" s="25" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>716.05</v>
+        <v>718.05</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>49.04</v>
+        <v>51.04</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9725</v>
+        <v>1.7923</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9643</v>
+        <v>1.7768</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0086</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>-6.04</v>
+        <v>-6.21</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2556,26 +2556,26 @@
     <row r="31">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="23" t="n">
-        <v>502010</v>
+        <v>3765</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.9853</v>
+        <v>0.9059</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>473.85</v>
+        <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>469.06</v>
+        <v>716.05</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>2.18</v>
+        <v>49.04</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9899</v>
+        <v>0.9725</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9908</v>
+        <v>0.9641</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>0.43</v>
+        <v>-0.0086</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-6.18</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="N31" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O31" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P31" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q31" s="26" t="inlineStr">
@@ -2625,64 +2625,64 @@
     <row r="32">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B32" s="23" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C32" s="24" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2019.28</v>
+        <v>469.06</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>18.55</v>
+        <v>2.18</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.381</v>
+        <v>0.9899</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.381</v>
+        <v>0.9911</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0026</v>
+        <v>0.0012</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N32" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O32" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P32" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q32" s="26" t="inlineStr">
@@ -2694,64 +2694,64 @@
     <row r="33">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C33" s="24" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D33" s="25" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>753.88</v>
+        <v>2029.88</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>86.87</v>
+        <v>29.15</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.307</v>
+        <v>0.383</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3061</v>
+        <v>0.381</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0007</v>
+        <v>0.0026</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-0.52</v>
+        <v>-10.6</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N33" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O33" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P33" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q33" s="26" t="inlineStr">
@@ -2763,44 +2763,44 @@
     <row r="34">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C34" s="24" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D34" s="25" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>681.37</v>
+        <v>753.88</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>14.39</v>
+        <v>86.87</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.307</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.3061</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>5.19</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-0.52</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="N34" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O34" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P34" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q34" s="26" t="inlineStr">
@@ -2832,64 +2832,64 @@
     <row r="35">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C35" s="24" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D35" s="25" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>732.88</v>
+        <v>681.37</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>65.89</v>
+        <v>14.39</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.198</v>
+        <v>1.4823</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>0</v>
+        <v>1.4934</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>0</v>
+        <v>5.1</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N35" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O35" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P35" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q35" s="26" t="inlineStr">
@@ -2901,95 +2901,95 @@
     <row r="36">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C36" s="24" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D36" s="25" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2079.96</v>
+        <v>732.88</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>79.97</v>
+        <v>65.89</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9871</v>
+        <v>1.198</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9782</v>
+        <v>0</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>-9.32</v>
+        <v>0</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N36" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O36" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P36" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q36" s="26" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B37" s="23" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C37" s="24" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D37" s="25" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2015.79</v>
+        <v>2079.96</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>15.7</v>
+        <v>79.97</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.104</v>
+        <v>1.9871</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1096</v>
+        <v>1.979</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>10.23</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-8.48</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3017,17 +3017,17 @@
       </c>
       <c r="N37" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O37" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P37" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q37" s="26" t="inlineStr">
@@ -3039,26 +3039,26 @@
     <row r="38">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B38" s="23" t="n">
-        <v>1051</v>
+        <v>100032</v>
       </c>
       <c r="C38" s="24" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.0954</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>1059.17</v>
+        <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1065.53</v>
+        <v>2015.79</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>65.56</v>
+        <v>15.7</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.006</v>
+        <v>1.104</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0093</v>
+        <v>1.1105</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0033</v>
+        <v>0.0059</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>3.5</v>
+        <v>11.87</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="N38" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O38" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P38" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q38" s="26" t="inlineStr">
@@ -3108,26 +3108,26 @@
     <row r="39">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B39" s="23" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C39" s="24" t="n">
-        <v>0.5517</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>1812.7</v>
+        <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1016.92</v>
+        <v>1065.53</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>16.86</v>
+        <v>65.56</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.5610000000000001</v>
+        <v>1.006</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5585</v>
+        <v>1.0101</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-4.53</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>4.34</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="N39" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O39" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P39" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q39" s="26" t="inlineStr">
@@ -3177,26 +3177,26 @@
     <row r="40">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="23" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C40" s="24" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>963.83</v>
+        <v>1016.92</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-36.2</v>
+        <v>16.86</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7855</v>
+        <v>0.5610000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.5587</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0048</v>
+        <v>-0.0041</v>
       </c>
       <c r="K40" s="9" t="n">
-        <v>-4.54</v>
+        <v>-4.17</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="N40" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O40" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P40" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q40" s="26" t="inlineStr">
@@ -3246,26 +3246,26 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>216</v>
+        <v>4752</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.0902</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1834.47</v>
+        <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2236.4</v>
+        <v>963.83</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>236.46</v>
+        <v>-36.2</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2191</v>
+        <v>0.7855</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
@@ -3273,37 +3273,37 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2162</v>
+        <v>0.7812</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0023</v>
+        <v>-0.0054</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-5.32</v>
+        <v>-5.28</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,64 +3315,64 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1176.06</v>
+        <v>2236.4</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>176.09</v>
+        <v>236.46</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.307</v>
+        <v>1.2191</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3061</v>
+        <v>1.2164</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0007</v>
+        <v>-0.0022</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>-0.8100000000000001</v>
+        <v>-4.95</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-11 15:30</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,44 +3384,44 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1021.33</v>
+        <v>1176.06</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>21.36</v>
+        <v>176.09</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.307</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.3061</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>7.79</v>
+        <v>-0.0007</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>-0.8100000000000001</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3431,17 +3431,17 @@
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3453,64 +3453,64 @@
     <row r="44">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="23" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C44" s="24" t="n">
-        <v>0.4204</v>
+        <v>1.4513</v>
       </c>
       <c r="D44" s="25" t="n">
-        <v>4757.9</v>
+        <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1812.76</v>
+        <v>1021.33</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-187.46</v>
+        <v>21.36</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.381</v>
+        <v>1.4823</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.381</v>
+        <v>1.4934</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0026</v>
+        <v>0.0075</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0</v>
+        <v>7.65</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N44" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O44" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P44" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q44" s="26" t="inlineStr">
@@ -3522,64 +3522,64 @@
     <row r="45">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B45" s="23" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C45" s="24" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D45" s="25" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1142.84</v>
+        <v>1822.28</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>142.81</v>
+        <v>-177.95</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.198</v>
+        <v>0.383</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0</v>
+        <v>0.381</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" s="8" t="n">
-        <v>0</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-9.52</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N45" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O45" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P45" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q45" s="26" t="inlineStr">
@@ -3591,164 +3591,164 @@
     <row r="46">
       <c r="A46" s="22" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B46" s="23" t="n">
+        <v>614</v>
+      </c>
+      <c r="C46" s="24" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D46" s="25" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E46" s="25" t="n">
+        <v>1142.84</v>
+      </c>
+      <c r="F46" s="25" t="n">
+        <v>142.81</v>
+      </c>
+      <c r="G46" s="24" t="n">
+        <v>1.198</v>
+      </c>
+      <c r="H46" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-09</t>
+        </is>
+      </c>
+      <c r="I46" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M46" s="26" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="N46" s="26" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="O46" s="26" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="P46" s="26" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="Q46" s="26" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="22" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B46" s="23" t="n">
+      <c r="B47" s="23" t="n">
         <v>110027</v>
       </c>
-      <c r="C46" s="24" t="n">
+      <c r="C47" s="24" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D47" s="25" t="n">
         <v>595.47</v>
       </c>
-      <c r="E46" s="25" t="n">
+      <c r="E47" s="25" t="n">
         <v>1015.28</v>
       </c>
-      <c r="F46" s="25" t="n">
+      <c r="F47" s="25" t="n">
         <v>15.3</v>
       </c>
-      <c r="G46" s="24" t="n">
+      <c r="G47" s="24" t="n">
         <v>1.705</v>
       </c>
-      <c r="H46" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I46" s="24" t="n">
-        <v>1.7057</v>
-      </c>
-      <c r="J46" s="27" t="n">
+      <c r="H47" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I47" s="24" t="n">
+        <v>1.7056</v>
+      </c>
+      <c r="J47" s="27" t="n">
         <v>0.0004</v>
       </c>
-      <c r="K46" s="8" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="L46" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:40</t>
-        </is>
-      </c>
-      <c r="M46" s="26" t="inlineStr">
+      <c r="K47" s="8" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="L47" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M47" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N46" s="26" t="inlineStr">
+      <c r="N47" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O46" s="26" t="inlineStr">
+      <c r="O47" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P46" s="26" t="inlineStr">
+      <c r="P47" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q46" s="26" t="inlineStr">
+      <c r="Q47" s="26" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B47" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C47" s="30" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D47" s="31" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E47" s="31" t="n">
-        <v>71831.02</v>
-      </c>
-      <c r="F47" s="31" t="n">
-        <v>5510.95</v>
-      </c>
-      <c r="G47" s="30" t="n">
-        <v>1.104</v>
-      </c>
-      <c r="H47" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I47" s="30" t="n">
-        <v>1.1096</v>
-      </c>
-      <c r="J47" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>364.36</v>
-      </c>
-      <c r="L47" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M47" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N47" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O47" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P47" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q47" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B48" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C48" s="30" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D48" s="31" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>60950.4</v>
+        <v>71831.02</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>2749.12</v>
+        <v>5510.95</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.96</v>
+        <v>1.104</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9553</v>
+        <v>1.1105</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>-298.4</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>422.92</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3776,17 +3776,17 @@
       </c>
       <c r="N48" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O48" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P48" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q48" s="32" t="inlineStr">
@@ -3798,26 +3798,26 @@
     <row r="49">
       <c r="A49" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B49" s="29" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C49" s="30" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D49" s="31" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37779.37</v>
+        <v>60950.4</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5778.1</v>
+        <v>2749.12</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1671</v>
+        <v>0.96</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
@@ -3825,37 +3825,37 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1685</v>
+        <v>0.9549</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>45.32</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-323.8</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N49" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O49" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P49" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q49" s="32" t="inlineStr">
@@ -3867,26 +3867,26 @@
     <row r="50">
       <c r="A50" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B50" s="29" t="n">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C50" s="30" t="n">
-        <v>1.5931</v>
+        <v>0.9886</v>
       </c>
       <c r="D50" s="31" t="n">
-        <v>20086.63</v>
+        <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34247.7</v>
+        <v>37779.37</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2247.69</v>
+        <v>5778.1</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.705</v>
+        <v>1.1671</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.7057</v>
+        <v>1.1687</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0004</v>
+        <v>0.0014</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>14.06</v>
+        <v>51.79</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3936,26 +3936,26 @@
     <row r="51">
       <c r="A51" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B51" s="29" t="n">
-        <v>1180</v>
+        <v>110027</v>
       </c>
       <c r="C51" s="30" t="n">
-        <v>0.7451</v>
+        <v>1.5931</v>
       </c>
       <c r="D51" s="31" t="n">
-        <v>41014.88</v>
+        <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34218.71</v>
+        <v>34247.7</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3658.53</v>
+        <v>2247.69</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8343</v>
+        <v>1.705</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
@@ -3963,37 +3963,37 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8322000000000001</v>
+        <v>1.7056</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>-86.13</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>12.05</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N51" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O51" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P51" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q51" s="32" t="inlineStr">
@@ -4005,64 +4005,64 @@
     <row r="52">
       <c r="A52" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B52" s="29" t="n">
-        <v>614</v>
+        <v>1180</v>
       </c>
       <c r="C52" s="30" t="n">
-        <v>1.091</v>
+        <v>0.7451</v>
       </c>
       <c r="D52" s="31" t="n">
-        <v>20716.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24818.52</v>
+        <v>34218.71</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2216.68</v>
+        <v>3658.53</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.198</v>
+        <v>0.8343</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0</v>
+        <v>0.8323</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>0</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>-82.03</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N52" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O52" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P52" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q52" s="32" t="inlineStr">
@@ -4074,34 +4074,34 @@
     <row r="53">
       <c r="A53" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B53" s="29" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C53" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D53" s="31" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23764.99</v>
+        <v>24818.52</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4564.34</v>
+        <v>2216.68</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.625</v>
+        <v>1.198</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.625</v>
+        <v>0</v>
       </c>
       <c r="J53" s="33" t="n">
         <v>0</v>
@@ -4111,27 +4111,27 @@
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N53" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O53" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P53" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q53" s="32" t="inlineStr">
@@ -4143,26 +4143,26 @@
     <row r="54">
       <c r="A54" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B54" s="29" t="n">
-        <v>1469</v>
+        <v>100038</v>
       </c>
       <c r="C54" s="30" t="n">
-        <v>0.9073</v>
+        <v>1.3129</v>
       </c>
       <c r="D54" s="31" t="n">
-        <v>21163.93</v>
+        <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>23026.36</v>
+        <v>23764.99</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3824.32</v>
+        <v>4564.34</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.088</v>
+        <v>1.625</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0947</v>
+        <v>1.6259</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>141.8</v>
+        <v>13.16</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="N54" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O54" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P54" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q54" s="32" t="inlineStr">
@@ -4212,64 +4212,64 @@
     <row r="55">
       <c r="A55" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B55" s="29" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C55" s="30" t="n">
-        <v>1.1444</v>
+        <v>0.9073</v>
       </c>
       <c r="D55" s="31" t="n">
-        <v>16778.47</v>
+        <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21929.46</v>
+        <v>23026.36</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2728.18</v>
+        <v>3824.32</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.307</v>
+        <v>1.088</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3061</v>
+        <v>1.0954</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>-15.1</v>
+        <v>0.0068</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>156.61</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N55" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O55" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P55" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q55" s="32" t="inlineStr">
@@ -4281,64 +4281,64 @@
     <row r="56">
       <c r="A56" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B56" s="29" t="n">
-        <v>161017</v>
+        <v>164906</v>
       </c>
       <c r="C56" s="30" t="n">
-        <v>1.3432</v>
+        <v>1.1444</v>
       </c>
       <c r="D56" s="31" t="n">
-        <v>9529.809999999999</v>
+        <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15590.77</v>
+        <v>21929.46</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2790.33</v>
+        <v>2728.18</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.636</v>
+        <v>1.307</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6287</v>
+        <v>1.3061</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0007</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>-69.56999999999999</v>
+        <v>-15.1</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N56" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O56" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P56" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q56" s="32" t="inlineStr">
@@ -4350,64 +4350,64 @@
     <row r="57">
       <c r="A57" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B57" s="29" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C57" s="30" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D57" s="31" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>14198.9</v>
+        <v>15590.77</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5001.29</v>
+        <v>2790.33</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.381</v>
+        <v>1.636</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.381</v>
+        <v>1.6293</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>0</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-63.85</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N57" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O57" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P57" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q57" s="32" t="inlineStr">
@@ -4419,26 +4419,26 @@
     <row r="58">
       <c r="A58" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B58" s="29" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C58" s="30" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D58" s="31" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>10077.45</v>
+        <v>14273.43</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>177.44</v>
+        <v>-4926.76</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.4823</v>
+        <v>0.383</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
@@ -4446,37 +4446,37 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4936</v>
+        <v>0.381</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>76.81999999999999</v>
+        <v>0.0026</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-74.53</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N58" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O58" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P58" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q58" s="32" t="inlineStr">
@@ -4488,64 +4488,64 @@
     <row r="59">
       <c r="A59" s="28" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B59" s="29" t="n">
-        <v>1061</v>
+        <v>71</v>
       </c>
       <c r="C59" s="30" t="n">
-        <v>0.9172</v>
+        <v>1.4562</v>
       </c>
       <c r="D59" s="31" t="n">
-        <v>5609.79</v>
+        <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7556.39</v>
+        <v>10077.45</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2411.09</v>
+        <v>177.44</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.347</v>
+        <v>1.4823</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0</v>
+        <v>1.4934</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0</v>
+        <v>0.0075</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>0</v>
+        <v>75.45999999999999</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N59" s="32" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O59" s="32" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P59" s="32" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q59" s="32" t="inlineStr">
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>0.4775</v>
+        <v>0.9172</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>13403.92</v>
+        <v>5609.79</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7504.85</v>
+        <v>7556.39</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>1104.48</v>
+        <v>2411.09</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5599</v>
+        <v>1.347</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5557</v>
+        <v>0</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>-56.3</v>
+        <v>0</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>521</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,26 +4626,26 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7306.6</v>
+        <v>7504.85</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>906.4</v>
+        <v>1104.48</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3712</v>
+        <v>0.5599</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4653,37 +4653,37 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3732</v>
+        <v>0.5556</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>10.66</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-57.64</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4695,26 +4695,26 @@
     <row r="62">
       <c r="A62" s="28" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B62" s="29" t="n">
-        <v>2903</v>
+        <v>519977</v>
       </c>
       <c r="C62" s="30" t="n">
-        <v>0.9</v>
+        <v>1.2011</v>
       </c>
       <c r="D62" s="31" t="n">
-        <v>7778.64</v>
+        <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6877.87</v>
+        <v>7306.6</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-122.9</v>
+        <v>906.4</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8842</v>
+        <v>1.3712</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
@@ -4722,37 +4722,37 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8802</v>
+        <v>1.3734</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>-31.11</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>11.72</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N62" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O62" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P62" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q62" s="32" t="inlineStr">
@@ -4764,26 +4764,26 @@
     <row r="63">
       <c r="A63" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B63" s="29" t="n">
-        <v>478</v>
+        <v>2903</v>
       </c>
       <c r="C63" s="30" t="n">
-        <v>1.9397</v>
+        <v>0.9</v>
       </c>
       <c r="D63" s="31" t="n">
-        <v>3299.64</v>
+        <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6556.71</v>
+        <v>6877.87</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>156.4</v>
+        <v>-122.9</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9871</v>
+        <v>0.8842</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9782</v>
+        <v>0.8806</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0045</v>
+        <v>-0.0041</v>
       </c>
       <c r="K63" s="9" t="n">
-        <v>-29.37</v>
+        <v>-28</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4833,26 +4833,26 @@
     <row r="64">
       <c r="A64" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B64" s="29" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C64" s="30" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D64" s="31" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6168.52</v>
+        <v>6556.71</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-231.66</v>
+        <v>156.4</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7855</v>
+        <v>1.9871</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7818000000000001</v>
+        <v>1.979</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0041</v>
       </c>
       <c r="K64" s="9" t="n">
-        <v>-29.06</v>
+        <v>-26.73</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4880,17 +4880,17 @@
       </c>
       <c r="N64" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O64" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P64" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q64" s="32" t="inlineStr">
@@ -4902,164 +4902,164 @@
     <row r="65">
       <c r="A65" s="28" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B65" s="29" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C65" s="30" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D65" s="31" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E65" s="31" t="n">
+        <v>6168.52</v>
+      </c>
+      <c r="F65" s="31" t="n">
+        <v>-231.66</v>
+      </c>
+      <c r="G65" s="30" t="n">
+        <v>0.7855</v>
+      </c>
+      <c r="H65" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I65" s="30" t="n">
+        <v>0.7812</v>
+      </c>
+      <c r="J65" s="33" t="n">
+        <v>-0.0054</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-33.77</v>
+      </c>
+      <c r="L65" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M65" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N65" s="32" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O65" s="32" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="P65" s="32" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="Q65" s="32" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="28" t="inlineStr">
+        <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B66" s="29" t="n">
         <v>3647</v>
       </c>
-      <c r="C65" s="30" t="n">
+      <c r="C66" s="30" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D65" s="31" t="n">
+      <c r="D66" s="31" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E65" s="31" t="n">
+      <c r="E66" s="31" t="n">
         <v>3419.09</v>
       </c>
-      <c r="F65" s="31" t="n">
+      <c r="F66" s="31" t="n">
         <v>-80.91</v>
       </c>
-      <c r="G65" s="30" t="n">
+      <c r="G66" s="30" t="n">
         <v>0.955</v>
       </c>
-      <c r="H65" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I65" s="30" t="n">
+      <c r="H66" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I66" s="30" t="n">
         <v>0.9514</v>
       </c>
-      <c r="J65" s="33" t="n">
+      <c r="J66" s="33" t="n">
         <v>-0.0038</v>
       </c>
-      <c r="K65" s="9" t="n">
+      <c r="K66" s="9" t="n">
         <v>-12.89</v>
       </c>
-      <c r="L65" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:40</t>
-        </is>
-      </c>
-      <c r="M65" s="32" t="inlineStr">
+      <c r="L66" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M66" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N65" s="32" t="inlineStr">
+      <c r="N66" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O65" s="32" t="inlineStr">
+      <c r="O66" s="32" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P65" s="32" t="inlineStr">
+      <c r="P66" s="32" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q65" s="32" t="inlineStr">
+      <c r="Q66" s="32" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="22" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B66" s="23" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C66" s="24" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D66" s="25" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E66" s="25" t="n">
-        <v>176201.15</v>
-      </c>
-      <c r="F66" s="25" t="n">
-        <v>154.04</v>
-      </c>
-      <c r="G66" s="24" t="n">
-        <v>1.0295</v>
-      </c>
-      <c r="H66" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I66" s="24" t="n">
-        <v>1.0296</v>
-      </c>
-      <c r="J66" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>17.12</v>
-      </c>
-      <c r="L66" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M66" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N66" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O66" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P66" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q66" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B67" s="23" t="n">
-        <v>519700</v>
+        <v>6793</v>
       </c>
       <c r="C67" s="24" t="n">
-        <v>1.4657</v>
+        <v>1.0286</v>
       </c>
       <c r="D67" s="25" t="n">
-        <v>11598.58</v>
+        <v>171152.16</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>17339.88</v>
+        <v>176201.15</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>339.84</v>
+        <v>154.04</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.495</v>
+        <v>1.0295</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
@@ -5067,37 +5067,37 @@
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.495</v>
+        <v>1.0296</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0</v>
+        <v>0.0001</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>0</v>
+        <v>17.12</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N67" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O67" s="26" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P67" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q67" s="26" t="inlineStr">
@@ -5109,26 +5109,26 @@
     <row r="68">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B68" s="23" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C68" s="24" t="n">
-        <v>1.0759</v>
+        <v>1.4657</v>
       </c>
       <c r="D68" s="25" t="n">
-        <v>128864.36</v>
+        <v>11598.58</v>
       </c>
       <c r="E68" s="25" t="n">
-        <v>138786.92</v>
+        <v>17339.88</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>141.75</v>
+        <v>339.84</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>1.077</v>
+        <v>1.495</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
@@ -5136,37 +5136,37 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.0771</v>
+        <v>1.4971</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0014</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>12.89</v>
+        <v>24.36</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N68" s="26" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O68" s="26" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="P68" s="26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q68" s="26" t="inlineStr">
@@ -5178,26 +5178,26 @@
     <row r="69">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B69" s="23" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C69" s="24" t="n">
-        <v>1.0784</v>
+        <v>1.0759</v>
       </c>
       <c r="D69" s="25" t="n">
-        <v>132719.84</v>
+        <v>128864.36</v>
       </c>
       <c r="E69" s="25" t="n">
-        <v>143204.71</v>
+        <v>138786.92</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>79.63</v>
+        <v>141.75</v>
       </c>
       <c r="G69" s="24" t="n">
-        <v>1.079</v>
+        <v>1.077</v>
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0771</v>
       </c>
       <c r="J69" s="27" t="n">
         <v>0.0001</v>
       </c>
       <c r="K69" s="8" t="n">
-        <v>13.27</v>
+        <v>12.89</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5247,26 +5247,26 @@
     <row r="70">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B70" s="23" t="n">
-        <v>519752</v>
+        <v>519723</v>
       </c>
       <c r="C70" s="24" t="n">
-        <v>1.2439</v>
+        <v>1.0784</v>
       </c>
       <c r="D70" s="25" t="n">
-        <v>59685.02</v>
+        <v>132719.84</v>
       </c>
       <c r="E70" s="25" t="n">
-        <v>74307.85000000001</v>
+        <v>143204.71</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>65.65000000000001</v>
+        <v>79.63</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>1.245</v>
+        <v>1.079</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
@@ -5274,37 +5274,37 @@
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2452</v>
+        <v>1.0791</v>
       </c>
       <c r="J70" s="27" t="n">
         <v>0.0001</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>11.94</v>
+        <v>13.27</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N70" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O70" s="26" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P70" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q70" s="26" t="inlineStr">
@@ -5316,26 +5316,26 @@
     <row r="71">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B71" s="23" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C71" s="24" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D71" s="25" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99514.67</v>
+        <v>74307.85000000001</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>277.07</v>
+        <v>65.65000000000001</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.293</v>
+        <v>1.245</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2938</v>
+        <v>1.2452</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0002</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>61.57</v>
+        <v>11.94</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5385,164 +5385,164 @@
     <row r="72">
       <c r="A72" s="22" t="inlineStr">
         <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B72" s="23" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C72" s="24" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D72" s="25" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E72" s="25" t="n">
+        <v>99514.67</v>
+      </c>
+      <c r="F72" s="25" t="n">
+        <v>277.07</v>
+      </c>
+      <c r="G72" s="24" t="n">
+        <v>1.293</v>
+      </c>
+      <c r="H72" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I72" s="24" t="n">
+        <v>1.294</v>
+      </c>
+      <c r="J72" s="27" t="n">
+        <v>0.0008</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>76.95999999999999</v>
+      </c>
+      <c r="L72" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M72" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N72" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O72" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P72" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q72" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="22" t="inlineStr">
+        <is>
           <t>交银裕盈纯债债券A</t>
         </is>
       </c>
-      <c r="B72" s="23" t="n">
+      <c r="B73" s="23" t="n">
         <v>519776</v>
       </c>
-      <c r="C72" s="24" t="n">
+      <c r="C73" s="24" t="n">
         <v>1.0793</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D73" s="25" t="n">
         <v>140577.44</v>
       </c>
-      <c r="E72" s="25" t="n">
+      <c r="E73" s="25" t="n">
         <v>151753.35</v>
       </c>
-      <c r="F72" s="25" t="n">
+      <c r="F73" s="25" t="n">
         <v>28.12</v>
       </c>
-      <c r="G72" s="24" t="n">
+      <c r="G73" s="24" t="n">
         <v>1.0795</v>
       </c>
-      <c r="H72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I72" s="24" t="n">
+      <c r="H73" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I73" s="24" t="n">
         <v>1.0796</v>
       </c>
-      <c r="J72" s="27" t="n">
+      <c r="J73" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K72" s="8" t="n">
+      <c r="K73" s="8" t="n">
         <v>14.06</v>
       </c>
-      <c r="L72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M72" s="26" t="inlineStr">
+      <c r="L73" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M73" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N72" s="26" t="inlineStr">
+      <c r="N73" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O72" s="26" t="inlineStr">
+      <c r="O73" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P72" s="26" t="inlineStr">
+      <c r="P73" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q72" s="26" t="inlineStr">
+      <c r="Q73" s="26" t="inlineStr">
         <is>
           <t>父稳稳的幸福</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>1.4263</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>1029.32</v>
-      </c>
-      <c r="E73" s="5" t="n">
-        <v>1475.02</v>
-      </c>
-      <c r="F73" s="5" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="G73" s="4" t="n">
-        <v>1.433</v>
-      </c>
-      <c r="H73" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I73" s="4" t="n">
-        <v>1.4423</v>
-      </c>
-      <c r="J73" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="L73" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M73" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N73" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O73" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P73" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q73" s="6" t="inlineStr">
-        <is>
-          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>1.6522</v>
+        <v>1.4264</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>874.15</v>
+        <v>1045.13</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1419.62</v>
+        <v>1497.67</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-24.65</v>
+        <v>6.9</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.624</v>
+        <v>1.433</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.4429</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0069</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>7.17</v>
+        <v>10.35</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5570,17 +5570,17 @@
       </c>
       <c r="N74" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,26 +5592,26 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.6518</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>898.04</v>
+        <v>888.12</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1310.06</v>
+        <v>1442.31</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>99.05</v>
+        <v>-24.69</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.624</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
@@ -5619,37 +5619,37 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4698</v>
+        <v>1.6336</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0075</v>
+        <v>0.0059</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>9.880000000000001</v>
+        <v>8.529999999999999</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,64 +5661,64 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.9328</v>
+        <v>1.3485</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>1336.21</v>
+        <v>898.04</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1248.96</v>
+        <v>1321.47</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>2.54</v>
+        <v>110.46</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9347</v>
+        <v>1.4715</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9316</v>
+        <v>1.4696</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0033</v>
+        <v>0.0074</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-4.14</v>
+        <v>-1.71</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N76" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,26 +5730,26 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>70023</v>
+        <v>3318</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.7966</v>
+        <v>0.9329</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>492.58</v>
+        <v>1358.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>926.54</v>
+        <v>1269.82</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>41.57</v>
+        <v>2.45</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.881</v>
+        <v>0.9347</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8769</v>
+        <v>0.9322</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.0027</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>-2.02</v>
+        <v>-3.4</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,26 +5799,26 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>2.1207</v>
+        <v>1.7966</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>398.66</v>
+        <v>492.58</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>869.4</v>
+        <v>926.54</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>23.96</v>
+        <v>41.57</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1808</v>
+        <v>1.881</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1806</v>
+        <v>1.8772</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.002</v>
       </c>
       <c r="K78" s="9" t="n">
-        <v>-0.08</v>
+        <v>-1.87</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,26 +5868,26 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.9599</v>
+        <v>2.122</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>373.42</v>
+        <v>406.95</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>358.48</v>
+        <v>887.48</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>0.04</v>
+        <v>23.93</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.96</v>
+        <v>2.1808</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9553</v>
+        <v>2.1808</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>-1.76</v>
+        <v>0</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
@@ -5937,26 +5937,26 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>204.45</v>
+        <v>375.19</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-6.77</v>
+        <v>0.04</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9514</v>
+        <v>0.96</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9529</v>
+        <v>0.9549</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0016</v>
-      </c>
-      <c r="K80" s="8" t="n">
-        <v>0.32</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>-1.99</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="N80" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
@@ -6006,26 +6006,26 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9829</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>212.74</v>
+        <v>214.89</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>163.24</v>
+        <v>204.45</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>20.53</v>
+        <v>-6.77</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.9514</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.9536</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>-0.79</v>
+        <v>0.0023</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>0.47</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6053,17 +6053,17 @@
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,26 +6075,26 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>81.65000000000001</v>
+        <v>163.24</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>1.61</v>
+        <v>20.53</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.315</v>
+        <v>0.7673</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.326</v>
+        <v>0.7639</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <v>0.68</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>-0.72</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6122,17 +6122,17 @@
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
@@ -6144,26 +6144,26 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.5297</v>
+        <v>1.2891</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>24.24</v>
+        <v>62.09</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>32.83</v>
+        <v>81.65000000000001</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-4.25</v>
+        <v>1.61</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.3544</v>
+        <v>1.315</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3631</v>
+        <v>1.3259</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0065</v>
+        <v>0.0083</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.21</v>
+        <v>0.68</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
@@ -6213,26 +6213,26 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>90010</v>
+        <v>310398</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1.6569</v>
+        <v>1.4372</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>946.4299999999999</v>
+        <v>25.8</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1537</v>
+        <v>34.94</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-31.14</v>
+        <v>-2.14</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.624</v>
+        <v>1.3544</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.3638</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0069</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>7.76</v>
+        <v>0.24</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6260,66 +6260,66 @@
       </c>
       <c r="N84" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>519671</v>
+        <v>1594</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.4248</v>
+        <v>1.2144</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>1025.65</v>
+        <v>17.12</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1469.76</v>
+        <v>20.98</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>8.41</v>
+        <v>0.19</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.433</v>
+        <v>1.2254</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4423</v>
+        <v>1.2256</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0065</v>
+        <v>0.0105</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>9.539999999999999</v>
+        <v>0</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6329,48 +6329,48 @@
       </c>
       <c r="N85" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6561</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>915.97</v>
+        <v>974.37</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1336.22</v>
+        <v>1582.38</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>98.38</v>
+        <v>-31.28</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.624</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
@@ -6378,37 +6378,37 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4698</v>
+        <v>1.6336</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0075</v>
+        <v>0.0059</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>10.08</v>
+        <v>9.35</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N86" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,26 +6420,26 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.9334</v>
+        <v>1.4251</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>1367.69</v>
+        <v>1057.28</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1278.38</v>
+        <v>1515.08</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>1.78</v>
+        <v>8.35</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9347</v>
+        <v>1.433</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9316</v>
+        <v>1.4429</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>-4.24</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>10.47</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="N87" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6489,64 +6489,64 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>995.03</v>
+        <v>1347.85</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>43.27</v>
+        <v>110.01</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.881</v>
+        <v>1.4715</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8769</v>
+        <v>1.4696</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0022</v>
+        <v>0.0074</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>-2.17</v>
+        <v>-1.74</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N88" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O88" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P88" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q88" s="6" t="inlineStr">
@@ -6558,26 +6558,26 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>530015</v>
+        <v>3318</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>2.1224</v>
+        <v>0.9334</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>390.29</v>
+        <v>1412.34</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>851.14</v>
+        <v>1320.11</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>22.79</v>
+        <v>1.84</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1808</v>
+        <v>0.9347</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1806</v>
+        <v>0.9322</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0001</v>
+        <v>-0.0027</v>
       </c>
       <c r="K89" s="9" t="n">
-        <v>-0.08</v>
+        <v>-3.53</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6605,17 +6605,17 @@
       </c>
       <c r="N89" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O89" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P89" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q89" s="6" t="inlineStr">
@@ -6627,26 +6627,26 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>968</v>
+        <v>70023</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0.9586</v>
+        <v>1.7992</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>392.19</v>
+        <v>528.99</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>376.5</v>
+        <v>995.03</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>0.55</v>
+        <v>43.27</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.96</v>
+        <v>1.881</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9553</v>
+        <v>1.8772</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0049</v>
+        <v>-0.002</v>
       </c>
       <c r="K90" s="9" t="n">
-        <v>-1.84</v>
+        <v>-2.01</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="N90" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O90" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P90" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q90" s="6" t="inlineStr">
@@ -6696,26 +6696,26 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>501029</v>
+        <v>530015</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>227.52</v>
+        <v>406.87</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>216.46</v>
+        <v>887.3</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-7.05</v>
+        <v>22.7</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9514</v>
+        <v>2.1808</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9529</v>
+        <v>2.1808</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0016</v>
+        <v>0</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.34</v>
+        <v>0</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6743,17 +6743,17 @@
       </c>
       <c r="N91" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O91" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P91" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q91" s="6" t="inlineStr">
@@ -6765,26 +6765,26 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>501050</v>
+        <v>968</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>1.284</v>
+        <v>0.9588</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>142.1</v>
+        <v>426.97</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>186.86</v>
+        <v>409.89</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>4.41</v>
+        <v>0.51</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.315</v>
+        <v>0.96</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.326</v>
+        <v>0.9549</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>1.56</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>-2.18</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6812,17 +6812,17 @@
       </c>
       <c r="N92" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O92" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P92" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q92" s="6" t="inlineStr">
@@ -6834,26 +6834,26 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>212.74</v>
+        <v>227.52</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>163.24</v>
+        <v>216.46</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>20.53</v>
+        <v>-7.05</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.9514</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.9536</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>-0.79</v>
+        <v>0.0023</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>0.5</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6881,17 +6881,17 @@
       </c>
       <c r="N93" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O93" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P93" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q93" s="6" t="inlineStr">
@@ -6903,302 +6903,302 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
+          <t>华夏上证50AH优选指数</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>501050</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>186.86</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>1.315</v>
+      </c>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>1.3259</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>0.0083</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="L94" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M94" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N94" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O94" s="6" t="inlineStr">
+        <is>
+          <t>50AH</t>
+        </is>
+      </c>
+      <c r="P94" s="6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="Q94" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>天弘中证医药100A</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>163.24</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>20.53</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>0.7673</v>
+      </c>
+      <c r="H95" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>0.7639</v>
+      </c>
+      <c r="J95" s="7" t="n">
+        <v>-0.0044</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>-0.72</v>
+      </c>
+      <c r="L95" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M95" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N95" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O95" s="6" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="P95" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="Q95" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>1.2142</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>41.98</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>1.2254</v>
+      </c>
+      <c r="H96" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>1.2256</v>
+      </c>
+      <c r="J96" s="7" t="n">
+        <v>0.0105</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="L96" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M96" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N96" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O96" s="6" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="P96" s="6" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Q96" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
           <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B97" s="3" t="n">
         <v>310398</v>
       </c>
-      <c r="C94" s="4" t="n">
-        <v>1.5297</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="E94" s="5" t="n">
-        <v>32.83</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>-4.25</v>
-      </c>
-      <c r="G94" s="4" t="n">
+      <c r="C97" s="4" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>34.94</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="G97" s="4" t="n">
         <v>1.3544</v>
       </c>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I94" s="4" t="n">
-        <v>1.3631</v>
-      </c>
-      <c r="J94" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>0.21</v>
-      </c>
-      <c r="L94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M94" s="6" t="inlineStr">
+      <c r="H97" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>1.3638</v>
+      </c>
+      <c r="J97" s="7" t="n">
+        <v>0.0069</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="L97" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M97" s="6" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N94" s="6" t="inlineStr">
+      <c r="N97" s="6" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O94" s="6" t="inlineStr">
+      <c r="O97" s="6" t="inlineStr">
         <is>
           <t>300价值</t>
         </is>
       </c>
-      <c r="P94" s="6" t="inlineStr">
+      <c r="P97" s="6" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="Q94" s="6" t="inlineStr">
+      <c r="Q97" s="6" t="inlineStr">
         <is>
           <t>母螺丝钉</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="28" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B95" s="29" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C95" s="30" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D95" s="31" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E95" s="31" t="n">
-        <v>10733.27</v>
-      </c>
-      <c r="F95" s="31" t="n">
-        <v>532.4</v>
-      </c>
-      <c r="G95" s="30" t="n">
-        <v>1.1068</v>
-      </c>
-      <c r="H95" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I95" s="30" t="n">
-        <v>1.1018</v>
-      </c>
-      <c r="J95" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>-48.49</v>
-      </c>
-      <c r="L95" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:40</t>
-        </is>
-      </c>
-      <c r="M95" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N95" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O95" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P95" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q95" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B96" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C96" s="30" t="n">
-        <v>1.0142</v>
-      </c>
-      <c r="D96" s="31" t="n">
-        <v>8677.6</v>
-      </c>
-      <c r="E96" s="31" t="n">
-        <v>9580.07</v>
-      </c>
-      <c r="F96" s="31" t="n">
-        <v>779.25</v>
-      </c>
-      <c r="G96" s="30" t="n">
-        <v>1.104</v>
-      </c>
-      <c r="H96" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I96" s="30" t="n">
-        <v>1.1096</v>
-      </c>
-      <c r="J96" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>48.59</v>
-      </c>
-      <c r="L96" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M96" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N96" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O96" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P96" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q96" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="28" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B97" s="29" t="n">
-        <v>968</v>
-      </c>
-      <c r="C97" s="30" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D97" s="31" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E97" s="31" t="n">
-        <v>5852.36</v>
-      </c>
-      <c r="F97" s="31" t="n">
-        <v>652.29</v>
-      </c>
-      <c r="G97" s="30" t="n">
-        <v>0.96</v>
-      </c>
-      <c r="H97" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I97" s="30" t="n">
-        <v>0.9553</v>
-      </c>
-      <c r="J97" s="33" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>-28.65</v>
-      </c>
-      <c r="L97" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:39</t>
-        </is>
-      </c>
-      <c r="M97" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N97" s="32" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O97" s="32" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="P97" s="32" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="Q97" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B98" s="29" t="n">
-        <v>1180</v>
+        <v>162711</v>
       </c>
       <c r="C98" s="30" t="n">
-        <v>0.7111</v>
+        <v>1.0519</v>
       </c>
       <c r="D98" s="31" t="n">
-        <v>6750.28</v>
+        <v>9697.57</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5631.76</v>
+        <v>10733.27</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>831.63</v>
+        <v>532.4</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8343</v>
+        <v>1.1068</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8322000000000001</v>
+        <v>1.1023</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0026</v>
+        <v>-0.0041</v>
       </c>
       <c r="K98" s="9" t="n">
-        <v>-14.18</v>
+        <v>-43.64</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7226,17 +7226,17 @@
       </c>
       <c r="N98" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O98" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P98" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q98" s="32" t="inlineStr">
@@ -7248,26 +7248,26 @@
     <row r="99">
       <c r="A99" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B99" s="29" t="n">
-        <v>100038</v>
+        <v>100032</v>
       </c>
       <c r="C99" s="30" t="n">
-        <v>1.3043</v>
+        <v>1.0142</v>
       </c>
       <c r="D99" s="31" t="n">
-        <v>2760.12</v>
+        <v>8677.6</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4485.19</v>
+        <v>9580.07</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>885.17</v>
+        <v>779.25</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.625</v>
+        <v>1.104</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.625</v>
+        <v>1.1105</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0</v>
+        <v>0.0059</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>0</v>
+        <v>56.4</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7295,17 +7295,17 @@
       </c>
       <c r="N99" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O99" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P99" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q99" s="32" t="inlineStr">
@@ -7317,26 +7317,26 @@
     <row r="100">
       <c r="A100" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B100" s="29" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C100" s="30" t="n">
-        <v>0.7235</v>
+        <v>0.853</v>
       </c>
       <c r="D100" s="31" t="n">
-        <v>4423.48</v>
+        <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3474.64</v>
+        <v>5852.36</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>274.26</v>
+        <v>652.29</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7855</v>
+        <v>0.96</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.9549</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0048</v>
+        <v>-0.0053</v>
       </c>
       <c r="K100" s="9" t="n">
-        <v>-16.37</v>
+        <v>-31.09</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7369,12 +7369,12 @@
       </c>
       <c r="O100" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P100" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q100" s="32" t="inlineStr">
@@ -7386,26 +7386,26 @@
     <row r="101">
       <c r="A101" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B101" s="29" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C101" s="30" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D101" s="31" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3379.04</v>
+        <v>5631.76</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>187.88</v>
+        <v>831.63</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.705</v>
+        <v>0.8343</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
@@ -7413,37 +7413,37 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.7057</v>
+        <v>0.8323</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>1.39</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>-13.5</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N101" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O101" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P101" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q101" s="32" t="inlineStr">
@@ -7455,26 +7455,26 @@
     <row r="102">
       <c r="A102" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B102" s="29" t="n">
-        <v>161017</v>
+        <v>100038</v>
       </c>
       <c r="C102" s="30" t="n">
-        <v>1.325</v>
+        <v>1.3043</v>
       </c>
       <c r="D102" s="31" t="n">
-        <v>2046.97</v>
+        <v>2760.12</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3348.84</v>
+        <v>4485.19</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>636.61</v>
+        <v>885.17</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.636</v>
+        <v>1.625</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6287</v>
+        <v>1.6259</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K102" s="9" t="n">
-        <v>-14.94</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>2.48</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="N102" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O102" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P102" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q102" s="32" t="inlineStr">
@@ -7524,26 +7524,26 @@
     <row r="103">
       <c r="A103" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B103" s="29" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C103" s="30" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D103" s="31" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3331.28</v>
+        <v>3474.64</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>130.89</v>
+        <v>274.26</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5599</v>
+        <v>0.7855</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5557</v>
+        <v>0.7812</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0075</v>
+        <v>-0.0054</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>-24.99</v>
+        <v>-19.02</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="O103" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P103" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q103" s="32" t="inlineStr">
@@ -7593,64 +7593,64 @@
     <row r="104">
       <c r="A104" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B104" s="29" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>1.0612</v>
+        <v>1.6102</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>1884.74</v>
+        <v>1981.84</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2257.92</v>
+        <v>3379.04</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>257.83</v>
+        <v>187.88</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.198</v>
+        <v>1.705</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>0</v>
+        <v>1.7056</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0</v>
+        <v>0.0004</v>
       </c>
       <c r="K104" s="8" t="n">
-        <v>0</v>
+        <v>1.19</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N104" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O104" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P104" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q104" s="32" t="inlineStr">
@@ -7662,26 +7662,26 @@
     <row r="105">
       <c r="A105" s="28" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B105" s="29" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>1.319</v>
+        <v>1.325</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>1213.09</v>
+        <v>2046.97</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2174.22</v>
+        <v>3348.84</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>574.16</v>
+        <v>636.61</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7923</v>
+        <v>1.636</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7771</v>
+        <v>1.6293</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0041</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>-18.44</v>
+        <v>-13.71</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7714,12 +7714,12 @@
       </c>
       <c r="O105" s="32" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P105" s="32" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q105" s="32" t="inlineStr">
@@ -7731,26 +7731,26 @@
     <row r="106">
       <c r="A106" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B106" s="29" t="n">
-        <v>340001</v>
+        <v>1064</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>0.9816</v>
+        <v>0.5379</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>1630.08</v>
+        <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1902.47</v>
+        <v>3331.28</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>302.38</v>
+        <v>130.89</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.1671</v>
+        <v>0.5599</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
@@ -7758,37 +7758,37 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1685</v>
+        <v>0.5556</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>2.28</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-25.58</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N106" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O106" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P106" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q106" s="32" t="inlineStr">
@@ -7800,26 +7800,26 @@
     <row r="107">
       <c r="A107" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B107" s="29" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C107" s="30" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1839.33</v>
+        <v>2257.92</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>239.24</v>
+        <v>257.83</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.307</v>
+        <v>1.198</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
@@ -7827,37 +7827,37 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3061</v>
+        <v>0</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>-1.27</v>
+        <v>0</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N107" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O107" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P107" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q107" s="32" t="inlineStr">
@@ -7869,26 +7869,26 @@
     <row r="108">
       <c r="A108" s="28" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B108" s="29" t="n">
-        <v>1051</v>
+        <v>110026</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>0.8966</v>
+        <v>1.319</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>1338.46</v>
+        <v>1213.09</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1346.49</v>
+        <v>2174.22</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>146.43</v>
+        <v>574.16</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.006</v>
+        <v>1.7923</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.0093</v>
+        <v>1.7768</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>4.42</v>
+        <v>-0.0086</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>-18.8</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7916,17 +7916,17 @@
       </c>
       <c r="N108" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O108" s="32" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P108" s="32" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q108" s="32" t="inlineStr">
@@ -7938,64 +7938,64 @@
     <row r="109">
       <c r="A109" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B109" s="29" t="n">
-        <v>162411</v>
+        <v>340001</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>0.4776</v>
+        <v>0.9816</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>3350.7</v>
+        <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1276.62</v>
+        <v>1902.47</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-323.68</v>
+        <v>302.38</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.381</v>
+        <v>1.1671</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.381</v>
+        <v>1.1687</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0026</v>
+        <v>0.0014</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>0</v>
+        <v>2.61</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N109" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O109" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P109" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q109" s="32" t="inlineStr">
@@ -8007,64 +8007,64 @@
     <row r="110">
       <c r="A110" s="28" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B110" s="29" t="n">
-        <v>162413</v>
+        <v>164906</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>0.8027</v>
+        <v>1.137</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>1495.03</v>
+        <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1223.53</v>
+        <v>1839.33</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>23.47</v>
+        <v>239.24</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8184</v>
+        <v>1.307</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-09</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8153</v>
+        <v>1.3061</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0038</v>
+        <v>-0.0007</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-4.63</v>
+        <v>-1.27</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N110" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O110" s="32" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P110" s="32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q110" s="32" t="inlineStr">
@@ -8076,26 +8076,26 @@
     <row r="111">
       <c r="A111" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B111" s="29" t="n">
-        <v>1469</v>
+        <v>1051</v>
       </c>
       <c r="C111" s="30" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.8966</v>
       </c>
       <c r="D111" s="31" t="n">
-        <v>900.35</v>
+        <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>979.58</v>
+        <v>1346.49</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>179.53</v>
+        <v>146.43</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.088</v>
+        <v>1.006</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0947</v>
+        <v>1.0101</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0041</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>6.03</v>
+        <v>5.49</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="N111" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O111" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P111" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q111" s="32" t="inlineStr">
@@ -8145,26 +8145,26 @@
     <row r="112">
       <c r="A112" s="28" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B112" s="29" t="n">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C112" s="30" t="n">
-        <v>1.0903</v>
+        <v>0.4776</v>
       </c>
       <c r="D112" s="31" t="n">
-        <v>733.79</v>
+        <v>3350.7</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>894.5599999999999</v>
+        <v>1283.32</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>94.51000000000001</v>
+        <v>-316.98</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2191</v>
+        <v>0.383</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2162</v>
+        <v>0.381</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0023</v>
+        <v>0.0026</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-2.13</v>
+        <v>-6.7</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8197,12 +8197,12 @@
       </c>
       <c r="O112" s="32" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P112" s="32" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q112" s="32" t="inlineStr">
@@ -8214,26 +8214,26 @@
     <row r="113">
       <c r="A113" s="28" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B113" s="29" t="n">
-        <v>502010</v>
+        <v>162413</v>
       </c>
       <c r="C113" s="30" t="n">
-        <v>0.8063</v>
+        <v>0.8027</v>
       </c>
       <c r="D113" s="31" t="n">
-        <v>496.13</v>
+        <v>1495.03</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>491.12</v>
+        <v>1223.53</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>91.09</v>
+        <v>23.47</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9899</v>
+        <v>0.8184</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9908</v>
+        <v>0.8153</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K113" s="8" t="n">
-        <v>0.45</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K113" s="9" t="n">
+        <v>-4.63</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8261,17 +8261,17 @@
       </c>
       <c r="N113" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O113" s="32" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="P113" s="32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>123</t>
         </is>
       </c>
       <c r="Q113" s="32" t="inlineStr">
@@ -8283,26 +8283,26 @@
     <row r="114">
       <c r="A114" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B114" s="29" t="n">
-        <v>519977</v>
+        <v>1469</v>
       </c>
       <c r="C114" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D114" s="31" t="n">
-        <v>333.04</v>
+        <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>456.66</v>
+        <v>979.58</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>56.65</v>
+        <v>179.53</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.3712</v>
+        <v>1.088</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
@@ -8310,37 +8310,37 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3732</v>
+        <v>1.0954</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0015</v>
+        <v>0.0068</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>0.67</v>
+        <v>6.66</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N114" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O114" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P114" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q114" s="32" t="inlineStr">
@@ -8352,26 +8352,26 @@
     <row r="115">
       <c r="A115" s="28" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B115" s="29" t="n">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C115" s="30" t="n">
-        <v>1.2285</v>
+        <v>1.0903</v>
       </c>
       <c r="D115" s="31" t="n">
-        <v>325.61</v>
+        <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>424.92</v>
+        <v>894.5599999999999</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>24.91</v>
+        <v>94.51000000000001</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.305</v>
+        <v>1.2191</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
@@ -8379,37 +8379,37 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.305</v>
+        <v>1.2164</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>0</v>
+        <v>-0.0022</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-1.98</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:30</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N115" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O115" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P115" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q115" s="32" t="inlineStr">
@@ -8421,26 +8421,26 @@
     <row r="116">
       <c r="A116" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B116" s="29" t="n">
-        <v>71</v>
+        <v>502010</v>
       </c>
       <c r="C116" s="30" t="n">
-        <v>1.452</v>
+        <v>0.8063</v>
       </c>
       <c r="D116" s="31" t="n">
-        <v>275.49</v>
+        <v>496.13</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>408.36</v>
+        <v>491.12</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>8.35</v>
+        <v>91.09</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.4823</v>
+        <v>0.9899</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
@@ -8448,37 +8448,37 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4936</v>
+        <v>0.9911</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0012</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>3.11</v>
+        <v>0.6</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N116" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O116" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P116" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q116" s="32" t="inlineStr">
@@ -8490,26 +8490,26 @@
     <row r="117">
       <c r="A117" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B117" s="29" t="n">
-        <v>478</v>
+        <v>519977</v>
       </c>
       <c r="C117" s="30" t="n">
-        <v>1.9396</v>
+        <v>1.2011</v>
       </c>
       <c r="D117" s="31" t="n">
-        <v>206.23</v>
+        <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>409.8</v>
+        <v>456.66</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>9.800000000000001</v>
+        <v>56.65</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9871</v>
+        <v>1.3712</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
@@ -8517,37 +8517,37 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9782</v>
+        <v>1.3734</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>-1.84</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>0.73</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N117" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O117" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P117" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q117" s="32" t="inlineStr">
@@ -8559,73 +8559,280 @@
     <row r="118">
       <c r="A118" s="28" t="inlineStr">
         <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B118" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C118" s="30" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D118" s="31" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E118" s="31" t="n">
+        <v>424.92</v>
+      </c>
+      <c r="F118" s="31" t="n">
+        <v>24.91</v>
+      </c>
+      <c r="G118" s="30" t="n">
+        <v>1.305</v>
+      </c>
+      <c r="H118" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I118" s="30" t="n">
+        <v>1.3057</v>
+      </c>
+      <c r="J118" s="33" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="L118" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M118" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N118" s="32" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O118" s="32" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="P118" s="32" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="Q118" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="28" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B119" s="29" t="n">
+        <v>71</v>
+      </c>
+      <c r="C119" s="30" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="D119" s="31" t="n">
+        <v>275.49</v>
+      </c>
+      <c r="E119" s="31" t="n">
+        <v>408.36</v>
+      </c>
+      <c r="F119" s="31" t="n">
+        <v>8.35</v>
+      </c>
+      <c r="G119" s="30" t="n">
+        <v>1.4823</v>
+      </c>
+      <c r="H119" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I119" s="30" t="n">
+        <v>1.4934</v>
+      </c>
+      <c r="J119" s="33" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="L119" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 16:00</t>
+        </is>
+      </c>
+      <c r="M119" s="32" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="N119" s="32" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="O119" s="32" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="P119" s="32" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="Q119" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="28" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B120" s="29" t="n">
+        <v>478</v>
+      </c>
+      <c r="C120" s="30" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D120" s="31" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E120" s="31" t="n">
+        <v>409.8</v>
+      </c>
+      <c r="F120" s="31" t="n">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="G120" s="30" t="n">
+        <v>1.9871</v>
+      </c>
+      <c r="H120" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I120" s="30" t="n">
+        <v>1.979</v>
+      </c>
+      <c r="J120" s="33" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="K120" s="9" t="n">
+        <v>-1.67</v>
+      </c>
+      <c r="L120" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M120" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N120" s="32" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O120" s="32" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P120" s="32" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q120" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="28" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B118" s="29" t="n">
+      <c r="B121" s="29" t="n">
         <v>2903</v>
       </c>
-      <c r="C118" s="30" t="n">
+      <c r="C121" s="30" t="n">
         <v>0.829</v>
       </c>
-      <c r="D118" s="31" t="n">
+      <c r="D121" s="31" t="n">
         <v>275.96</v>
       </c>
-      <c r="E118" s="31" t="n">
+      <c r="E121" s="31" t="n">
         <v>244</v>
       </c>
-      <c r="F118" s="31" t="n">
+      <c r="F121" s="31" t="n">
         <v>15.23</v>
       </c>
-      <c r="G118" s="30" t="n">
+      <c r="G121" s="30" t="n">
         <v>0.8842</v>
       </c>
-      <c r="H118" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I118" s="30" t="n">
-        <v>0.8802</v>
-      </c>
-      <c r="J118" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>-1.1</v>
-      </c>
-      <c r="L118" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 14:40</t>
-        </is>
-      </c>
-      <c r="M118" s="32" t="inlineStr">
+      <c r="H121" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I121" s="30" t="n">
+        <v>0.8806</v>
+      </c>
+      <c r="J121" s="33" t="n">
+        <v>-0.0041</v>
+      </c>
+      <c r="K121" s="9" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="L121" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11 15:00</t>
+        </is>
+      </c>
+      <c r="M121" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N118" s="32" t="inlineStr">
+      <c r="N121" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O118" s="32" t="inlineStr">
+      <c r="O121" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P118" s="32" t="inlineStr">
+      <c r="P121" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q118" s="32" t="inlineStr">
+      <c r="Q121" s="32" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -568,31 +568,31 @@
         <v>2352.23</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3820.02</v>
+        <v>3843.54</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-64.69</v>
+        <v>-41.16</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.624</v>
+        <v>1.634</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.6336</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0059</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>19.29</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2620.53</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3755.22</v>
+        <v>3778.8</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>16.77</v>
+        <v>40.36</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.433</v>
+        <v>1.442</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4423</v>
+        <v>1.4429</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>24.37</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>2.36</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>2260.14</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3297.09</v>
+        <v>3325.8</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>250.2</v>
+        <v>278.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4715</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4698</v>
+        <v>1.4696</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0075</v>
+        <v>0.0074</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>24.86</v>
+        <v>-4.29</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>3509.02</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3279.88</v>
+        <v>3271.46</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>5.97</v>
+        <v>-2.46</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9347</v>
+        <v>0.9323</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9316</v>
+        <v>0.9322</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K5" s="9" t="n">
-        <v>-10.88</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K5" s="8" t="n">
+        <v>-0.35</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2564.5</v>
+        <v>2559.32</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>112.21</v>
+        <v>107.02</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.881</v>
+        <v>1.8772</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8769</v>
+        <v>1.8772</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.002</v>
       </c>
       <c r="K6" s="9" t="n">
-        <v>-5.59</v>
+        <v>0</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1017.99</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2220.03</v>
+        <v>2220.13</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58.53</v>
+        <v>58.64</v>
       </c>
       <c r="G7" s="4" t="n">
+        <v>2.1809</v>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I7" s="4" t="n">
         <v>2.1808</v>
       </c>
-      <c r="H7" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>2.1806</v>
-      </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>-0.2</v>
+        <v>0</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>980.46</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>941.24</v>
+        <v>936.4400000000001</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.27</v>
+        <v>-3.53</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>-4.61</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>523.65</v>
+        <v>525.52</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-17.23</v>
+        <v>-15.36</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9514</v>
+        <v>0.9548</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9529</v>
+        <v>0.9536</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0023</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.83</v>
+        <v>-0.66</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>408.1</v>
+        <v>406.4</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>51.33</v>
+        <v>49.62</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.7641</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7639</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>-1.97</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>-0.11</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>326</v>
+        <v>328.48</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12.74</v>
+        <v>15.22</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.315</v>
+        <v>1.325</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.326</v>
+        <v>1.3259</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>2.73</v>
+        <v>0.0083</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>0.22</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>60.61</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>82.09</v>
+        <v>82.62</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>-10.62</v>
+        <v>-10.09</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.3544</v>
+        <v>1.3631</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.3631</v>
+        <v>1.3638</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>0.53</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0.04</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>16731.88</v>
       </c>
       <c r="E13" s="13" t="n">
-        <v>9368.18</v>
+        <v>9299.58</v>
       </c>
       <c r="F13" s="13" t="n">
-        <v>-2631.92</v>
+        <v>-2700.53</v>
       </c>
       <c r="G13" s="12" t="n">
-        <v>0.5599</v>
+        <v>0.5558</v>
       </c>
       <c r="H13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I13" s="12" t="n">
-        <v>0.5557</v>
+        <v>0.5556</v>
       </c>
       <c r="J13" s="15" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>-70.27</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>-3.35</v>
       </c>
       <c r="L13" s="14" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M13" s="14" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>2700</v>
       </c>
       <c r="E14" s="19" t="n">
-        <v>7927.2</v>
+        <v>7959.6</v>
       </c>
       <c r="F14" s="19" t="n">
-        <v>1617.3</v>
+        <v>1649.7</v>
       </c>
       <c r="G14" s="18" t="n">
-        <v>2.936</v>
+        <v>2.948</v>
       </c>
       <c r="H14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I14" s="18" t="n">
-        <v>2.945</v>
+        <v>2.947</v>
       </c>
       <c r="J14" s="21" t="n">
-        <v>0.0041</v>
+        <v>0.0048</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>24.3</v>
+        <v>-2.7</v>
       </c>
       <c r="L14" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M14" s="20" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>9100</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>36029.63</v>
+        <v>35492.73</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4661.93</v>
+        <v>4125.03</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.9593</v>
+        <v>3.9003</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.898</v>
+        <v>3.9</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>-557.83</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-2.73</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>38800</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>211960.52</v>
+        <v>211110.8</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-5358.28</v>
+        <v>-6208</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.4629</v>
+        <v>5.441</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.436</v>
+        <v>5.437</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>-1043.72</v>
+        <v>-0.0038</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-155.2</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>33800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>25221.56</v>
+        <v>25028.9</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4421.04</v>
+        <v>-4613.7</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.7462</v>
+        <v>0.7405</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.739</v>
+        <v>0.738</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>-243.36</v>
+        <v>-0.0067</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>-84.5</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,17 +1672,17 @@
         <v>32700</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30172.29</v>
+        <v>30208.26</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4568.19</v>
+        <v>4604.16</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9227</v>
+        <v>0.9238</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
@@ -1691,12 +1691,12 @@
       <c r="J18" s="21" t="n">
         <v>0.0011</v>
       </c>
-      <c r="K18" s="8" t="n">
-        <v>42.51</v>
+      <c r="K18" s="9" t="n">
+        <v>6.54</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>34100</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26710.53</v>
+        <v>26567.31</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-2922.37</v>
+        <v>-3065.59</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.7833</v>
+        <v>0.7791</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.779</v>
+        <v>0.78</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0064</v>
+        <v>-0.0051</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-146.63</v>
+        <v>30.69</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>4500</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14817.6</v>
+        <v>14786.55</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1965.6</v>
+        <v>1934.55</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.2928</v>
+        <v>3.2859</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.283</v>
+        <v>3.282</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0009</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>-44.1</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>-17.55</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>9200</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15356.64</v>
+        <v>15216.8</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2485.84</v>
+        <v>2346</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.6692</v>
+        <v>1.654</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.654</v>
+        <v>1.653</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.009599999999999999</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>-139.84</v>
+        <v>-0.0102</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-9.199999999999999</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>14400</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>19267.2</v>
+        <v>19219.68</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>964.8</v>
+        <v>917.28</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.338</v>
+        <v>1.3347</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.333</v>
+        <v>1.335</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.003</v>
+        <v>-0.0015</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-72</v>
+        <v>4.32</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>4157.52</v>
       </c>
       <c r="E23" s="25" t="n">
-        <v>8261.41</v>
+        <v>8244.780000000001</v>
       </c>
       <c r="F23" s="25" t="n">
-        <v>257.35</v>
+        <v>240.72</v>
       </c>
       <c r="G23" s="24" t="n">
-        <v>1.9871</v>
+        <v>1.9831</v>
       </c>
       <c r="H23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I23" s="24" t="n">
-        <v>1.9782</v>
+        <v>1.979</v>
       </c>
       <c r="J23" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>-37</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-17.05</v>
       </c>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M23" s="26" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>9722</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5443.35</v>
+        <v>5403.49</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>106.94</v>
+        <v>67.08</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5599</v>
+        <v>0.5558</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5557</v>
+        <v>0.5556</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>-40.83</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>-1.94</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>4943.96</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4746.2</v>
+        <v>4721.98</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>77.13</v>
+        <v>52.9</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>-23.24</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>-0.99</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>7379.54</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4139.92</v>
+        <v>4125.16</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>138</v>
+        <v>123.24</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5585</v>
+        <v>0.5587</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>-18.45</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>-2.21</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>3665.01</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4046.17</v>
+        <v>4068.16</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>44.35</v>
+        <v>66.34</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.104</v>
+        <v>1.11</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1096</v>
+        <v>1.1105</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>20.52</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>1.83</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>4550.55</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3574.46</v>
+        <v>3556.25</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>239.36</v>
+        <v>221.16</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7855</v>
+        <v>0.7815</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>-16.84</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>400.63</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>718.05</v>
+        <v>711.84</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>51.04</v>
+        <v>44.83</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7923</v>
+        <v>1.7768</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7771</v>
+        <v>1.7768</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0086</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>-6.09</v>
+        <v>0</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>736.3</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>716.05</v>
+        <v>710.09</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>49.04</v>
+        <v>43.07</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9725</v>
+        <v>0.9644</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9643</v>
+        <v>0.9641</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.008500000000000001</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>-6.04</v>
+        <v>-0.0086</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>-0.22</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>473.85</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>469.06</v>
+        <v>469.73</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>2.18</v>
+        <v>2.84</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9899</v>
+        <v>0.9913</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9908</v>
+        <v>0.9911</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.001</v>
+        <v>0.0012</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>0.43</v>
+        <v>-0.09</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,17 +2638,17 @@
         <v>5299.96</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2019.28</v>
+        <v>2029.88</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>18.55</v>
+        <v>29.15</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
@@ -2658,11 +2658,11 @@
         <v>0.0026</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>0</v>
+        <v>-10.6</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>576.8</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>753.88</v>
+        <v>752.72</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>86.87</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.307</v>
+        <v>1.305</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3061</v>
+        <v>1.3078</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-0.52</v>
+        <v>1.62</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>459.67</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>681.37</v>
+        <v>686.5599999999999</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>14.39</v>
+        <v>19.58</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.4936</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.4934</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>5.19</v>
+        <v>-0.09</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,17 +2845,17 @@
         <v>611.75</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>732.88</v>
+        <v>731.65</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>65.89</v>
+        <v>64.66</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.198</v>
+        <v>1.196</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
@@ -2864,7 +2864,7 @@
       <c r="J35" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K35" s="8" t="n">
+      <c r="K35" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
@@ -2914,31 +2914,31 @@
         <v>1046.73</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2079.96</v>
+        <v>2075.77</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>79.97</v>
+        <v>75.78</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9871</v>
+        <v>1.9831</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.9782</v>
+        <v>1.979</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K36" s="9" t="n">
-        <v>-9.32</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K36" s="8" t="n">
+        <v>-4.29</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1825.9</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2015.79</v>
+        <v>2026.75</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>15.7</v>
+        <v>26.66</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.104</v>
+        <v>1.11</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1096</v>
+        <v>1.1105</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>10.23</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>0.91</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1059.17</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1065.53</v>
+        <v>1068.7</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>65.56</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.006</v>
+        <v>1.009</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0093</v>
+        <v>1.0101</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>3.5</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>1.17</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1812.7</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1016.92</v>
+        <v>1013.3</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>16.86</v>
+        <v>13.23</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5585</v>
+        <v>0.5587</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-4.53</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-0.54</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1227.03</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>963.83</v>
+        <v>958.92</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-36.2</v>
+        <v>-41.11</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7855</v>
+        <v>0.7815</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>-4.54</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-0.37</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1834.47</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2236.4</v>
+        <v>2232.18</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>236.46</v>
+        <v>232.24</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2191</v>
+        <v>1.2168</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2162</v>
+        <v>1.2209</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.0023</v>
+        <v>0.0034</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-5.32</v>
+        <v>7.52</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-12 02:29</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1176.06</v>
+        <v>1174.27</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>176.09</v>
+        <v>174.3</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.307</v>
+        <v>1.305</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3061</v>
+        <v>1.3078</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>-0.8100000000000001</v>
+        <v>2.52</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>689.02</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1021.33</v>
+        <v>1029.12</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>21.36</v>
+        <v>29.15</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4823</v>
+        <v>1.4936</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.4934</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>7.79</v>
+        <v>-0.14</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,17 +3466,17 @@
         <v>4757.9</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1812.76</v>
+        <v>1822.28</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-187.46</v>
+        <v>-177.95</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
@@ -3486,11 +3486,11 @@
         <v>0.0026</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0</v>
+        <v>-9.52</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,17 +3535,17 @@
         <v>953.96</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1142.84</v>
+        <v>1140.94</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>142.81</v>
+        <v>140.9</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.198</v>
+        <v>1.196</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
@@ -3554,7 +3554,7 @@
       <c r="J45" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K45" s="8" t="n">
+      <c r="K45" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
@@ -3604,31 +3604,31 @@
         <v>595.47</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1015.28</v>
+        <v>1016.47</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>15.3</v>
+        <v>16.49</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.705</v>
+        <v>1.707</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
-        <v>1.7057</v>
+        <v>1.7056</v>
       </c>
       <c r="J46" s="27" t="n">
         <v>0.0004</v>
       </c>
       <c r="K46" s="8" t="n">
-        <v>0.42</v>
+        <v>-0.83</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>65064.33</v>
       </c>
       <c r="E47" s="31" t="n">
-        <v>71831.02</v>
+        <v>72221.41</v>
       </c>
       <c r="F47" s="31" t="n">
-        <v>5510.95</v>
+        <v>5901.33</v>
       </c>
       <c r="G47" s="30" t="n">
-        <v>1.104</v>
+        <v>1.11</v>
       </c>
       <c r="H47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I47" s="30" t="n">
-        <v>1.1096</v>
+        <v>1.1105</v>
       </c>
       <c r="J47" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>364.36</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>32.53</v>
       </c>
       <c r="L47" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M47" s="32" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>63490</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>60950.4</v>
+        <v>60639.3</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>2749.12</v>
+        <v>2438.02</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>-298.4</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>-12.7</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>32370.29</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37779.37</v>
+        <v>37844.11</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5778.1</v>
+        <v>5842.84</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1671</v>
+        <v>1.1691</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1685</v>
+        <v>1.1687</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0012</v>
+        <v>0.0014</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>45.32</v>
+        <v>-12.95</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>20086.63</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34247.7</v>
+        <v>34287.88</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2247.69</v>
+        <v>2287.87</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.705</v>
+        <v>1.707</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.7057</v>
+        <v>1.7056</v>
       </c>
       <c r="J50" s="33" t="n">
         <v>0.0004</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>14.06</v>
+        <v>-28.12</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>41014.88</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34218.71</v>
+        <v>34140.79</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3658.53</v>
+        <v>3580.6</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8343</v>
+        <v>0.8324</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8322000000000001</v>
+        <v>0.8323</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>-86.13</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>-4.1</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,17 +4018,17 @@
         <v>20716.63</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24818.52</v>
+        <v>24777.09</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2216.68</v>
+        <v>2175.25</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.198</v>
+        <v>1.196</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
@@ -4037,7 +4037,7 @@
       <c r="J52" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K52" s="8" t="n">
+      <c r="K52" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
@@ -4087,31 +4087,31 @@
         <v>14624.61</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23764.99</v>
+        <v>23838.11</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4564.34</v>
+        <v>4637.46</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.625</v>
+        <v>1.63</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.625</v>
+        <v>1.6259</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>0</v>
+        <v>-59.96</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>21163.93</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>23026.36</v>
+        <v>23185.09</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3824.32</v>
+        <v>3983.05</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.088</v>
+        <v>1.0955</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0947</v>
+        <v>1.0954</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0068</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>141.8</v>
+        <v>-2.12</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>16778.47</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21929.46</v>
+        <v>21895.9</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2728.18</v>
+        <v>2694.62</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.307</v>
+        <v>1.305</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3061</v>
+        <v>1.3078</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>-15.1</v>
+        <v>46.98</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15590.77</v>
+        <v>15562.18</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2790.33</v>
+        <v>2761.74</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.636</v>
+        <v>1.633</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6287</v>
+        <v>1.6293</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K56" s="9" t="n">
-        <v>-69.56999999999999</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K56" s="8" t="n">
+        <v>-35.26</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,17 +4363,17 @@
         <v>37267.45</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>14198.9</v>
+        <v>14273.43</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-5001.29</v>
+        <v>-4926.76</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
@@ -4383,11 +4383,11 @@
         <v>0.0026</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>0</v>
+        <v>-74.53</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>6798.52</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>10077.45</v>
+        <v>10154.27</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>177.44</v>
+        <v>254.26</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.4823</v>
+        <v>1.4936</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4936</v>
+        <v>1.4934</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="K58" s="8" t="n">
-        <v>76.81999999999999</v>
+        <v>-1.36</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,17 +4501,17 @@
         <v>5609.79</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7556.39</v>
+        <v>7550.78</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2411.09</v>
+        <v>2405.48</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.347</v>
+        <v>1.346</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
@@ -4520,7 +4520,7 @@
       <c r="J59" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K59" s="8" t="n">
+      <c r="K59" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
@@ -4570,31 +4570,31 @@
         <v>13403.92</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7504.85</v>
+        <v>7449.9</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>1104.48</v>
+        <v>1049.53</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5599</v>
+        <v>0.5558</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5557</v>
+        <v>0.5556</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K60" s="9" t="n">
-        <v>-56.3</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K60" s="8" t="n">
+        <v>-2.68</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>5328.62</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7306.6</v>
+        <v>7314.06</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>906.4</v>
+        <v>913.86</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3712</v>
+        <v>1.3726</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3732</v>
+        <v>1.3734</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>10.66</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>4.26</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>7778.64</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6877.87</v>
+        <v>6851.43</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-122.9</v>
+        <v>-149.35</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8842</v>
+        <v>0.8808</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8802</v>
+        <v>0.8806</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>-31.11</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-1.56</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>3299.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6556.71</v>
+        <v>6543.52</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>156.4</v>
+        <v>143.2</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9871</v>
+        <v>1.9831</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.9782</v>
+        <v>1.979</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>-29.37</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>-13.53</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>7852.99</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6168.52</v>
+        <v>6137.11</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-231.66</v>
+        <v>-263.08</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7855</v>
+        <v>0.7815</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>-29.06</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>-2.36</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,17 +4915,17 @@
         <v>3580.2</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>3419.09</v>
+        <v>3415.15</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-80.91</v>
+        <v>-84.84999999999999</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.955</v>
+        <v>0.9539</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
@@ -4934,12 +4934,12 @@
       <c r="J65" s="33" t="n">
         <v>-0.0038</v>
       </c>
-      <c r="K65" s="9" t="n">
-        <v>-12.89</v>
+      <c r="K65" s="8" t="n">
+        <v>-8.949999999999999</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,17 +4984,17 @@
         <v>171152.16</v>
       </c>
       <c r="E66" s="25" t="n">
-        <v>176201.15</v>
+        <v>176218.26</v>
       </c>
       <c r="F66" s="25" t="n">
-        <v>154.04</v>
+        <v>171.15</v>
       </c>
       <c r="G66" s="24" t="n">
-        <v>1.0295</v>
+        <v>1.0296</v>
       </c>
       <c r="H66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I66" s="24" t="n">
@@ -5003,12 +5003,12 @@
       <c r="J66" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K66" s="8" t="n">
-        <v>17.12</v>
+      <c r="K66" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M66" s="26" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>11598.58</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>17339.88</v>
+        <v>17363.07</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>339.84</v>
+        <v>363.04</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.495</v>
+        <v>1.497</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.495</v>
+        <v>1.4971</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>0</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K67" s="9" t="n">
+        <v>1.16</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5132,7 +5132,7 @@
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
@@ -5141,12 +5141,12 @@
       <c r="J68" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K68" s="8" t="n">
+      <c r="K68" s="9" t="n">
         <v>12.89</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
@@ -5210,12 +5210,12 @@
       <c r="J69" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K69" s="8" t="n">
+      <c r="K69" s="9" t="n">
         <v>13.27</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5270,21 +5270,21 @@
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
         <v>1.2452</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K70" s="8" t="n">
+        <v>0.0002</v>
+      </c>
+      <c r="K70" s="9" t="n">
         <v>11.94</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5339,21 +5339,21 @@
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2938</v>
+        <v>1.294</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>61.57</v>
+        <v>0.0008</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>76.95999999999999</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5398,17 +5398,17 @@
         <v>140577.44</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>151753.35</v>
+        <v>151781.46</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>28.12</v>
+        <v>56.23</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.0795</v>
+        <v>1.0797</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
@@ -5418,11 +5418,11 @@
         <v>0.0001</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>14.06</v>
+        <v>-14.06</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>1029.32</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>1475.02</v>
+        <v>1484.28</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>6.9</v>
+        <v>16.16</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>1.433</v>
+        <v>1.442</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>1.4423</v>
+        <v>1.4429</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>9.57</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>0.93</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>874.15</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1419.62</v>
+        <v>1428.36</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-24.65</v>
+        <v>-15.91</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.624</v>
+        <v>1.634</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.6336</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0059</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>7.17</v>
+        <v>-0.35</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>898.04</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1310.06</v>
+        <v>1321.47</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>99.05</v>
+        <v>110.46</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4715</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4698</v>
+        <v>1.4696</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0075</v>
+        <v>0.0074</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>9.880000000000001</v>
+        <v>-1.71</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>1336.21</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1248.96</v>
+        <v>1245.75</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>2.54</v>
+        <v>-0.67</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9347</v>
+        <v>0.9323</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9316</v>
+        <v>0.9322</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>-4.14</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-0.13</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>492.58</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>926.54</v>
+        <v>924.67</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>41.57</v>
+        <v>39.7</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.881</v>
+        <v>1.8772</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8769</v>
+        <v>1.8772</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.002</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>-2.02</v>
+        <v>0</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>398.66</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>869.4</v>
+        <v>869.4400000000001</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>23.96</v>
+        <v>24</v>
       </c>
       <c r="G78" s="4" t="n">
+        <v>2.1809</v>
+      </c>
+      <c r="H78" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I78" s="4" t="n">
         <v>2.1808</v>
       </c>
-      <c r="H78" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I78" s="4" t="n">
-        <v>2.1806</v>
-      </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>-0.08</v>
+        <v>0</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>373.42</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>358.48</v>
+        <v>356.65</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>0.04</v>
+        <v>-1.79</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>-1.76</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>214.89</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>204.45</v>
+        <v>205.18</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-6.77</v>
+        <v>-6.04</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9514</v>
+        <v>0.9548</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9529</v>
+        <v>0.9536</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0023</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.32</v>
+        <v>-0.26</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>212.74</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>163.24</v>
+        <v>162.55</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>20.53</v>
+        <v>19.85</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.7641</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7639</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>-0.79</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>62.09</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>81.65000000000001</v>
+        <v>82.27</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.315</v>
+        <v>1.325</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.326</v>
+        <v>1.3259</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <v>0.68</v>
+        <v>0.0083</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0.06</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>24.24</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>32.83</v>
+        <v>33.04</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-4.25</v>
+        <v>-4.04</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.3544</v>
+        <v>1.3631</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3631</v>
+        <v>1.3638</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K83" s="8" t="n">
-        <v>0.21</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <v>0.02</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>946.4299999999999</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1537</v>
+        <v>1546.47</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-31.14</v>
+        <v>-21.67</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.624</v>
+        <v>1.634</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6322</v>
+        <v>1.6336</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.005</v>
+        <v>0.0059</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>7.76</v>
+        <v>-0.38</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>1025.65</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1469.76</v>
+        <v>1478.99</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>8.41</v>
+        <v>17.64</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.433</v>
+        <v>1.442</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4423</v>
+        <v>1.4429</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>9.539999999999999</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>0.92</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>915.97</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1336.22</v>
+        <v>1347.85</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>98.38</v>
+        <v>110.01</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4588</v>
+        <v>1.4715</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4698</v>
+        <v>1.4696</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0075</v>
+        <v>0.0074</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>10.08</v>
+        <v>-1.74</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>1367.69</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1278.38</v>
+        <v>1275.1</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>1.78</v>
+        <v>-1.5</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9347</v>
+        <v>0.9323</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9316</v>
+        <v>0.9322</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>-4.24</v>
+        <v>-0.0027</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>-0.14</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>528.99</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>995.03</v>
+        <v>993.02</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>43.27</v>
+        <v>41.26</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.881</v>
+        <v>1.8772</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8769</v>
+        <v>1.8772</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0022</v>
+        <v>-0.002</v>
       </c>
       <c r="K88" s="9" t="n">
-        <v>-2.17</v>
+        <v>0</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>390.29</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>851.14</v>
+        <v>851.1799999999999</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>22.79</v>
+        <v>22.83</v>
       </c>
       <c r="G89" s="4" t="n">
+        <v>2.1809</v>
+      </c>
+      <c r="H89" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I89" s="4" t="n">
         <v>2.1808</v>
       </c>
-      <c r="H89" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-10</t>
-        </is>
-      </c>
-      <c r="I89" s="4" t="n">
-        <v>2.1806</v>
-      </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>-0.08</v>
+        <v>0</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>392.19</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>376.5</v>
+        <v>374.58</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>0.55</v>
+        <v>-1.37</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>-1.84</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>-0.08</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>227.52</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>216.46</v>
+        <v>217.24</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-7.05</v>
+        <v>-6.28</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9514</v>
+        <v>0.9548</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9529</v>
+        <v>0.9536</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0016</v>
+        <v>0.0023</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0.34</v>
+        <v>-0.27</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>142.1</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>186.86</v>
+        <v>188.28</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>4.41</v>
+        <v>5.83</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.315</v>
+        <v>1.325</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.326</v>
+        <v>1.3259</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.008399999999999999</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>1.56</v>
+        <v>0.0083</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>0.13</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>212.74</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>163.24</v>
+        <v>162.55</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>20.53</v>
+        <v>19.85</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.7641</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7635999999999999</v>
+        <v>0.7639</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>-0.79</v>
+        <v>-0.0044</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>24.24</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>32.83</v>
+        <v>33.04</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>-4.25</v>
+        <v>-4.04</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.3544</v>
+        <v>1.3631</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3631</v>
+        <v>1.3638</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0065</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>0.21</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>0.02</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>9697.57</v>
       </c>
       <c r="E95" s="31" t="n">
-        <v>10733.27</v>
+        <v>10692.54</v>
       </c>
       <c r="F95" s="31" t="n">
-        <v>532.4</v>
+        <v>491.67</v>
       </c>
       <c r="G95" s="30" t="n">
-        <v>1.1068</v>
+        <v>1.1026</v>
       </c>
       <c r="H95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I95" s="30" t="n">
-        <v>1.1018</v>
+        <v>1.1023</v>
       </c>
       <c r="J95" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>-48.49</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>-2.91</v>
       </c>
       <c r="L95" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M95" s="32" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>8677.6</v>
       </c>
       <c r="E96" s="31" t="n">
-        <v>9580.07</v>
+        <v>9632.139999999999</v>
       </c>
       <c r="F96" s="31" t="n">
-        <v>779.25</v>
+        <v>831.3099999999999</v>
       </c>
       <c r="G96" s="30" t="n">
-        <v>1.104</v>
+        <v>1.11</v>
       </c>
       <c r="H96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I96" s="30" t="n">
-        <v>1.1096</v>
+        <v>1.1105</v>
       </c>
       <c r="J96" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>48.59</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>4.34</v>
       </c>
       <c r="L96" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M96" s="32" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>6096.21</v>
       </c>
       <c r="E97" s="31" t="n">
-        <v>5852.36</v>
+        <v>5822.49</v>
       </c>
       <c r="F97" s="31" t="n">
-        <v>652.29</v>
+        <v>622.42</v>
       </c>
       <c r="G97" s="30" t="n">
-        <v>0.96</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I97" s="30" t="n">
-        <v>0.9553</v>
+        <v>0.9549</v>
       </c>
       <c r="J97" s="33" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>-28.65</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>-1.22</v>
       </c>
       <c r="L97" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M97" s="32" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>6750.28</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5631.76</v>
+        <v>5618.93</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>831.63</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8343</v>
+        <v>0.8324</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8322000000000001</v>
+        <v>0.8323</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0026</v>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>-14.18</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>-0.68</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>2760.12</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4485.19</v>
+        <v>4499</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>885.17</v>
+        <v>898.97</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.625</v>
+        <v>1.63</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.625</v>
+        <v>1.6259</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>0</v>
+        <v>-11.32</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>4423.48</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3474.64</v>
+        <v>3456.95</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>274.26</v>
+        <v>256.56</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7855</v>
+        <v>0.7815</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7818000000000001</v>
+        <v>0.7812</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K100" s="9" t="n">
-        <v>-16.37</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>-1.33</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>1981.84</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3379.04</v>
+        <v>3383</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>187.88</v>
+        <v>191.84</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.705</v>
+        <v>1.707</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.7057</v>
+        <v>1.7056</v>
       </c>
       <c r="J101" s="33" t="n">
         <v>0.0004</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>1.39</v>
+        <v>-2.77</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2046.97</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3348.84</v>
+        <v>3342.7</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>636.61</v>
+        <v>630.47</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.636</v>
+        <v>1.633</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6287</v>
+        <v>1.6293</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K102" s="9" t="n">
-        <v>-14.94</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>-7.57</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>5949.77</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3331.28</v>
+        <v>3306.88</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>130.89</v>
+        <v>106.5</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5599</v>
+        <v>0.5558</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5557</v>
+        <v>0.5556</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>-24.99</v>
+        <v>-0.0076</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>-1.19</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,17 +7606,17 @@
         <v>1884.74</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2257.92</v>
+        <v>2254.15</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>257.83</v>
+        <v>254.06</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.198</v>
+        <v>1.196</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
@@ -7625,7 +7625,7 @@
       <c r="J104" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K104" s="8" t="n">
+      <c r="K104" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>1213.09</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2174.22</v>
+        <v>2155.42</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>574.16</v>
+        <v>555.35</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7923</v>
+        <v>1.7768</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7771</v>
+        <v>1.7768</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.008500000000000001</v>
+        <v>-0.0086</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>-18.44</v>
+        <v>0</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>1630.08</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1902.47</v>
+        <v>1905.73</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>302.38</v>
+        <v>305.64</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.1671</v>
+        <v>1.1691</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1685</v>
+        <v>1.1687</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0012</v>
+        <v>0.0014</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>2.28</v>
+        <v>-0.65</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,31 +7813,31 @@
         <v>1407.29</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1839.33</v>
+        <v>1836.51</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>239.24</v>
+        <v>236.42</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.307</v>
+        <v>1.305</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3061</v>
+        <v>1.3078</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>-0.0007</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K107" s="9" t="n">
-        <v>-1.27</v>
+        <v>3.94</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 05:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1338.46</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1346.49</v>
+        <v>1350.51</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>146.43</v>
+        <v>150.44</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.006</v>
+        <v>1.009</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.0093</v>
+        <v>1.0101</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0033</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>4.42</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>1.47</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,17 +7951,17 @@
         <v>3350.7</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1276.62</v>
+        <v>1283.32</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-323.68</v>
+        <v>-316.98</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.381</v>
+        <v>0.383</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-09</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
@@ -7971,11 +7971,11 @@
         <v>0.0026</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>0</v>
+        <v>-6.7</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 15:04</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,17 +8020,17 @@
         <v>1495.03</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1223.53</v>
+        <v>1218.9</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>23.47</v>
+        <v>18.84</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8184</v>
+        <v>0.8153</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
@@ -8040,11 +8040,11 @@
         <v>-0.0038</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-4.63</v>
+        <v>0</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>900.35</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>979.58</v>
+        <v>986.33</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>179.53</v>
+        <v>186.28</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.088</v>
+        <v>1.0955</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0947</v>
+        <v>1.0954</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0062</v>
+        <v>0.0068</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>6.03</v>
+        <v>-0.09</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>733.79</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>894.5599999999999</v>
+        <v>892.88</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>94.51000000000001</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2191</v>
+        <v>1.2168</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2162</v>
+        <v>1.2209</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0023</v>
+        <v>0.0034</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-2.13</v>
+        <v>3.01</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-12 02:29</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>496.13</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>491.12</v>
+        <v>491.81</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>91.09</v>
+        <v>91.78</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9899</v>
+        <v>0.9913</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9908</v>
+        <v>0.9911</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.001</v>
+        <v>0.0012</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>0.45</v>
+        <v>-0.1</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>333.04</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>456.66</v>
+        <v>457.13</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>56.65</v>
+        <v>57.12</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.3712</v>
+        <v>1.3726</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3732</v>
+        <v>1.3734</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K114" s="8" t="n">
-        <v>0.67</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>0.27</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>325.61</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>424.92</v>
+        <v>425.25</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>24.91</v>
+        <v>25.23</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.305</v>
+        <v>1.306</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.305</v>
+        <v>1.3057</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>0</v>
+        <v>-0.1</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>275.49</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>408.36</v>
+        <v>411.47</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>8.35</v>
+        <v>11.46</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.4823</v>
+        <v>1.4936</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4936</v>
+        <v>1.4934</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0076</v>
+        <v>0.0075</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>3.11</v>
+        <v>-0.06</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:41</t>
+          <t>2019-12-11 16:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>206.23</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>409.8</v>
+        <v>408.97</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>9.800000000000001</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9871</v>
+        <v>1.9831</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.9782</v>
+        <v>1.979</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K117" s="9" t="n">
-        <v>-1.84</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K117" s="8" t="n">
+        <v>-0.85</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:39</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>275.96</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>244</v>
+        <v>243.07</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>15.23</v>
+        <v>14.29</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>0.8842</v>
+        <v>0.8808</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>0.8802</v>
+        <v>0.8806</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0046</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>-1.1</v>
+        <v>-0.0041</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>-0.06</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 14:40</t>
+          <t>2019-12-11 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -439,7 +439,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q118"/>
+  <dimension ref="A1:Q121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6515</v>
+        <v>1.6508</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2352.23</v>
+        <v>2422.08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3843.54</v>
+        <v>3962.52</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-41.16</v>
+        <v>-35.85</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.634</v>
+        <v>1.636</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6336</v>
+        <v>1.636</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0059</v>
+        <v>0.0012</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4266</v>
+        <v>1.4268</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2620.53</v>
+        <v>2699.6</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3778.8</v>
+        <v>3887.42</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>40.36</v>
+        <v>35.63</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.442</v>
+        <v>1.44</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4429</v>
+        <v>1.4393</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0069</v>
+        <v>-0.0019</v>
       </c>
       <c r="K3" s="9" t="n">
-        <v>2.36</v>
+        <v>-1.89</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -693,26 +693,26 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B4" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1.3481</v>
+        <v>0.9331</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>2260.14</v>
+        <v>3620.67</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3325.8</v>
+        <v>3375.55</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>278.9</v>
+        <v>-2.9</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.4715</v>
+        <v>0.9323</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
@@ -720,37 +720,37 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.4696</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>-4.29</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>-5.07</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N4" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O4" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P4" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q4" s="6" t="inlineStr">
@@ -762,64 +762,64 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B5" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.9330000000000001</v>
+        <v>1.3481</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3509.02</v>
+        <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3271.46</v>
+        <v>3348.17</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-2.46</v>
+        <v>301.28</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>0.9323</v>
+        <v>1.4814</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>0.9322</v>
+        <v>1.4896</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0027</v>
+        <v>0.0123</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>-0.35</v>
+        <v>18.53</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N5" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O5" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P5" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2559.32</v>
+        <v>2553.05</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107.02</v>
+        <v>100.75</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8772</v>
+        <v>1.8726</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8772</v>
+        <v>1.8726</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K6" s="9" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K6" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1233</v>
+        <v>2.1257</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1017.99</v>
+        <v>1059.44</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2220.13</v>
+        <v>2306.82</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>58.64</v>
+        <v>54.77</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1809</v>
+        <v>2.1774</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1808</v>
+        <v>2.1774</v>
       </c>
       <c r="J7" s="7" t="n">
+        <v>-0.0016</v>
+      </c>
+      <c r="K7" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K7" s="8" t="n">
-        <v>-0.1</v>
-      </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -976,16 +976,16 @@
         <v>968</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>0.9587</v>
+        <v>0.9589</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>980.46</v>
+        <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>936.4400000000001</v>
+        <v>1019.49</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-3.53</v>
+        <v>-4.06</v>
       </c>
       <c r="G8" s="4" t="n">
         <v>0.9550999999999999</v>
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9549</v>
+        <v>0.9546</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>-0.2</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>-0.53</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9536</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>-0.66</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K9" s="9" t="n">
+        <v>-1.49</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406.4</v>
+        <v>406.03</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49.62</v>
+        <v>49.25</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7641</v>
+        <v>0.7634</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7639</v>
+        <v>0.7633</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0044</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>-0.11</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3259</v>
+        <v>1.3261</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0083</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>0.22</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>0.27</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1245,233 +1245,233 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C12" s="4" t="n">
+        <v>1.214</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>85.65000000000001</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>104.7</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G12" s="4" t="n">
+        <v>1.2224</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I12" s="4" t="n">
+        <v>1.2224</v>
+      </c>
+      <c r="J12" s="7" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M12" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N12" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O12" s="6" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="P12" s="6" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Q12" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="inlineStr">
+        <is>
           <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
-      <c r="B12" s="3" t="n">
+      <c r="B13" s="3" t="n">
         <v>310398</v>
       </c>
-      <c r="C12" s="4" t="n">
-        <v>1.5296</v>
-      </c>
-      <c r="D12" s="5" t="n">
-        <v>60.61</v>
-      </c>
-      <c r="E12" s="5" t="n">
-        <v>82.62</v>
-      </c>
-      <c r="F12" s="5" t="n">
-        <v>-10.09</v>
-      </c>
-      <c r="G12" s="4" t="n">
-        <v>1.3631</v>
-      </c>
-      <c r="H12" s="6" t="inlineStr">
+      <c r="C13" s="4" t="n">
+        <v>1.4374</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>64.5</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>87.76000000000001</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>-4.95</v>
+      </c>
+      <c r="G13" s="4" t="n">
+        <v>1.3606</v>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>1.3605</v>
+      </c>
+      <c r="J13" s="7" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>-0.01</v>
+      </c>
+      <c r="L13" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M13" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N13" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O13" s="6" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="P13" s="6" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="Q13" s="6" t="inlineStr">
+        <is>
+          <t>螺丝钉定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="10" t="inlineStr">
+        <is>
+          <t>广发中证环保ETF联接基金A</t>
+        </is>
+      </c>
+      <c r="B14" s="11" t="n">
+        <v>1064</v>
+      </c>
+      <c r="C14" s="12" t="n">
+        <v>0.7171999999999999</v>
+      </c>
+      <c r="D14" s="13" t="n">
+        <v>16731.88</v>
+      </c>
+      <c r="E14" s="13" t="n">
+        <v>9299.58</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>-2700.53</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>0.5558</v>
+      </c>
+      <c r="H14" s="14" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="I12" s="4" t="n">
-        <v>1.3638</v>
-      </c>
-      <c r="J12" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>0.04</v>
-      </c>
-      <c r="L12" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M12" s="6" t="inlineStr">
+      <c r="I14" s="12" t="n">
+        <v>0.5544</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>-23.42</v>
+      </c>
+      <c r="L14" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N12" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O12" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P12" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q12" s="6" t="inlineStr">
-        <is>
-          <t>螺丝钉定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="10" t="inlineStr">
-        <is>
-          <t>广发中证环保ETF联接基金A</t>
-        </is>
-      </c>
-      <c r="B13" s="11" t="n">
-        <v>1064</v>
-      </c>
-      <c r="C13" s="12" t="n">
-        <v>0.7171999999999999</v>
-      </c>
-      <c r="D13" s="13" t="n">
-        <v>16731.88</v>
-      </c>
-      <c r="E13" s="13" t="n">
-        <v>9299.58</v>
-      </c>
-      <c r="F13" s="13" t="n">
-        <v>-2700.53</v>
-      </c>
-      <c r="G13" s="12" t="n">
-        <v>0.5558</v>
-      </c>
-      <c r="H13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I13" s="12" t="n">
-        <v>0.5556</v>
-      </c>
-      <c r="J13" s="15" t="n">
-        <v>-0.0076</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>-3.35</v>
-      </c>
-      <c r="L13" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M13" s="14" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N13" s="14" t="inlineStr">
+      <c r="N14" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O13" s="14" t="inlineStr">
+      <c r="O14" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P13" s="14" t="inlineStr">
+      <c r="P14" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q13" s="14" t="inlineStr">
+      <c r="Q14" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="16" t="inlineStr">
-        <is>
-          <t>50ETF</t>
-        </is>
-      </c>
-      <c r="B14" s="17" t="n">
-        <v>510050</v>
-      </c>
-      <c r="C14" s="18" t="n">
-        <v>2.337</v>
-      </c>
-      <c r="D14" s="19" t="n">
-        <v>2700</v>
-      </c>
-      <c r="E14" s="19" t="n">
-        <v>7959.6</v>
-      </c>
-      <c r="F14" s="19" t="n">
-        <v>1649.7</v>
-      </c>
-      <c r="G14" s="18" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="H14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I14" s="18" t="n">
-        <v>2.947</v>
-      </c>
-      <c r="J14" s="21" t="n">
-        <v>0.0048</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>-2.7</v>
-      </c>
-      <c r="L14" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M14" s="20" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N14" s="20" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O14" s="20" t="inlineStr">
-        <is>
-          <t>上证50</t>
-        </is>
-      </c>
-      <c r="P14" s="20" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="Q14" s="20" t="inlineStr">
-        <is>
-          <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="16" t="inlineStr">
         <is>
-          <t>300ETF</t>
+          <t>50ETF</t>
         </is>
       </c>
       <c r="B15" s="17" t="n">
-        <v>510300</v>
+        <v>510050</v>
       </c>
       <c r="C15" s="18" t="n">
-        <v>3.447</v>
+        <v>2.337</v>
       </c>
       <c r="D15" s="19" t="n">
-        <v>9100</v>
+        <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>35492.73</v>
+        <v>7959.6</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>4125.03</v>
+        <v>1649.7</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.9003</v>
+        <v>2.948</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.9</v>
+        <v>2.937</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>-2.73</v>
+        <v>-0.0034</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>-29.7</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1504,12 +1504,12 @@
       </c>
       <c r="O15" s="20" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P15" s="20" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q15" s="20" t="inlineStr">
@@ -1521,44 +1521,44 @@
     <row r="16">
       <c r="A16" s="16" t="inlineStr">
         <is>
-          <t>500ETF</t>
+          <t>300ETF</t>
         </is>
       </c>
       <c r="B16" s="17" t="n">
-        <v>510500</v>
+        <v>510300</v>
       </c>
       <c r="C16" s="18" t="n">
-        <v>5.601</v>
+        <v>3.447</v>
       </c>
       <c r="D16" s="19" t="n">
-        <v>38800</v>
+        <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>211110.8</v>
+        <v>35388.08</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>-6208</v>
+        <v>4020.38</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>5.441</v>
+        <v>3.8888</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>5.437</v>
+        <v>3.889</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0038</v>
+        <v>-0.0028</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>-155.2</v>
+        <v>1.82</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1568,17 +1568,17 @@
       </c>
       <c r="N16" s="20" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O16" s="20" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P16" s="20" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q16" s="20" t="inlineStr">
@@ -1590,26 +1590,26 @@
     <row r="17">
       <c r="A17" s="16" t="inlineStr">
         <is>
-          <t>环保ETF</t>
+          <t>500ETF</t>
         </is>
       </c>
       <c r="B17" s="17" t="n">
-        <v>512580</v>
+        <v>510500</v>
       </c>
       <c r="C17" s="18" t="n">
-        <v>0.877</v>
+        <v>5.601</v>
       </c>
       <c r="D17" s="19" t="n">
-        <v>33800</v>
+        <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>25028.9</v>
+        <v>211110.8</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4613.7</v>
+        <v>-6208</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>0.7405</v>
+        <v>5.441</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>0.738</v>
+        <v>5.426</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0067</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-84.5</v>
+        <v>-0.002</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-582</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1637,17 +1637,17 @@
       </c>
       <c r="N17" s="20" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O17" s="20" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P17" s="20" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q17" s="20" t="inlineStr">
@@ -1659,44 +1659,44 @@
     <row r="18">
       <c r="A18" s="16" t="inlineStr">
         <is>
-          <t>证券ETF</t>
+          <t>环保ETF</t>
         </is>
       </c>
       <c r="B18" s="17" t="n">
-        <v>512880</v>
+        <v>512580</v>
       </c>
       <c r="C18" s="18" t="n">
-        <v>0.783</v>
+        <v>0.877</v>
       </c>
       <c r="D18" s="19" t="n">
-        <v>32700</v>
+        <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>30208.26</v>
+        <v>24961.3</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>4604.16</v>
+        <v>-4681.3</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.9238</v>
+        <v>0.7385</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.924</v>
+        <v>0.738</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0011</v>
+        <v>0</v>
       </c>
       <c r="K18" s="9" t="n">
-        <v>6.54</v>
+        <v>-16.9</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1711,12 +1711,12 @@
       </c>
       <c r="O18" s="20" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P18" s="20" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q18" s="20" t="inlineStr">
@@ -1728,44 +1728,44 @@
     <row r="19">
       <c r="A19" s="16" t="inlineStr">
         <is>
-          <t>传媒ETF</t>
+          <t>证券ETF</t>
         </is>
       </c>
       <c r="B19" s="17" t="n">
-        <v>512980</v>
+        <v>512880</v>
       </c>
       <c r="C19" s="18" t="n">
-        <v>0.869</v>
+        <v>0.783</v>
       </c>
       <c r="D19" s="19" t="n">
-        <v>34100</v>
+        <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>26567.31</v>
+        <v>30034.95</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>-3065.59</v>
+        <v>4430.85</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.7791</v>
+        <v>0.9185</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.78</v>
+        <v>0.919</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.0051</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>30.69</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>16.35</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1780,12 +1780,12 @@
       </c>
       <c r="O19" s="20" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P19" s="20" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q19" s="20" t="inlineStr">
@@ -1797,64 +1797,64 @@
     <row r="20">
       <c r="A20" s="16" t="inlineStr">
         <is>
-          <t>黄金ETF</t>
+          <t>传媒ETF</t>
         </is>
       </c>
       <c r="B20" s="17" t="n">
-        <v>518880</v>
+        <v>512980</v>
       </c>
       <c r="C20" s="18" t="n">
-        <v>2.856</v>
+        <v>0.869</v>
       </c>
       <c r="D20" s="19" t="n">
-        <v>4500</v>
+        <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>14786.55</v>
+        <v>26403.63</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>1934.55</v>
+        <v>-3229.27</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>3.2859</v>
+        <v>0.7743</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>3.282</v>
+        <v>0.775</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0064</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>-17.55</v>
+        <v>23.87</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N20" s="20" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O20" s="20" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P20" s="20" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q20" s="20" t="inlineStr">
@@ -1866,64 +1866,64 @@
     <row r="21">
       <c r="A21" s="16" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金ETF</t>
         </is>
       </c>
       <c r="B21" s="17" t="n">
-        <v>159915</v>
+        <v>518880</v>
       </c>
       <c r="C21" s="18" t="n">
-        <v>1.399</v>
+        <v>2.856</v>
       </c>
       <c r="D21" s="19" t="n">
-        <v>9200</v>
+        <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>15216.8</v>
+        <v>14874.75</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2346</v>
+        <v>2022.75</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>1.654</v>
+        <v>3.3055</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>1.653</v>
+        <v>3.3</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0102</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>-9.199999999999999</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-24.75</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-11 15:04</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N21" s="20" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O21" s="20" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P21" s="20" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q21" s="20" t="inlineStr">
@@ -1935,164 +1935,164 @@
     <row r="22">
       <c r="A22" s="16" t="inlineStr">
         <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="B22" s="17" t="n">
+        <v>159915</v>
+      </c>
+      <c r="C22" s="18" t="n">
+        <v>1.399</v>
+      </c>
+      <c r="D22" s="19" t="n">
+        <v>9200</v>
+      </c>
+      <c r="E22" s="19" t="n">
+        <v>15242.56</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>2371.76</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>1.6568</v>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.657</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>0.0024</v>
+      </c>
+      <c r="K22" s="8" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N22" s="20" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O22" s="20" t="inlineStr">
+        <is>
+          <t>创业板</t>
+        </is>
+      </c>
+      <c r="P22" s="20" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="Q22" s="20" t="inlineStr">
+        <is>
+          <t>股票账户</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="16" t="inlineStr">
+        <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B23" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C23" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D23" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E22" s="19" t="n">
-        <v>19219.68</v>
-      </c>
-      <c r="F22" s="19" t="n">
-        <v>917.28</v>
-      </c>
-      <c r="G22" s="18" t="n">
-        <v>1.3347</v>
-      </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
+      <c r="E23" s="19" t="n">
+        <v>19190.88</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>888.48</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>1.3327</v>
+      </c>
+      <c r="H23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I23" s="18" t="n">
         <v>1.335</v>
       </c>
-      <c r="J22" s="21" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K22" s="9" t="n">
-        <v>4.32</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:04</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+      <c r="J23" s="21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>33.12</v>
+      </c>
+      <c r="L23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:04</t>
+        </is>
+      </c>
+      <c r="M23" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N23" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O23" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P23" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q23" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="22" t="inlineStr">
-        <is>
-          <t>建信中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="B23" s="23" t="n">
-        <v>478</v>
-      </c>
-      <c r="C23" s="24" t="n">
-        <v>1.9252</v>
-      </c>
-      <c r="D23" s="25" t="n">
-        <v>4157.52</v>
-      </c>
-      <c r="E23" s="25" t="n">
-        <v>8244.780000000001</v>
-      </c>
-      <c r="F23" s="25" t="n">
-        <v>240.72</v>
-      </c>
-      <c r="G23" s="24" t="n">
-        <v>1.9831</v>
-      </c>
-      <c r="H23" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I23" s="24" t="n">
-        <v>1.979</v>
-      </c>
-      <c r="J23" s="27" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>-17.05</v>
-      </c>
-      <c r="L23" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M23" s="26" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N23" s="26" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O23" s="26" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P23" s="26" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q23" s="26" t="inlineStr">
-        <is>
-          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="22" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B24" s="23" t="n">
-        <v>1064</v>
+        <v>478</v>
       </c>
       <c r="C24" s="24" t="n">
-        <v>0.5489000000000001</v>
+        <v>1.9252</v>
       </c>
       <c r="D24" s="25" t="n">
-        <v>9722</v>
+        <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>5403.49</v>
+        <v>8244.780000000001</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>67.08</v>
+        <v>240.72</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>0.5558</v>
+        <v>1.9831</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>0.5556</v>
+        <v>1.9774</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0076</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>-1.94</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-23.7</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2120,17 +2120,17 @@
       </c>
       <c r="N24" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O24" s="26" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P24" s="26" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q24" s="26" t="inlineStr">
@@ -2142,26 +2142,26 @@
     <row r="25">
       <c r="A25" s="22" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B25" s="23" t="n">
-        <v>968</v>
+        <v>1064</v>
       </c>
       <c r="C25" s="24" t="n">
-        <v>0.9444</v>
+        <v>0.5489000000000001</v>
       </c>
       <c r="D25" s="25" t="n">
-        <v>4943.96</v>
+        <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>4721.98</v>
+        <v>5403.49</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>52.9</v>
+        <v>67.08</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.5558</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.9549</v>
+        <v>0.5544</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>-0.99</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-13.61</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2194,12 +2194,12 @@
       </c>
       <c r="O25" s="26" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P25" s="26" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q25" s="26" t="inlineStr">
@@ -2211,26 +2211,26 @@
     <row r="26">
       <c r="A26" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B26" s="23" t="n">
-        <v>1052</v>
+        <v>968</v>
       </c>
       <c r="C26" s="24" t="n">
-        <v>0.5423</v>
+        <v>0.9444</v>
       </c>
       <c r="D26" s="25" t="n">
-        <v>7379.54</v>
+        <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4125.16</v>
+        <v>4721.98</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>123.24</v>
+        <v>52.9</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.5587</v>
+        <v>0.9546</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>-2.21</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>-2.47</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2258,17 +2258,17 @@
       </c>
       <c r="N26" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O26" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P26" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q26" s="26" t="inlineStr">
@@ -2280,26 +2280,26 @@
     <row r="27">
       <c r="A27" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B27" s="23" t="n">
-        <v>100032</v>
+        <v>1052</v>
       </c>
       <c r="C27" s="24" t="n">
-        <v>1.0919</v>
+        <v>0.5423</v>
       </c>
       <c r="D27" s="25" t="n">
-        <v>3665.01</v>
+        <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4068.16</v>
+        <v>4125.16</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>66.34</v>
+        <v>123.24</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>1.11</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>1.1105</v>
+        <v>0.5574</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0059</v>
+        <v>-0.0029</v>
       </c>
       <c r="K27" s="9" t="n">
-        <v>1.83</v>
+        <v>-11.81</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2327,17 +2327,17 @@
       </c>
       <c r="N27" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O27" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P27" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q27" s="26" t="inlineStr">
@@ -2349,44 +2349,44 @@
     <row r="28">
       <c r="A28" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B28" s="23" t="n">
-        <v>4752</v>
+        <v>100032</v>
       </c>
       <c r="C28" s="24" t="n">
-        <v>0.7329</v>
+        <v>1.0919</v>
       </c>
       <c r="D28" s="25" t="n">
-        <v>4550.55</v>
+        <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>3556.25</v>
+        <v>4071.83</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>221.16</v>
+        <v>70</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>0.7815</v>
+        <v>1.111</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>0.7812</v>
+        <v>1.1114</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0054</v>
+        <v>0.0012</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-1.37</v>
+        <v>1.47</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2396,17 +2396,17 @@
       </c>
       <c r="N28" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O28" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P28" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q28" s="26" t="inlineStr">
@@ -2418,26 +2418,26 @@
     <row r="29">
       <c r="A29" s="22" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B29" s="23" t="n">
-        <v>110026</v>
+        <v>4752</v>
       </c>
       <c r="C29" s="24" t="n">
-        <v>1.6649</v>
+        <v>0.7329</v>
       </c>
       <c r="D29" s="25" t="n">
-        <v>400.63</v>
+        <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>711.84</v>
+        <v>3556.25</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>44.83</v>
+        <v>221.16</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>1.7768</v>
+        <v>0.7815</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>1.7768</v>
+        <v>0.7768</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.0086</v>
+        <v>-0.006</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>0</v>
+        <v>-21.39</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2465,17 +2465,17 @@
       </c>
       <c r="N29" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O29" s="26" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P29" s="26" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q29" s="26" t="inlineStr">
@@ -2487,44 +2487,44 @@
     <row r="30">
       <c r="A30" s="22" t="inlineStr">
         <is>
-          <t>广发创业板ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B30" s="23" t="n">
-        <v>3765</v>
+        <v>110026</v>
       </c>
       <c r="C30" s="24" t="n">
-        <v>0.9059</v>
+        <v>1.6649</v>
       </c>
       <c r="D30" s="25" t="n">
-        <v>736.3</v>
+        <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>710.09</v>
+        <v>712.96</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>43.07</v>
+        <v>45.95</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>0.9644</v>
+        <v>1.7796</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>0.9641</v>
+        <v>1.7795</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0086</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-0.22</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2556,26 +2556,26 @@
     <row r="31">
       <c r="A31" s="22" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>广发创业板ETF联接A</t>
         </is>
       </c>
       <c r="B31" s="23" t="n">
-        <v>502010</v>
+        <v>3765</v>
       </c>
       <c r="C31" s="24" t="n">
-        <v>0.9853</v>
+        <v>0.9059</v>
       </c>
       <c r="D31" s="25" t="n">
-        <v>473.85</v>
+        <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>469.73</v>
+        <v>710.09</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>2.84</v>
+        <v>43.07</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9913</v>
+        <v>0.9644</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9911</v>
+        <v>0.9659</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0012</v>
+        <v>0.0015</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>-0.09</v>
+        <v>1.1</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2603,17 +2603,17 @@
       </c>
       <c r="N31" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O31" s="26" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P31" s="26" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q31" s="26" t="inlineStr">
@@ -2625,64 +2625,64 @@
     <row r="32">
       <c r="A32" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B32" s="23" t="n">
-        <v>162411</v>
+        <v>502010</v>
       </c>
       <c r="C32" s="24" t="n">
-        <v>0.3775</v>
+        <v>0.9853</v>
       </c>
       <c r="D32" s="25" t="n">
-        <v>5299.96</v>
+        <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>2029.88</v>
+        <v>467.26</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>29.15</v>
+        <v>0.38</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.383</v>
+        <v>0.9861</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.381</v>
+        <v>0.9859</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>-10.6</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-0.09</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:04</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N32" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O32" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P32" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q32" s="26" t="inlineStr">
@@ -2694,64 +2694,64 @@
     <row r="33">
       <c r="A33" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B33" s="23" t="n">
-        <v>164906</v>
+        <v>162411</v>
       </c>
       <c r="C33" s="24" t="n">
-        <v>1.1564</v>
+        <v>0.3775</v>
       </c>
       <c r="D33" s="25" t="n">
-        <v>576.8</v>
+        <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>752.72</v>
+        <v>2019.28</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>85.70999999999999</v>
+        <v>18.55</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>1.305</v>
+        <v>0.381</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>1.3078</v>
+        <v>0.379</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0052</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>1.62</v>
+        <v>-10.6</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-12 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N33" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O33" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P33" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q33" s="26" t="inlineStr">
@@ -2763,44 +2763,44 @@
     <row r="34">
       <c r="A34" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B34" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C34" s="24" t="n">
-        <v>1.451</v>
+        <v>1.1564</v>
       </c>
       <c r="D34" s="25" t="n">
-        <v>459.67</v>
+        <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>686.5599999999999</v>
+        <v>752.72</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>19.58</v>
+        <v>85.70999999999999</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.305</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.4934</v>
+        <v>1.3058</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0075</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>-0.09</v>
+        <v>0.46</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2810,17 +2810,17 @@
       </c>
       <c r="N34" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O34" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P34" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q34" s="26" t="inlineStr">
@@ -2832,64 +2832,64 @@
     <row r="35">
       <c r="A35" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B35" s="23" t="n">
-        <v>614</v>
+        <v>71</v>
       </c>
       <c r="C35" s="24" t="n">
-        <v>1.0903</v>
+        <v>1.451</v>
       </c>
       <c r="D35" s="25" t="n">
-        <v>611.75</v>
+        <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>731.65</v>
+        <v>686.5599999999999</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>64.66</v>
+        <v>19.58</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.196</v>
+        <v>1.4936</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>0</v>
+        <v>1.5122</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>0</v>
+        <v>0.0124</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>8.550000000000001</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N35" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O35" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P35" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q35" s="26" t="inlineStr">
@@ -2901,95 +2901,95 @@
     <row r="36">
       <c r="A36" s="22" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B36" s="23" t="n">
-        <v>478</v>
+        <v>614</v>
       </c>
       <c r="C36" s="24" t="n">
-        <v>1.9107</v>
+        <v>1.0903</v>
       </c>
       <c r="D36" s="25" t="n">
-        <v>1046.73</v>
+        <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>2075.77</v>
+        <v>731.65</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>75.78</v>
+        <v>64.66</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.9831</v>
+        <v>1.196</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
-        <v>1.979</v>
+        <v>0</v>
       </c>
       <c r="J36" s="27" t="n">
-        <v>-0.0041</v>
+        <v>0</v>
       </c>
       <c r="K36" s="8" t="n">
-        <v>-4.29</v>
+        <v>0</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M36" s="26" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N36" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O36" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P36" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q36" s="26" t="inlineStr">
         <is>
-          <t>且慢 S 定投</t>
+          <t>且慢补充 150 份</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="22" t="inlineStr">
         <is>
-          <t>富国中证红利指数增强</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B37" s="23" t="n">
-        <v>100032</v>
+        <v>478</v>
       </c>
       <c r="C37" s="24" t="n">
-        <v>1.0954</v>
+        <v>1.9107</v>
       </c>
       <c r="D37" s="25" t="n">
-        <v>1825.9</v>
+        <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2026.75</v>
+        <v>2075.77</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>26.66</v>
+        <v>75.78</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.11</v>
+        <v>1.9831</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.1105</v>
+        <v>1.9774</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0059</v>
+        <v>-0.0029</v>
       </c>
       <c r="K37" s="9" t="n">
-        <v>0.91</v>
+        <v>-5.97</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3017,17 +3017,17 @@
       </c>
       <c r="N37" s="26" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O37" s="26" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P37" s="26" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q37" s="26" t="inlineStr">
@@ -3039,44 +3039,44 @@
     <row r="38">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B38" s="23" t="n">
-        <v>1051</v>
+        <v>100032</v>
       </c>
       <c r="C38" s="24" t="n">
-        <v>0.9441000000000001</v>
+        <v>1.0954</v>
       </c>
       <c r="D38" s="25" t="n">
-        <v>1059.17</v>
+        <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>1068.7</v>
+        <v>2028.57</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>68.73999999999999</v>
+        <v>28.48</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.009</v>
+        <v>1.111</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.0101</v>
+        <v>1.1114</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0041</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>1.17</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>0.73</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3086,17 +3086,17 @@
       </c>
       <c r="N38" s="26" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O38" s="26" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P38" s="26" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q38" s="26" t="inlineStr">
@@ -3108,26 +3108,26 @@
     <row r="39">
       <c r="A39" s="22" t="inlineStr">
         <is>
-          <t>华夏中证500ETF联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B39" s="23" t="n">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="C39" s="24" t="n">
-        <v>0.5517</v>
+        <v>0.9441000000000001</v>
       </c>
       <c r="D39" s="25" t="n">
-        <v>1812.7</v>
+        <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1013.3</v>
+        <v>1068.7</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>13.23</v>
+        <v>68.73999999999999</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>0.5590000000000001</v>
+        <v>1.009</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>0.5587</v>
+        <v>1.0053</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>-0.54</v>
+        <v>-0.0037</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-3.92</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3155,17 +3155,17 @@
       </c>
       <c r="N39" s="26" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O39" s="26" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P39" s="26" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q39" s="26" t="inlineStr">
@@ -3177,26 +3177,26 @@
     <row r="40">
       <c r="A40" s="22" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>华夏中证500ETF联接A</t>
         </is>
       </c>
       <c r="B40" s="23" t="n">
-        <v>4752</v>
+        <v>1052</v>
       </c>
       <c r="C40" s="24" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.5517</v>
       </c>
       <c r="D40" s="25" t="n">
-        <v>1227.03</v>
+        <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>958.92</v>
+        <v>1013.3</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>-41.11</v>
+        <v>13.23</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.7815</v>
+        <v>0.5590000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.7812</v>
+        <v>0.5574</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>-0.37</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-2.9</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3224,17 +3224,17 @@
       </c>
       <c r="N40" s="26" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O40" s="26" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P40" s="26" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q40" s="26" t="inlineStr">
@@ -3246,26 +3246,26 @@
     <row r="41">
       <c r="A41" s="22" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B41" s="23" t="n">
-        <v>216</v>
+        <v>4752</v>
       </c>
       <c r="C41" s="24" t="n">
-        <v>1.0902</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="D41" s="25" t="n">
-        <v>1834.47</v>
+        <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>2232.18</v>
+        <v>958.92</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>232.24</v>
+        <v>-41.11</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>1.2168</v>
+        <v>0.7815</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
@@ -3273,37 +3273,37 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>1.2209</v>
+        <v>0.7768</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0034</v>
+        <v>-0.006</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>7.52</v>
+        <v>-5.77</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 02:29</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N41" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O41" s="26" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P41" s="26" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q41" s="26" t="inlineStr">
@@ -3315,64 +3315,64 @@
     <row r="42">
       <c r="A42" s="22" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B42" s="23" t="n">
-        <v>164906</v>
+        <v>216</v>
       </c>
       <c r="C42" s="24" t="n">
-        <v>1.1113</v>
+        <v>1.0902</v>
       </c>
       <c r="D42" s="25" t="n">
-        <v>899.8200000000001</v>
+        <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>1174.27</v>
+        <v>2232.18</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>174.3</v>
+        <v>232.24</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.305</v>
+        <v>1.2168</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.3078</v>
+        <v>1.2189</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>2.52</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>3.85</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-12 20:32</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N42" s="26" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O42" s="26" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P42" s="26" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q42" s="26" t="inlineStr">
@@ -3384,44 +3384,44 @@
     <row r="43">
       <c r="A43" s="22" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B43" s="23" t="n">
-        <v>71</v>
+        <v>164906</v>
       </c>
       <c r="C43" s="24" t="n">
-        <v>1.4513</v>
+        <v>1.1113</v>
       </c>
       <c r="D43" s="25" t="n">
-        <v>689.02</v>
+        <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1029.12</v>
+        <v>1174.27</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>29.15</v>
+        <v>174.3</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.305</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.4934</v>
+        <v>1.3058</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0075</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>-0.14</v>
+        <v>0.72</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3431,17 +3431,17 @@
       </c>
       <c r="N43" s="26" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O43" s="26" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P43" s="26" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q43" s="26" t="inlineStr">
@@ -3453,64 +3453,64 @@
     <row r="44">
       <c r="A44" s="22" t="inlineStr">
         <is>
-          <t>华宝标普石油指数</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B44" s="23" t="n">
-        <v>162411</v>
+        <v>71</v>
       </c>
       <c r="C44" s="24" t="n">
-        <v>0.4204</v>
+        <v>1.4513</v>
       </c>
       <c r="D44" s="25" t="n">
-        <v>4757.9</v>
+        <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1822.28</v>
+        <v>1029.12</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>-177.95</v>
+        <v>29.15</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>0.383</v>
+        <v>1.4936</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>0.381</v>
+        <v>1.5122</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0026</v>
+        <v>0.0124</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>-9.52</v>
+        <v>12.82</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:04</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N44" s="26" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O44" s="26" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P44" s="26" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q44" s="26" t="inlineStr">
@@ -3522,64 +3522,64 @@
     <row r="45">
       <c r="A45" s="22" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>华宝标普石油指数</t>
         </is>
       </c>
       <c r="B45" s="23" t="n">
-        <v>614</v>
+        <v>162411</v>
       </c>
       <c r="C45" s="24" t="n">
-        <v>1.0483</v>
+        <v>0.4204</v>
       </c>
       <c r="D45" s="25" t="n">
-        <v>953.96</v>
+        <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1140.94</v>
+        <v>1812.76</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>140.9</v>
+        <v>-187.46</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>1.196</v>
+        <v>0.381</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0</v>
+        <v>0.379</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0</v>
+        <v>-0.0052</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>0</v>
+        <v>-9.52</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-12 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N45" s="26" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O45" s="26" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P45" s="26" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q45" s="26" t="inlineStr">
@@ -3591,182 +3591,182 @@
     <row r="46">
       <c r="A46" s="22" t="inlineStr">
         <is>
+          <t>华安德国30(DAX)联接</t>
+        </is>
+      </c>
+      <c r="B46" s="23" t="n">
+        <v>614</v>
+      </c>
+      <c r="C46" s="24" t="n">
+        <v>1.0483</v>
+      </c>
+      <c r="D46" s="25" t="n">
+        <v>953.96</v>
+      </c>
+      <c r="E46" s="25" t="n">
+        <v>1140.94</v>
+      </c>
+      <c r="F46" s="25" t="n">
+        <v>140.9</v>
+      </c>
+      <c r="G46" s="24" t="n">
+        <v>1.196</v>
+      </c>
+      <c r="H46" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-10</t>
+        </is>
+      </c>
+      <c r="I46" s="24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" s="27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" s="26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M46" s="26" t="inlineStr">
+        <is>
+          <t>海外成熟</t>
+        </is>
+      </c>
+      <c r="N46" s="26" t="inlineStr">
+        <is>
+          <t>德国</t>
+        </is>
+      </c>
+      <c r="O46" s="26" t="inlineStr">
+        <is>
+          <t>德国30</t>
+        </is>
+      </c>
+      <c r="P46" s="26" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="Q46" s="26" t="inlineStr">
+        <is>
+          <t>且慢 S 定投</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="22" t="inlineStr">
+        <is>
           <t>易方达安心债券A</t>
         </is>
       </c>
-      <c r="B46" s="23" t="n">
+      <c r="B47" s="23" t="n">
         <v>110027</v>
       </c>
-      <c r="C46" s="24" t="n">
+      <c r="C47" s="24" t="n">
         <v>1.6793</v>
       </c>
-      <c r="D46" s="25" t="n">
+      <c r="D47" s="25" t="n">
         <v>595.47</v>
       </c>
-      <c r="E46" s="25" t="n">
-        <v>1016.47</v>
-      </c>
-      <c r="F46" s="25" t="n">
-        <v>16.49</v>
-      </c>
-      <c r="G46" s="24" t="n">
-        <v>1.707</v>
-      </c>
-      <c r="H46" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I46" s="24" t="n">
-        <v>1.7056</v>
-      </c>
-      <c r="J46" s="27" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K46" s="8" t="n">
-        <v>-0.83</v>
-      </c>
-      <c r="L46" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M46" s="26" t="inlineStr">
+      <c r="E47" s="25" t="n">
+        <v>1017.66</v>
+      </c>
+      <c r="F47" s="25" t="n">
+        <v>17.69</v>
+      </c>
+      <c r="G47" s="24" t="n">
+        <v>1.709</v>
+      </c>
+      <c r="H47" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I47" s="24" t="n">
+        <v>1.708</v>
+      </c>
+      <c r="J47" s="27" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="L47" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M47" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N46" s="26" t="inlineStr">
+      <c r="N47" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O46" s="26" t="inlineStr">
+      <c r="O47" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P46" s="26" t="inlineStr">
+      <c r="P47" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q46" s="26" t="inlineStr">
+      <c r="Q47" s="26" t="inlineStr">
         <is>
           <t>且慢 S 定投</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B47" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C47" s="30" t="n">
-        <v>1.0193</v>
-      </c>
-      <c r="D47" s="31" t="n">
-        <v>65064.33</v>
-      </c>
-      <c r="E47" s="31" t="n">
-        <v>72221.41</v>
-      </c>
-      <c r="F47" s="31" t="n">
-        <v>5901.33</v>
-      </c>
-      <c r="G47" s="30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H47" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I47" s="30" t="n">
-        <v>1.1105</v>
-      </c>
-      <c r="J47" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>32.53</v>
-      </c>
-      <c r="L47" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M47" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N47" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O47" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P47" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q47" s="32" t="inlineStr">
-        <is>
-          <t>天天基金</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="28" t="inlineStr">
         <is>
-          <t>广发养老指数A</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B48" s="29" t="n">
-        <v>968</v>
+        <v>100032</v>
       </c>
       <c r="C48" s="30" t="n">
-        <v>0.9167</v>
+        <v>1.0193</v>
       </c>
       <c r="D48" s="31" t="n">
-        <v>63490</v>
+        <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>60639.3</v>
+        <v>72286.47</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>2438.02</v>
+        <v>5966.4</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>0.9550999999999999</v>
+        <v>1.111</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>0.9549</v>
+        <v>1.1114</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0053</v>
+        <v>0.0012</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-12.7</v>
+        <v>26.03</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3776,17 +3776,17 @@
       </c>
       <c r="N48" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O48" s="32" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P48" s="32" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q48" s="32" t="inlineStr">
@@ -3798,26 +3798,26 @@
     <row r="49">
       <c r="A49" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B49" s="29" t="n">
-        <v>340001</v>
+        <v>968</v>
       </c>
       <c r="C49" s="30" t="n">
-        <v>0.9886</v>
+        <v>0.9167</v>
       </c>
       <c r="D49" s="31" t="n">
-        <v>32370.29</v>
+        <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>37844.11</v>
+        <v>60639.3</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>5842.84</v>
+        <v>2438.02</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>1.1691</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
@@ -3825,37 +3825,37 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>1.1687</v>
+        <v>0.9546</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>-12.95</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>-31.74</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N49" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O49" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P49" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q49" s="32" t="inlineStr">
@@ -3867,26 +3867,26 @@
     <row r="50">
       <c r="A50" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B50" s="29" t="n">
-        <v>110027</v>
+        <v>340001</v>
       </c>
       <c r="C50" s="30" t="n">
-        <v>1.5931</v>
+        <v>0.9886</v>
       </c>
       <c r="D50" s="31" t="n">
-        <v>20086.63</v>
+        <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>34287.88</v>
+        <v>37844.11</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>2287.87</v>
+        <v>5842.84</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.707</v>
+        <v>1.1691</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.7056</v>
+        <v>1.1676</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>-28.12</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-48.56</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3936,64 +3936,64 @@
     <row r="51">
       <c r="A51" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B51" s="29" t="n">
-        <v>1180</v>
+        <v>110027</v>
       </c>
       <c r="C51" s="30" t="n">
-        <v>0.7451</v>
+        <v>1.5931</v>
       </c>
       <c r="D51" s="31" t="n">
-        <v>41014.88</v>
+        <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34140.79</v>
+        <v>34328.05</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>3580.6</v>
+        <v>2328.04</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>0.8324</v>
+        <v>1.709</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>0.8323</v>
+        <v>1.708</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>-4.1</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-20.09</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N51" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O51" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P51" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q51" s="32" t="inlineStr">
@@ -4005,64 +4005,64 @@
     <row r="52">
       <c r="A52" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B52" s="29" t="n">
-        <v>614</v>
+        <v>1180</v>
       </c>
       <c r="C52" s="30" t="n">
-        <v>1.091</v>
+        <v>0.7451</v>
       </c>
       <c r="D52" s="31" t="n">
-        <v>20716.63</v>
+        <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>24777.09</v>
+        <v>34140.79</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>2175.25</v>
+        <v>3580.6</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>1.196</v>
+        <v>0.8324</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0</v>
+        <v>0.8312</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0</v>
+        <v>-0.0014</v>
       </c>
       <c r="K52" s="9" t="n">
-        <v>0</v>
+        <v>-49.22</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N52" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O52" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P52" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q52" s="32" t="inlineStr">
@@ -4074,64 +4074,64 @@
     <row r="53">
       <c r="A53" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B53" s="29" t="n">
-        <v>100038</v>
+        <v>614</v>
       </c>
       <c r="C53" s="30" t="n">
-        <v>1.3129</v>
+        <v>1.091</v>
       </c>
       <c r="D53" s="31" t="n">
-        <v>14624.61</v>
+        <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>23838.11</v>
+        <v>24777.09</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>4637.46</v>
+        <v>2175.25</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.63</v>
+        <v>1.196</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
-        <v>1.6259</v>
+        <v>0</v>
       </c>
       <c r="J53" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0</v>
       </c>
       <c r="K53" s="8" t="n">
-        <v>-59.96</v>
+        <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M53" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N53" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O53" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P53" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q53" s="32" t="inlineStr">
@@ -4143,44 +4143,44 @@
     <row r="54">
       <c r="A54" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B54" s="29" t="n">
-        <v>1469</v>
+        <v>100038</v>
       </c>
       <c r="C54" s="30" t="n">
-        <v>0.9073</v>
+        <v>1.3129</v>
       </c>
       <c r="D54" s="31" t="n">
-        <v>21163.93</v>
+        <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>23185.09</v>
+        <v>23764.99</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>3983.05</v>
+        <v>4564.34</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.0955</v>
+        <v>1.625</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.0954</v>
+        <v>1.6254</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0068</v>
+        <v>-0.0029</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-2.12</v>
+        <v>5.85</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4190,17 +4190,17 @@
       </c>
       <c r="N54" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O54" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P54" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q54" s="32" t="inlineStr">
@@ -4212,64 +4212,64 @@
     <row r="55">
       <c r="A55" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B55" s="29" t="n">
-        <v>164906</v>
+        <v>1469</v>
       </c>
       <c r="C55" s="30" t="n">
-        <v>1.1444</v>
+        <v>0.9073</v>
       </c>
       <c r="D55" s="31" t="n">
-        <v>16778.47</v>
+        <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>21895.9</v>
+        <v>23185.09</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>2694.62</v>
+        <v>3983.05</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.305</v>
+        <v>1.0955</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.3078</v>
+        <v>1.0919</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>-0.0033</v>
       </c>
       <c r="K55" s="9" t="n">
-        <v>46.98</v>
+        <v>-76.19</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N55" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O55" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P55" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q55" s="32" t="inlineStr">
@@ -4281,64 +4281,64 @@
     <row r="56">
       <c r="A56" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B56" s="29" t="n">
-        <v>161017</v>
+        <v>164906</v>
       </c>
       <c r="C56" s="30" t="n">
-        <v>1.3432</v>
+        <v>1.1444</v>
       </c>
       <c r="D56" s="31" t="n">
-        <v>9529.809999999999</v>
+        <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>15562.18</v>
+        <v>21895.9</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2761.74</v>
+        <v>2694.62</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.633</v>
+        <v>1.305</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.6293</v>
+        <v>1.3058</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0041</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>-35.26</v>
+        <v>13.42</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N56" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O56" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P56" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q56" s="32" t="inlineStr">
@@ -4350,64 +4350,64 @@
     <row r="57">
       <c r="A57" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B57" s="29" t="n">
-        <v>162411</v>
+        <v>161017</v>
       </c>
       <c r="C57" s="30" t="n">
-        <v>0.5152</v>
+        <v>1.3432</v>
       </c>
       <c r="D57" s="31" t="n">
-        <v>37267.45</v>
+        <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>14273.43</v>
+        <v>15524.06</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>-4926.76</v>
+        <v>2723.62</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>0.383</v>
+        <v>1.629</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>0.381</v>
+        <v>1.6283</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>-74.53</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-6.67</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:04</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N57" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O57" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P57" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q57" s="32" t="inlineStr">
@@ -4419,26 +4419,26 @@
     <row r="58">
       <c r="A58" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B58" s="29" t="n">
-        <v>71</v>
+        <v>162411</v>
       </c>
       <c r="C58" s="30" t="n">
-        <v>1.4562</v>
+        <v>0.5152</v>
       </c>
       <c r="D58" s="31" t="n">
-        <v>6798.52</v>
+        <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>10154.27</v>
+        <v>14198.9</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>254.26</v>
+        <v>-5001.29</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>1.4936</v>
+        <v>0.381</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
@@ -4446,37 +4446,37 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>1.4934</v>
+        <v>0.379</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>-1.36</v>
+        <v>-0.0052</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-74.53</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N58" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O58" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P58" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q58" s="32" t="inlineStr">
@@ -4488,64 +4488,64 @@
     <row r="59">
       <c r="A59" s="28" t="inlineStr">
         <is>
-          <t>华夏收益债券(QDII)A</t>
+          <t>华夏恒生ETF联接A</t>
         </is>
       </c>
       <c r="B59" s="29" t="n">
-        <v>1061</v>
+        <v>71</v>
       </c>
       <c r="C59" s="30" t="n">
-        <v>0.9172</v>
+        <v>1.4562</v>
       </c>
       <c r="D59" s="31" t="n">
-        <v>5609.79</v>
+        <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>7550.78</v>
+        <v>10154.27</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>2405.48</v>
+        <v>254.26</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.346</v>
+        <v>1.4936</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>0</v>
+        <v>1.5122</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>0</v>
+        <v>0.0124</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>126.45</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N59" s="32" t="inlineStr">
         <is>
-          <t>海外债券</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O59" s="32" t="inlineStr">
         <is>
-          <t>美元债</t>
+          <t>恒生</t>
         </is>
       </c>
       <c r="P59" s="32" t="inlineStr">
         <is>
-          <t>521</t>
+          <t>211</t>
         </is>
       </c>
       <c r="Q59" s="32" t="inlineStr">
@@ -4557,64 +4557,64 @@
     <row r="60">
       <c r="A60" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>华夏收益债券(QDII)A</t>
         </is>
       </c>
       <c r="B60" s="29" t="n">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="C60" s="30" t="n">
-        <v>0.4775</v>
+        <v>0.9172</v>
       </c>
       <c r="D60" s="31" t="n">
-        <v>13403.92</v>
+        <v>5609.79</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7449.9</v>
+        <v>7550.78</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>1049.53</v>
+        <v>2405.48</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>0.5558</v>
+        <v>1.346</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
-        <v>0.5556</v>
+        <v>0</v>
       </c>
       <c r="J60" s="33" t="n">
-        <v>-0.0076</v>
+        <v>0</v>
       </c>
       <c r="K60" s="8" t="n">
-        <v>-2.68</v>
+        <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M60" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N60" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>海外债券</t>
         </is>
       </c>
       <c r="O60" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>美元债</t>
         </is>
       </c>
       <c r="P60" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>521</t>
         </is>
       </c>
       <c r="Q60" s="32" t="inlineStr">
@@ -4626,26 +4626,26 @@
     <row r="61">
       <c r="A61" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B61" s="29" t="n">
-        <v>519977</v>
+        <v>1064</v>
       </c>
       <c r="C61" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.4775</v>
       </c>
       <c r="D61" s="31" t="n">
-        <v>5328.62</v>
+        <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7314.06</v>
+        <v>7449.9</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>913.86</v>
+        <v>1049.53</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>1.3726</v>
+        <v>0.5558</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
@@ -4653,37 +4653,37 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>1.3734</v>
+        <v>0.5544</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0016</v>
+        <v>-0.0025</v>
       </c>
       <c r="K61" s="9" t="n">
-        <v>4.26</v>
+        <v>-18.77</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N61" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O61" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P61" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q61" s="32" t="inlineStr">
@@ -4695,26 +4695,26 @@
     <row r="62">
       <c r="A62" s="28" t="inlineStr">
         <is>
-          <t>广发中证500ETF联接C</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B62" s="29" t="n">
-        <v>2903</v>
+        <v>519977</v>
       </c>
       <c r="C62" s="30" t="n">
-        <v>0.9</v>
+        <v>1.2011</v>
       </c>
       <c r="D62" s="31" t="n">
-        <v>7778.64</v>
+        <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>6851.43</v>
+        <v>7314.06</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>-149.35</v>
+        <v>913.86</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>0.8808</v>
+        <v>1.3726</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
@@ -4722,37 +4722,37 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>0.8806</v>
+        <v>1.3727</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0041</v>
+        <v>0.0001</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>-1.56</v>
+        <v>0.53</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N62" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O62" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P62" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q62" s="32" t="inlineStr">
@@ -4764,26 +4764,26 @@
     <row r="63">
       <c r="A63" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>广发中证500ETF联接C</t>
         </is>
       </c>
       <c r="B63" s="29" t="n">
-        <v>478</v>
+        <v>2903</v>
       </c>
       <c r="C63" s="30" t="n">
-        <v>1.9397</v>
+        <v>0.9</v>
       </c>
       <c r="D63" s="31" t="n">
-        <v>3299.64</v>
+        <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6543.52</v>
+        <v>6851.43</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>143.2</v>
+        <v>-149.35</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>1.9831</v>
+        <v>0.8808</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>1.979</v>
+        <v>0.8783</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>-13.53</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>-19.45</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4833,26 +4833,26 @@
     <row r="64">
       <c r="A64" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>建信中证500指数增强A</t>
         </is>
       </c>
       <c r="B64" s="29" t="n">
-        <v>4752</v>
+        <v>478</v>
       </c>
       <c r="C64" s="30" t="n">
-        <v>0.8149999999999999</v>
+        <v>1.9397</v>
       </c>
       <c r="D64" s="31" t="n">
-        <v>7852.99</v>
+        <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6137.11</v>
+        <v>6543.52</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>-263.08</v>
+        <v>143.2</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>0.7815</v>
+        <v>1.9831</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>0.7812</v>
+        <v>1.9774</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>-2.36</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-18.81</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4880,17 +4880,17 @@
       </c>
       <c r="N64" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O64" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P64" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q64" s="32" t="inlineStr">
@@ -4902,164 +4902,164 @@
     <row r="65">
       <c r="A65" s="28" t="inlineStr">
         <is>
+          <t>广发中证传媒ETF联接A</t>
+        </is>
+      </c>
+      <c r="B65" s="29" t="n">
+        <v>4752</v>
+      </c>
+      <c r="C65" s="30" t="n">
+        <v>0.8149999999999999</v>
+      </c>
+      <c r="D65" s="31" t="n">
+        <v>7852.99</v>
+      </c>
+      <c r="E65" s="31" t="n">
+        <v>6137.11</v>
+      </c>
+      <c r="F65" s="31" t="n">
+        <v>-263.08</v>
+      </c>
+      <c r="G65" s="30" t="n">
+        <v>0.7815</v>
+      </c>
+      <c r="H65" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I65" s="30" t="n">
+        <v>0.7768</v>
+      </c>
+      <c r="J65" s="33" t="n">
+        <v>-0.006</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-36.91</v>
+      </c>
+      <c r="L65" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M65" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N65" s="32" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O65" s="32" t="inlineStr">
+        <is>
+          <t>中证传媒</t>
+        </is>
+      </c>
+      <c r="P65" s="32" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="Q65" s="32" t="inlineStr">
+        <is>
+          <t>天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="28" t="inlineStr">
+        <is>
           <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
-      <c r="B65" s="29" t="n">
+      <c r="B66" s="29" t="n">
         <v>3647</v>
       </c>
-      <c r="C65" s="30" t="n">
+      <c r="C66" s="30" t="n">
         <v>0.9776</v>
       </c>
-      <c r="D65" s="31" t="n">
+      <c r="D66" s="31" t="n">
         <v>3580.2</v>
       </c>
-      <c r="E65" s="31" t="n">
-        <v>3415.15</v>
-      </c>
-      <c r="F65" s="31" t="n">
-        <v>-84.84999999999999</v>
-      </c>
-      <c r="G65" s="30" t="n">
-        <v>0.9539</v>
-      </c>
-      <c r="H65" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I65" s="30" t="n">
-        <v>0.9514</v>
-      </c>
-      <c r="J65" s="33" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>-8.949999999999999</v>
-      </c>
-      <c r="L65" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M65" s="32" t="inlineStr">
+      <c r="E66" s="31" t="n">
+        <v>3409.42</v>
+      </c>
+      <c r="F66" s="31" t="n">
+        <v>-90.58</v>
+      </c>
+      <c r="G66" s="30" t="n">
+        <v>0.9523</v>
+      </c>
+      <c r="H66" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I66" s="30" t="n">
+        <v>0.9538</v>
+      </c>
+      <c r="J66" s="33" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>5.37</v>
+      </c>
+      <c r="L66" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M66" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N65" s="32" t="inlineStr">
+      <c r="N66" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O65" s="32" t="inlineStr">
+      <c r="O66" s="32" t="inlineStr">
         <is>
           <t>中证1000</t>
         </is>
       </c>
-      <c r="P65" s="32" t="inlineStr">
+      <c r="P66" s="32" t="inlineStr">
         <is>
           <t>123</t>
         </is>
       </c>
-      <c r="Q65" s="32" t="inlineStr">
+      <c r="Q66" s="32" t="inlineStr">
         <is>
           <t>天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="22" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B66" s="23" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C66" s="24" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D66" s="25" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E66" s="25" t="n">
-        <v>176218.26</v>
-      </c>
-      <c r="F66" s="25" t="n">
-        <v>171.15</v>
-      </c>
-      <c r="G66" s="24" t="n">
-        <v>1.0296</v>
-      </c>
-      <c r="H66" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I66" s="24" t="n">
-        <v>1.0296</v>
-      </c>
-      <c r="J66" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M66" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N66" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O66" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P66" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q66" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="22" t="inlineStr">
         <is>
-          <t>交银主题优选</t>
+          <t>交银稳鑫短债债券A</t>
         </is>
       </c>
       <c r="B67" s="23" t="n">
-        <v>519700</v>
+        <v>6793</v>
       </c>
       <c r="C67" s="24" t="n">
-        <v>1.4657</v>
+        <v>1.0286</v>
       </c>
       <c r="D67" s="25" t="n">
-        <v>11598.58</v>
+        <v>171152.16</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>17363.07</v>
+        <v>176218.26</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>363.04</v>
+        <v>171.15</v>
       </c>
       <c r="G67" s="24" t="n">
-        <v>1.497</v>
+        <v>1.0296</v>
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
@@ -5067,37 +5067,37 @@
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.4971</v>
+        <v>1.0297</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>1.16</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>17.12</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N67" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O67" s="26" t="inlineStr">
         <is>
-          <t>偏股</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P67" s="26" t="inlineStr">
         <is>
-          <t>411</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q67" s="26" t="inlineStr">
@@ -5109,64 +5109,64 @@
     <row r="68">
       <c r="A68" s="22" t="inlineStr">
         <is>
-          <t>交银纯债A/B</t>
+          <t>交银主题优选</t>
         </is>
       </c>
       <c r="B68" s="23" t="n">
-        <v>519718</v>
+        <v>519700</v>
       </c>
       <c r="C68" s="24" t="n">
-        <v>1.0759</v>
+        <v>1.4657</v>
       </c>
       <c r="D68" s="25" t="n">
-        <v>128864.36</v>
+        <v>11598.58</v>
       </c>
       <c r="E68" s="25" t="n">
-        <v>138786.92</v>
+        <v>17351.48</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>141.75</v>
+        <v>351.44</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>1.077</v>
+        <v>1.496</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.0771</v>
+        <v>1.4997</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K68" s="9" t="n">
-        <v>12.89</v>
+        <v>0.0018</v>
+      </c>
+      <c r="K68" s="8" t="n">
+        <v>42.91</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>混合型</t>
         </is>
       </c>
       <c r="N68" s="26" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>股债混合</t>
         </is>
       </c>
       <c r="O68" s="26" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>偏股</t>
         </is>
       </c>
       <c r="P68" s="26" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>411</t>
         </is>
       </c>
       <c r="Q68" s="26" t="inlineStr">
@@ -5178,44 +5178,44 @@
     <row r="69">
       <c r="A69" s="22" t="inlineStr">
         <is>
-          <t>交银双轮动A/B</t>
+          <t>交银纯债A/B</t>
         </is>
       </c>
       <c r="B69" s="23" t="n">
-        <v>519723</v>
+        <v>519718</v>
       </c>
       <c r="C69" s="24" t="n">
-        <v>1.0784</v>
+        <v>1.0759</v>
       </c>
       <c r="D69" s="25" t="n">
-        <v>132719.84</v>
+        <v>128864.36</v>
       </c>
       <c r="E69" s="25" t="n">
-        <v>143204.71</v>
+        <v>138915.78</v>
       </c>
       <c r="F69" s="25" t="n">
-        <v>79.63</v>
+        <v>270.62</v>
       </c>
       <c r="G69" s="24" t="n">
-        <v>1.079</v>
+        <v>1.078</v>
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0771</v>
       </c>
       <c r="J69" s="27" t="n">
         <v>0.0001</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>13.27</v>
+        <v>-115.98</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5247,64 +5247,64 @@
     <row r="70">
       <c r="A70" s="22" t="inlineStr">
         <is>
-          <t>交银新回报灵活配置混合A</t>
+          <t>交银双轮动A/B</t>
         </is>
       </c>
       <c r="B70" s="23" t="n">
-        <v>519752</v>
+        <v>519723</v>
       </c>
       <c r="C70" s="24" t="n">
-        <v>1.2439</v>
+        <v>1.0784</v>
       </c>
       <c r="D70" s="25" t="n">
-        <v>59685.02</v>
+        <v>132719.84</v>
       </c>
       <c r="E70" s="25" t="n">
-        <v>74307.85000000001</v>
+        <v>143204.71</v>
       </c>
       <c r="F70" s="25" t="n">
-        <v>65.65000000000001</v>
+        <v>79.63</v>
       </c>
       <c r="G70" s="24" t="n">
-        <v>1.245</v>
+        <v>1.079</v>
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.2452</v>
+        <v>1.0791</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>11.94</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>13.27</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
         <is>
-          <t>混合型</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N70" s="26" t="inlineStr">
         <is>
-          <t>股债混合</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O70" s="26" t="inlineStr">
         <is>
-          <t>偏债</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P70" s="26" t="inlineStr">
         <is>
-          <t>412</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q70" s="26" t="inlineStr">
@@ -5316,44 +5316,44 @@
     <row r="71">
       <c r="A71" s="22" t="inlineStr">
         <is>
-          <t>交银多策略回报灵活配置混合A</t>
+          <t>交银新回报灵活配置混合A</t>
         </is>
       </c>
       <c r="B71" s="23" t="n">
-        <v>519755</v>
+        <v>519752</v>
       </c>
       <c r="C71" s="24" t="n">
-        <v>1.2894</v>
+        <v>1.2439</v>
       </c>
       <c r="D71" s="25" t="n">
-        <v>76964.17</v>
+        <v>59685.02</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>99514.67</v>
+        <v>74248.16</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>277.07</v>
+        <v>5.97</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.293</v>
+        <v>1.244</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.294</v>
+        <v>1.2447</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>76.95999999999999</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>41.78</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5385,182 +5385,182 @@
     <row r="72">
       <c r="A72" s="22" t="inlineStr">
         <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B72" s="23" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C72" s="24" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D72" s="25" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E72" s="25" t="n">
+        <v>99437.71000000001</v>
+      </c>
+      <c r="F72" s="25" t="n">
+        <v>200.11</v>
+      </c>
+      <c r="G72" s="24" t="n">
+        <v>1.292</v>
+      </c>
+      <c r="H72" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I72" s="24" t="n">
+        <v>1.2927</v>
+      </c>
+      <c r="J72" s="27" t="n">
+        <v>-0.0002</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>53.87</v>
+      </c>
+      <c r="L72" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M72" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N72" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O72" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P72" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q72" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="22" t="inlineStr">
+        <is>
           <t>交银裕盈纯债债券A</t>
         </is>
       </c>
-      <c r="B72" s="23" t="n">
+      <c r="B73" s="23" t="n">
         <v>519776</v>
       </c>
-      <c r="C72" s="24" t="n">
+      <c r="C73" s="24" t="n">
         <v>1.0793</v>
       </c>
-      <c r="D72" s="25" t="n">
+      <c r="D73" s="25" t="n">
         <v>140577.44</v>
       </c>
-      <c r="E72" s="25" t="n">
-        <v>151781.46</v>
-      </c>
-      <c r="F72" s="25" t="n">
-        <v>56.23</v>
-      </c>
-      <c r="G72" s="24" t="n">
-        <v>1.0797</v>
-      </c>
-      <c r="H72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I72" s="24" t="n">
-        <v>1.0796</v>
-      </c>
-      <c r="J72" s="27" t="n">
+      <c r="E73" s="25" t="n">
+        <v>151823.64</v>
+      </c>
+      <c r="F73" s="25" t="n">
+        <v>98.40000000000001</v>
+      </c>
+      <c r="G73" s="24" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="H73" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I73" s="24" t="n">
+        <v>1.0798</v>
+      </c>
+      <c r="J73" s="27" t="n">
         <v>0.0001</v>
       </c>
-      <c r="K72" s="8" t="n">
-        <v>-14.06</v>
-      </c>
-      <c r="L72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M72" s="26" t="inlineStr">
+      <c r="K73" s="9" t="n">
+        <v>-28.12</v>
+      </c>
+      <c r="L73" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M73" s="26" t="inlineStr">
         <is>
           <t>债券</t>
         </is>
       </c>
-      <c r="N72" s="26" t="inlineStr">
+      <c r="N73" s="26" t="inlineStr">
         <is>
           <t>国内债券</t>
         </is>
       </c>
-      <c r="O72" s="26" t="inlineStr">
+      <c r="O73" s="26" t="inlineStr">
         <is>
           <t>可转债</t>
         </is>
       </c>
-      <c r="P72" s="26" t="inlineStr">
+      <c r="P73" s="26" t="inlineStr">
         <is>
           <t>512</t>
         </is>
       </c>
-      <c r="Q72" s="26" t="inlineStr">
+      <c r="Q73" s="26" t="inlineStr">
         <is>
           <t>父稳稳的幸福</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="inlineStr">
-        <is>
-          <t>银河沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B73" s="3" t="n">
-        <v>519671</v>
-      </c>
-      <c r="C73" s="4" t="n">
-        <v>1.4263</v>
-      </c>
-      <c r="D73" s="5" t="n">
-        <v>1029.32</v>
-      </c>
-      <c r="E73" s="5" t="n">
-        <v>1484.28</v>
-      </c>
-      <c r="F73" s="5" t="n">
-        <v>16.16</v>
-      </c>
-      <c r="G73" s="4" t="n">
-        <v>1.442</v>
-      </c>
-      <c r="H73" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I73" s="4" t="n">
-        <v>1.4429</v>
-      </c>
-      <c r="J73" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="L73" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M73" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N73" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O73" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P73" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q73" s="6" t="inlineStr">
-        <is>
-          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>90010</v>
+        <v>519671</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>1.6522</v>
+        <v>1.4264</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>874.15</v>
+        <v>1045.13</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1428.36</v>
+        <v>1504.99</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>-15.91</v>
+        <v>14.21</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.634</v>
+        <v>1.44</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.6336</v>
+        <v>1.4393</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K74" s="8" t="n">
-        <v>-0.35</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>-0.73</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5570,17 +5570,17 @@
       </c>
       <c r="N74" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,64 +5592,64 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.6518</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>898.04</v>
+        <v>888.12</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1321.47</v>
+        <v>1452.96</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>110.46</v>
+        <v>-14.03</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.4715</v>
+        <v>1.636</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.4696</v>
+        <v>1.636</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0074</v>
+        <v>0.0012</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-1.71</v>
+        <v>0</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,64 +5661,64 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>0.9328</v>
+        <v>1.3485</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>1336.21</v>
+        <v>898.04</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1245.75</v>
+        <v>1330.36</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>-0.67</v>
+        <v>119.35</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>0.9323</v>
+        <v>1.4814</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>0.9322</v>
+        <v>1.4896</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0027</v>
+        <v>0.0123</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>-0.13</v>
+        <v>7.36</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N76" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,26 +5730,26 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>70023</v>
+        <v>3318</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.7966</v>
+        <v>0.9329</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>492.58</v>
+        <v>1358.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>924.67</v>
+        <v>1266.56</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>39.7</v>
+        <v>-0.82</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.8772</v>
+        <v>0.9323</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.8772</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.002</v>
+        <v>-0.0015</v>
       </c>
       <c r="K77" s="9" t="n">
-        <v>0</v>
+        <v>-1.9</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,44 +5799,44 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>530015</v>
+        <v>70023</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>2.1207</v>
+        <v>1.7966</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>398.66</v>
+        <v>492.58</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>869.4400000000001</v>
+        <v>922.41</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>24</v>
+        <v>37.44</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>2.1809</v>
+        <v>1.8726</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>2.1808</v>
+        <v>1.8726</v>
       </c>
       <c r="J78" s="7" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K78" s="8" t="n">
         <v>0</v>
       </c>
-      <c r="K78" s="8" t="n">
-        <v>-0.04</v>
-      </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5851,12 +5851,12 @@
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,44 +5868,44 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>968</v>
+        <v>530015</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>0.9599</v>
+        <v>2.122</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>373.42</v>
+        <v>406.95</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>356.65</v>
+        <v>886.09</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>-1.79</v>
+        <v>22.55</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>0.9550999999999999</v>
+        <v>2.1774</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>0.9549</v>
+        <v>2.1774</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0053</v>
+        <v>-0.0016</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5915,17 +5915,17 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
@@ -5937,26 +5937,26 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>501029</v>
+        <v>968</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>0.9829</v>
+        <v>0.9599</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>214.89</v>
+        <v>390.82</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>205.18</v>
+        <v>373.27</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-6.04</v>
+        <v>-1.88</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9548</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9536</v>
+        <v>0.9546</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0023</v>
-      </c>
-      <c r="K80" s="8" t="n">
-        <v>-0.26</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K80" s="9" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5984,17 +5984,17 @@
       </c>
       <c r="N80" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
@@ -6006,26 +6006,26 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9829</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>212.74</v>
+        <v>214.89</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>162.55</v>
+        <v>205.18</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>19.85</v>
+        <v>-6.04</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.7641</v>
+        <v>0.9548</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.7639</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0044</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>-0.04</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>-0.58</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6053,17 +6053,17 @@
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,44 +6075,44 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>501050</v>
+        <v>1550</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>1.2891</v>
+        <v>0.6708</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>62.09</v>
+        <v>212.74</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>82.27</v>
+        <v>162.41</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>2.23</v>
+        <v>19.7</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>1.325</v>
+        <v>0.7634</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.3259</v>
+        <v>0.7633</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0083</v>
+        <v>-0.001</v>
       </c>
       <c r="K82" s="9" t="n">
-        <v>0.06</v>
+        <v>-0.02</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6122,17 +6122,17 @@
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
@@ -6144,26 +6144,26 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>310398</v>
+        <v>501050</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.5297</v>
+        <v>1.2891</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>24.24</v>
+        <v>62.09</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>33.04</v>
+        <v>82.27</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>-4.04</v>
+        <v>2.23</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.3631</v>
+        <v>1.325</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3638</v>
+        <v>1.3261</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>0.02</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6196,12 +6196,12 @@
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
@@ -6213,44 +6213,44 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>90010</v>
+        <v>310398</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1.6569</v>
+        <v>1.4372</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>946.4299999999999</v>
+        <v>25.8</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>1546.47</v>
+        <v>35.1</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-21.67</v>
+        <v>-1.98</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.634</v>
+        <v>1.3606</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.6336</v>
+        <v>1.3605</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0059</v>
+        <v>-0.0019</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-0.38</v>
+        <v>-0</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6260,66 +6260,66 @@
       </c>
       <c r="N84" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>519671</v>
+        <v>1594</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.4248</v>
+        <v>1.2144</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>1025.65</v>
+        <v>17.12</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>1478.99</v>
+        <v>20.93</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>17.64</v>
+        <v>0.14</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.442</v>
+        <v>1.2224</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.4429</v>
+        <v>1.2224</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>0.92</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6329,86 +6329,86 @@
       </c>
       <c r="N85" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>501021</v>
+        <v>90010</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.3514</v>
+        <v>1.6561</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>915.97</v>
+        <v>974.37</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1347.85</v>
+        <v>1594.07</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>110.01</v>
+        <v>-19.58</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.4715</v>
+        <v>1.636</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.4696</v>
+        <v>1.636</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0074</v>
+        <v>0.0012</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-1.74</v>
+        <v>0</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N86" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,44 +6420,44 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>3318</v>
+        <v>519671</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>0.9334</v>
+        <v>1.4251</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>1367.69</v>
+        <v>1057.28</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1275.1</v>
+        <v>1522.48</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>-1.5</v>
+        <v>15.75</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>0.9323</v>
+        <v>1.44</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>0.9322</v>
+        <v>1.4393</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0027</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>-0.14</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-0.74</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6467,17 +6467,17 @@
       </c>
       <c r="N87" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6489,64 +6489,64 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>70023</v>
+        <v>501021</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.7992</v>
+        <v>1.3514</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>528.99</v>
+        <v>915.97</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>993.02</v>
+        <v>1356.92</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>41.26</v>
+        <v>119.08</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.8772</v>
+        <v>1.4814</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.8772</v>
+        <v>1.4896</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>0</v>
+        <v>0.0123</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>7.51</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 16:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N88" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O88" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P88" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q88" s="6" t="inlineStr">
@@ -6558,26 +6558,26 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>530015</v>
+        <v>3318</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>2.1224</v>
+        <v>0.9334</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>390.29</v>
+        <v>1412.34</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>851.1799999999999</v>
+        <v>1316.72</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>22.83</v>
+        <v>-1.55</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>2.1809</v>
+        <v>0.9323</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>2.1808</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>-0.04</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-1.98</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6605,17 +6605,17 @@
       </c>
       <c r="N89" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O89" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P89" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q89" s="6" t="inlineStr">
@@ -6627,44 +6627,44 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>968</v>
+        <v>70023</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>0.9586</v>
+        <v>1.7992</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>392.19</v>
+        <v>528.99</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>374.58</v>
+        <v>990.59</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-1.37</v>
+        <v>38.83</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>0.9550999999999999</v>
+        <v>1.8726</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>0.9549</v>
+        <v>1.8726</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0053</v>
+        <v>-0.0025</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-0.08</v>
+        <v>0</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6674,17 +6674,17 @@
       </c>
       <c r="N90" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O90" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P90" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q90" s="6" t="inlineStr">
@@ -6696,44 +6696,44 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B91" s="3" t="n">
-        <v>501029</v>
+        <v>530015</v>
       </c>
       <c r="C91" s="4" t="n">
-        <v>0.9824000000000001</v>
+        <v>2.125</v>
       </c>
       <c r="D91" s="5" t="n">
-        <v>227.52</v>
+        <v>406.87</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>217.24</v>
+        <v>885.92</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>-6.28</v>
+        <v>21.32</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>0.9548</v>
+        <v>2.1774</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>0.9536</v>
+        <v>2.1774</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0023</v>
+        <v>-0.0016</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>-0.27</v>
+        <v>0</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6743,17 +6743,17 @@
       </c>
       <c r="N91" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O91" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P91" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q91" s="6" t="inlineStr">
@@ -6765,26 +6765,26 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B92" s="3" t="n">
-        <v>501050</v>
+        <v>968</v>
       </c>
       <c r="C92" s="4" t="n">
-        <v>1.284</v>
+        <v>0.9588</v>
       </c>
       <c r="D92" s="5" t="n">
-        <v>142.1</v>
+        <v>426.97</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>188.28</v>
+        <v>407.8</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>5.83</v>
+        <v>-1.58</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>1.325</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>1.3259</v>
+        <v>0.9546</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0083</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K92" s="9" t="n">
-        <v>0.13</v>
+        <v>-0.21</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6812,17 +6812,17 @@
       </c>
       <c r="N92" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O92" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P92" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q92" s="6" t="inlineStr">
@@ -6834,26 +6834,26 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B93" s="3" t="n">
-        <v>1550</v>
+        <v>501029</v>
       </c>
       <c r="C93" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D93" s="5" t="n">
-        <v>212.74</v>
+        <v>227.52</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>162.55</v>
+        <v>217.24</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>19.85</v>
+        <v>-6.28</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.7641</v>
+        <v>0.9548</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.7639</v>
+        <v>0.9520999999999999</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.0044</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>-0.04</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>-0.61</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6881,17 +6881,17 @@
       </c>
       <c r="N93" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O93" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P93" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q93" s="6" t="inlineStr">
@@ -6903,320 +6903,320 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
+          <t>华夏上证50AH优选指数</t>
+        </is>
+      </c>
+      <c r="B94" s="3" t="n">
+        <v>501050</v>
+      </c>
+      <c r="C94" s="4" t="n">
+        <v>1.284</v>
+      </c>
+      <c r="D94" s="5" t="n">
+        <v>142.1</v>
+      </c>
+      <c r="E94" s="5" t="n">
+        <v>188.28</v>
+      </c>
+      <c r="F94" s="5" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="G94" s="4" t="n">
+        <v>1.325</v>
+      </c>
+      <c r="H94" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I94" s="4" t="n">
+        <v>1.3261</v>
+      </c>
+      <c r="J94" s="7" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L94" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M94" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N94" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O94" s="6" t="inlineStr">
+        <is>
+          <t>50AH</t>
+        </is>
+      </c>
+      <c r="P94" s="6" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="Q94" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="inlineStr">
+        <is>
+          <t>天弘中证医药100A</t>
+        </is>
+      </c>
+      <c r="B95" s="3" t="n">
+        <v>1550</v>
+      </c>
+      <c r="C95" s="4" t="n">
+        <v>0.6708</v>
+      </c>
+      <c r="D95" s="5" t="n">
+        <v>212.74</v>
+      </c>
+      <c r="E95" s="5" t="n">
+        <v>162.41</v>
+      </c>
+      <c r="F95" s="5" t="n">
+        <v>19.7</v>
+      </c>
+      <c r="G95" s="4" t="n">
+        <v>0.7634</v>
+      </c>
+      <c r="H95" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I95" s="4" t="n">
+        <v>0.7633</v>
+      </c>
+      <c r="J95" s="7" t="n">
+        <v>-0.001</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>-0.02</v>
+      </c>
+      <c r="L95" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M95" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N95" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O95" s="6" t="inlineStr">
+        <is>
+          <t>全指医药</t>
+        </is>
+      </c>
+      <c r="P95" s="6" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="Q95" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="inlineStr">
+        <is>
+          <t>天弘中证银行指数A</t>
+        </is>
+      </c>
+      <c r="B96" s="3" t="n">
+        <v>1594</v>
+      </c>
+      <c r="C96" s="4" t="n">
+        <v>1.2142</v>
+      </c>
+      <c r="D96" s="5" t="n">
+        <v>34.26</v>
+      </c>
+      <c r="E96" s="5" t="n">
+        <v>41.88</v>
+      </c>
+      <c r="F96" s="5" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="G96" s="4" t="n">
+        <v>1.2224</v>
+      </c>
+      <c r="H96" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I96" s="4" t="n">
+        <v>1.2224</v>
+      </c>
+      <c r="J96" s="7" t="n">
+        <v>-0.0025</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L96" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M96" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N96" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O96" s="6" t="inlineStr">
+        <is>
+          <t>中证银行</t>
+        </is>
+      </c>
+      <c r="P96" s="6" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="Q96" s="6" t="inlineStr">
+        <is>
+          <t>母螺丝钉</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="inlineStr">
+        <is>
           <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
-      <c r="B94" s="3" t="n">
+      <c r="B97" s="3" t="n">
         <v>310398</v>
       </c>
-      <c r="C94" s="4" t="n">
-        <v>1.5297</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>24.24</v>
-      </c>
-      <c r="E94" s="5" t="n">
-        <v>33.04</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>-4.04</v>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>1.3631</v>
-      </c>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I94" s="4" t="n">
-        <v>1.3638</v>
-      </c>
-      <c r="J94" s="7" t="n">
-        <v>0.0069</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>0.02</v>
-      </c>
-      <c r="L94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M94" s="6" t="inlineStr">
+      <c r="C97" s="4" t="n">
+        <v>1.4372</v>
+      </c>
+      <c r="D97" s="5" t="n">
+        <v>25.8</v>
+      </c>
+      <c r="E97" s="5" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="F97" s="5" t="n">
+        <v>-1.98</v>
+      </c>
+      <c r="G97" s="4" t="n">
+        <v>1.3606</v>
+      </c>
+      <c r="H97" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I97" s="4" t="n">
+        <v>1.3605</v>
+      </c>
+      <c r="J97" s="7" t="n">
+        <v>-0.0019</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>-0</v>
+      </c>
+      <c r="L97" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M97" s="6" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N94" s="6" t="inlineStr">
+      <c r="N97" s="6" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O94" s="6" t="inlineStr">
+      <c r="O97" s="6" t="inlineStr">
         <is>
           <t>300价值</t>
         </is>
       </c>
-      <c r="P94" s="6" t="inlineStr">
+      <c r="P97" s="6" t="inlineStr">
         <is>
           <t>114</t>
         </is>
       </c>
-      <c r="Q94" s="6" t="inlineStr">
+      <c r="Q97" s="6" t="inlineStr">
         <is>
           <t>母螺丝钉</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="28" t="inlineStr">
-        <is>
-          <t>广发中证500ETF联接A</t>
-        </is>
-      </c>
-      <c r="B95" s="29" t="n">
-        <v>162711</v>
-      </c>
-      <c r="C95" s="30" t="n">
-        <v>1.0519</v>
-      </c>
-      <c r="D95" s="31" t="n">
-        <v>9697.57</v>
-      </c>
-      <c r="E95" s="31" t="n">
-        <v>10692.54</v>
-      </c>
-      <c r="F95" s="31" t="n">
-        <v>491.67</v>
-      </c>
-      <c r="G95" s="30" t="n">
-        <v>1.1026</v>
-      </c>
-      <c r="H95" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I95" s="30" t="n">
-        <v>1.1023</v>
-      </c>
-      <c r="J95" s="33" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>-2.91</v>
-      </c>
-      <c r="L95" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M95" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N95" s="32" t="inlineStr">
-        <is>
-          <t>中小盘股</t>
-        </is>
-      </c>
-      <c r="O95" s="32" t="inlineStr">
-        <is>
-          <t>中证500</t>
-        </is>
-      </c>
-      <c r="P95" s="32" t="inlineStr">
-        <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="Q95" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="28" t="inlineStr">
-        <is>
-          <t>富国中证红利指数增强</t>
-        </is>
-      </c>
-      <c r="B96" s="29" t="n">
-        <v>100032</v>
-      </c>
-      <c r="C96" s="30" t="n">
-        <v>1.0142</v>
-      </c>
-      <c r="D96" s="31" t="n">
-        <v>8677.6</v>
-      </c>
-      <c r="E96" s="31" t="n">
-        <v>9632.139999999999</v>
-      </c>
-      <c r="F96" s="31" t="n">
-        <v>831.3099999999999</v>
-      </c>
-      <c r="G96" s="30" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="H96" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I96" s="30" t="n">
-        <v>1.1105</v>
-      </c>
-      <c r="J96" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>4.34</v>
-      </c>
-      <c r="L96" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M96" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N96" s="32" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O96" s="32" t="inlineStr">
-        <is>
-          <t>中证红利</t>
-        </is>
-      </c>
-      <c r="P96" s="32" t="inlineStr">
-        <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="Q96" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="28" t="inlineStr">
-        <is>
-          <t>广发养老指数A</t>
-        </is>
-      </c>
-      <c r="B97" s="29" t="n">
-        <v>968</v>
-      </c>
-      <c r="C97" s="30" t="n">
-        <v>0.853</v>
-      </c>
-      <c r="D97" s="31" t="n">
-        <v>6096.21</v>
-      </c>
-      <c r="E97" s="31" t="n">
-        <v>5822.49</v>
-      </c>
-      <c r="F97" s="31" t="n">
-        <v>622.42</v>
-      </c>
-      <c r="G97" s="30" t="n">
-        <v>0.9550999999999999</v>
-      </c>
-      <c r="H97" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I97" s="30" t="n">
-        <v>0.9549</v>
-      </c>
-      <c r="J97" s="33" t="n">
-        <v>-0.0053</v>
-      </c>
-      <c r="K97" s="8" t="n">
-        <v>-1.22</v>
-      </c>
-      <c r="L97" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M97" s="32" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N97" s="32" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O97" s="32" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="P97" s="32" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="Q97" s="32" t="inlineStr">
-        <is>
-          <t>母天天基金</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="28" t="inlineStr">
         <is>
-          <t>广发医药卫生联接A</t>
+          <t>广发中证500ETF联接A</t>
         </is>
       </c>
       <c r="B98" s="29" t="n">
-        <v>1180</v>
+        <v>162711</v>
       </c>
       <c r="C98" s="30" t="n">
-        <v>0.7111</v>
+        <v>1.0519</v>
       </c>
       <c r="D98" s="31" t="n">
-        <v>6750.28</v>
+        <v>9697.57</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>5618.93</v>
+        <v>10663.45</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>818.8099999999999</v>
+        <v>462.57</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>0.8324</v>
+        <v>1.0996</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>0.8323</v>
+        <v>1.0995</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K98" s="8" t="n">
-        <v>-0.68</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K98" s="9" t="n">
+        <v>-0.97</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7226,17 +7226,17 @@
       </c>
       <c r="N98" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O98" s="32" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P98" s="32" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q98" s="32" t="inlineStr">
@@ -7248,44 +7248,44 @@
     <row r="99">
       <c r="A99" s="28" t="inlineStr">
         <is>
-          <t>富国沪深300指数增强</t>
+          <t>富国中证红利指数增强</t>
         </is>
       </c>
       <c r="B99" s="29" t="n">
-        <v>100038</v>
+        <v>100032</v>
       </c>
       <c r="C99" s="30" t="n">
-        <v>1.3043</v>
+        <v>1.0142</v>
       </c>
       <c r="D99" s="31" t="n">
-        <v>2760.12</v>
+        <v>8677.6</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>4499</v>
+        <v>9640.809999999999</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>898.97</v>
+        <v>839.99</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.63</v>
+        <v>1.111</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.6259</v>
+        <v>1.1114</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0012</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>-11.32</v>
+        <v>3.47</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7295,17 +7295,17 @@
       </c>
       <c r="N99" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O99" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P99" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q99" s="32" t="inlineStr">
@@ -7317,26 +7317,26 @@
     <row r="100">
       <c r="A100" s="28" t="inlineStr">
         <is>
-          <t>广发中证传媒ETF联接A</t>
+          <t>广发养老指数A</t>
         </is>
       </c>
       <c r="B100" s="29" t="n">
-        <v>4752</v>
+        <v>968</v>
       </c>
       <c r="C100" s="30" t="n">
-        <v>0.7235</v>
+        <v>0.853</v>
       </c>
       <c r="D100" s="31" t="n">
-        <v>4423.48</v>
+        <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>3456.95</v>
+        <v>5822.49</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>256.56</v>
+        <v>622.42</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.7815</v>
+        <v>0.9550999999999999</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.7812</v>
+        <v>0.9546</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K100" s="8" t="n">
-        <v>-1.33</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K100" s="9" t="n">
+        <v>-3.05</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7369,12 +7369,12 @@
       </c>
       <c r="O100" s="32" t="inlineStr">
         <is>
-          <t>中证传媒</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P100" s="32" t="inlineStr">
         <is>
-          <t>144</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q100" s="32" t="inlineStr">
@@ -7386,26 +7386,26 @@
     <row r="101">
       <c r="A101" s="28" t="inlineStr">
         <is>
-          <t>易方达安心回报债券A</t>
+          <t>广发医药卫生联接A</t>
         </is>
       </c>
       <c r="B101" s="29" t="n">
-        <v>110027</v>
+        <v>1180</v>
       </c>
       <c r="C101" s="30" t="n">
-        <v>1.6102</v>
+        <v>0.7111</v>
       </c>
       <c r="D101" s="31" t="n">
-        <v>1981.84</v>
+        <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>3383</v>
+        <v>5618.93</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>191.84</v>
+        <v>818.8099999999999</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>1.707</v>
+        <v>0.8324</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
@@ -7413,37 +7413,37 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>1.7056</v>
+        <v>0.8312</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K101" s="8" t="n">
-        <v>-2.77</v>
+        <v>-0.0014</v>
+      </c>
+      <c r="K101" s="9" t="n">
+        <v>-8.1</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N101" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O101" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P101" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q101" s="32" t="inlineStr">
@@ -7455,44 +7455,44 @@
     <row r="102">
       <c r="A102" s="28" t="inlineStr">
         <is>
-          <t>富国中证500指数(LOF)</t>
+          <t>富国沪深300指数增强</t>
         </is>
       </c>
       <c r="B102" s="29" t="n">
-        <v>161017</v>
+        <v>100038</v>
       </c>
       <c r="C102" s="30" t="n">
-        <v>1.325</v>
+        <v>1.3043</v>
       </c>
       <c r="D102" s="31" t="n">
-        <v>2046.97</v>
+        <v>2760.12</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>3342.7</v>
+        <v>4485.19</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>630.47</v>
+        <v>885.17</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.633</v>
+        <v>1.625</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6293</v>
+        <v>1.6254</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0041</v>
+        <v>-0.0029</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-7.57</v>
+        <v>1.1</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7502,17 +7502,17 @@
       </c>
       <c r="N102" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O102" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>沪深300</t>
         </is>
       </c>
       <c r="P102" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>113</t>
         </is>
       </c>
       <c r="Q102" s="32" t="inlineStr">
@@ -7524,26 +7524,26 @@
     <row r="103">
       <c r="A103" s="28" t="inlineStr">
         <is>
-          <t>广发中证环保ETF联接A</t>
+          <t>广发中证传媒ETF联接A</t>
         </is>
       </c>
       <c r="B103" s="29" t="n">
-        <v>1064</v>
+        <v>4752</v>
       </c>
       <c r="C103" s="30" t="n">
-        <v>0.5379</v>
+        <v>0.7235</v>
       </c>
       <c r="D103" s="31" t="n">
-        <v>5949.77</v>
+        <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3306.88</v>
+        <v>3456.95</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>106.5</v>
+        <v>256.56</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.5558</v>
+        <v>0.7815</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.5556</v>
+        <v>0.7768</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.0076</v>
-      </c>
-      <c r="K103" s="8" t="n">
-        <v>-1.19</v>
+        <v>-0.006</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>-20.79</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7576,12 +7576,12 @@
       </c>
       <c r="O103" s="32" t="inlineStr">
         <is>
-          <t>中证环保</t>
+          <t>中证传媒</t>
         </is>
       </c>
       <c r="P103" s="32" t="inlineStr">
         <is>
-          <t>143</t>
+          <t>144</t>
         </is>
       </c>
       <c r="Q103" s="32" t="inlineStr">
@@ -7593,64 +7593,64 @@
     <row r="104">
       <c r="A104" s="28" t="inlineStr">
         <is>
-          <t>华安德国30(DAX)联接</t>
+          <t>易方达安心回报债券A</t>
         </is>
       </c>
       <c r="B104" s="29" t="n">
-        <v>614</v>
+        <v>110027</v>
       </c>
       <c r="C104" s="30" t="n">
-        <v>1.0612</v>
+        <v>1.6102</v>
       </c>
       <c r="D104" s="31" t="n">
-        <v>1884.74</v>
+        <v>1981.84</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>2254.15</v>
+        <v>3386.96</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>254.06</v>
+        <v>195.81</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.196</v>
+        <v>1.709</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>0</v>
+        <v>1.708</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>0</v>
+        <v>-1.98</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
         <is>
-          <t>海外成熟</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N104" s="32" t="inlineStr">
         <is>
-          <t>德国</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O104" s="32" t="inlineStr">
         <is>
-          <t>德国30</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P104" s="32" t="inlineStr">
         <is>
-          <t>321</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q104" s="32" t="inlineStr">
@@ -7662,44 +7662,44 @@
     <row r="105">
       <c r="A105" s="28" t="inlineStr">
         <is>
-          <t>易方达创业板ETF联接A</t>
+          <t>富国中证500指数(LOF)</t>
         </is>
       </c>
       <c r="B105" s="29" t="n">
-        <v>110026</v>
+        <v>161017</v>
       </c>
       <c r="C105" s="30" t="n">
-        <v>1.319</v>
+        <v>1.325</v>
       </c>
       <c r="D105" s="31" t="n">
-        <v>1213.09</v>
+        <v>2046.97</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>2155.42</v>
+        <v>3334.51</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>555.35</v>
+        <v>622.28</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.7768</v>
+        <v>1.629</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7768</v>
+        <v>1.6283</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0086</v>
+        <v>-0.0029</v>
       </c>
       <c r="K105" s="9" t="n">
-        <v>0</v>
+        <v>-1.43</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7714,12 +7714,12 @@
       </c>
       <c r="O105" s="32" t="inlineStr">
         <is>
-          <t>创业板</t>
+          <t>中证500</t>
         </is>
       </c>
       <c r="P105" s="32" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>121</t>
         </is>
       </c>
       <c r="Q105" s="32" t="inlineStr">
@@ -7731,26 +7731,26 @@
     <row r="106">
       <c r="A106" s="28" t="inlineStr">
         <is>
-          <t>兴全可转债混合</t>
+          <t>广发中证环保ETF联接A</t>
         </is>
       </c>
       <c r="B106" s="29" t="n">
-        <v>340001</v>
+        <v>1064</v>
       </c>
       <c r="C106" s="30" t="n">
-        <v>0.9816</v>
+        <v>0.5379</v>
       </c>
       <c r="D106" s="31" t="n">
-        <v>1630.08</v>
+        <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>1905.73</v>
+        <v>3306.88</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>305.64</v>
+        <v>106.5</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>1.1691</v>
+        <v>0.5558</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
@@ -7758,37 +7758,37 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>1.1687</v>
+        <v>0.5544</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>-0.65</v>
+        <v>-0.0025</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-8.33</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N106" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O106" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>中证环保</t>
         </is>
       </c>
       <c r="P106" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>143</t>
         </is>
       </c>
       <c r="Q106" s="32" t="inlineStr">
@@ -7800,26 +7800,26 @@
     <row r="107">
       <c r="A107" s="28" t="inlineStr">
         <is>
-          <t>交银中证海外中国互联网指数</t>
+          <t>华安德国30(DAX)联接</t>
         </is>
       </c>
       <c r="B107" s="29" t="n">
-        <v>164906</v>
+        <v>614</v>
       </c>
       <c r="C107" s="30" t="n">
-        <v>1.137</v>
+        <v>1.0612</v>
       </c>
       <c r="D107" s="31" t="n">
-        <v>1407.29</v>
+        <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>1836.51</v>
+        <v>2254.15</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>236.42</v>
+        <v>254.06</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.305</v>
+        <v>1.196</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
@@ -7827,37 +7827,37 @@
         </is>
       </c>
       <c r="I107" s="30" t="n">
-        <v>1.3078</v>
+        <v>0</v>
       </c>
       <c r="J107" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K107" s="9" t="n">
-        <v>3.94</v>
+        <v>0</v>
+      </c>
+      <c r="K107" s="8" t="n">
+        <v>0</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M107" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>海外成熟</t>
         </is>
       </c>
       <c r="N107" s="32" t="inlineStr">
         <is>
-          <t>海外互联</t>
+          <t>德国</t>
         </is>
       </c>
       <c r="O107" s="32" t="inlineStr">
         <is>
-          <t>海外互联网</t>
+          <t>德国30</t>
         </is>
       </c>
       <c r="P107" s="32" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>321</t>
         </is>
       </c>
       <c r="Q107" s="32" t="inlineStr">
@@ -7869,44 +7869,44 @@
     <row r="108">
       <c r="A108" s="28" t="inlineStr">
         <is>
-          <t>华夏上证50ETF联接A</t>
+          <t>易方达创业板ETF联接A</t>
         </is>
       </c>
       <c r="B108" s="29" t="n">
-        <v>1051</v>
+        <v>110026</v>
       </c>
       <c r="C108" s="30" t="n">
-        <v>0.8966</v>
+        <v>1.319</v>
       </c>
       <c r="D108" s="31" t="n">
-        <v>1338.46</v>
+        <v>1213.09</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>1350.51</v>
+        <v>2158.81</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>150.44</v>
+        <v>558.75</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.009</v>
+        <v>1.7796</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.0101</v>
+        <v>1.7795</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0041</v>
+        <v>0.0015</v>
       </c>
       <c r="K108" s="9" t="n">
-        <v>1.47</v>
+        <v>-0.12</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7916,17 +7916,17 @@
       </c>
       <c r="N108" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O108" s="32" t="inlineStr">
         <is>
-          <t>上证50</t>
+          <t>创业板</t>
         </is>
       </c>
       <c r="P108" s="32" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>124</t>
         </is>
       </c>
       <c r="Q108" s="32" t="inlineStr">
@@ -7938,64 +7938,64 @@
     <row r="109">
       <c r="A109" s="28" t="inlineStr">
         <is>
-          <t>华宝标普油气上游股票</t>
+          <t>兴全可转债混合</t>
         </is>
       </c>
       <c r="B109" s="29" t="n">
-        <v>162411</v>
+        <v>340001</v>
       </c>
       <c r="C109" s="30" t="n">
-        <v>0.4776</v>
+        <v>0.9816</v>
       </c>
       <c r="D109" s="31" t="n">
-        <v>3350.7</v>
+        <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1283.32</v>
+        <v>1905.73</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>-316.98</v>
+        <v>305.64</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>0.383</v>
+        <v>1.1691</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>0.381</v>
+        <v>1.1676</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0026</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>-6.7</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-2.45</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:04</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N109" s="32" t="inlineStr">
         <is>
-          <t>商品</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O109" s="32" t="inlineStr">
         <is>
-          <t>原油</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P109" s="32" t="inlineStr">
         <is>
-          <t>613</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q109" s="32" t="inlineStr">
@@ -8007,64 +8007,64 @@
     <row r="110">
       <c r="A110" s="28" t="inlineStr">
         <is>
-          <t>华宝中证1000指数分级</t>
+          <t>交银中证海外中国互联网指数</t>
         </is>
       </c>
       <c r="B110" s="29" t="n">
-        <v>162413</v>
+        <v>164906</v>
       </c>
       <c r="C110" s="30" t="n">
-        <v>0.8027</v>
+        <v>1.137</v>
       </c>
       <c r="D110" s="31" t="n">
-        <v>1495.03</v>
+        <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1218.9</v>
+        <v>1836.51</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>18.84</v>
+        <v>236.42</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>0.8153</v>
+        <v>1.305</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-10</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>0.8153</v>
+        <v>1.3058</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>-0.0038</v>
-      </c>
-      <c r="K110" s="9" t="n">
-        <v>0</v>
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="K110" s="8" t="n">
+        <v>1.13</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N110" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>海外互联</t>
         </is>
       </c>
       <c r="O110" s="32" t="inlineStr">
         <is>
-          <t>中证1000</t>
+          <t>海外互联网</t>
         </is>
       </c>
       <c r="P110" s="32" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>221</t>
         </is>
       </c>
       <c r="Q110" s="32" t="inlineStr">
@@ -8076,26 +8076,26 @@
     <row r="111">
       <c r="A111" s="28" t="inlineStr">
         <is>
-          <t>广发中证全指金融地产联接A</t>
+          <t>华夏上证50ETF联接A</t>
         </is>
       </c>
       <c r="B111" s="29" t="n">
-        <v>1469</v>
+        <v>1051</v>
       </c>
       <c r="C111" s="30" t="n">
-        <v>0.8885999999999999</v>
+        <v>0.8966</v>
       </c>
       <c r="D111" s="31" t="n">
-        <v>900.35</v>
+        <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>986.33</v>
+        <v>1350.51</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>186.28</v>
+        <v>150.44</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.0955</v>
+        <v>1.009</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0954</v>
+        <v>1.0053</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0068</v>
-      </c>
-      <c r="K111" s="8" t="n">
-        <v>-0.09</v>
+        <v>-0.0037</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>-4.95</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8123,17 +8123,17 @@
       </c>
       <c r="N111" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O111" s="32" t="inlineStr">
         <is>
-          <t>金融地产</t>
+          <t>上证50</t>
         </is>
       </c>
       <c r="P111" s="32" t="inlineStr">
         <is>
-          <t>147</t>
+          <t>111</t>
         </is>
       </c>
       <c r="Q111" s="32" t="inlineStr">
@@ -8145,26 +8145,26 @@
     <row r="112">
       <c r="A112" s="28" t="inlineStr">
         <is>
-          <t>华安黄金易ETF联接A</t>
+          <t>华宝标普油气上游股票</t>
         </is>
       </c>
       <c r="B112" s="29" t="n">
-        <v>216</v>
+        <v>162411</v>
       </c>
       <c r="C112" s="30" t="n">
-        <v>1.0903</v>
+        <v>0.4776</v>
       </c>
       <c r="D112" s="31" t="n">
-        <v>733.79</v>
+        <v>3350.7</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>892.88</v>
+        <v>1276.62</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>92.81999999999999</v>
+        <v>-323.68</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>1.2168</v>
+        <v>0.381</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>1.2209</v>
+        <v>0.379</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0034</v>
+        <v>-0.0052</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>3.01</v>
+        <v>-6.7</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 02:29</t>
+          <t>2019-12-12 15:04</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8197,12 +8197,12 @@
       </c>
       <c r="O112" s="32" t="inlineStr">
         <is>
-          <t>黄金</t>
+          <t>原油</t>
         </is>
       </c>
       <c r="P112" s="32" t="inlineStr">
         <is>
-          <t>611</t>
+          <t>613</t>
         </is>
       </c>
       <c r="Q112" s="32" t="inlineStr">
@@ -8214,26 +8214,26 @@
     <row r="113">
       <c r="A113" s="28" t="inlineStr">
         <is>
-          <t>易方达证券公司分级</t>
+          <t>华宝中证1000指数分级</t>
         </is>
       </c>
       <c r="B113" s="29" t="n">
-        <v>502010</v>
+        <v>162413</v>
       </c>
       <c r="C113" s="30" t="n">
-        <v>0.8063</v>
+        <v>0.8027</v>
       </c>
       <c r="D113" s="31" t="n">
-        <v>496.13</v>
+        <v>1495.03</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>491.81</v>
+        <v>1218.9</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>91.78</v>
+        <v>18.84</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.9913</v>
+        <v>0.8153</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.9911</v>
+        <v>0.8152</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0012</v>
-      </c>
-      <c r="K113" s="8" t="n">
-        <v>-0.1</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K113" s="9" t="n">
+        <v>-0.15</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8261,17 +8261,17 @@
       </c>
       <c r="N113" s="32" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O113" s="32" t="inlineStr">
         <is>
-          <t>证券公司</t>
+          <t>中证1000</t>
         </is>
       </c>
       <c r="P113" s="32" t="inlineStr">
         <is>
-          <t>145</t>
+          <t>123</t>
         </is>
       </c>
       <c r="Q113" s="32" t="inlineStr">
@@ -8283,26 +8283,26 @@
     <row r="114">
       <c r="A114" s="28" t="inlineStr">
         <is>
-          <t>长信可转债债券A</t>
+          <t>广发中证全指金融地产联接A</t>
         </is>
       </c>
       <c r="B114" s="29" t="n">
-        <v>519977</v>
+        <v>1469</v>
       </c>
       <c r="C114" s="30" t="n">
-        <v>1.2011</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="D114" s="31" t="n">
-        <v>333.04</v>
+        <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>457.13</v>
+        <v>986.33</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>57.12</v>
+        <v>186.28</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.3726</v>
+        <v>1.0955</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
@@ -8310,37 +8310,37 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.3734</v>
+        <v>1.0919</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0016</v>
+        <v>-0.0033</v>
       </c>
       <c r="K114" s="9" t="n">
-        <v>0.27</v>
+        <v>-3.24</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
         <is>
-          <t>债券</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N114" s="32" t="inlineStr">
         <is>
-          <t>国内债券</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O114" s="32" t="inlineStr">
         <is>
-          <t>可转债</t>
+          <t>金融地产</t>
         </is>
       </c>
       <c r="P114" s="32" t="inlineStr">
         <is>
-          <t>512</t>
+          <t>147</t>
         </is>
       </c>
       <c r="Q114" s="32" t="inlineStr">
@@ -8352,26 +8352,26 @@
     <row r="115">
       <c r="A115" s="28" t="inlineStr">
         <is>
-          <t>华夏沪深300ETF联接A</t>
+          <t>华安黄金易ETF联接A</t>
         </is>
       </c>
       <c r="B115" s="29" t="n">
-        <v>51</v>
+        <v>216</v>
       </c>
       <c r="C115" s="30" t="n">
-        <v>1.2285</v>
+        <v>1.0903</v>
       </c>
       <c r="D115" s="31" t="n">
-        <v>325.61</v>
+        <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>425.25</v>
+        <v>892.88</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>25.23</v>
+        <v>92.81999999999999</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.306</v>
+        <v>1.2168</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
@@ -8379,37 +8379,37 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.3057</v>
+        <v>1.2189</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0018</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>-0.1</v>
+        <v>1.54</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 20:32</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="N115" s="32" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>商品</t>
         </is>
       </c>
       <c r="O115" s="32" t="inlineStr">
         <is>
-          <t>沪深300</t>
+          <t>黄金</t>
         </is>
       </c>
       <c r="P115" s="32" t="inlineStr">
         <is>
-          <t>113</t>
+          <t>611</t>
         </is>
       </c>
       <c r="Q115" s="32" t="inlineStr">
@@ -8421,64 +8421,64 @@
     <row r="116">
       <c r="A116" s="28" t="inlineStr">
         <is>
-          <t>华夏恒生ETF联接A</t>
+          <t>易方达证券公司分级</t>
         </is>
       </c>
       <c r="B116" s="29" t="n">
-        <v>71</v>
+        <v>502010</v>
       </c>
       <c r="C116" s="30" t="n">
-        <v>1.452</v>
+        <v>0.8063</v>
       </c>
       <c r="D116" s="31" t="n">
-        <v>275.49</v>
+        <v>496.13</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>411.47</v>
+        <v>489.23</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>11.46</v>
+        <v>89.2</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.4936</v>
+        <v>0.9861</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.4934</v>
+        <v>0.9859</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0075</v>
-      </c>
-      <c r="K116" s="8" t="n">
-        <v>-0.06</v>
+        <v>-0.0054</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 16:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N116" s="32" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O116" s="32" t="inlineStr">
         <is>
-          <t>恒生</t>
+          <t>证券公司</t>
         </is>
       </c>
       <c r="P116" s="32" t="inlineStr">
         <is>
-          <t>211</t>
+          <t>145</t>
         </is>
       </c>
       <c r="Q116" s="32" t="inlineStr">
@@ -8490,26 +8490,26 @@
     <row r="117">
       <c r="A117" s="28" t="inlineStr">
         <is>
-          <t>建信中证500指数增强A</t>
+          <t>长信可转债债券A</t>
         </is>
       </c>
       <c r="B117" s="29" t="n">
-        <v>478</v>
+        <v>519977</v>
       </c>
       <c r="C117" s="30" t="n">
-        <v>1.9396</v>
+        <v>1.2011</v>
       </c>
       <c r="D117" s="31" t="n">
-        <v>206.23</v>
+        <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>408.97</v>
+        <v>457.13</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>8.970000000000001</v>
+        <v>57.12</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.9831</v>
+        <v>1.3726</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
@@ -8517,37 +8517,37 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.979</v>
+        <v>1.3727</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0041</v>
+        <v>0.0001</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>-0.85</v>
+        <v>0.03</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11 15:00</t>
+          <t>2019-12-12 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>债券</t>
         </is>
       </c>
       <c r="N117" s="32" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>国内债券</t>
         </is>
       </c>
       <c r="O117" s="32" t="inlineStr">
         <is>
-          <t>中证500</t>
+          <t>可转债</t>
         </is>
       </c>
       <c r="P117" s="32" t="inlineStr">
         <is>
-          <t>121</t>
+          <t>512</t>
         </is>
       </c>
       <c r="Q117" s="32" t="inlineStr">
@@ -8559,73 +8559,280 @@
     <row r="118">
       <c r="A118" s="28" t="inlineStr">
         <is>
+          <t>华夏沪深300ETF联接A</t>
+        </is>
+      </c>
+      <c r="B118" s="29" t="n">
+        <v>51</v>
+      </c>
+      <c r="C118" s="30" t="n">
+        <v>1.2285</v>
+      </c>
+      <c r="D118" s="31" t="n">
+        <v>325.61</v>
+      </c>
+      <c r="E118" s="31" t="n">
+        <v>425.25</v>
+      </c>
+      <c r="F118" s="31" t="n">
+        <v>25.23</v>
+      </c>
+      <c r="G118" s="30" t="n">
+        <v>1.306</v>
+      </c>
+      <c r="H118" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I118" s="30" t="n">
+        <v>1.3023</v>
+      </c>
+      <c r="J118" s="33" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>-1.2</v>
+      </c>
+      <c r="L118" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M118" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N118" s="32" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O118" s="32" t="inlineStr">
+        <is>
+          <t>沪深300</t>
+        </is>
+      </c>
+      <c r="P118" s="32" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="Q118" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="28" t="inlineStr">
+        <is>
+          <t>华夏恒生ETF联接A</t>
+        </is>
+      </c>
+      <c r="B119" s="29" t="n">
+        <v>71</v>
+      </c>
+      <c r="C119" s="30" t="n">
+        <v>1.452</v>
+      </c>
+      <c r="D119" s="31" t="n">
+        <v>275.49</v>
+      </c>
+      <c r="E119" s="31" t="n">
+        <v>411.47</v>
+      </c>
+      <c r="F119" s="31" t="n">
+        <v>11.46</v>
+      </c>
+      <c r="G119" s="30" t="n">
+        <v>1.4936</v>
+      </c>
+      <c r="H119" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I119" s="30" t="n">
+        <v>1.5122</v>
+      </c>
+      <c r="J119" s="33" t="n">
+        <v>0.0124</v>
+      </c>
+      <c r="K119" s="8" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="L119" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 16:00</t>
+        </is>
+      </c>
+      <c r="M119" s="32" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="N119" s="32" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="O119" s="32" t="inlineStr">
+        <is>
+          <t>恒生</t>
+        </is>
+      </c>
+      <c r="P119" s="32" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="Q119" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="28" t="inlineStr">
+        <is>
+          <t>建信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="B120" s="29" t="n">
+        <v>478</v>
+      </c>
+      <c r="C120" s="30" t="n">
+        <v>1.9396</v>
+      </c>
+      <c r="D120" s="31" t="n">
+        <v>206.23</v>
+      </c>
+      <c r="E120" s="31" t="n">
+        <v>408.97</v>
+      </c>
+      <c r="F120" s="31" t="n">
+        <v>8.970000000000001</v>
+      </c>
+      <c r="G120" s="30" t="n">
+        <v>1.9831</v>
+      </c>
+      <c r="H120" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-11</t>
+        </is>
+      </c>
+      <c r="I120" s="30" t="n">
+        <v>1.9774</v>
+      </c>
+      <c r="J120" s="33" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="K120" s="9" t="n">
+        <v>-1.18</v>
+      </c>
+      <c r="L120" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M120" s="32" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N120" s="32" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O120" s="32" t="inlineStr">
+        <is>
+          <t>中证500</t>
+        </is>
+      </c>
+      <c r="P120" s="32" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="Q120" s="32" t="inlineStr">
+        <is>
+          <t>母天天基金</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="28" t="inlineStr">
+        <is>
           <t>广发中证500ETF联接C</t>
         </is>
       </c>
-      <c r="B118" s="29" t="n">
+      <c r="B121" s="29" t="n">
         <v>2903</v>
       </c>
-      <c r="C118" s="30" t="n">
+      <c r="C121" s="30" t="n">
         <v>0.829</v>
       </c>
-      <c r="D118" s="31" t="n">
+      <c r="D121" s="31" t="n">
         <v>275.96</v>
       </c>
-      <c r="E118" s="31" t="n">
+      <c r="E121" s="31" t="n">
         <v>243.07</v>
       </c>
-      <c r="F118" s="31" t="n">
+      <c r="F121" s="31" t="n">
         <v>14.29</v>
       </c>
-      <c r="G118" s="30" t="n">
+      <c r="G121" s="30" t="n">
         <v>0.8808</v>
       </c>
-      <c r="H118" s="32" t="inlineStr">
+      <c r="H121" s="32" t="inlineStr">
         <is>
           <t>2019-12-11</t>
         </is>
       </c>
-      <c r="I118" s="30" t="n">
-        <v>0.8806</v>
-      </c>
-      <c r="J118" s="33" t="n">
-        <v>-0.0041</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>-0.06</v>
-      </c>
-      <c r="L118" s="32" t="inlineStr">
-        <is>
-          <t>2019-12-11 15:00</t>
-        </is>
-      </c>
-      <c r="M118" s="32" t="inlineStr">
+      <c r="I121" s="30" t="n">
+        <v>0.8783</v>
+      </c>
+      <c r="J121" s="33" t="n">
+        <v>-0.0029</v>
+      </c>
+      <c r="K121" s="9" t="n">
+        <v>-0.6899999999999999</v>
+      </c>
+      <c r="L121" s="32" t="inlineStr">
+        <is>
+          <t>2019-12-12 15:00</t>
+        </is>
+      </c>
+      <c r="M121" s="32" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N118" s="32" t="inlineStr">
+      <c r="N121" s="32" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O118" s="32" t="inlineStr">
+      <c r="O121" s="32" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P118" s="32" t="inlineStr">
+      <c r="P121" s="32" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q118" s="32" t="inlineStr">
+      <c r="Q121" s="32" t="inlineStr">
         <is>
           <t>母天天基金</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.636</v>
+        <v>1.6442</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>0</v>
+        <v>19.86</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4393</v>
+        <v>1.4567</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>-1.89</v>
+        <v>0.0116</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>45.08</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>3620.67</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3375.55</v>
+        <v>3370.48</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-2.9</v>
+        <v>-7.97</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9323</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>-5.07</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>11.22</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4896</v>
+        <v>1.5091</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0123</v>
+        <v>0.0187</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>18.53</v>
+        <v>62.61</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.8936</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.0112</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>0</v>
+        <v>28.63</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2043</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0016</v>
+        <v>0.0124</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0</v>
+        <v>28.5</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1019.49</v>
+        <v>1018.85</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.06</v>
+        <v>-4.7</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K8" s="9" t="n">
-        <v>-0.53</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K8" s="8" t="n">
+        <v>13.34</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>525.52</v>
+        <v>525.85</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-15.36</v>
+        <v>-15.03</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9548</v>
+        <v>0.9554</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9667</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K9" s="9" t="n">
-        <v>-1.49</v>
+        <v>0.0118</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>6.22</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7633</v>
+        <v>0.7719</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K10" s="9" t="n">
-        <v>-0.05</v>
+        <v>0.0111</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>4.52</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328.48</v>
+        <v>328.73</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.22</v>
+        <v>15.47</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.325</v>
+        <v>1.326</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3261</v>
+        <v>1.343</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0009</v>
+        <v>0.0128</v>
       </c>
       <c r="K11" s="8" t="n">
-        <v>0.27</v>
+        <v>4.21</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2345</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0</v>
+        <v>1.04</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.3605</v>
+        <v>1.3764</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>-0.01</v>
+        <v>0.0116</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>1.02</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1381,690 +1381,690 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="10" t="inlineStr">
+      <c r="A14" s="9" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B14" s="11" t="n">
+      <c r="B14" s="10" t="n">
         <v>1064</v>
       </c>
-      <c r="C14" s="12" t="n">
+      <c r="C14" s="11" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D14" s="13" t="n">
+      <c r="D14" s="12" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E14" s="13" t="n">
-        <v>9299.58</v>
-      </c>
-      <c r="F14" s="13" t="n">
-        <v>-2700.53</v>
-      </c>
-      <c r="G14" s="12" t="n">
-        <v>0.5558</v>
-      </c>
-      <c r="H14" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I14" s="12" t="n">
+      <c r="E14" s="12" t="n">
+        <v>9276.15</v>
+      </c>
+      <c r="F14" s="12" t="n">
+        <v>-2723.95</v>
+      </c>
+      <c r="G14" s="11" t="n">
         <v>0.5544</v>
       </c>
-      <c r="J14" s="15" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>-23.42</v>
-      </c>
-      <c r="L14" s="14" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M14" s="14" t="inlineStr">
+      <c r="H14" s="13" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I14" s="11" t="n">
+        <v>0.5604</v>
+      </c>
+      <c r="J14" s="14" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>100.39</v>
+      </c>
+      <c r="L14" s="13" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:30</t>
+        </is>
+      </c>
+      <c r="M14" s="13" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="14" t="inlineStr">
+      <c r="N14" s="13" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O14" s="14" t="inlineStr">
+      <c r="O14" s="13" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P14" s="14" t="inlineStr">
+      <c r="P14" s="13" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q14" s="14" t="inlineStr">
+      <c r="Q14" s="13" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="16" t="inlineStr">
+      <c r="A15" s="15" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B15" s="17" t="n">
+      <c r="B15" s="16" t="n">
         <v>510050</v>
       </c>
-      <c r="C15" s="18" t="n">
+      <c r="C15" s="17" t="n">
         <v>2.337</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="18" t="n">
         <v>2700</v>
       </c>
-      <c r="E15" s="19" t="n">
-        <v>7959.6</v>
-      </c>
-      <c r="F15" s="19" t="n">
-        <v>1649.7</v>
-      </c>
-      <c r="G15" s="18" t="n">
-        <v>2.948</v>
-      </c>
-      <c r="H15" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I15" s="18" t="n">
-        <v>2.937</v>
-      </c>
-      <c r="J15" s="21" t="n">
-        <v>-0.0034</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>-29.7</v>
-      </c>
-      <c r="L15" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M15" s="20" t="inlineStr">
+      <c r="E15" s="18" t="n">
+        <v>7927.2</v>
+      </c>
+      <c r="F15" s="18" t="n">
+        <v>1617.3</v>
+      </c>
+      <c r="G15" s="17" t="n">
+        <v>2.936</v>
+      </c>
+      <c r="H15" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I15" s="17" t="n">
+        <v>2.978</v>
+      </c>
+      <c r="J15" s="20" t="n">
+        <v>0.014</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>113.4</v>
+      </c>
+      <c r="L15" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M15" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="20" t="inlineStr">
+      <c r="N15" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="20" t="inlineStr">
+      <c r="O15" s="19" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P15" s="20" t="inlineStr">
+      <c r="P15" s="19" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q15" s="20" t="inlineStr">
+      <c r="Q15" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="16" t="inlineStr">
+      <c r="A16" s="15" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B16" s="17" t="n">
+      <c r="B16" s="16" t="n">
         <v>510300</v>
       </c>
-      <c r="C16" s="18" t="n">
+      <c r="C16" s="17" t="n">
         <v>3.447</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="18" t="n">
         <v>9100</v>
       </c>
-      <c r="E16" s="19" t="n">
+      <c r="E16" s="18" t="n">
         <v>35388.08</v>
       </c>
-      <c r="F16" s="19" t="n">
+      <c r="F16" s="18" t="n">
         <v>4020.38</v>
       </c>
-      <c r="G16" s="18" t="n">
+      <c r="G16" s="17" t="n">
         <v>3.8888</v>
       </c>
-      <c r="H16" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I16" s="18" t="n">
-        <v>3.889</v>
-      </c>
-      <c r="J16" s="21" t="n">
-        <v>-0.0028</v>
+      <c r="H16" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I16" s="17" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="J16" s="20" t="n">
+        <v>0.0131</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>1.82</v>
-      </c>
-      <c r="L16" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M16" s="20" t="inlineStr">
+        <v>465.92</v>
+      </c>
+      <c r="L16" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M16" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="20" t="inlineStr">
+      <c r="N16" s="19" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O16" s="20" t="inlineStr">
+      <c r="O16" s="19" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P16" s="20" t="inlineStr">
+      <c r="P16" s="19" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q16" s="20" t="inlineStr">
+      <c r="Q16" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="16" t="inlineStr">
+      <c r="A17" s="15" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B17" s="17" t="n">
+      <c r="B17" s="16" t="n">
         <v>510500</v>
       </c>
-      <c r="C17" s="18" t="n">
+      <c r="C17" s="17" t="n">
         <v>5.601</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="18" t="n">
         <v>38800</v>
       </c>
-      <c r="E17" s="19" t="n">
-        <v>211110.8</v>
-      </c>
-      <c r="F17" s="19" t="n">
-        <v>-6208</v>
-      </c>
-      <c r="G17" s="18" t="n">
-        <v>5.441</v>
-      </c>
-      <c r="H17" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I17" s="18" t="n">
-        <v>5.426</v>
-      </c>
-      <c r="J17" s="21" t="n">
-        <v>-0.002</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>-582</v>
-      </c>
-      <c r="L17" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M17" s="20" t="inlineStr">
+      <c r="E17" s="18" t="n">
+        <v>210629.68</v>
+      </c>
+      <c r="F17" s="18" t="n">
+        <v>-6689.12</v>
+      </c>
+      <c r="G17" s="17" t="n">
+        <v>5.4286</v>
+      </c>
+      <c r="H17" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I17" s="17" t="n">
+        <v>5.456</v>
+      </c>
+      <c r="J17" s="20" t="n">
+        <v>0.0055</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>1063.12</v>
+      </c>
+      <c r="L17" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M17" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="20" t="inlineStr">
+      <c r="N17" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O17" s="20" t="inlineStr">
+      <c r="O17" s="19" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="P17" s="19" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="Q17" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="16" t="inlineStr">
+      <c r="A18" s="15" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B18" s="17" t="n">
+      <c r="B18" s="16" t="n">
         <v>512580</v>
       </c>
-      <c r="C18" s="18" t="n">
+      <c r="C18" s="17" t="n">
         <v>0.877</v>
       </c>
-      <c r="D18" s="19" t="n">
+      <c r="D18" s="18" t="n">
         <v>33800</v>
       </c>
-      <c r="E18" s="19" t="n">
+      <c r="E18" s="18" t="n">
         <v>24961.3</v>
       </c>
-      <c r="F18" s="19" t="n">
+      <c r="F18" s="18" t="n">
         <v>-4681.3</v>
       </c>
-      <c r="G18" s="18" t="n">
+      <c r="G18" s="17" t="n">
         <v>0.7385</v>
       </c>
-      <c r="H18" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I18" s="18" t="n">
-        <v>0.738</v>
-      </c>
-      <c r="J18" s="21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>-16.9</v>
-      </c>
-      <c r="L18" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M18" s="20" t="inlineStr">
+      <c r="H18" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I18" s="17" t="n">
+        <v>0.746</v>
+      </c>
+      <c r="J18" s="20" t="n">
+        <v>0.0108</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>253.5</v>
+      </c>
+      <c r="L18" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M18" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="20" t="inlineStr">
+      <c r="N18" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="20" t="inlineStr">
+      <c r="O18" s="19" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr">
+      <c r="P18" s="19" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q18" s="20" t="inlineStr">
+      <c r="Q18" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="16" t="inlineStr">
+      <c r="A19" s="15" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B19" s="17" t="n">
+      <c r="B19" s="16" t="n">
         <v>512880</v>
       </c>
-      <c r="C19" s="18" t="n">
+      <c r="C19" s="17" t="n">
         <v>0.783</v>
       </c>
-      <c r="D19" s="19" t="n">
+      <c r="D19" s="18" t="n">
         <v>32700</v>
       </c>
-      <c r="E19" s="19" t="n">
+      <c r="E19" s="18" t="n">
         <v>30034.95</v>
       </c>
-      <c r="F19" s="19" t="n">
+      <c r="F19" s="18" t="n">
         <v>4430.85</v>
       </c>
-      <c r="G19" s="18" t="n">
+      <c r="G19" s="17" t="n">
         <v>0.9185</v>
       </c>
-      <c r="H19" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I19" s="18" t="n">
-        <v>0.919</v>
-      </c>
-      <c r="J19" s="21" t="n">
-        <v>-0.0054</v>
+      <c r="H19" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I19" s="17" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+      <c r="J19" s="20" t="n">
+        <v>0.0207</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>16.35</v>
-      </c>
-      <c r="L19" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M19" s="20" t="inlineStr">
+        <v>637.65</v>
+      </c>
+      <c r="L19" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M19" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="20" t="inlineStr">
+      <c r="N19" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="20" t="inlineStr">
+      <c r="O19" s="19" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P19" s="20" t="inlineStr">
+      <c r="P19" s="19" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q19" s="20" t="inlineStr">
+      <c r="Q19" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="16" t="inlineStr">
+      <c r="A20" s="15" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B20" s="17" t="n">
+      <c r="B20" s="16" t="n">
         <v>512980</v>
       </c>
-      <c r="C20" s="18" t="n">
+      <c r="C20" s="17" t="n">
         <v>0.869</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D20" s="18" t="n">
         <v>34100</v>
       </c>
-      <c r="E20" s="19" t="n">
+      <c r="E20" s="18" t="n">
         <v>26403.63</v>
       </c>
-      <c r="F20" s="19" t="n">
+      <c r="F20" s="18" t="n">
         <v>-3229.27</v>
       </c>
-      <c r="G20" s="18" t="n">
+      <c r="G20" s="17" t="n">
         <v>0.7743</v>
       </c>
-      <c r="H20" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I20" s="18" t="n">
-        <v>0.775</v>
-      </c>
-      <c r="J20" s="21" t="n">
-        <v>-0.0064</v>
+      <c r="H20" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I20" s="17" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="J20" s="20" t="n">
+        <v>0.0065</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>23.87</v>
-      </c>
-      <c r="L20" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M20" s="20" t="inlineStr">
+        <v>194.37</v>
+      </c>
+      <c r="L20" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M20" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N20" s="20" t="inlineStr">
+      <c r="N20" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O20" s="20" t="inlineStr">
+      <c r="O20" s="19" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr">
+      <c r="P20" s="19" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q20" s="20" t="inlineStr">
+      <c r="Q20" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="16" t="inlineStr">
+      <c r="A21" s="15" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B21" s="17" t="n">
+      <c r="B21" s="16" t="n">
         <v>518880</v>
       </c>
-      <c r="C21" s="18" t="n">
+      <c r="C21" s="17" t="n">
         <v>2.856</v>
       </c>
-      <c r="D21" s="19" t="n">
+      <c r="D21" s="18" t="n">
         <v>4500</v>
       </c>
-      <c r="E21" s="19" t="n">
+      <c r="E21" s="18" t="n">
         <v>14874.75</v>
       </c>
-      <c r="F21" s="19" t="n">
+      <c r="F21" s="18" t="n">
         <v>2022.75</v>
       </c>
-      <c r="G21" s="18" t="n">
+      <c r="G21" s="17" t="n">
         <v>3.3055</v>
       </c>
-      <c r="H21" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I21" s="18" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="J21" s="21" t="n">
-        <v>0.0055</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>-24.75</v>
-      </c>
-      <c r="L21" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:00</t>
-        </is>
-      </c>
-      <c r="M21" s="20" t="inlineStr">
+      <c r="H21" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I21" s="17" t="n">
+        <v>3.262</v>
+      </c>
+      <c r="J21" s="20" t="n">
+        <v>-0.0115</v>
+      </c>
+      <c r="K21" s="21" t="n">
+        <v>-195.75</v>
+      </c>
+      <c r="L21" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:29</t>
+        </is>
+      </c>
+      <c r="M21" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N21" s="20" t="inlineStr">
+      <c r="N21" s="19" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O21" s="20" t="inlineStr">
+      <c r="O21" s="19" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P21" s="20" t="inlineStr">
+      <c r="P21" s="19" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="Q21" s="20" t="inlineStr">
+      <c r="Q21" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="16" t="inlineStr">
+      <c r="A22" s="15" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B22" s="17" t="n">
+      <c r="B22" s="16" t="n">
         <v>159915</v>
       </c>
-      <c r="C22" s="18" t="n">
+      <c r="C22" s="17" t="n">
         <v>1.399</v>
       </c>
-      <c r="D22" s="19" t="n">
+      <c r="D22" s="18" t="n">
         <v>9200</v>
       </c>
-      <c r="E22" s="19" t="n">
+      <c r="E22" s="18" t="n">
         <v>15242.56</v>
       </c>
-      <c r="F22" s="19" t="n">
+      <c r="F22" s="18" t="n">
         <v>2371.76</v>
       </c>
-      <c r="G22" s="18" t="n">
+      <c r="G22" s="17" t="n">
         <v>1.6568</v>
       </c>
-      <c r="H22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I22" s="18" t="n">
-        <v>1.657</v>
-      </c>
-      <c r="J22" s="21" t="n">
-        <v>0.0024</v>
+      <c r="H22" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I22" s="17" t="n">
+        <v>1.679</v>
+      </c>
+      <c r="J22" s="20" t="n">
+        <v>0.0133</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L22" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:04</t>
-        </is>
-      </c>
-      <c r="M22" s="20" t="inlineStr">
+        <v>204.24</v>
+      </c>
+      <c r="L22" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:48</t>
+        </is>
+      </c>
+      <c r="M22" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="20" t="inlineStr">
+      <c r="N22" s="19" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O22" s="20" t="inlineStr">
+      <c r="O22" s="19" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P22" s="20" t="inlineStr">
+      <c r="P22" s="19" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q22" s="20" t="inlineStr">
+      <c r="Q22" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="16" t="inlineStr">
+      <c r="A23" s="15" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B23" s="17" t="n">
+      <c r="B23" s="16" t="n">
         <v>159938</v>
       </c>
-      <c r="C23" s="18" t="n">
+      <c r="C23" s="17" t="n">
         <v>1.271</v>
       </c>
-      <c r="D23" s="19" t="n">
+      <c r="D23" s="18" t="n">
         <v>14400</v>
       </c>
-      <c r="E23" s="19" t="n">
+      <c r="E23" s="18" t="n">
         <v>19190.88</v>
       </c>
-      <c r="F23" s="19" t="n">
+      <c r="F23" s="18" t="n">
         <v>888.48</v>
       </c>
-      <c r="G23" s="18" t="n">
+      <c r="G23" s="17" t="n">
         <v>1.3327</v>
       </c>
-      <c r="H23" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I23" s="18" t="n">
-        <v>1.335</v>
-      </c>
-      <c r="J23" s="21" t="n">
-        <v>0</v>
+      <c r="H23" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I23" s="17" t="n">
+        <v>1.348</v>
+      </c>
+      <c r="J23" s="20" t="n">
+        <v>0.0097</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>33.12</v>
-      </c>
-      <c r="L23" s="20" t="inlineStr">
-        <is>
-          <t>2019-12-12 15:04</t>
-        </is>
-      </c>
-      <c r="M23" s="20" t="inlineStr">
+        <v>220.32</v>
+      </c>
+      <c r="L23" s="19" t="inlineStr">
+        <is>
+          <t>2019-12-13 11:48</t>
+        </is>
+      </c>
+      <c r="M23" s="19" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N23" s="20" t="inlineStr">
+      <c r="N23" s="19" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O23" s="20" t="inlineStr">
+      <c r="O23" s="19" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P23" s="20" t="inlineStr">
+      <c r="P23" s="19" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q23" s="20" t="inlineStr">
+      <c r="Q23" s="19" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8244.780000000001</v>
+        <v>8221.5</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>240.72</v>
+        <v>217.44</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>1.9831</v>
+        <v>1.9775</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>1.9774</v>
+        <v>1.9888</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>-23.7</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>46.98</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5403.49</v>
+        <v>5389.88</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>67.08</v>
+        <v>53.47</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5558</v>
+        <v>0.5544</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5544</v>
+        <v>0.5604</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>-13.61</v>
+        <v>0.0108</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>58.33</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4721.98</v>
+        <v>4719.01</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>52.9</v>
+        <v>49.93</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K26" s="9" t="n">
-        <v>-2.47</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K26" s="8" t="n">
+        <v>61.8</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4125.16</v>
+        <v>4117.78</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>123.24</v>
+        <v>115.86</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5574</v>
+        <v>0.5612</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>-11.81</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>23.61</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1114</v>
+        <v>1.1166</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>1.47</v>
+        <v>20.52</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3556.25</v>
+        <v>3535.32</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>221.16</v>
+        <v>200.22</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.7815</v>
+        <v>0.7769</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.7768</v>
+        <v>0.7834</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>-21.39</v>
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>29.58</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.7795</v>
+        <v>1.8036</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>-0.04</v>
+        <v>0.0135</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>9.619999999999999</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>710.09</v>
+        <v>711.1900000000001</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>43.07</v>
+        <v>44.18</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9644</v>
+        <v>0.9659</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9659</v>
+        <v>0.9789</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0015</v>
+        <v>0.0135</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>1.1</v>
+        <v>9.57</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>0.9859</v>
+        <v>1.0068</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>-0.09</v>
+        <v>0.021</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>9.81</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.379</v>
+        <v>0.388</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>-10.6</v>
+        <v>0.0237</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>37.1</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:04</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>752.72</v>
+        <v>757.92</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>85.70999999999999</v>
+        <v>90.90000000000001</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.305</v>
+        <v>1.314</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3058</v>
+        <v>1.3215</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0057</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>0.46</v>
+        <v>4.33</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-13 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>686.5599999999999</v>
+        <v>695.2</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>19.58</v>
+        <v>28.22</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.5124</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5122</v>
+        <v>1.5412</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0124</v>
+        <v>0.019</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>8.550000000000001</v>
+        <v>13.24</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:47</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,17 +2914,17 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>731.65</v>
+        <v>737.16</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>64.66</v>
+        <v>70.17</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.196</v>
+        <v>1.205</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
@@ -2983,31 +2983,31 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2075.77</v>
+        <v>2069.91</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>75.78</v>
+        <v>69.92</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.9831</v>
+        <v>1.9775</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.9774</v>
+        <v>1.9888</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>-5.97</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>11.83</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1114</v>
+        <v>1.1166</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>0.73</v>
+        <v>10.23</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1068.7</v>
+        <v>1065.53</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>68.73999999999999</v>
+        <v>65.56</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.009</v>
+        <v>1.006</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0053</v>
+        <v>1.0206</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-3.92</v>
+        <v>0.0145</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>15.46</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1013.3</v>
+        <v>1011.49</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>13.23</v>
+        <v>11.42</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.5590000000000001</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5574</v>
+        <v>0.5612</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>-2.9</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>5.8</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>958.92</v>
+        <v>953.28</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>-41.11</v>
+        <v>-46.75</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.7815</v>
+        <v>0.7769</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.7768</v>
+        <v>0.7834</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>-5.77</v>
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>7.98</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>2232.18</v>
+        <v>2245.02</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>232.24</v>
+        <v>245.09</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.2168</v>
+        <v>1.2238</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2189</v>
+        <v>1.2091</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>3.85</v>
+        <v>-0.012</v>
+      </c>
+      <c r="K42" s="21" t="n">
+        <v>-26.97</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 20:32</t>
+          <t>2019-12-13 11:36</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1174.27</v>
+        <v>1182.36</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>174.3</v>
+        <v>182.39</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.305</v>
+        <v>1.314</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3058</v>
+        <v>1.3215</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0057</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>0.72</v>
+        <v>6.75</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-13 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1029.12</v>
+        <v>1042.07</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>29.15</v>
+        <v>42.1</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.4936</v>
+        <v>1.5124</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5122</v>
+        <v>1.5412</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0124</v>
+        <v>0.019</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>12.82</v>
+        <v>19.84</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:47</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3549,17 +3549,17 @@
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.379</v>
+        <v>0.388</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>-9.52</v>
+        <v>0.0237</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>33.31</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:04</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,17 +3604,17 @@
         <v>953.96</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1140.94</v>
+        <v>1149.52</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>140.9</v>
+        <v>149.49</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.196</v>
+        <v>1.205</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.708</v>
+        <v>1.7174</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>-0.6</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>5</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1114</v>
+        <v>1.1166</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>26.03</v>
+        <v>364.36</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>60639.3</v>
+        <v>60601.21</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>2438.02</v>
+        <v>2399.92</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K49" s="9" t="n">
-        <v>-31.74</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K49" s="8" t="n">
+        <v>793.62</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>37844.11</v>
+        <v>37827.92</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>5842.84</v>
+        <v>5826.65</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.1691</v>
+        <v>1.1686</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1676</v>
+        <v>1.1737</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>-48.56</v>
+        <v>0.0044</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>165.09</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.708</v>
+        <v>1.7174</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>-20.09</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>168.73</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>34140.79</v>
+        <v>34091.57</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>3580.6</v>
+        <v>3531.38</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.8324</v>
+        <v>0.8312</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8312</v>
+        <v>0.8415</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0014</v>
-      </c>
-      <c r="K52" s="9" t="n">
-        <v>-49.22</v>
+        <v>0.0124</v>
+      </c>
+      <c r="K52" s="8" t="n">
+        <v>422.45</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,17 +4087,17 @@
         <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>24777.09</v>
+        <v>24963.54</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>2175.25</v>
+        <v>2361.7</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.196</v>
+        <v>1.205</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6254</v>
+        <v>1.6463</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0029</v>
+        <v>0.0131</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>5.85</v>
+        <v>311.5</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>23185.09</v>
+        <v>23108.9</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>3983.05</v>
+        <v>3906.86</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.0955</v>
+        <v>1.0919</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.0919</v>
+        <v>1.1073</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>-76.19</v>
+        <v>0.0141</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>325.92</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>21895.9</v>
+        <v>22046.91</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2694.62</v>
+        <v>2845.63</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.305</v>
+        <v>1.314</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3058</v>
+        <v>1.3215</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0057</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>13.42</v>
+        <v>125.84</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-13 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6283</v>
+        <v>1.6383</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>-6.67</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>88.63</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.379</v>
+        <v>0.388</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>-74.53</v>
+        <v>0.0237</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>260.87</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:04</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>10154.27</v>
+        <v>10282.08</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>254.26</v>
+        <v>382.08</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.4936</v>
+        <v>1.5124</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5122</v>
+        <v>1.5412</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0124</v>
+        <v>0.019</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>126.45</v>
+        <v>195.8</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:47</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7449.9</v>
+        <v>7431.13</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1049.53</v>
+        <v>1030.76</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5558</v>
+        <v>0.5544</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5544</v>
+        <v>0.5604</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>-18.77</v>
+        <v>0.0108</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>80.42</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7314.06</v>
+        <v>7331.12</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>913.86</v>
+        <v>930.91</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.3726</v>
+        <v>1.3758</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3727</v>
+        <v>1.3845</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0063</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>0.53</v>
+        <v>46.36</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6851.43</v>
+        <v>6832.76</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-149.35</v>
+        <v>-168.02</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.8808</v>
+        <v>0.8784</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.8783</v>
+        <v>0.8834</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K63" s="9" t="n">
-        <v>-19.45</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K63" s="8" t="n">
+        <v>38.89</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6543.52</v>
+        <v>6525.04</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>143.2</v>
+        <v>124.73</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>1.9831</v>
+        <v>1.9775</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>1.9774</v>
+        <v>1.9888</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>-18.81</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>37.29</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>7852.99</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6137.11</v>
+        <v>6100.99</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-263.08</v>
+        <v>-299.2</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.7815</v>
+        <v>0.7769</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.7768</v>
+        <v>0.7834</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>-36.91</v>
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>51.04</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9538</v>
+        <v>0.9599</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>-0.0001</v>
+        <v>0.008</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>5.37</v>
+        <v>27.21</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>171152.16</v>
       </c>
       <c r="E67" s="25" t="n">
-        <v>176218.26</v>
+        <v>176235.38</v>
       </c>
       <c r="F67" s="25" t="n">
-        <v>171.15</v>
+        <v>188.27</v>
       </c>
       <c r="G67" s="24" t="n">
+        <v>1.0297</v>
+      </c>
+      <c r="H67" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-12</t>
+        </is>
+      </c>
+      <c r="I67" s="24" t="n">
         <v>1.0296</v>
       </c>
-      <c r="H67" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-11</t>
-        </is>
-      </c>
-      <c r="I67" s="24" t="n">
-        <v>1.0297</v>
-      </c>
       <c r="J67" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K67" s="8" t="n">
-        <v>17.12</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K67" s="21" t="n">
+        <v>-17.12</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.4997</v>
+        <v>1.5137</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0018</v>
+        <v>0.0118</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>42.91</v>
+        <v>205.29</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0771</v>
+        <v>1.0779</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>-115.98</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K69" s="21" t="n">
+        <v>-12.89</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0789</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>13.27</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K70" s="21" t="n">
+        <v>-13.27</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2447</v>
+        <v>1.2452</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.001</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>41.78</v>
+        <v>71.62</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.2927</v>
+        <v>1.2932</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.001</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>53.87</v>
+        <v>92.36</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="24" t="n">
-        <v>1.0798</v>
+        <v>1.0799</v>
       </c>
       <c r="J73" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>-28.12</v>
+        <v>-0.0001</v>
+      </c>
+      <c r="K73" s="21" t="n">
+        <v>-14.06</v>
       </c>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M73" s="26" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.4393</v>
+        <v>1.4567</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>-0.73</v>
+        <v>0.0116</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>17.45</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.636</v>
+        <v>1.6442</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>0</v>
+        <v>7.28</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.4896</v>
+        <v>1.5091</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0123</v>
+        <v>0.0187</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>7.36</v>
+        <v>24.88</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>1358.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1266.56</v>
+        <v>1264.66</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-0.82</v>
+        <v>-2.72</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>0.9323</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K77" s="9" t="n">
-        <v>-1.9</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K77" s="8" t="n">
+        <v>4.21</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.8936</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.0112</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>0</v>
+        <v>10.34</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2043</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0016</v>
+        <v>0.0124</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>0</v>
+        <v>10.95</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>390.82</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>373.27</v>
+        <v>373.04</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-1.88</v>
+        <v>-2.11</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K80" s="9" t="n">
-        <v>-0.2</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K80" s="8" t="n">
+        <v>4.89</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>214.89</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>205.18</v>
+        <v>205.31</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>-6.04</v>
+        <v>-5.91</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.9548</v>
+        <v>0.9554</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9667</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>-0.58</v>
+        <v>0.0118</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>2.43</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.7633</v>
+        <v>0.7719</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K82" s="9" t="n">
-        <v>-0.02</v>
+        <v>0.0111</v>
+      </c>
+      <c r="K82" s="8" t="n">
+        <v>1.81</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>62.09</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>82.27</v>
+        <v>82.33</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.325</v>
+        <v>1.326</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3261</v>
+        <v>1.343</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0009</v>
+        <v>0.0128</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>1.06</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3605</v>
+        <v>1.3764</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0116</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-0</v>
+        <v>0.41</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2345</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>0</v>
+        <v>0.21</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.636</v>
+        <v>1.6442</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>0</v>
+        <v>7.99</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.4393</v>
+        <v>1.4567</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>-0.74</v>
+        <v>0.0116</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>17.66</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.4896</v>
+        <v>1.5091</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0123</v>
+        <v>0.0187</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>7.51</v>
+        <v>25.37</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>1412.34</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1316.72</v>
+        <v>1314.75</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-1.55</v>
+        <v>-3.53</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.9323</v>
+        <v>0.9308999999999999</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9340000000000001</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>-1.98</v>
+        <v>0.0033</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>4.38</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.8936</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.0112</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>0</v>
+        <v>11.11</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2043</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>-0.0016</v>
+        <v>0.0124</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>0</v>
+        <v>10.94</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>426.97</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>407.8</v>
+        <v>407.54</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>-1.58</v>
+        <v>-1.84</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>-0.21</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>5.34</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>217.24</v>
+        <v>217.37</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>-6.28</v>
+        <v>-6.14</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.9548</v>
+        <v>0.9554</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9667</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>-0.61</v>
+        <v>0.0118</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>2.57</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>142.1</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>188.28</v>
+        <v>188.42</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>5.83</v>
+        <v>5.97</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.325</v>
+        <v>1.326</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3261</v>
+        <v>1.343</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0009</v>
+        <v>0.0128</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>0.16</v>
+        <v>2.42</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>0.7633</v>
+        <v>0.7719</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K95" s="9" t="n">
-        <v>-0.02</v>
+        <v>0.0111</v>
+      </c>
+      <c r="K95" s="8" t="n">
+        <v>1.81</v>
       </c>
       <c r="L95" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M95" s="6" t="inlineStr">
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2345</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>-0.0025</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>0</v>
+        <v>0.41</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.3605</v>
+        <v>1.3764</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0116</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>-0</v>
+        <v>0.41</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.0995</v>
+        <v>1.1059</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K98" s="9" t="n">
-        <v>-0.97</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K98" s="8" t="n">
+        <v>61.09</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1114</v>
+        <v>1.1166</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0012</v>
+        <v>0.005</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>3.47</v>
+        <v>48.59</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>5822.49</v>
+        <v>5818.83</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>622.42</v>
+        <v>618.77</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.9550999999999999</v>
+        <v>0.9545</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9546</v>
+        <v>0.967</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K100" s="9" t="n">
-        <v>-3.05</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K100" s="8" t="n">
+        <v>76.2</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>5618.93</v>
+        <v>5610.83</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>818.8099999999999</v>
+        <v>810.71</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.8324</v>
+        <v>0.8312</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8312</v>
+        <v>0.8415</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0014</v>
-      </c>
-      <c r="K101" s="9" t="n">
-        <v>-8.1</v>
+        <v>0.0124</v>
+      </c>
+      <c r="K101" s="8" t="n">
+        <v>69.53</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6254</v>
+        <v>1.6463</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0029</v>
+        <v>0.0131</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>1.1</v>
+        <v>58.79</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3456.95</v>
+        <v>3436.6</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>256.56</v>
+        <v>236.21</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.7815</v>
+        <v>0.7769</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.7768</v>
+        <v>0.7834</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>-0.006</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>-20.79</v>
+        <v>0.008399999999999999</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>28.75</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.708</v>
+        <v>1.7174</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K104" s="9" t="n">
-        <v>-1.98</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>16.65</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.6283</v>
+        <v>1.6383</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>-1.43</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>19.04</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3306.88</v>
+        <v>3298.55</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>106.5</v>
+        <v>98.17</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.5558</v>
+        <v>0.5544</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5544</v>
+        <v>0.5604</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0025</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>-8.33</v>
+        <v>0.0108</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>35.7</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,17 +7813,17 @@
         <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>2254.15</v>
+        <v>2271.11</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>254.06</v>
+        <v>271.03</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.196</v>
+        <v>1.205</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.7795</v>
+        <v>1.8036</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0015</v>
-      </c>
-      <c r="K108" s="9" t="n">
-        <v>-0.12</v>
+        <v>0.0135</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>29.11</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1905.73</v>
+        <v>1904.91</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>305.64</v>
+        <v>304.82</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.1691</v>
+        <v>1.1686</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1676</v>
+        <v>1.1737</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>-2.45</v>
+        <v>0.0044</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>8.31</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1836.51</v>
+        <v>1849.18</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>236.42</v>
+        <v>249.09</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.305</v>
+        <v>1.314</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-10</t>
+          <t>2019-12-11</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3058</v>
+        <v>1.3215</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0057</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>1.13</v>
+        <v>10.55</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 05:00</t>
+          <t>2019-12-13 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1350.51</v>
+        <v>1346.49</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>150.44</v>
+        <v>146.43</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.009</v>
+        <v>1.006</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0053</v>
+        <v>1.0206</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>-4.95</v>
+        <v>0.0145</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>19.54</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.379</v>
+        <v>0.388</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0052</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>-6.7</v>
+        <v>0.0237</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>23.45</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:04</t>
+          <t>2019-12-13 11:48</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8237,21 +8237,21 @@
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8152</v>
+        <v>0.8218</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K113" s="9" t="n">
-        <v>-0.15</v>
+        <v>0.008</v>
+      </c>
+      <c r="K113" s="8" t="n">
+        <v>9.720000000000001</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>986.33</v>
+        <v>983.09</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>186.28</v>
+        <v>183.04</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.0955</v>
+        <v>1.0919</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.0919</v>
+        <v>1.1073</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>-0.0033</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>-3.24</v>
+        <v>0.0141</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>13.87</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>892.88</v>
+        <v>898.01</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>92.81999999999999</v>
+        <v>97.95999999999999</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.2168</v>
+        <v>1.2238</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2189</v>
+        <v>1.2091</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>1.54</v>
+        <v>-0.012</v>
+      </c>
+      <c r="K115" s="21" t="n">
+        <v>-10.79</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 20:32</t>
+          <t>2019-12-13 11:36</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>0.9859</v>
+        <v>1.0068</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>-0.0054</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>-0.1</v>
+        <v>0.021</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>10.27</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>457.13</v>
+        <v>458.2</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>57.12</v>
+        <v>58.18</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.3726</v>
+        <v>1.3758</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.3727</v>
+        <v>1.3845</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0063</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>0.03</v>
+        <v>2.9</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>325.61</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>425.25</v>
+        <v>424.27</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>25.23</v>
+        <v>24.26</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.306</v>
+        <v>1.303</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3023</v>
+        <v>1.3201</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>-1.2</v>
+        <v>0.0131</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>5.57</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>275.49</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>411.47</v>
+        <v>416.65</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>11.46</v>
+        <v>16.64</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.4936</v>
+        <v>1.5124</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5122</v>
+        <v>1.5412</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0124</v>
+        <v>0.019</v>
       </c>
       <c r="K119" s="8" t="n">
-        <v>5.12</v>
+        <v>7.93</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 16:00</t>
+          <t>2019-12-13 11:47</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>206.23</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>408.97</v>
+        <v>407.82</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>8.970000000000001</v>
+        <v>7.82</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>1.9831</v>
+        <v>1.9775</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>1.9774</v>
+        <v>1.9888</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>-1.18</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>2.33</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8779,31 +8779,31 @@
         <v>275.96</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>243.07</v>
+        <v>242.4</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>14.29</v>
+        <v>13.63</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>0.8808</v>
+        <v>0.8784</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.8783</v>
+        <v>0.8834</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>-0.0029</v>
-      </c>
-      <c r="K121" s="9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.0057</v>
+      </c>
+      <c r="K121" s="8" t="n">
+        <v>1.38</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12 15:00</t>
+          <t>2019-12-13 11:30</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">
@@ -8833,6 +8833,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -59,17 +59,17 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="0063BE7B"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="00DBB6AC"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="00FF7C9E"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -109,14 +109,7 @@
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="4" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -125,7 +118,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -568,31 +568,31 @@
         <v>2422.08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3962.52</v>
+        <v>3991.59</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-35.85</v>
+        <v>-6.78</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.636</v>
+        <v>1.648</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6442</v>
+        <v>1.6505</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.005</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>19.86</v>
+        <v>6.06</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2699.6</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3887.42</v>
+        <v>3960.31</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>35.63</v>
+        <v>108.52</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.44</v>
+        <v>1.467</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4567</v>
+        <v>1.4676</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>45.08</v>
+        <v>1.62</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>3620.67</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3370.48</v>
+        <v>3389.67</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>-7.97</v>
+        <v>11.22</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9362</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9384</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0033</v>
+        <v>0.0081</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>11.22</v>
+        <v>7.97</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3348.17</v>
+        <v>3385.46</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>301.28</v>
+        <v>338.57</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4814</v>
+        <v>1.4979</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5091</v>
+        <v>1.5171</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0187</v>
+        <v>0.0241</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>62.61</v>
+        <v>43.39</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2553.05</v>
+        <v>2592.45</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>100.75</v>
+        <v>140.15</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.9015</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.8936</v>
+        <v>1.9011</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="K6" s="8" t="n">
-        <v>28.63</v>
+        <v>0.0152</v>
+      </c>
+      <c r="K6" s="9" t="n">
+        <v>-0.55</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1059.44</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2306.82</v>
+        <v>2345.07</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>54.77</v>
+        <v>93.02</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2135</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2043</v>
+        <v>2.2134</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="K7" s="8" t="n">
-        <v>28.5</v>
+        <v>0.0165</v>
+      </c>
+      <c r="K7" s="9" t="n">
+        <v>-0.11</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1018.85</v>
+        <v>1036.04</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-4.7</v>
+        <v>12.49</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>13.34</v>
+        <v>0.64</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>525.85</v>
+        <v>533.28</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-15.03</v>
+        <v>-7.6</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9689</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9667</v>
+        <v>0.9716</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0118</v>
+        <v>0.0169</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>6.22</v>
+        <v>1.49</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>406.03</v>
+        <v>411.4</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>49.25</v>
+        <v>54.62</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7735</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7719</v>
+        <v>0.7738</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0111</v>
+        <v>0.0137</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>4.52</v>
+        <v>0.16</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>328.73</v>
+        <v>335.92</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>15.47</v>
+        <v>22.66</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.326</v>
+        <v>1.355</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.343</v>
+        <v>1.3499</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>4.21</v>
+        <v>0.0181</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>-1.26</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>104.7</v>
+        <v>106.6</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.72</v>
+        <v>2.62</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2446</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2345</v>
+        <v>1.2452</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0186</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>1.04</v>
+        <v>0.05</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87.76000000000001</v>
+        <v>89.33</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-4.95</v>
+        <v>-3.39</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.3606</v>
+        <v>1.3849</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.3764</v>
+        <v>1.3867</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>1.02</v>
+        <v>0.12</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1381,690 +1381,690 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="9" t="inlineStr">
+      <c r="A14" s="10" t="inlineStr">
         <is>
           <t>广发中证环保ETF联接基金A</t>
         </is>
       </c>
-      <c r="B14" s="10" t="n">
+      <c r="B14" s="11" t="n">
         <v>1064</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="12" t="n">
         <v>0.7171999999999999</v>
       </c>
-      <c r="D14" s="12" t="n">
+      <c r="D14" s="13" t="n">
         <v>16731.88</v>
       </c>
-      <c r="E14" s="12" t="n">
-        <v>9276.15</v>
-      </c>
-      <c r="F14" s="12" t="n">
-        <v>-2723.95</v>
-      </c>
-      <c r="G14" s="11" t="n">
-        <v>0.5544</v>
-      </c>
-      <c r="H14" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I14" s="11" t="n">
-        <v>0.5604</v>
-      </c>
-      <c r="J14" s="14" t="n">
-        <v>0.0108</v>
+      <c r="E14" s="13" t="n">
+        <v>9425.07</v>
+      </c>
+      <c r="F14" s="13" t="n">
+        <v>-2575.04</v>
+      </c>
+      <c r="G14" s="12" t="n">
+        <v>0.5633</v>
+      </c>
+      <c r="H14" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I14" s="12" t="n">
+        <v>0.5635</v>
+      </c>
+      <c r="J14" s="15" t="n">
+        <v>0.0163</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>100.39</v>
-      </c>
-      <c r="L14" s="13" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:30</t>
-        </is>
-      </c>
-      <c r="M14" s="13" t="inlineStr">
+        <v>3.35</v>
+      </c>
+      <c r="L14" s="14" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M14" s="14" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N14" s="13" t="inlineStr">
+      <c r="N14" s="14" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O14" s="13" t="inlineStr">
+      <c r="O14" s="14" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P14" s="13" t="inlineStr">
+      <c r="P14" s="14" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q14" s="13" t="inlineStr">
+      <c r="Q14" s="14" t="inlineStr">
         <is>
           <t>支付宝</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="15" t="inlineStr">
+      <c r="A15" s="16" t="inlineStr">
         <is>
           <t>50ETF</t>
         </is>
       </c>
-      <c r="B15" s="16" t="n">
+      <c r="B15" s="17" t="n">
         <v>510050</v>
       </c>
-      <c r="C15" s="17" t="n">
+      <c r="C15" s="18" t="n">
         <v>2.337</v>
       </c>
-      <c r="D15" s="18" t="n">
+      <c r="D15" s="19" t="n">
         <v>2700</v>
       </c>
-      <c r="E15" s="18" t="n">
-        <v>7927.2</v>
-      </c>
-      <c r="F15" s="18" t="n">
-        <v>1617.3</v>
-      </c>
-      <c r="G15" s="17" t="n">
-        <v>2.936</v>
-      </c>
-      <c r="H15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I15" s="17" t="n">
-        <v>2.978</v>
-      </c>
-      <c r="J15" s="20" t="n">
-        <v>0.014</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>113.4</v>
-      </c>
-      <c r="L15" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M15" s="19" t="inlineStr">
+      <c r="E15" s="19" t="n">
+        <v>8105.4</v>
+      </c>
+      <c r="F15" s="19" t="n">
+        <v>1795.5</v>
+      </c>
+      <c r="G15" s="18" t="n">
+        <v>3.002</v>
+      </c>
+      <c r="H15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I15" s="18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J15" s="21" t="n">
+        <v>0.0215</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>-5.4</v>
+      </c>
+      <c r="L15" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M15" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N15" s="19" t="inlineStr">
+      <c r="N15" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O15" s="19" t="inlineStr">
+      <c r="O15" s="20" t="inlineStr">
         <is>
           <t>上证50</t>
         </is>
       </c>
-      <c r="P15" s="19" t="inlineStr">
+      <c r="P15" s="20" t="inlineStr">
         <is>
           <t>111</t>
         </is>
       </c>
-      <c r="Q15" s="19" t="inlineStr">
+      <c r="Q15" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="15" t="inlineStr">
+      <c r="A16" s="16" t="inlineStr">
         <is>
           <t>300ETF</t>
         </is>
       </c>
-      <c r="B16" s="16" t="n">
+      <c r="B16" s="17" t="n">
         <v>510300</v>
       </c>
-      <c r="C16" s="17" t="n">
+      <c r="C16" s="18" t="n">
         <v>3.447</v>
       </c>
-      <c r="D16" s="18" t="n">
+      <c r="D16" s="19" t="n">
         <v>9100</v>
       </c>
-      <c r="E16" s="18" t="n">
-        <v>35388.08</v>
-      </c>
-      <c r="F16" s="18" t="n">
-        <v>4020.38</v>
-      </c>
-      <c r="G16" s="17" t="n">
-        <v>3.8888</v>
-      </c>
-      <c r="H16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I16" s="17" t="n">
-        <v>3.94</v>
-      </c>
-      <c r="J16" s="20" t="n">
-        <v>0.0131</v>
+      <c r="E16" s="19" t="n">
+        <v>36093.33</v>
+      </c>
+      <c r="F16" s="19" t="n">
+        <v>4725.63</v>
+      </c>
+      <c r="G16" s="18" t="n">
+        <v>3.9663</v>
+      </c>
+      <c r="H16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I16" s="18" t="n">
+        <v>3.968</v>
+      </c>
+      <c r="J16" s="21" t="n">
+        <v>0.0203</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>465.92</v>
-      </c>
-      <c r="L16" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M16" s="19" t="inlineStr">
+        <v>15.47</v>
+      </c>
+      <c r="L16" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M16" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N16" s="19" t="inlineStr">
+      <c r="N16" s="20" t="inlineStr">
         <is>
           <t>大盘股</t>
         </is>
       </c>
-      <c r="O16" s="19" t="inlineStr">
+      <c r="O16" s="20" t="inlineStr">
         <is>
           <t>沪深300</t>
         </is>
       </c>
-      <c r="P16" s="19" t="inlineStr">
+      <c r="P16" s="20" t="inlineStr">
         <is>
           <t>113</t>
         </is>
       </c>
-      <c r="Q16" s="19" t="inlineStr">
+      <c r="Q16" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="15" t="inlineStr">
+      <c r="A17" s="16" t="inlineStr">
         <is>
           <t>500ETF</t>
         </is>
       </c>
-      <c r="B17" s="16" t="n">
+      <c r="B17" s="17" t="n">
         <v>510500</v>
       </c>
-      <c r="C17" s="17" t="n">
+      <c r="C17" s="18" t="n">
         <v>5.601</v>
       </c>
-      <c r="D17" s="18" t="n">
+      <c r="D17" s="19" t="n">
         <v>38800</v>
       </c>
-      <c r="E17" s="18" t="n">
-        <v>210629.68</v>
-      </c>
-      <c r="F17" s="18" t="n">
-        <v>-6689.12</v>
-      </c>
-      <c r="G17" s="17" t="n">
-        <v>5.4286</v>
-      </c>
-      <c r="H17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I17" s="17" t="n">
-        <v>5.456</v>
-      </c>
-      <c r="J17" s="20" t="n">
-        <v>0.0055</v>
+      <c r="E17" s="19" t="n">
+        <v>213287.48</v>
+      </c>
+      <c r="F17" s="19" t="n">
+        <v>-4031.32</v>
+      </c>
+      <c r="G17" s="18" t="n">
+        <v>5.4971</v>
+      </c>
+      <c r="H17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I17" s="18" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="J17" s="21" t="n">
+        <v>0.0136</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>1063.12</v>
-      </c>
-      <c r="L17" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M17" s="19" t="inlineStr">
+        <v>112.52</v>
+      </c>
+      <c r="L17" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M17" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N17" s="19" t="inlineStr">
+      <c r="N17" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O17" s="19" t="inlineStr">
+      <c r="O17" s="20" t="inlineStr">
         <is>
           <t>中证500</t>
         </is>
       </c>
-      <c r="P17" s="19" t="inlineStr">
+      <c r="P17" s="20" t="inlineStr">
         <is>
           <t>121</t>
         </is>
       </c>
-      <c r="Q17" s="19" t="inlineStr">
+      <c r="Q17" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="15" t="inlineStr">
+      <c r="A18" s="16" t="inlineStr">
         <is>
           <t>环保ETF</t>
         </is>
       </c>
-      <c r="B18" s="16" t="n">
+      <c r="B18" s="17" t="n">
         <v>512580</v>
       </c>
-      <c r="C18" s="17" t="n">
+      <c r="C18" s="18" t="n">
         <v>0.877</v>
       </c>
-      <c r="D18" s="18" t="n">
+      <c r="D18" s="19" t="n">
         <v>33800</v>
       </c>
-      <c r="E18" s="18" t="n">
-        <v>24961.3</v>
-      </c>
-      <c r="F18" s="18" t="n">
-        <v>-4681.3</v>
-      </c>
-      <c r="G18" s="17" t="n">
-        <v>0.7385</v>
-      </c>
-      <c r="H18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I18" s="17" t="n">
-        <v>0.746</v>
-      </c>
-      <c r="J18" s="20" t="n">
-        <v>0.0108</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>253.5</v>
-      </c>
-      <c r="L18" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M18" s="19" t="inlineStr">
+      <c r="E18" s="19" t="n">
+        <v>25383.8</v>
+      </c>
+      <c r="F18" s="19" t="n">
+        <v>-4258.8</v>
+      </c>
+      <c r="G18" s="18" t="n">
+        <v>0.751</v>
+      </c>
+      <c r="H18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I18" s="18" t="n">
+        <v>0.748</v>
+      </c>
+      <c r="J18" s="21" t="n">
+        <v>0.0136</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-101.4</v>
+      </c>
+      <c r="L18" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M18" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N18" s="19" t="inlineStr">
+      <c r="N18" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O18" s="19" t="inlineStr">
+      <c r="O18" s="20" t="inlineStr">
         <is>
           <t>中证环保</t>
         </is>
       </c>
-      <c r="P18" s="19" t="inlineStr">
+      <c r="P18" s="20" t="inlineStr">
         <is>
           <t>143</t>
         </is>
       </c>
-      <c r="Q18" s="19" t="inlineStr">
+      <c r="Q18" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="15" t="inlineStr">
+      <c r="A19" s="16" t="inlineStr">
         <is>
           <t>证券ETF</t>
         </is>
       </c>
-      <c r="B19" s="16" t="n">
+      <c r="B19" s="17" t="n">
         <v>512880</v>
       </c>
-      <c r="C19" s="17" t="n">
+      <c r="C19" s="18" t="n">
         <v>0.783</v>
       </c>
-      <c r="D19" s="18" t="n">
+      <c r="D19" s="19" t="n">
         <v>32700</v>
       </c>
-      <c r="E19" s="18" t="n">
-        <v>30034.95</v>
-      </c>
-      <c r="F19" s="18" t="n">
-        <v>4430.85</v>
-      </c>
-      <c r="G19" s="17" t="n">
-        <v>0.9185</v>
-      </c>
-      <c r="H19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I19" s="17" t="n">
-        <v>0.9379999999999999</v>
-      </c>
-      <c r="J19" s="20" t="n">
-        <v>0.0207</v>
+      <c r="E19" s="19" t="n">
+        <v>31182.72</v>
+      </c>
+      <c r="F19" s="19" t="n">
+        <v>5578.62</v>
+      </c>
+      <c r="G19" s="18" t="n">
+        <v>0.9536</v>
+      </c>
+      <c r="H19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I19" s="18" t="n">
+        <v>0.957</v>
+      </c>
+      <c r="J19" s="21" t="n">
+        <v>0.0413</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>637.65</v>
-      </c>
-      <c r="L19" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M19" s="19" t="inlineStr">
+        <v>111.18</v>
+      </c>
+      <c r="L19" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M19" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N19" s="19" t="inlineStr">
+      <c r="N19" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O19" s="19" t="inlineStr">
+      <c r="O19" s="20" t="inlineStr">
         <is>
           <t>证券公司</t>
         </is>
       </c>
-      <c r="P19" s="19" t="inlineStr">
+      <c r="P19" s="20" t="inlineStr">
         <is>
           <t>145</t>
         </is>
       </c>
-      <c r="Q19" s="19" t="inlineStr">
+      <c r="Q19" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="15" t="inlineStr">
+      <c r="A20" s="16" t="inlineStr">
         <is>
           <t>传媒ETF</t>
         </is>
       </c>
-      <c r="B20" s="16" t="n">
+      <c r="B20" s="17" t="n">
         <v>512980</v>
       </c>
-      <c r="C20" s="17" t="n">
+      <c r="C20" s="18" t="n">
         <v>0.869</v>
       </c>
-      <c r="D20" s="18" t="n">
+      <c r="D20" s="19" t="n">
         <v>34100</v>
       </c>
-      <c r="E20" s="18" t="n">
-        <v>26403.63</v>
-      </c>
-      <c r="F20" s="18" t="n">
-        <v>-3229.27</v>
-      </c>
-      <c r="G20" s="17" t="n">
-        <v>0.7743</v>
-      </c>
-      <c r="H20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I20" s="17" t="n">
-        <v>0.78</v>
-      </c>
-      <c r="J20" s="20" t="n">
-        <v>0.0065</v>
+      <c r="E20" s="19" t="n">
+        <v>26853.75</v>
+      </c>
+      <c r="F20" s="19" t="n">
+        <v>-2779.15</v>
+      </c>
+      <c r="G20" s="18" t="n">
+        <v>0.7875</v>
+      </c>
+      <c r="H20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I20" s="18" t="n">
+        <v>0.788</v>
+      </c>
+      <c r="J20" s="21" t="n">
+        <v>0.0168</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>194.37</v>
-      </c>
-      <c r="L20" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M20" s="19" t="inlineStr">
+        <v>17.05</v>
+      </c>
+      <c r="L20" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M20" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N20" s="19" t="inlineStr">
+      <c r="N20" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O20" s="19" t="inlineStr">
+      <c r="O20" s="20" t="inlineStr">
         <is>
           <t>中证传媒</t>
         </is>
       </c>
-      <c r="P20" s="19" t="inlineStr">
+      <c r="P20" s="20" t="inlineStr">
         <is>
           <t>144</t>
         </is>
       </c>
-      <c r="Q20" s="19" t="inlineStr">
+      <c r="Q20" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="15" t="inlineStr">
+      <c r="A21" s="16" t="inlineStr">
         <is>
           <t>黄金ETF</t>
         </is>
       </c>
-      <c r="B21" s="16" t="n">
+      <c r="B21" s="17" t="n">
         <v>518880</v>
       </c>
-      <c r="C21" s="17" t="n">
+      <c r="C21" s="18" t="n">
         <v>2.856</v>
       </c>
-      <c r="D21" s="18" t="n">
+      <c r="D21" s="19" t="n">
         <v>4500</v>
       </c>
-      <c r="E21" s="18" t="n">
-        <v>14874.75</v>
-      </c>
-      <c r="F21" s="18" t="n">
-        <v>2022.75</v>
-      </c>
-      <c r="G21" s="17" t="n">
-        <v>3.3055</v>
-      </c>
-      <c r="H21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I21" s="17" t="n">
-        <v>3.262</v>
-      </c>
-      <c r="J21" s="20" t="n">
-        <v>-0.0115</v>
-      </c>
-      <c r="K21" s="21" t="n">
-        <v>-195.75</v>
-      </c>
-      <c r="L21" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:29</t>
-        </is>
-      </c>
-      <c r="M21" s="19" t="inlineStr">
+      <c r="E21" s="19" t="n">
+        <v>14742.9</v>
+      </c>
+      <c r="F21" s="19" t="n">
+        <v>1890.9</v>
+      </c>
+      <c r="G21" s="18" t="n">
+        <v>3.2762</v>
+      </c>
+      <c r="H21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I21" s="18" t="n">
+        <v>3.261</v>
+      </c>
+      <c r="J21" s="21" t="n">
+        <v>-0.0118</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-68.40000000000001</v>
+      </c>
+      <c r="L21" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:00</t>
+        </is>
+      </c>
+      <c r="M21" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="N21" s="19" t="inlineStr">
+      <c r="N21" s="20" t="inlineStr">
         <is>
           <t>商品</t>
         </is>
       </c>
-      <c r="O21" s="19" t="inlineStr">
+      <c r="O21" s="20" t="inlineStr">
         <is>
           <t>黄金</t>
         </is>
       </c>
-      <c r="P21" s="19" t="inlineStr">
+      <c r="P21" s="20" t="inlineStr">
         <is>
           <t>611</t>
         </is>
       </c>
-      <c r="Q21" s="19" t="inlineStr">
+      <c r="Q21" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="15" t="inlineStr">
+      <c r="A22" s="16" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="B22" s="16" t="n">
+      <c r="B22" s="17" t="n">
         <v>159915</v>
       </c>
-      <c r="C22" s="17" t="n">
+      <c r="C22" s="18" t="n">
         <v>1.399</v>
       </c>
-      <c r="D22" s="18" t="n">
+      <c r="D22" s="19" t="n">
         <v>9200</v>
       </c>
-      <c r="E22" s="18" t="n">
-        <v>15242.56</v>
-      </c>
-      <c r="F22" s="18" t="n">
-        <v>2371.76</v>
-      </c>
-      <c r="G22" s="17" t="n">
-        <v>1.6568</v>
-      </c>
-      <c r="H22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I22" s="17" t="n">
-        <v>1.679</v>
-      </c>
-      <c r="J22" s="20" t="n">
-        <v>0.0133</v>
+      <c r="E22" s="19" t="n">
+        <v>15550.76</v>
+      </c>
+      <c r="F22" s="19" t="n">
+        <v>2679.96</v>
+      </c>
+      <c r="G22" s="18" t="n">
+        <v>1.6903</v>
+      </c>
+      <c r="H22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I22" s="18" t="n">
+        <v>1.693</v>
+      </c>
+      <c r="J22" s="21" t="n">
+        <v>0.0217</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>204.24</v>
-      </c>
-      <c r="L22" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:48</t>
-        </is>
-      </c>
-      <c r="M22" s="19" t="inlineStr">
+        <v>24.84</v>
+      </c>
+      <c r="L22" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:04</t>
+        </is>
+      </c>
+      <c r="M22" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N22" s="19" t="inlineStr">
+      <c r="N22" s="20" t="inlineStr">
         <is>
           <t>中小盘股</t>
         </is>
       </c>
-      <c r="O22" s="19" t="inlineStr">
+      <c r="O22" s="20" t="inlineStr">
         <is>
           <t>创业板</t>
         </is>
       </c>
-      <c r="P22" s="19" t="inlineStr">
+      <c r="P22" s="20" t="inlineStr">
         <is>
           <t>124</t>
         </is>
       </c>
-      <c r="Q22" s="19" t="inlineStr">
+      <c r="Q22" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="15" t="inlineStr">
+      <c r="A23" s="16" t="inlineStr">
         <is>
           <t>广发医药</t>
         </is>
       </c>
-      <c r="B23" s="16" t="n">
+      <c r="B23" s="17" t="n">
         <v>159938</v>
       </c>
-      <c r="C23" s="17" t="n">
+      <c r="C23" s="18" t="n">
         <v>1.271</v>
       </c>
-      <c r="D23" s="18" t="n">
+      <c r="D23" s="19" t="n">
         <v>14400</v>
       </c>
-      <c r="E23" s="18" t="n">
-        <v>19190.88</v>
-      </c>
-      <c r="F23" s="18" t="n">
-        <v>888.48</v>
-      </c>
-      <c r="G23" s="17" t="n">
-        <v>1.3327</v>
-      </c>
-      <c r="H23" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-12</t>
-        </is>
-      </c>
-      <c r="I23" s="17" t="n">
-        <v>1.348</v>
-      </c>
-      <c r="J23" s="20" t="n">
-        <v>0.0097</v>
+      <c r="E23" s="19" t="n">
+        <v>19478.88</v>
+      </c>
+      <c r="F23" s="19" t="n">
+        <v>1176.48</v>
+      </c>
+      <c r="G23" s="18" t="n">
+        <v>1.3527</v>
+      </c>
+      <c r="H23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13</t>
+        </is>
+      </c>
+      <c r="I23" s="18" t="n">
+        <v>1.354</v>
+      </c>
+      <c r="J23" s="21" t="n">
+        <v>0.0142</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>220.32</v>
-      </c>
-      <c r="L23" s="19" t="inlineStr">
-        <is>
-          <t>2019-12-13 11:48</t>
-        </is>
-      </c>
-      <c r="M23" s="19" t="inlineStr">
+        <v>18.72</v>
+      </c>
+      <c r="L23" s="20" t="inlineStr">
+        <is>
+          <t>2019-12-13 15:04</t>
+        </is>
+      </c>
+      <c r="M23" s="20" t="inlineStr">
         <is>
           <t>A 股</t>
         </is>
       </c>
-      <c r="N23" s="19" t="inlineStr">
+      <c r="N23" s="20" t="inlineStr">
         <is>
           <t>行业股</t>
         </is>
       </c>
-      <c r="O23" s="19" t="inlineStr">
+      <c r="O23" s="20" t="inlineStr">
         <is>
           <t>全指医药</t>
         </is>
       </c>
-      <c r="P23" s="19" t="inlineStr">
+      <c r="P23" s="20" t="inlineStr">
         <is>
           <t>142</t>
         </is>
       </c>
-      <c r="Q23" s="19" t="inlineStr">
+      <c r="Q23" s="20" t="inlineStr">
         <is>
           <t>股票账户</t>
         </is>
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8221.5</v>
+        <v>8320.860000000001</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>217.44</v>
+        <v>316.8</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>1.9775</v>
+        <v>2.0014</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>1.9888</v>
+        <v>2.0006</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K24" s="8" t="n">
-        <v>46.98</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K24" s="9" t="n">
+        <v>-3.33</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5389.88</v>
+        <v>5476.4</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>53.47</v>
+        <v>140</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5544</v>
+        <v>0.5633</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5604</v>
+        <v>0.5635</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0108</v>
+        <v>0.0163</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>58.33</v>
+        <v>1.94</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4719.01</v>
+        <v>4798.61</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>49.93</v>
+        <v>129.53</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>61.8</v>
+        <v>2.97</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4117.78</v>
+        <v>4162.06</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>115.86</v>
+        <v>160.14</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5612</v>
+        <v>0.5645</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0057</v>
+        <v>0.0117</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>23.61</v>
+        <v>3.69</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4071.83</v>
+        <v>4126.8</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>70</v>
+        <v>124.98</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.111</v>
+        <v>1.126</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1166</v>
+        <v>1.1208</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K28" s="8" t="n">
-        <v>20.52</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K28" s="9" t="n">
+        <v>-19.06</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3535.32</v>
+        <v>3592.66</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>200.22</v>
+        <v>257.56</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.7769</v>
+        <v>0.7895</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.7834</v>
+        <v>0.7899</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>29.58</v>
+        <v>1.82</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>712.96</v>
+        <v>726.62</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>45.95</v>
+        <v>59.61</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.7796</v>
+        <v>1.8137</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8036</v>
+        <v>1.8134</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>9.619999999999999</v>
+        <v>0.019</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>-0.12</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>711.1900000000001</v>
+        <v>724.08</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>44.18</v>
+        <v>57.06</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9659</v>
+        <v>0.9834000000000001</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9789</v>
+        <v>0.9843</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0135</v>
+        <v>0.019</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>9.57</v>
+        <v>0.66</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>467.26</v>
+        <v>484.13</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>0.38</v>
+        <v>17.25</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>0.9861</v>
+        <v>1.0217</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0068</v>
+        <v>1.0213</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>9.81</v>
+        <v>0.0357</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>-0.19</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2019.28</v>
+        <v>2082.88</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>18.55</v>
+        <v>82.15000000000001</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>37.1</v>
+        <v>0.0211</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-31.8</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>757.92</v>
+        <v>763.11</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>90.90000000000001</v>
+        <v>96.09</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.314</v>
+        <v>1.323</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3215</v>
+        <v>1.3142</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>4.33</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-5.08</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 05:00</t>
+          <t>2019-12-14 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>695.2</v>
+        <v>711.62</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>28.22</v>
+        <v>44.63</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.5124</v>
+        <v>1.5481</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5412</v>
+        <v>1.5493</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.019</v>
+        <v>0.0244</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>13.24</v>
+        <v>0.55</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:47</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,17 +2914,17 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>737.16</v>
+        <v>742.05</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>70.17</v>
+        <v>75.06</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.205</v>
+        <v>1.213</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
@@ -2983,31 +2983,31 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2069.91</v>
+        <v>2094.93</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>69.92</v>
+        <v>94.94</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>1.9775</v>
+        <v>2.0014</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>1.9888</v>
+        <v>2.0006</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K37" s="8" t="n">
-        <v>11.83</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K37" s="9" t="n">
+        <v>-0.84</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2028.57</v>
+        <v>2055.96</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>28.48</v>
+        <v>55.87</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.111</v>
+        <v>1.126</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1166</v>
+        <v>1.1208</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K38" s="8" t="n">
-        <v>10.23</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K38" s="9" t="n">
+        <v>-9.49</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1065.53</v>
+        <v>1087.77</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>65.56</v>
+        <v>87.81</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.006</v>
+        <v>1.027</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0206</v>
+        <v>1.0282</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0145</v>
+        <v>0.022</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>15.46</v>
+        <v>1.27</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1011.49</v>
+        <v>1022.36</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>11.42</v>
+        <v>22.3</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.5580000000000001</v>
+        <v>0.5639999999999999</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5612</v>
+        <v>0.5645</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0057</v>
+        <v>0.0117</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>5.8</v>
+        <v>0.91</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>953.28</v>
+        <v>968.74</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>-46.75</v>
+        <v>-31.29</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.7769</v>
+        <v>0.7895</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.7834</v>
+        <v>0.7899</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>7.98</v>
+        <v>0.49</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>2245.02</v>
+        <v>2225.4</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>245.09</v>
+        <v>225.46</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.2238</v>
+        <v>1.2131</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2091</v>
+        <v>1.213</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="K42" s="21" t="n">
-        <v>-26.97</v>
+        <v>-0.008800000000000001</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:36</t>
+          <t>2019-12-13 15:30</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1182.36</v>
+        <v>1190.46</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>182.39</v>
+        <v>190.49</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.314</v>
+        <v>1.323</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3215</v>
+        <v>1.3142</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>6.75</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>-7.92</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 05:00</t>
+          <t>2019-12-14 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1042.07</v>
+        <v>1066.67</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>42.1</v>
+        <v>66.7</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5124</v>
+        <v>1.5481</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5412</v>
+        <v>1.5493</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.019</v>
+        <v>0.0244</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>19.84</v>
+        <v>0.83</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:47</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1812.76</v>
+        <v>1869.85</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>-187.46</v>
+        <v>-130.37</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="K45" s="8" t="n">
-        <v>33.31</v>
+        <v>0.0211</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-28.55</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,17 +3604,17 @@
         <v>953.96</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1149.52</v>
+        <v>1157.15</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>149.49</v>
+        <v>157.12</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.205</v>
+        <v>1.213</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
@@ -3673,31 +3673,31 @@
         <v>595.47</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1017.66</v>
+        <v>1025.4</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>17.69</v>
+        <v>25.43</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.709</v>
+        <v>1.722</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.7174</v>
+        <v>1.719</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>5</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-1.79</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>72286.47</v>
+        <v>73262.44</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>5966.4</v>
+        <v>6942.36</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.111</v>
+        <v>1.126</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1166</v>
+        <v>1.1208</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K48" s="8" t="n">
-        <v>364.36</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K48" s="9" t="n">
+        <v>-338.33</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>60601.21</v>
+        <v>61623.39</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>2399.92</v>
+        <v>3422.11</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>793.62</v>
+        <v>38.09</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>37827.92</v>
+        <v>38132.2</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>5826.65</v>
+        <v>6130.93</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.1686</v>
+        <v>1.178</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1737</v>
+        <v>1.175</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>165.09</v>
+        <v>0.0054</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-97.11</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34328.05</v>
+        <v>34589.18</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2328.04</v>
+        <v>2589.17</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.709</v>
+        <v>1.722</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.7174</v>
+        <v>1.719</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>168.73</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-60.26</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>34091.57</v>
+        <v>34575.54</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>3531.38</v>
+        <v>4015.36</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.8312</v>
+        <v>0.843</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8415</v>
+        <v>0.8434</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0124</v>
+        <v>0.0147</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>422.45</v>
+        <v>16.41</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,17 +4087,17 @@
         <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>24963.54</v>
+        <v>25129.27</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>2361.7</v>
+        <v>2527.43</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.205</v>
+        <v>1.213</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
@@ -4156,31 +4156,31 @@
         <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>23764.99</v>
+        <v>24232.98</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>4564.34</v>
+        <v>5032.33</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.625</v>
+        <v>1.657</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6463</v>
+        <v>1.6556</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>311.5</v>
+        <v>0.0188</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-20.47</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>23108.9</v>
+        <v>23646.46</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>3906.86</v>
+        <v>4444.43</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.0919</v>
+        <v>1.1173</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1073</v>
+        <v>1.1181</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0141</v>
+        <v>0.024</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>325.92</v>
+        <v>16.93</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>22046.91</v>
+        <v>22197.92</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2845.63</v>
+        <v>2996.63</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.314</v>
+        <v>1.323</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3215</v>
+        <v>1.3142</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>125.84</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>-147.65</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 05:00</t>
+          <t>2019-12-14 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>15524.06</v>
+        <v>15724.19</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>2723.62</v>
+        <v>2923.75</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.629</v>
+        <v>1.65</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6383</v>
+        <v>1.648</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>88.63</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>-19.06</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>14198.9</v>
+        <v>14646.11</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-5001.29</v>
+        <v>-4554.08</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>260.87</v>
+        <v>0.0211</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-223.6</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>10282.08</v>
+        <v>10524.79</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>382.08</v>
+        <v>624.78</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.5124</v>
+        <v>1.5481</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5412</v>
+        <v>1.5493</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.019</v>
+        <v>0.0244</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>195.8</v>
+        <v>8.16</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:47</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4580,7 +4580,7 @@
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7431.13</v>
+        <v>7550.43</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1030.76</v>
+        <v>1150.06</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5544</v>
+        <v>0.5633</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5604</v>
+        <v>0.5635</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0108</v>
+        <v>0.0163</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>80.42</v>
+        <v>2.68</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7331.12</v>
+        <v>7383.87</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>930.91</v>
+        <v>983.66</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.3758</v>
+        <v>1.3857</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3845</v>
+        <v>1.3877</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>46.36</v>
+        <v>10.66</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6832.76</v>
+        <v>6907.43</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-168.02</v>
+        <v>-93.34</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.888</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.8834</v>
+        <v>0.8887</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0057</v>
+        <v>0.0117</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>38.89</v>
+        <v>5.45</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6525.04</v>
+        <v>6603.9</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>124.73</v>
+        <v>203.59</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>1.9775</v>
+        <v>2.0014</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>1.9888</v>
+        <v>2.0006</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K64" s="8" t="n">
-        <v>37.29</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K64" s="9" t="n">
+        <v>-2.64</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>7852.99</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6100.99</v>
+        <v>6199.94</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-299.2</v>
+        <v>-200.25</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.7769</v>
+        <v>0.7895</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.7834</v>
+        <v>0.7899</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>51.04</v>
+        <v>3.14</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>3580.2</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>3409.42</v>
+        <v>3456.68</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>-90.58</v>
+        <v>-43.32</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.9523</v>
+        <v>0.9655</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9599</v>
+        <v>0.9645</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.008</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>27.21</v>
+        <v>0.0128</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-3.58</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5063,7 +5063,7 @@
       </c>
       <c r="H67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I67" s="24" t="n">
@@ -5072,12 +5072,12 @@
       <c r="J67" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K67" s="21" t="n">
+      <c r="K67" s="9" t="n">
         <v>-17.12</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5122,31 +5122,31 @@
         <v>11598.58</v>
       </c>
       <c r="E68" s="25" t="n">
-        <v>17351.48</v>
+        <v>17513.86</v>
       </c>
       <c r="F68" s="25" t="n">
-        <v>351.44</v>
+        <v>513.8200000000001</v>
       </c>
       <c r="G68" s="24" t="n">
-        <v>1.496</v>
+        <v>1.51</v>
       </c>
       <c r="H68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.5137</v>
+        <v>1.5181</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0118</v>
+        <v>0.0148</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>205.29</v>
+        <v>93.95</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5201,7 +5201,7 @@
       </c>
       <c r="H69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I69" s="24" t="n">
@@ -5210,12 +5210,12 @@
       <c r="J69" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K69" s="21" t="n">
+      <c r="K69" s="9" t="n">
         <v>-12.89</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5270,7 +5270,7 @@
       </c>
       <c r="H70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I70" s="24" t="n">
@@ -5279,12 +5279,12 @@
       <c r="J70" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K70" s="21" t="n">
+      <c r="K70" s="9" t="n">
         <v>-13.27</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>59685.02</v>
       </c>
       <c r="E71" s="25" t="n">
-        <v>74248.16</v>
+        <v>74546.59</v>
       </c>
       <c r="F71" s="25" t="n">
-        <v>5.97</v>
+        <v>304.39</v>
       </c>
       <c r="G71" s="24" t="n">
-        <v>1.244</v>
+        <v>1.249</v>
       </c>
       <c r="H71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2452</v>
+        <v>1.2458</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K71" s="8" t="n">
-        <v>71.62</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K71" s="9" t="n">
+        <v>-190.99</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5398,31 +5398,31 @@
         <v>76964.17</v>
       </c>
       <c r="E72" s="25" t="n">
-        <v>99437.71000000001</v>
+        <v>99899.49000000001</v>
       </c>
       <c r="F72" s="25" t="n">
-        <v>200.11</v>
+        <v>661.89</v>
       </c>
       <c r="G72" s="24" t="n">
-        <v>1.292</v>
+        <v>1.298</v>
       </c>
       <c r="H72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.2932</v>
+        <v>1.2938</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K72" s="8" t="n">
-        <v>92.36</v>
+        <v>0.0014</v>
+      </c>
+      <c r="K72" s="9" t="n">
+        <v>-323.25</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="H73" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I73" s="24" t="n">
@@ -5486,12 +5486,12 @@
       <c r="J73" s="27" t="n">
         <v>-0.0001</v>
       </c>
-      <c r="K73" s="21" t="n">
+      <c r="K73" s="9" t="n">
         <v>-14.06</v>
       </c>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M73" s="26" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>1045.13</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1504.99</v>
+        <v>1533.21</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>14.21</v>
+        <v>42.43</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.44</v>
+        <v>1.467</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.4567</v>
+        <v>1.4676</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>17.45</v>
+        <v>0.63</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>888.12</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1452.96</v>
+        <v>1463.62</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-14.03</v>
+        <v>-3.37</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.636</v>
+        <v>1.648</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.6442</v>
+        <v>1.6505</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.005</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>7.28</v>
+        <v>2.22</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>898.04</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1330.36</v>
+        <v>1345.17</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>119.35</v>
+        <v>134.17</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.4814</v>
+        <v>1.4979</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.5091</v>
+        <v>1.5171</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0187</v>
+        <v>0.0241</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>24.88</v>
+        <v>17.24</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>1358.53</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1264.66</v>
+        <v>1271.86</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-2.72</v>
+        <v>4.48</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9362</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9384</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0033</v>
+        <v>0.0081</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>4.21</v>
+        <v>2.99</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>492.58</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>922.41</v>
+        <v>936.64</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>37.44</v>
+        <v>51.67</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.9015</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.8936</v>
+        <v>1.9011</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>10.34</v>
+        <v>0.0152</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5881,31 +5881,31 @@
         <v>406.95</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>886.09</v>
+        <v>900.78</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>22.55</v>
+        <v>37.24</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2135</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>2.2043</v>
+        <v>2.2134</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="K79" s="8" t="n">
-        <v>10.95</v>
+        <v>0.0165</v>
+      </c>
+      <c r="K79" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5950,31 +5950,31 @@
         <v>390.82</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>373.04</v>
+        <v>379.33</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>-2.11</v>
+        <v>4.18</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>4.89</v>
+        <v>0.23</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>214.89</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>205.31</v>
+        <v>208.21</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>-5.91</v>
+        <v>-3.01</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9689</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9667</v>
+        <v>0.9716</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0118</v>
+        <v>0.0169</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>2.43</v>
+        <v>0.58</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6088,31 +6088,31 @@
         <v>212.74</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>162.41</v>
+        <v>164.55</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>19.7</v>
+        <v>21.85</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7735</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.7719</v>
+        <v>0.7738</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0111</v>
+        <v>0.0137</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>1.81</v>
+        <v>0.06</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>62.09</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>82.33</v>
+        <v>84.13</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>2.29</v>
+        <v>4.09</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.326</v>
+        <v>1.355</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.343</v>
+        <v>1.3499</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K83" s="8" t="n">
-        <v>1.06</v>
+        <v>0.0181</v>
+      </c>
+      <c r="K83" s="9" t="n">
+        <v>-0.32</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6226,31 +6226,31 @@
         <v>25.8</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>35.1</v>
+        <v>35.73</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-1.98</v>
+        <v>-1.35</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.3606</v>
+        <v>1.3849</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3764</v>
+        <v>1.3867</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>17.12</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>20.93</v>
+        <v>21.31</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>0.14</v>
+        <v>0.52</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2446</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.2345</v>
+        <v>1.2452</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0186</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>0.21</v>
+        <v>0.01</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>974.37</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1594.07</v>
+        <v>1605.76</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-19.58</v>
+        <v>-7.89</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.636</v>
+        <v>1.648</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.6442</v>
+        <v>1.6505</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.005</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>7.99</v>
+        <v>2.44</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6433,31 +6433,31 @@
         <v>1057.28</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1522.48</v>
+        <v>1551.03</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>15.75</v>
+        <v>44.3</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.44</v>
+        <v>1.467</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.4567</v>
+        <v>1.4676</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K87" s="8" t="n">
-        <v>17.66</v>
+        <v>0.63</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>915.97</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>1356.92</v>
+        <v>1372.03</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>119.08</v>
+        <v>134.19</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.4814</v>
+        <v>1.4979</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.5091</v>
+        <v>1.5171</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0187</v>
+        <v>0.0241</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>25.37</v>
+        <v>17.59</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>1412.34</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1314.75</v>
+        <v>1322.23</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>-3.53</v>
+        <v>3.95</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.9308999999999999</v>
+        <v>0.9362</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.9340000000000001</v>
+        <v>0.9384</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0033</v>
+        <v>0.0081</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>4.38</v>
+        <v>3.11</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>528.99</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>990.59</v>
+        <v>1005.87</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>38.83</v>
+        <v>54.12</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.8726</v>
+        <v>1.9015</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.8936</v>
+        <v>1.9011</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0112</v>
-      </c>
-      <c r="K90" s="8" t="n">
-        <v>11.11</v>
+        <v>0.0152</v>
+      </c>
+      <c r="K90" s="9" t="n">
+        <v>-0.21</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>406.87</v>
       </c>
       <c r="E91" s="5" t="n">
-        <v>885.92</v>
+        <v>900.61</v>
       </c>
       <c r="F91" s="5" t="n">
-        <v>21.32</v>
+        <v>36.01</v>
       </c>
       <c r="G91" s="4" t="n">
-        <v>2.1774</v>
+        <v>2.2135</v>
       </c>
       <c r="H91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2.2043</v>
+        <v>2.2134</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0124</v>
-      </c>
-      <c r="K91" s="8" t="n">
-        <v>10.94</v>
+        <v>0.0165</v>
+      </c>
+      <c r="K91" s="9" t="n">
+        <v>-0.04</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>426.97</v>
       </c>
       <c r="E92" s="5" t="n">
-        <v>407.54</v>
+        <v>414.42</v>
       </c>
       <c r="F92" s="5" t="n">
-        <v>-1.84</v>
+        <v>5.04</v>
       </c>
       <c r="G92" s="4" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>5.34</v>
+        <v>0.26</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6847,31 +6847,31 @@
         <v>227.52</v>
       </c>
       <c r="E93" s="5" t="n">
-        <v>217.37</v>
+        <v>220.44</v>
       </c>
       <c r="F93" s="5" t="n">
-        <v>-6.14</v>
+        <v>-3.07</v>
       </c>
       <c r="G93" s="4" t="n">
-        <v>0.9554</v>
+        <v>0.9689</v>
       </c>
       <c r="H93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.9667</v>
+        <v>0.9716</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0118</v>
+        <v>0.0169</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>2.57</v>
+        <v>0.61</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6916,31 +6916,31 @@
         <v>142.1</v>
       </c>
       <c r="E94" s="5" t="n">
-        <v>188.42</v>
+        <v>192.55</v>
       </c>
       <c r="F94" s="5" t="n">
-        <v>5.97</v>
+        <v>10.09</v>
       </c>
       <c r="G94" s="4" t="n">
-        <v>1.326</v>
+        <v>1.355</v>
       </c>
       <c r="H94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.343</v>
+        <v>1.3499</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>2.42</v>
+        <v>0.0181</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>-0.72</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>212.74</v>
       </c>
       <c r="E95" s="5" t="n">
-        <v>162.41</v>
+        <v>164.55</v>
       </c>
       <c r="F95" s="5" t="n">
-        <v>19.7</v>
+        <v>21.85</v>
       </c>
       <c r="G95" s="4" t="n">
-        <v>0.7634</v>
+        <v>0.7735</v>
       </c>
       <c r="H95" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>0.7719</v>
+        <v>0.7738</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>0.0111</v>
+        <v>0.0137</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>1.81</v>
+        <v>0.06</v>
       </c>
       <c r="L95" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M95" s="6" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>34.26</v>
       </c>
       <c r="E96" s="5" t="n">
-        <v>41.88</v>
+        <v>42.64</v>
       </c>
       <c r="F96" s="5" t="n">
-        <v>0.28</v>
+        <v>1.04</v>
       </c>
       <c r="G96" s="4" t="n">
-        <v>1.2224</v>
+        <v>1.2446</v>
       </c>
       <c r="H96" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>1.2345</v>
+        <v>1.2452</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>0.0186</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>0.41</v>
+        <v>0.02</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>25.8</v>
       </c>
       <c r="E97" s="5" t="n">
-        <v>35.1</v>
+        <v>35.73</v>
       </c>
       <c r="F97" s="5" t="n">
-        <v>-1.98</v>
+        <v>-1.35</v>
       </c>
       <c r="G97" s="4" t="n">
-        <v>1.3606</v>
+        <v>1.3849</v>
       </c>
       <c r="H97" s="6" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.3764</v>
+        <v>1.3867</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>0.0116</v>
+        <v>0.0192</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>0.41</v>
+        <v>0.05</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
@@ -7192,31 +7192,31 @@
         <v>9697.57</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>10663.45</v>
+        <v>10778.85</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>462.57</v>
+        <v>577.98</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>1.0996</v>
+        <v>1.1115</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1059</v>
+        <v>1.1124</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0057</v>
+        <v>0.0117</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>61.09</v>
+        <v>8.73</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>8677.6</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>9640.809999999999</v>
+        <v>9770.98</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>839.99</v>
+        <v>970.16</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.111</v>
+        <v>1.126</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1166</v>
+        <v>1.1208</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K99" s="8" t="n">
-        <v>48.59</v>
+        <v>0.008800000000000001</v>
+      </c>
+      <c r="K99" s="9" t="n">
+        <v>-45.12</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>5818.83</v>
+        <v>5916.98</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>618.77</v>
+        <v>716.91</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.9545</v>
+        <v>0.9706</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.967</v>
+        <v>0.9712</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0131</v>
+        <v>0.0175</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>76.2</v>
+        <v>3.66</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>5610.83</v>
+        <v>5690.49</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>810.71</v>
+        <v>890.36</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.8312</v>
+        <v>0.843</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8415</v>
+        <v>0.8434</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0124</v>
+        <v>0.0147</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>69.53</v>
+        <v>2.7</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2760.12</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>4485.19</v>
+        <v>4573.52</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>885.17</v>
+        <v>973.49</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.625</v>
+        <v>1.657</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6463</v>
+        <v>1.6556</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>58.79</v>
+        <v>0.0188</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>-3.86</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3436.6</v>
+        <v>3492.34</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>236.21</v>
+        <v>291.95</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.7769</v>
+        <v>0.7895</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.7834</v>
+        <v>0.7899</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0167</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>28.75</v>
+        <v>1.77</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>1981.84</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>3386.96</v>
+        <v>3412.73</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>195.81</v>
+        <v>221.57</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.709</v>
+        <v>1.722</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.7174</v>
+        <v>1.719</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K104" s="8" t="n">
-        <v>16.65</v>
+        <v>0.0059</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>-5.95</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>2046.97</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3334.51</v>
+        <v>3377.5</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>622.28</v>
+        <v>665.27</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.629</v>
+        <v>1.65</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.6383</v>
+        <v>1.648</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K105" s="8" t="n">
-        <v>19.04</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K105" s="9" t="n">
+        <v>-4.09</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3298.55</v>
+        <v>3351.51</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>98.17</v>
+        <v>151.12</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.5544</v>
+        <v>0.5633</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5604</v>
+        <v>0.5635</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0108</v>
+        <v>0.0163</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>35.7</v>
+        <v>1.19</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,17 +7813,17 @@
         <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>2271.11</v>
+        <v>2286.19</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>271.03</v>
+        <v>286.1</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.205</v>
+        <v>1.213</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
@@ -7882,31 +7882,31 @@
         <v>1213.09</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2158.81</v>
+        <v>2200.18</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>558.75</v>
+        <v>600.12</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.7796</v>
+        <v>1.8137</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.8036</v>
+        <v>1.8134</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>29.11</v>
+        <v>0.019</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>-0.36</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1904.91</v>
+        <v>1920.23</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>304.82</v>
+        <v>320.15</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.1686</v>
+        <v>1.178</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1737</v>
+        <v>1.175</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0044</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>8.31</v>
+        <v>0.0054</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-4.89</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1849.18</v>
+        <v>1861.84</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>249.09</v>
+        <v>261.76</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.314</v>
+        <v>1.323</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3215</v>
+        <v>1.3142</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>10.55</v>
+        <v>0.0002</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>-12.38</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 05:00</t>
+          <t>2019-12-14 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1346.49</v>
+        <v>1374.6</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>146.43</v>
+        <v>174.54</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.006</v>
+        <v>1.027</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0206</v>
+        <v>1.0282</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0145</v>
+        <v>0.022</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>19.54</v>
+        <v>1.61</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>3350.7</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1276.62</v>
+        <v>1316.83</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>-323.68</v>
+        <v>-283.47</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>0.381</v>
+        <v>0.393</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-11</t>
+          <t>2019-12-12</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.388</v>
+        <v>0.387</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0237</v>
-      </c>
-      <c r="K112" s="8" t="n">
-        <v>23.45</v>
+        <v>0.0211</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>-20.1</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:48</t>
+          <t>2019-12-13 15:04</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>1495.03</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1218.9</v>
+        <v>1192.88</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>18.84</v>
+        <v>-7.18</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.8153</v>
+        <v>0.7979000000000001</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8218</v>
+        <v>0.8258</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.008</v>
+        <v>0.0128</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>9.720000000000001</v>
+        <v>41.71</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>983.09</v>
+        <v>1005.96</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>183.04</v>
+        <v>205.91</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.0919</v>
+        <v>1.1173</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.1073</v>
+        <v>1.1181</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0141</v>
+        <v>0.024</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>13.87</v>
+        <v>0.72</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>898.01</v>
+        <v>890.16</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>97.95999999999999</v>
+        <v>90.11</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.2238</v>
+        <v>1.2131</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2091</v>
+        <v>1.213</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.012</v>
-      </c>
-      <c r="K115" s="21" t="n">
-        <v>-10.79</v>
+        <v>-0.008800000000000001</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:36</t>
+          <t>2019-12-13 15:30</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>496.13</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>489.23</v>
+        <v>506.9</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>89.2</v>
+        <v>106.87</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>0.9861</v>
+        <v>1.0217</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0068</v>
+        <v>1.0213</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.021</v>
-      </c>
-      <c r="K116" s="8" t="n">
-        <v>10.27</v>
+        <v>0.0357</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>458.2</v>
+        <v>461.49</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>58.18</v>
+        <v>61.48</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.3758</v>
+        <v>1.3857</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.3845</v>
+        <v>1.3877</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0063</v>
+        <v>0.008699999999999999</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>2.9</v>
+        <v>0.67</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>325.61</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>424.27</v>
+        <v>432.41</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>24.26</v>
+        <v>32.4</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.303</v>
+        <v>1.328</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3201</v>
+        <v>1.3275</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0131</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>5.57</v>
+        <v>0.0188</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>275.49</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>416.65</v>
+        <v>426.49</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>16.64</v>
+        <v>26.47</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.5124</v>
+        <v>1.5481</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5412</v>
+        <v>1.5493</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.019</v>
+        <v>0.0244</v>
       </c>
       <c r="K119" s="8" t="n">
-        <v>7.93</v>
+        <v>0.33</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:47</t>
+          <t>2019-12-13 16:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>206.23</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>407.82</v>
+        <v>412.75</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>7.82</v>
+        <v>12.75</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>1.9775</v>
+        <v>2.0014</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>1.9888</v>
+        <v>2.0006</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>0.0057</v>
-      </c>
-      <c r="K120" s="8" t="n">
-        <v>2.33</v>
+        <v>0.0117</v>
+      </c>
+      <c r="K120" s="9" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8779,31 +8779,31 @@
         <v>275.96</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>242.4</v>
+        <v>245.05</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>13.63</v>
+        <v>16.28</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>0.8784</v>
+        <v>0.888</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-13</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.8834</v>
+        <v>0.8887</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0057</v>
+        <v>0.0117</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>1.38</v>
+        <v>0.19</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 11:30</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="000000" numFmtId="164"/>
-    <numFmt formatCode="0.0000" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="1" max="1" min="1" width="30"/>
-    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
-    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
-    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
-    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
-    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
-    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
-    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
-    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
-    <col customWidth="1" max="10" min="10" width="12"/>
-    <col customWidth="1" max="11" min="11" width="12"/>
-    <col customWidth="1" max="12" min="12" width="12.8"/>
-    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
-    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
-    <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
+    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
+    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
+    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
+    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
+    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
+    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
+    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
+    <col width="12" customWidth="1" min="10" max="10"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12.8" customWidth="1" min="12" max="12"/>
+    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
+    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="16" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -789,13 +789,13 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5171</v>
+        <v>1.534</v>
       </c>
       <c r="J5" s="7" t="n">
         <v>0.0241</v>
       </c>
       <c r="K5" s="8" t="n">
-        <v>43.39</v>
+        <v>81.59</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
@@ -2790,13 +2790,13 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3142</v>
+        <v>1.3232</v>
       </c>
       <c r="J34" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="K34" s="9" t="n">
-        <v>-5.08</v>
+      <c r="K34" s="8" t="n">
+        <v>0.12</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
@@ -2859,13 +2859,13 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5493</v>
+        <v>1.5859</v>
       </c>
       <c r="J35" s="27" t="n">
         <v>0.0244</v>
       </c>
       <c r="K35" s="8" t="n">
-        <v>0.55</v>
+        <v>17.38</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3142</v>
+        <v>1.3232</v>
       </c>
       <c r="J43" s="27" t="n">
         <v>0.0002</v>
       </c>
-      <c r="K43" s="9" t="n">
-        <v>-7.92</v>
+      <c r="K43" s="8" t="n">
+        <v>0.18</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
@@ -3480,13 +3480,13 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5493</v>
+        <v>1.5859</v>
       </c>
       <c r="J44" s="27" t="n">
         <v>0.0244</v>
       </c>
       <c r="K44" s="8" t="n">
-        <v>0.83</v>
+        <v>26.04</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3142</v>
+        <v>1.3232</v>
       </c>
       <c r="J56" s="33" t="n">
         <v>0.0002</v>
       </c>
-      <c r="K56" s="9" t="n">
-        <v>-147.65</v>
+      <c r="K56" s="8" t="n">
+        <v>3.36</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
@@ -4515,13 +4515,13 @@
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5493</v>
+        <v>1.5859</v>
       </c>
       <c r="J59" s="33" t="n">
         <v>0.0244</v>
       </c>
       <c r="K59" s="8" t="n">
-        <v>8.16</v>
+        <v>256.98</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.5181</v>
+        <v>0</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0148</v>
+        <v>0</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>93.95</v>
+        <v>0</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5688,13 +5688,13 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.5171</v>
+        <v>1.534</v>
       </c>
       <c r="J76" s="7" t="n">
         <v>0.0241</v>
       </c>
       <c r="K76" s="8" t="n">
-        <v>17.24</v>
+        <v>32.42</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
@@ -6516,13 +6516,13 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.5171</v>
+        <v>1.534</v>
       </c>
       <c r="J88" s="7" t="n">
         <v>0.0241</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>17.59</v>
+        <v>33.07</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3142</v>
+        <v>1.3232</v>
       </c>
       <c r="J110" s="33" t="n">
         <v>0.0002</v>
       </c>
-      <c r="K110" s="9" t="n">
-        <v>-12.38</v>
+      <c r="K110" s="8" t="n">
+        <v>0.28</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
@@ -8655,13 +8655,13 @@
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5493</v>
+        <v>1.5859</v>
       </c>
       <c r="J119" s="33" t="n">
         <v>0.0244</v>
       </c>
       <c r="K119" s="8" t="n">
-        <v>0.33</v>
+        <v>10.41</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
@@ -8833,6 +8833,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="基金估算情况" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="000000"/>
-    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt formatCode="000000" numFmtId="164"/>
+    <numFmt formatCode="0.0000" numFmtId="165"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -93,60 +93,60 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="34">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="2" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="4" fontId="2" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="5" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="5" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="6" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="6" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="7" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="165" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="7" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="0" fillId="8" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="0" fillId="8" fontId="1" numFmtId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -447,22 +447,22 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="9.600000000000001" customWidth="1" min="2" max="2"/>
-    <col width="9.600000000000001" customWidth="1" min="3" max="3"/>
-    <col width="9.600000000000001" customWidth="1" min="4" max="4"/>
-    <col width="9.600000000000001" customWidth="1" min="5" max="5"/>
-    <col width="9.600000000000001" customWidth="1" min="6" max="6"/>
-    <col width="9.600000000000001" customWidth="1" min="7" max="7"/>
-    <col width="9.600000000000001" customWidth="1" min="8" max="8"/>
-    <col width="9.600000000000001" customWidth="1" min="9" max="9"/>
-    <col width="12" customWidth="1" min="10" max="10"/>
-    <col width="12" customWidth="1" min="11" max="11"/>
-    <col width="12.8" customWidth="1" min="12" max="12"/>
-    <col width="9.600000000000001" customWidth="1" min="13" max="13"/>
-    <col width="9.600000000000001" customWidth="1" min="14" max="14"/>
-    <col width="12" customWidth="1" min="15" max="15"/>
-    <col width="16" customWidth="1" min="17" max="17"/>
+    <col customWidth="1" max="1" min="1" width="30"/>
+    <col customWidth="1" max="2" min="2" width="9.600000000000001"/>
+    <col customWidth="1" max="3" min="3" width="9.600000000000001"/>
+    <col customWidth="1" max="4" min="4" width="9.600000000000001"/>
+    <col customWidth="1" max="5" min="5" width="9.600000000000001"/>
+    <col customWidth="1" max="6" min="6" width="9.600000000000001"/>
+    <col customWidth="1" max="7" min="7" width="9.600000000000001"/>
+    <col customWidth="1" max="8" min="8" width="9.600000000000001"/>
+    <col customWidth="1" max="9" min="9" width="9.600000000000001"/>
+    <col customWidth="1" max="10" min="10" width="12"/>
+    <col customWidth="1" max="11" min="11" width="12"/>
+    <col customWidth="1" max="12" min="12" width="12.8"/>
+    <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
+    <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
+    <col customWidth="1" max="15" min="15" width="12"/>
+    <col customWidth="1" max="17" min="17" width="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>0</v>
+        <v>1.5181</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0</v>
+        <v>0.0148</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>0</v>
+        <v>93.95</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>NA</t>
+          <t>2019-12-13 15:00</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -8833,6 +8833,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -2790,13 +2790,13 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3232</v>
+        <v>1.3231</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K34" s="8" t="n">
-        <v>0.12</v>
+        <v>0.06</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3232</v>
+        <v>1.3231</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K43" s="8" t="n">
-        <v>0.18</v>
+        <v>0.09</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3232</v>
+        <v>1.3231</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K56" s="8" t="n">
-        <v>3.36</v>
+        <v>1.68</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3232</v>
+        <v>1.3231</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K110" s="8" t="n">
-        <v>0.28</v>
+        <v>0.14</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6505</v>
+        <v>1.6561</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0049</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>6.06</v>
+        <v>19.62</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4676</v>
+        <v>1.4642</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K3" s="8" t="n">
-        <v>1.62</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K3" s="9" t="n">
+        <v>-7.56</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9437</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>7.97</v>
+        <v>27.16</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.534</v>
+        <v>1.4927</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="K5" s="8" t="n">
-        <v>81.59</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K5" s="9" t="n">
+        <v>-11.75</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9011</v>
+        <v>1.9147</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="K6" s="9" t="n">
-        <v>-0.55</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K6" s="8" t="n">
+        <v>18</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2134</v>
+        <v>2.2286</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="K7" s="9" t="n">
-        <v>-0.11</v>
+        <v>0.0068</v>
+      </c>
+      <c r="K7" s="8" t="n">
+        <v>16</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>0.64</v>
+        <v>4.59</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9716</v>
+        <v>0.9695</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0169</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>1.49</v>
+        <v>0.33</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7738</v>
+        <v>0.7756999999999999</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0137</v>
+        <v>0.0029</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.16</v>
+        <v>1.17</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3499</v>
+        <v>1.3529</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0181</v>
+        <v>-0.0015</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-1.26</v>
+        <v>-0.52</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2452</v>
+        <v>1.2398</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.0039</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>-0.41</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.3867</v>
+        <v>1.3823</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>0.12</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>-0.17</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5635</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0163</v>
+        <v>0.0103</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>3.35</v>
+        <v>97.04000000000001</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3</v>
+        <v>2.986</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0215</v>
+        <v>-0.0047</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>-5.4</v>
+        <v>-43.2</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>3.968</v>
+        <v>3.965</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0203</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>15.47</v>
+        <v>-0.0008</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>-11.83</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.5</v>
+        <v>5.546</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.0136</v>
+        <v>0.008399999999999999</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>112.52</v>
+        <v>1897.32</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.748</v>
+        <v>0.757</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0136</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>-101.4</v>
+        <v>0.012</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>202.8</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:26</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.957</v>
+        <v>0.956</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.0413</v>
+        <v>-0.001</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>111.18</v>
+        <v>78.48</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.788</v>
+        <v>0.806</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0168</v>
+        <v>0.0228</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>17.05</v>
+        <v>630.85</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.261</v>
+        <v>3.285</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0118</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>-68.40000000000001</v>
+        <v>0.0074</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>39.6</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:29</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.693</v>
+        <v>1.701</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0217</v>
+        <v>0.0047</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>24.84</v>
+        <v>98.44</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.354</v>
+        <v>1.355</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0142</v>
+        <v>0.0007</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>18.72</v>
+        <v>33.12</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0006</v>
+        <v>2.0217</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K24" s="9" t="n">
-        <v>-3.33</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K24" s="8" t="n">
+        <v>84.40000000000001</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5635</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0163</v>
+        <v>0.0103</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>1.94</v>
+        <v>56.39</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>2.97</v>
+        <v>21.26</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5645</v>
+        <v>0.5697</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>3.69</v>
+        <v>42.06</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1208</v>
+        <v>1.1316</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="K28" s="9" t="n">
-        <v>-19.06</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K28" s="8" t="n">
+        <v>20.52</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.7899</v>
+        <v>0.8062</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0167</v>
+        <v>0.0211</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>1.82</v>
+        <v>75.98999999999999</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8134</v>
+        <v>1.8242</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K30" s="9" t="n">
-        <v>-0.12</v>
+        <v>0.0058</v>
+      </c>
+      <c r="K30" s="8" t="n">
+        <v>4.21</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9843</v>
+        <v>0.9891</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.019</v>
+        <v>0.0058</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>0.66</v>
+        <v>4.2</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0213</v>
+        <v>1.0261</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>-0.19</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>2.08</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.387</v>
+        <v>0.383</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0211</v>
+        <v>-0.0103</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-31.8</v>
+        <v>-53</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2859,17 +2859,17 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5859</v>
+        <v>1.5427</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="K35" s="8" t="n">
-        <v>17.38</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K35" s="9" t="n">
+        <v>-2.48</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0006</v>
+        <v>2.0217</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K37" s="9" t="n">
-        <v>-0.84</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K37" s="8" t="n">
+        <v>21.25</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1208</v>
+        <v>1.1316</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="K38" s="9" t="n">
-        <v>-9.49</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K38" s="8" t="n">
+        <v>10.23</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0282</v>
+        <v>1.0215</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>1.27</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-5.83</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5645</v>
+        <v>0.5697</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>0.91</v>
+        <v>10.33</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.7899</v>
+        <v>0.8062</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0167</v>
+        <v>0.0211</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>0.49</v>
+        <v>20.49</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.213</v>
+        <v>1.218</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.008800000000000001</v>
-      </c>
-      <c r="K42" s="9" t="n">
-        <v>-0.18</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K42" s="8" t="n">
+        <v>8.99</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:30</t>
+          <t>2019-12-16 11:36</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5859</v>
+        <v>1.5427</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="K44" s="8" t="n">
-        <v>26.04</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K44" s="9" t="n">
+        <v>-3.72</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3549,17 +3549,17 @@
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.387</v>
+        <v>0.383</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0211</v>
+        <v>-0.0103</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>-28.55</v>
+        <v>-47.58</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.719</v>
+        <v>1.7288</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K47" s="9" t="n">
-        <v>-1.79</v>
+        <v>0.0039</v>
+      </c>
+      <c r="K47" s="8" t="n">
+        <v>4.05</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1208</v>
+        <v>1.1316</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="K48" s="9" t="n">
-        <v>-338.33</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K48" s="8" t="n">
+        <v>364.36</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>38.09</v>
+        <v>273.01</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.175</v>
+        <v>1.1779</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0054</v>
+        <v>-0.0001</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>-97.11</v>
+        <v>-3.24</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.719</v>
+        <v>1.7288</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K51" s="9" t="n">
-        <v>-60.26</v>
+        <v>0.0039</v>
+      </c>
+      <c r="K51" s="8" t="n">
+        <v>136.59</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8434</v>
+        <v>0.8448</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0147</v>
+        <v>0.0021</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>16.41</v>
+        <v>73.83</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6556</v>
+        <v>1.6568</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0188</v>
+        <v>-0.0001</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>-20.47</v>
+        <v>-2.92</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1181</v>
+        <v>1.1142</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>16.93</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>-65.61</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.648</v>
+        <v>1.6668</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K57" s="9" t="n">
-        <v>-19.06</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K57" s="8" t="n">
+        <v>160.1</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.387</v>
+        <v>0.383</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0211</v>
+        <v>-0.0103</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>-223.6</v>
+        <v>-372.67</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4515,17 +4515,17 @@
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5859</v>
+        <v>1.5427</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="K59" s="8" t="n">
-        <v>256.98</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K59" s="9" t="n">
+        <v>-36.71</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5635</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0163</v>
+        <v>0.0103</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>2.68</v>
+        <v>77.73999999999999</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3877</v>
+        <v>1.3931</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0054</v>
       </c>
       <c r="K62" s="8" t="n">
-        <v>10.66</v>
+        <v>39.43</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.8887</v>
+        <v>0.897</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>5.45</v>
+        <v>70.01000000000001</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0006</v>
+        <v>2.0217</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K64" s="9" t="n">
-        <v>-2.64</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K64" s="8" t="n">
+        <v>66.98</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.7899</v>
+        <v>0.8062</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0167</v>
+        <v>0.0211</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>3.14</v>
+        <v>131.14</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9645</v>
+        <v>0.9757</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>-3.58</v>
+        <v>0.0105</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>36.52</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="24" t="n">
-        <v>1.0296</v>
+        <v>1.0301</v>
       </c>
       <c r="J67" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K67" s="9" t="n">
-        <v>-17.12</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K67" s="8" t="n">
+        <v>68.45999999999999</v>
       </c>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M67" s="26" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="24" t="n">
-        <v>1.5181</v>
+        <v>1.5144</v>
       </c>
       <c r="J68" s="27" t="n">
-        <v>0.0148</v>
+        <v>0.0029</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>93.95</v>
+        <v>51.03</v>
       </c>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M68" s="26" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="24" t="n">
-        <v>1.0779</v>
+        <v>1.0784</v>
       </c>
       <c r="J69" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K69" s="9" t="n">
-        <v>-12.89</v>
+        <v>0.0004</v>
+      </c>
+      <c r="K69" s="8" t="n">
+        <v>51.55</v>
       </c>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M69" s="26" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="24" t="n">
-        <v>1.0789</v>
+        <v>1.0794</v>
       </c>
       <c r="J70" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>-13.27</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>53.09</v>
       </c>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M70" s="26" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="24" t="n">
-        <v>1.2458</v>
+        <v>1.248</v>
       </c>
       <c r="J71" s="27" t="n">
-        <v>0.0014</v>
+        <v>-0.0008</v>
       </c>
       <c r="K71" s="9" t="n">
-        <v>-190.99</v>
+        <v>-59.69</v>
       </c>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M71" s="26" t="inlineStr">
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="24" t="n">
-        <v>1.2938</v>
+        <v>1.2963</v>
       </c>
       <c r="J72" s="27" t="n">
-        <v>0.0014</v>
+        <v>-0.0013</v>
       </c>
       <c r="K72" s="9" t="n">
-        <v>-323.25</v>
+        <v>-130.84</v>
       </c>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M72" s="26" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="24" t="n">
-        <v>1.0799</v>
+        <v>1.0803</v>
       </c>
       <c r="J73" s="27" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K73" s="9" t="n">
-        <v>-14.06</v>
+        <v>0.0003</v>
+      </c>
+      <c r="K73" s="8" t="n">
+        <v>42.17</v>
       </c>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M73" s="26" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.4676</v>
+        <v>1.4642</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K74" s="8" t="n">
-        <v>0.63</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K74" s="9" t="n">
+        <v>-2.93</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.6505</v>
+        <v>1.6561</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0049</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>2.22</v>
+        <v>7.19</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.534</v>
+        <v>1.4927</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>32.42</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>-4.67</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9437</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>2.99</v>
+        <v>10.19</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.9011</v>
+        <v>1.9147</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>-0.2</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>6.5</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>2.2134</v>
+        <v>2.2286</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="K79" s="9" t="n">
-        <v>-0.04</v>
+        <v>0.0068</v>
+      </c>
+      <c r="K79" s="8" t="n">
+        <v>6.14</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.23</v>
+        <v>1.68</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9716</v>
+        <v>0.9695</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0169</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>0.58</v>
+        <v>0.13</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.7738</v>
+        <v>0.7756999999999999</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0137</v>
+        <v>0.0029</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3499</v>
+        <v>1.3529</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0181</v>
+        <v>-0.0015</v>
       </c>
       <c r="K83" s="9" t="n">
-        <v>-0.32</v>
+        <v>-0.13</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3867</v>
+        <v>1.3823</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K84" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K84" s="9" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.2452</v>
+        <v>1.2398</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="K85" s="8" t="n">
-        <v>0.01</v>
+        <v>-0.0039</v>
+      </c>
+      <c r="K85" s="9" t="n">
+        <v>-0.08</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.6505</v>
+        <v>1.6561</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.008800000000000001</v>
+        <v>0.0049</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>2.44</v>
+        <v>7.89</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.4676</v>
+        <v>1.4642</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>0.63</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-2.96</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.534</v>
+        <v>1.4927</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0241</v>
-      </c>
-      <c r="K88" s="8" t="n">
-        <v>33.07</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K88" s="9" t="n">
+        <v>-4.76</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.9384</v>
+        <v>0.9437</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0081</v>
+        <v>0.008</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>3.11</v>
+        <v>10.59</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.9011</v>
+        <v>1.9147</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0152</v>
-      </c>
-      <c r="K90" s="9" t="n">
-        <v>-0.21</v>
+        <v>0.0069</v>
+      </c>
+      <c r="K90" s="8" t="n">
+        <v>6.98</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="4" t="n">
-        <v>2.2134</v>
+        <v>2.2286</v>
       </c>
       <c r="J91" s="7" t="n">
-        <v>0.0165</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>-0.04</v>
+        <v>0.0068</v>
+      </c>
+      <c r="K91" s="8" t="n">
+        <v>6.14</v>
       </c>
       <c r="L91" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M91" s="6" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="4" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J92" s="7" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>0.26</v>
+        <v>1.84</v>
       </c>
       <c r="L92" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M92" s="6" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="4" t="n">
-        <v>0.9716</v>
+        <v>0.9695</v>
       </c>
       <c r="J93" s="7" t="n">
-        <v>0.0169</v>
+        <v>0.0005999999999999999</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>0.61</v>
+        <v>0.14</v>
       </c>
       <c r="L93" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M93" s="6" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="4" t="n">
-        <v>1.3499</v>
+        <v>1.3529</v>
       </c>
       <c r="J94" s="7" t="n">
-        <v>0.0181</v>
+        <v>-0.0015</v>
       </c>
       <c r="K94" s="9" t="n">
-        <v>-0.72</v>
+        <v>-0.3</v>
       </c>
       <c r="L94" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M94" s="6" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="4" t="n">
-        <v>0.7738</v>
+        <v>0.7756999999999999</v>
       </c>
       <c r="J95" s="7" t="n">
-        <v>0.0137</v>
+        <v>0.0029</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>0.06</v>
+        <v>0.47</v>
       </c>
       <c r="L95" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M95" s="6" t="inlineStr">
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="4" t="n">
-        <v>1.2452</v>
+        <v>1.2398</v>
       </c>
       <c r="J96" s="7" t="n">
-        <v>0.0186</v>
-      </c>
-      <c r="K96" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.0039</v>
+      </c>
+      <c r="K96" s="9" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L96" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M96" s="6" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="4" t="n">
-        <v>1.3867</v>
+        <v>1.3823</v>
       </c>
       <c r="J97" s="7" t="n">
-        <v>0.0192</v>
-      </c>
-      <c r="K97" s="8" t="n">
-        <v>0.05</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L97" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M97" s="6" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1124</v>
+        <v>1.1228</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>8.73</v>
+        <v>109.58</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1208</v>
+        <v>1.1316</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.008800000000000001</v>
-      </c>
-      <c r="K99" s="9" t="n">
-        <v>-45.12</v>
+        <v>0.0049</v>
+      </c>
+      <c r="K99" s="8" t="n">
+        <v>48.59</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9712</v>
+        <v>0.9749</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0175</v>
+        <v>0.0045</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>3.66</v>
+        <v>26.21</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8434</v>
+        <v>0.8448</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0147</v>
+        <v>0.0021</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>2.7</v>
+        <v>12.15</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6556</v>
+        <v>1.6568</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0188</v>
+        <v>-0.0001</v>
       </c>
       <c r="K102" s="9" t="n">
-        <v>-3.86</v>
+        <v>-0.55</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.7899</v>
+        <v>0.8062</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0167</v>
+        <v>0.0211</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>1.77</v>
+        <v>73.87</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.719</v>
+        <v>1.7288</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0059</v>
-      </c>
-      <c r="K104" s="9" t="n">
-        <v>-5.95</v>
+        <v>0.0039</v>
+      </c>
+      <c r="K104" s="8" t="n">
+        <v>13.48</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.648</v>
+        <v>1.6668</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K105" s="9" t="n">
-        <v>-4.09</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K105" s="8" t="n">
+        <v>34.39</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5635</v>
+        <v>0.5691000000000001</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0163</v>
+        <v>0.0103</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>1.19</v>
+        <v>34.51</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.8134</v>
+        <v>1.8242</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.019</v>
-      </c>
-      <c r="K108" s="9" t="n">
-        <v>-0.36</v>
+        <v>0.0058</v>
+      </c>
+      <c r="K108" s="8" t="n">
+        <v>12.74</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.175</v>
+        <v>1.1779</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0054</v>
+        <v>-0.0001</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>-4.89</v>
+        <v>-0.16</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0282</v>
+        <v>1.0215</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.022</v>
-      </c>
-      <c r="K111" s="8" t="n">
-        <v>1.61</v>
+        <v>-0.0053</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>-7.36</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.387</v>
+        <v>0.383</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0211</v>
+        <v>-0.0103</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-20.1</v>
+        <v>-33.51</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:04</t>
+          <t>2019-12-16 12:44</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8258</v>
+        <v>0.8063</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0128</v>
+        <v>0.0105</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>41.71</v>
+        <v>12.56</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8310,17 +8310,17 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.1181</v>
+        <v>1.1142</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.024</v>
-      </c>
-      <c r="K114" s="8" t="n">
-        <v>0.72</v>
+        <v>-0.0028</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>-2.79</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8379,17 +8379,17 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.213</v>
+        <v>1.218</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.008800000000000001</v>
-      </c>
-      <c r="K115" s="9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K115" s="8" t="n">
+        <v>3.6</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:30</t>
+          <t>2019-12-16 11:36</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0213</v>
+        <v>1.0261</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0357</v>
-      </c>
-      <c r="K116" s="9" t="n">
-        <v>-0.2</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K116" s="8" t="n">
+        <v>2.18</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8517,17 +8517,17 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.3877</v>
+        <v>1.3931</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.008699999999999999</v>
+        <v>0.0054</v>
       </c>
       <c r="K117" s="8" t="n">
-        <v>0.67</v>
+        <v>2.46</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8586,17 +8586,17 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3275</v>
+        <v>1.3279</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0188</v>
+        <v>-0.0001</v>
       </c>
       <c r="K118" s="9" t="n">
-        <v>-0.16</v>
+        <v>-0.03</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8655,17 +8655,17 @@
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5859</v>
+        <v>1.5427</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0244</v>
-      </c>
-      <c r="K119" s="8" t="n">
-        <v>10.41</v>
+        <v>-0.0035</v>
+      </c>
+      <c r="K119" s="9" t="n">
+        <v>-1.49</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 16:00</t>
+          <t>2019-12-16 12:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8724,17 +8724,17 @@
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0006</v>
+        <v>2.0217</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>0.0117</v>
-      </c>
-      <c r="K120" s="9" t="n">
-        <v>-0.16</v>
+        <v>0.0102</v>
+      </c>
+      <c r="K120" s="8" t="n">
+        <v>4.19</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8793,17 +8793,17 @@
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.8887</v>
+        <v>0.897</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0117</v>
+        <v>0.0102</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>0.19</v>
+        <v>2.48</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13 15:00</t>
+          <t>2019-12-16 11:30</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -568,31 +568,31 @@
         <v>2422.08</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>3991.59</v>
+        <v>4035.19</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>-6.78</v>
+        <v>36.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.648</v>
+        <v>1.666</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6561</v>
+        <v>1.6683</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0049</v>
+        <v>0.0074</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>19.62</v>
+        <v>5.57</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2699.6</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>3960.31</v>
+        <v>4006.21</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>108.52</v>
+        <v>154.42</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.467</v>
+        <v>1.484</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4642</v>
+        <v>1.4845</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K3" s="9" t="n">
-        <v>-7.56</v>
+        <v>0.0112</v>
+      </c>
+      <c r="K3" s="8" t="n">
+        <v>1.35</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>3620.67</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3389.67</v>
+        <v>3466.79</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>11.22</v>
+        <v>88.34</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9362</v>
+        <v>0.9575</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9437</v>
+        <v>0.9585</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.008</v>
+        <v>0.01</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>27.16</v>
+        <v>3.62</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3385.46</v>
+        <v>3431.57</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>338.57</v>
+        <v>384.68</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.4979</v>
+        <v>1.5183</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.4927</v>
+        <v>1.5172</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0035</v>
+        <v>0.0114</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-11.75</v>
+        <v>-2.49</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2592.45</v>
+        <v>2670.84</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>140.15</v>
+        <v>218.55</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.9015</v>
+        <v>1.959</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9147</v>
+        <v>1.9594</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0069</v>
+        <v>0.018</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>18</v>
+        <v>0.55</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,31 +913,31 @@
         <v>1059.44</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2345.07</v>
+        <v>2415.63</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93.02</v>
+        <v>163.58</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2135</v>
+        <v>2.2801</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2286</v>
+        <v>2.2805</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0068</v>
+        <v>0.018</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>16</v>
+        <v>0.42</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1036.04</v>
+        <v>1056</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12.49</v>
+        <v>32.45</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9706</v>
+        <v>0.9893</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9749</v>
+        <v>0.9906</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0045</v>
+        <v>0.0086</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>4.59</v>
+        <v>1.39</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>533.28</v>
+        <v>542.36</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>-7.6</v>
+        <v>1.49</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9689</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9695</v>
+        <v>0.9897</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0005999999999999999</v>
+        <v>0.0121</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.33</v>
+        <v>2.37</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>411.4</v>
+        <v>418.58</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>54.62</v>
+        <v>61.8</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7735</v>
+        <v>0.787</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7756999999999999</v>
+        <v>0.7874</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0029</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>1.17</v>
+        <v>0.21</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335.92</v>
+        <v>339.14</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22.66</v>
+        <v>25.88</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.355</v>
+        <v>1.368</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3529</v>
+        <v>1.3652</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0015</v>
+        <v>0.0135</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-0.52</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>106.6</v>
+        <v>107.71</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.62</v>
+        <v>3.73</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.2446</v>
+        <v>1.2576</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2398</v>
+        <v>1.2578</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K12" s="9" t="n">
-        <v>-0.41</v>
+        <v>0.0133</v>
+      </c>
+      <c r="K12" s="8" t="n">
+        <v>0.02</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>89.33</v>
+        <v>90.48999999999999</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.39</v>
+        <v>-2.22</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.3849</v>
+        <v>1.403</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.3823</v>
+        <v>1.4034</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K13" s="9" t="n">
-        <v>-0.17</v>
+        <v>0.0112</v>
+      </c>
+      <c r="K13" s="8" t="n">
+        <v>0.03</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>16731.88</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>9425.07</v>
+        <v>9712.860000000001</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-2575.04</v>
+        <v>-2287.25</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.5633</v>
+        <v>0.5805</v>
       </c>
       <c r="H14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5805</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0103</v>
+        <v>0.0143</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>97.04000000000001</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>8105.4</v>
+        <v>8175.6</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>1795.5</v>
+        <v>1865.7</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.002</v>
+        <v>3.028</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>2.986</v>
+        <v>3.025</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0047</v>
+        <v>0.0107</v>
       </c>
       <c r="K15" s="9" t="n">
-        <v>-43.2</v>
+        <v>-8.1</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>36093.33</v>
+        <v>36756.72</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>4725.63</v>
+        <v>5389.02</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>3.9663</v>
+        <v>4.0392</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>3.965</v>
+        <v>4.042</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>-11.83</v>
+        <v>0.0156</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>25.48</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>213287.48</v>
+        <v>220151.2</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>-4031.32</v>
+        <v>2832.4</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>5.4971</v>
+        <v>5.674</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.546</v>
+        <v>5.675</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.008399999999999999</v>
+        <v>0.0158</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>1897.32</v>
+        <v>38.8</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>25383.8</v>
+        <v>26201.76</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>-4258.8</v>
+        <v>-3440.84</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.751</v>
+        <v>0.7752</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.757</v>
+        <v>0.774</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.012</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>202.8</v>
+        <v>0.0091</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-40.56</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:26</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>31182.72</v>
+        <v>32579.01</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>5578.62</v>
+        <v>6974.91</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.9536</v>
+        <v>0.9963</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.956</v>
+        <v>0.999</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.001</v>
+        <v>0.031</v>
       </c>
       <c r="K19" s="8" t="n">
-        <v>78.48</v>
+        <v>88.29000000000001</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>26853.75</v>
+        <v>27842.65</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>-2779.15</v>
+        <v>-1790.25</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>0.7875</v>
+        <v>0.8165</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.806</v>
+        <v>0.8149999999999999</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0228</v>
-      </c>
-      <c r="K20" s="8" t="n">
-        <v>630.85</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K20" s="9" t="n">
+        <v>-51.15</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>14742.9</v>
+        <v>14831.1</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>1890.9</v>
+        <v>1979.1</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>3.2762</v>
+        <v>3.2958</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.285</v>
+        <v>3.292</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.0074</v>
-      </c>
-      <c r="K21" s="8" t="n">
-        <v>39.6</v>
+        <v>-0.0005999999999999999</v>
+      </c>
+      <c r="K21" s="9" t="n">
+        <v>-17.1</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 11:29</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>9200</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>15550.76</v>
+        <v>15959.24</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>2679.96</v>
+        <v>3088.44</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.6903</v>
+        <v>1.7347</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.701</v>
+        <v>1.738</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0047</v>
+        <v>0.0134</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>98.44</v>
+        <v>30.36</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>14400</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>19478.88</v>
+        <v>19795.68</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>1176.48</v>
+        <v>1493.28</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>1.3527</v>
+        <v>1.3747</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.355</v>
+        <v>1.374</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0007</v>
-      </c>
-      <c r="K23" s="8" t="n">
-        <v>33.12</v>
+        <v>0.0073</v>
+      </c>
+      <c r="K23" s="9" t="n">
+        <v>-10.08</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8320.860000000001</v>
+        <v>8534.559999999999</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>316.8</v>
+        <v>530.5</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.0014</v>
+        <v>2.0528</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0217</v>
+        <v>2.0542</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>84.40000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5476.4</v>
+        <v>5643.62</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>140</v>
+        <v>307.22</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5633</v>
+        <v>0.5805</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5805</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0103</v>
+        <v>0.0143</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>56.39</v>
+        <v>0</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4798.61</v>
+        <v>4891.06</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>129.53</v>
+        <v>221.98</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.9706</v>
+        <v>0.9893</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9749</v>
+        <v>0.9906</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0045</v>
+        <v>0.0086</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>21.26</v>
+        <v>6.43</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4162.06</v>
+        <v>4287.51</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>160.14</v>
+        <v>285.59</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5697</v>
+        <v>0.5804</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="K27" s="8" t="n">
-        <v>42.06</v>
+        <v>0.0129</v>
+      </c>
+      <c r="K27" s="9" t="n">
+        <v>-4.43</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4126.8</v>
+        <v>4185.44</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>124.98</v>
+        <v>183.62</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.126</v>
+        <v>1.142</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1316</v>
+        <v>1.1424</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0049</v>
+        <v>0.0074</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>20.52</v>
+        <v>1.47</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3592.66</v>
+        <v>3718.71</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>257.56</v>
+        <v>383.61</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.7895</v>
+        <v>0.8172</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8062</v>
+        <v>0.8169</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>75.98999999999999</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>-1.37</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>726.62</v>
+        <v>744.6900000000001</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>59.61</v>
+        <v>77.68000000000001</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.8137</v>
+        <v>1.8588</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8242</v>
+        <v>1.859</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0058</v>
+        <v>0.0114</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>4.21</v>
+        <v>0.08</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>724.08</v>
+        <v>742.9299999999999</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>57.06</v>
+        <v>75.91</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>0.9834000000000001</v>
+        <v>1.009</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>0.9891</v>
+        <v>1.0092</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0058</v>
+        <v>0.0114</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>4.2</v>
+        <v>0.15</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>484.13</v>
+        <v>504.7</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>17.25</v>
+        <v>37.81</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>1.0217</v>
+        <v>1.0651</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0261</v>
+        <v>1.0655</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0043</v>
+        <v>0.0266</v>
       </c>
       <c r="K32" s="8" t="n">
-        <v>2.08</v>
+        <v>0.19</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2082.88</v>
+        <v>2088.18</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>82.15000000000001</v>
+        <v>87.45</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>-0.0103</v>
+        <v>0.0104</v>
       </c>
       <c r="K33" s="9" t="n">
-        <v>-53</v>
+        <v>-21.2</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>763.11</v>
+        <v>770.03</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>96.09</v>
+        <v>103.02</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.323</v>
+        <v>1.335</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3231</v>
+        <v>1.3252</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K34" s="8" t="n">
-        <v>0.06</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K34" s="9" t="n">
+        <v>-5.65</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-14 05:00</t>
+          <t>2019-12-18 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>711.62</v>
+        <v>714.92</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>44.63</v>
+        <v>47.94</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.5481</v>
+        <v>1.5553</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5427</v>
+        <v>1.5538</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>-0.0035</v>
+        <v>0.0116</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>-2.48</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,17 +2914,17 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>742.05</v>
+        <v>748.17</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>75.06</v>
+        <v>81.18000000000001</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.213</v>
+        <v>1.223</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
@@ -2983,31 +2983,31 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2094.93</v>
+        <v>2148.73</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>94.94</v>
+        <v>148.74</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>2.0014</v>
+        <v>2.0528</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0217</v>
+        <v>2.0542</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>21.25</v>
+        <v>1.47</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2055.96</v>
+        <v>2085.18</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>55.87</v>
+        <v>85.09</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.126</v>
+        <v>1.142</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1316</v>
+        <v>1.1424</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0049</v>
+        <v>0.0074</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>10.23</v>
+        <v>0.73</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1087.77</v>
+        <v>1097.3</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>87.81</v>
+        <v>97.34</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.027</v>
+        <v>1.036</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0215</v>
+        <v>1.035</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0053</v>
+        <v>0.0107</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>-5.83</v>
+        <v>-1.06</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1022.36</v>
+        <v>1053.18</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>22.3</v>
+        <v>53.11</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.5639999999999999</v>
+        <v>0.581</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5697</v>
+        <v>0.5804</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0102</v>
-      </c>
-      <c r="K40" s="8" t="n">
-        <v>10.33</v>
+        <v>0.0129</v>
+      </c>
+      <c r="K40" s="9" t="n">
+        <v>-1.09</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>968.74</v>
+        <v>1002.73</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>-31.29</v>
+        <v>2.7</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.7895</v>
+        <v>0.8172</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.8062</v>
+        <v>0.8169</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>20.49</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>-0.37</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>2225.4</v>
+        <v>2238.42</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>225.46</v>
+        <v>238.48</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.2131</v>
+        <v>1.2202</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.218</v>
+        <v>1.221</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>0.0041</v>
+        <v>-0.0003</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>8.99</v>
+        <v>1.47</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:36</t>
+          <t>2019-12-18 02:29</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1190.46</v>
+        <v>1201.26</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>190.49</v>
+        <v>201.29</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.323</v>
+        <v>1.335</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3231</v>
+        <v>1.3252</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K43" s="8" t="n">
-        <v>0.09</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K43" s="9" t="n">
+        <v>-8.82</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-14 05:00</t>
+          <t>2019-12-18 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1066.67</v>
+        <v>1071.63</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>66.7</v>
+        <v>71.66</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5481</v>
+        <v>1.5553</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5427</v>
+        <v>1.5538</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0035</v>
+        <v>0.0116</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-3.72</v>
+        <v>-1.03</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1869.85</v>
+        <v>1874.61</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>-130.37</v>
+        <v>-125.61</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>-0.0103</v>
+        <v>0.0104</v>
       </c>
       <c r="K45" s="9" t="n">
-        <v>-47.58</v>
+        <v>-19.03</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,17 +3604,17 @@
         <v>953.96</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1157.15</v>
+        <v>1166.69</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>157.12</v>
+        <v>166.66</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.213</v>
+        <v>1.223</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
@@ -3673,31 +3673,31 @@
         <v>595.47</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1025.4</v>
+        <v>1036.71</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>25.43</v>
+        <v>36.74</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.722</v>
+        <v>1.741</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.7288</v>
+        <v>1.7401</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K47" s="8" t="n">
-        <v>4.05</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K47" s="9" t="n">
+        <v>-0.54</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>73262.44</v>
+        <v>74303.46000000001</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>6942.36</v>
+        <v>7983.39</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.126</v>
+        <v>1.142</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1316</v>
+        <v>1.1424</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0049</v>
+        <v>0.0074</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>364.36</v>
+        <v>26.03</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>61623.39</v>
+        <v>62810.66</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>3422.11</v>
+        <v>4609.37</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9706</v>
+        <v>0.9893</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9749</v>
+        <v>0.9906</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0045</v>
+        <v>0.0086</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>273.01</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>38132.2</v>
+        <v>38808.74</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>6130.93</v>
+        <v>6807.47</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.178</v>
+        <v>1.1989</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1779</v>
+        <v>1.1931</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0001</v>
+        <v>0.0037</v>
       </c>
       <c r="K50" s="9" t="n">
-        <v>-3.24</v>
+        <v>-187.75</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34589.18</v>
+        <v>34970.82</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2589.17</v>
+        <v>2970.81</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.722</v>
+        <v>1.741</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.7288</v>
+        <v>1.7401</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K51" s="8" t="n">
-        <v>136.59</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K51" s="9" t="n">
+        <v>-18.08</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>34575.54</v>
+        <v>35108.74</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4015.36</v>
+        <v>4548.55</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.843</v>
+        <v>0.856</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8448</v>
+        <v>0.8561</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0021</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>73.83</v>
+        <v>4.1</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,17 +4087,17 @@
         <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>25129.27</v>
+        <v>25336.44</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>2527.43</v>
+        <v>2734.6</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.213</v>
+        <v>1.223</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
@@ -4156,31 +4156,31 @@
         <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>24232.98</v>
+        <v>24569.34</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>5032.33</v>
+        <v>5368.69</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.657</v>
+        <v>1.68</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6568</v>
+        <v>1.6855</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K54" s="9" t="n">
-        <v>-2.92</v>
+        <v>0.0129</v>
+      </c>
+      <c r="K54" s="8" t="n">
+        <v>80.44</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>23646.46</v>
+        <v>24118.41</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>4444.43</v>
+        <v>4916.38</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.1173</v>
+        <v>1.1396</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1142</v>
+        <v>1.14</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>-0.0028</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>-65.61</v>
+        <v>0.0168</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>8.470000000000001</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>22197.92</v>
+        <v>22399.26</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>2996.63</v>
+        <v>3197.98</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.323</v>
+        <v>1.335</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3231</v>
+        <v>1.3252</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K56" s="8" t="n">
-        <v>1.68</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K56" s="9" t="n">
+        <v>-164.43</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-14 05:00</t>
+          <t>2019-12-18 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>15724.19</v>
+        <v>16172.09</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>2923.75</v>
+        <v>3371.65</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.65</v>
+        <v>1.697</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6668</v>
+        <v>1.7007</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>160.1</v>
+        <v>35.26</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>14646.11</v>
+        <v>14683.38</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-4554.08</v>
+        <v>-4516.81</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>-0.0103</v>
+        <v>0.0104</v>
       </c>
       <c r="K58" s="9" t="n">
-        <v>-372.67</v>
+        <v>-149.07</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>10524.79</v>
+        <v>10573.74</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>624.78</v>
+        <v>673.73</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.5481</v>
+        <v>1.5553</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5427</v>
+        <v>1.5538</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.0035</v>
+        <v>0.0116</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-36.71</v>
+        <v>-10.2</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4570,17 +4570,17 @@
         <v>5609.79</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7550.78</v>
+        <v>7556.39</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>2405.48</v>
+        <v>2411.09</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.346</v>
+        <v>1.347</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7550.43</v>
+        <v>7780.98</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1150.06</v>
+        <v>1380.6</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5633</v>
+        <v>0.5805</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5805</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0103</v>
+        <v>0.0143</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>77.73999999999999</v>
+        <v>0</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7383.87</v>
+        <v>7503.23</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>983.66</v>
+        <v>1103.02</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.3857</v>
+        <v>1.4081</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.3931</v>
+        <v>1.4078</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K62" s="8" t="n">
-        <v>39.43</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K62" s="9" t="n">
+        <v>-1.6</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>6907.43</v>
+        <v>7099.56</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>-93.34</v>
+        <v>98.79000000000001</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.888</v>
+        <v>0.9127</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.897</v>
+        <v>0.9129</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>70.01000000000001</v>
+        <v>1.56</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6603.9</v>
+        <v>6773.5</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>203.59</v>
+        <v>373.19</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>2.0014</v>
+        <v>2.0528</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0217</v>
+        <v>2.0542</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>66.98</v>
+        <v>4.62</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>7852.99</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6199.94</v>
+        <v>6417.46</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>-200.25</v>
+        <v>17.28</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.7895</v>
+        <v>0.8172</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.8062</v>
+        <v>0.8169</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>131.14</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>-2.36</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>3580.2</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>3456.68</v>
+        <v>3564.81</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>-43.32</v>
+        <v>64.8</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.9655</v>
+        <v>0.9957</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9757</v>
+        <v>0.9956</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0105</v>
-      </c>
-      <c r="K66" s="8" t="n">
-        <v>36.52</v>
+        <v>0.0119</v>
+      </c>
+      <c r="K66" s="9" t="n">
+        <v>-0.36</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5038,529 +5038,529 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="22" t="inlineStr">
-        <is>
-          <t>交银稳鑫短债债券A</t>
-        </is>
-      </c>
-      <c r="B67" s="23" t="n">
-        <v>6793</v>
-      </c>
-      <c r="C67" s="24" t="n">
-        <v>1.0286</v>
-      </c>
-      <c r="D67" s="25" t="n">
-        <v>171152.16</v>
-      </c>
-      <c r="E67" s="25" t="n">
-        <v>176235.38</v>
-      </c>
-      <c r="F67" s="25" t="n">
-        <v>188.27</v>
-      </c>
-      <c r="G67" s="24" t="n">
-        <v>1.0297</v>
-      </c>
-      <c r="H67" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I67" s="24" t="n">
-        <v>1.0301</v>
-      </c>
-      <c r="J67" s="27" t="n">
-        <v>0.0004</v>
+      <c r="A67" s="2" t="inlineStr">
+        <is>
+          <t>银河沪深300价值指数</t>
+        </is>
+      </c>
+      <c r="B67" s="3" t="n">
+        <v>519671</v>
+      </c>
+      <c r="C67" s="4" t="n">
+        <v>1.4264</v>
+      </c>
+      <c r="D67" s="5" t="n">
+        <v>1045.13</v>
+      </c>
+      <c r="E67" s="5" t="n">
+        <v>1550.97</v>
+      </c>
+      <c r="F67" s="5" t="n">
+        <v>60.2</v>
+      </c>
+      <c r="G67" s="4" t="n">
+        <v>1.484</v>
+      </c>
+      <c r="H67" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I67" s="4" t="n">
+        <v>1.4845</v>
+      </c>
+      <c r="J67" s="7" t="n">
+        <v>0.0112</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>68.45999999999999</v>
-      </c>
-      <c r="L67" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M67" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N67" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O67" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P67" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q67" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+        <v>0.52</v>
+      </c>
+      <c r="L67" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M67" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N67" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O67" s="6" t="inlineStr">
+        <is>
+          <t>300价值</t>
+        </is>
+      </c>
+      <c r="P67" s="6" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="Q67" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="22" t="inlineStr">
-        <is>
-          <t>交银主题优选</t>
-        </is>
-      </c>
-      <c r="B68" s="23" t="n">
-        <v>519700</v>
-      </c>
-      <c r="C68" s="24" t="n">
-        <v>1.4657</v>
-      </c>
-      <c r="D68" s="25" t="n">
-        <v>11598.58</v>
-      </c>
-      <c r="E68" s="25" t="n">
-        <v>17513.86</v>
-      </c>
-      <c r="F68" s="25" t="n">
-        <v>513.8200000000001</v>
-      </c>
-      <c r="G68" s="24" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="H68" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I68" s="24" t="n">
-        <v>1.5144</v>
-      </c>
-      <c r="J68" s="27" t="n">
-        <v>0.0029</v>
+      <c r="A68" s="2" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="B68" s="3" t="n">
+        <v>90010</v>
+      </c>
+      <c r="C68" s="4" t="n">
+        <v>1.6518</v>
+      </c>
+      <c r="D68" s="5" t="n">
+        <v>888.12</v>
+      </c>
+      <c r="E68" s="5" t="n">
+        <v>1479.61</v>
+      </c>
+      <c r="F68" s="5" t="n">
+        <v>12.61</v>
+      </c>
+      <c r="G68" s="4" t="n">
+        <v>1.666</v>
+      </c>
+      <c r="H68" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I68" s="4" t="n">
+        <v>1.6683</v>
+      </c>
+      <c r="J68" s="7" t="n">
+        <v>0.0074</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>51.03</v>
-      </c>
-      <c r="L68" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M68" s="26" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="N68" s="26" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="O68" s="26" t="inlineStr">
-        <is>
-          <t>偏股</t>
-        </is>
-      </c>
-      <c r="P68" s="26" t="inlineStr">
-        <is>
-          <t>411</t>
-        </is>
-      </c>
-      <c r="Q68" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+        <v>2.04</v>
+      </c>
+      <c r="L68" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M68" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N68" s="6" t="inlineStr">
+        <is>
+          <t>红利价值</t>
+        </is>
+      </c>
+      <c r="O68" s="6" t="inlineStr">
+        <is>
+          <t>中证红利</t>
+        </is>
+      </c>
+      <c r="P68" s="6" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="Q68" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="22" t="inlineStr">
-        <is>
-          <t>交银纯债A/B</t>
-        </is>
-      </c>
-      <c r="B69" s="23" t="n">
-        <v>519718</v>
-      </c>
-      <c r="C69" s="24" t="n">
-        <v>1.0759</v>
-      </c>
-      <c r="D69" s="25" t="n">
-        <v>128864.36</v>
-      </c>
-      <c r="E69" s="25" t="n">
-        <v>138915.78</v>
-      </c>
-      <c r="F69" s="25" t="n">
-        <v>270.62</v>
-      </c>
-      <c r="G69" s="24" t="n">
-        <v>1.078</v>
-      </c>
-      <c r="H69" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I69" s="24" t="n">
-        <v>1.0784</v>
-      </c>
-      <c r="J69" s="27" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K69" s="8" t="n">
-        <v>51.55</v>
-      </c>
-      <c r="L69" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M69" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N69" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O69" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P69" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q69" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A69" s="2" t="inlineStr">
+        <is>
+          <t>华宝香港中小</t>
+        </is>
+      </c>
+      <c r="B69" s="3" t="n">
+        <v>501021</v>
+      </c>
+      <c r="C69" s="4" t="n">
+        <v>1.3485</v>
+      </c>
+      <c r="D69" s="5" t="n">
+        <v>898.04</v>
+      </c>
+      <c r="E69" s="5" t="n">
+        <v>1363.49</v>
+      </c>
+      <c r="F69" s="5" t="n">
+        <v>152.49</v>
+      </c>
+      <c r="G69" s="4" t="n">
+        <v>1.5183</v>
+      </c>
+      <c r="H69" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I69" s="4" t="n">
+        <v>1.5172</v>
+      </c>
+      <c r="J69" s="7" t="n">
+        <v>0.0114</v>
+      </c>
+      <c r="K69" s="9" t="n">
+        <v>-0.99</v>
+      </c>
+      <c r="L69" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 16:00</t>
+        </is>
+      </c>
+      <c r="M69" s="6" t="inlineStr">
+        <is>
+          <t>海外新兴</t>
+        </is>
+      </c>
+      <c r="N69" s="6" t="inlineStr">
+        <is>
+          <t>香港</t>
+        </is>
+      </c>
+      <c r="O69" s="6" t="inlineStr">
+        <is>
+          <t>香港中小</t>
+        </is>
+      </c>
+      <c r="P69" s="6" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="Q69" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="22" t="inlineStr">
-        <is>
-          <t>交银双轮动A/B</t>
-        </is>
-      </c>
-      <c r="B70" s="23" t="n">
-        <v>519723</v>
-      </c>
-      <c r="C70" s="24" t="n">
-        <v>1.0784</v>
-      </c>
-      <c r="D70" s="25" t="n">
-        <v>132719.84</v>
-      </c>
-      <c r="E70" s="25" t="n">
-        <v>143204.71</v>
-      </c>
-      <c r="F70" s="25" t="n">
-        <v>79.63</v>
-      </c>
-      <c r="G70" s="24" t="n">
-        <v>1.079</v>
-      </c>
-      <c r="H70" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I70" s="24" t="n">
-        <v>1.0794</v>
-      </c>
-      <c r="J70" s="27" t="n">
-        <v>0.0003</v>
+      <c r="A70" s="2" t="inlineStr">
+        <is>
+          <t>景顺长城中证500低波动</t>
+        </is>
+      </c>
+      <c r="B70" s="3" t="n">
+        <v>3318</v>
+      </c>
+      <c r="C70" s="4" t="n">
+        <v>0.9329</v>
+      </c>
+      <c r="D70" s="5" t="n">
+        <v>1358.53</v>
+      </c>
+      <c r="E70" s="5" t="n">
+        <v>1300.79</v>
+      </c>
+      <c r="F70" s="5" t="n">
+        <v>33.42</v>
+      </c>
+      <c r="G70" s="4" t="n">
+        <v>0.9575</v>
+      </c>
+      <c r="H70" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I70" s="4" t="n">
+        <v>0.9585</v>
+      </c>
+      <c r="J70" s="7" t="n">
+        <v>0.01</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>53.09</v>
-      </c>
-      <c r="L70" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M70" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N70" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O70" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P70" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q70" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+        <v>1.36</v>
+      </c>
+      <c r="L70" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M70" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N70" s="6" t="inlineStr">
+        <is>
+          <t>中小盘股</t>
+        </is>
+      </c>
+      <c r="O70" s="6" t="inlineStr">
+        <is>
+          <t>500低波动</t>
+        </is>
+      </c>
+      <c r="P70" s="6" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="Q70" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="22" t="inlineStr">
-        <is>
-          <t>交银新回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="B71" s="23" t="n">
-        <v>519752</v>
-      </c>
-      <c r="C71" s="24" t="n">
-        <v>1.2439</v>
-      </c>
-      <c r="D71" s="25" t="n">
-        <v>59685.02</v>
-      </c>
-      <c r="E71" s="25" t="n">
-        <v>74546.59</v>
-      </c>
-      <c r="F71" s="25" t="n">
-        <v>304.39</v>
-      </c>
-      <c r="G71" s="24" t="n">
-        <v>1.249</v>
-      </c>
-      <c r="H71" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I71" s="24" t="n">
-        <v>1.248</v>
-      </c>
-      <c r="J71" s="27" t="n">
-        <v>-0.0008</v>
-      </c>
-      <c r="K71" s="9" t="n">
-        <v>-59.69</v>
-      </c>
-      <c r="L71" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M71" s="26" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="N71" s="26" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="O71" s="26" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="P71" s="26" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="Q71" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A71" s="2" t="inlineStr">
+        <is>
+          <t>嘉实深证基本面120联接</t>
+        </is>
+      </c>
+      <c r="B71" s="3" t="n">
+        <v>70023</v>
+      </c>
+      <c r="C71" s="4" t="n">
+        <v>1.7966</v>
+      </c>
+      <c r="D71" s="5" t="n">
+        <v>492.58</v>
+      </c>
+      <c r="E71" s="5" t="n">
+        <v>964.96</v>
+      </c>
+      <c r="F71" s="5" t="n">
+        <v>79.98999999999999</v>
+      </c>
+      <c r="G71" s="4" t="n">
+        <v>1.959</v>
+      </c>
+      <c r="H71" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I71" s="4" t="n">
+        <v>1.9594</v>
+      </c>
+      <c r="J71" s="7" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="K71" s="8" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="L71" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M71" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N71" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O71" s="6" t="inlineStr">
+        <is>
+          <t>基本面120</t>
+        </is>
+      </c>
+      <c r="P71" s="6" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="Q71" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="22" t="inlineStr">
-        <is>
-          <t>交银多策略回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="B72" s="23" t="n">
-        <v>519755</v>
-      </c>
-      <c r="C72" s="24" t="n">
-        <v>1.2894</v>
-      </c>
-      <c r="D72" s="25" t="n">
-        <v>76964.17</v>
-      </c>
-      <c r="E72" s="25" t="n">
-        <v>99899.49000000001</v>
-      </c>
-      <c r="F72" s="25" t="n">
-        <v>661.89</v>
-      </c>
-      <c r="G72" s="24" t="n">
-        <v>1.298</v>
-      </c>
-      <c r="H72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I72" s="24" t="n">
-        <v>1.2963</v>
-      </c>
-      <c r="J72" s="27" t="n">
-        <v>-0.0013</v>
-      </c>
-      <c r="K72" s="9" t="n">
-        <v>-130.84</v>
-      </c>
-      <c r="L72" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M72" s="26" t="inlineStr">
-        <is>
-          <t>混合型</t>
-        </is>
-      </c>
-      <c r="N72" s="26" t="inlineStr">
-        <is>
-          <t>股债混合</t>
-        </is>
-      </c>
-      <c r="O72" s="26" t="inlineStr">
-        <is>
-          <t>偏债</t>
-        </is>
-      </c>
-      <c r="P72" s="26" t="inlineStr">
-        <is>
-          <t>412</t>
-        </is>
-      </c>
-      <c r="Q72" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+      <c r="A72" s="2" t="inlineStr">
+        <is>
+          <t>建信深证基本面60ETF联接A</t>
+        </is>
+      </c>
+      <c r="B72" s="3" t="n">
+        <v>530015</v>
+      </c>
+      <c r="C72" s="4" t="n">
+        <v>2.122</v>
+      </c>
+      <c r="D72" s="5" t="n">
+        <v>406.95</v>
+      </c>
+      <c r="E72" s="5" t="n">
+        <v>927.89</v>
+      </c>
+      <c r="F72" s="5" t="n">
+        <v>64.34</v>
+      </c>
+      <c r="G72" s="4" t="n">
+        <v>2.2801</v>
+      </c>
+      <c r="H72" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I72" s="4" t="n">
+        <v>2.2805</v>
+      </c>
+      <c r="J72" s="7" t="n">
+        <v>0.018</v>
+      </c>
+      <c r="K72" s="8" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="L72" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M72" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N72" s="6" t="inlineStr">
+        <is>
+          <t>大盘股</t>
+        </is>
+      </c>
+      <c r="O72" s="6" t="inlineStr">
+        <is>
+          <t>基本面60</t>
+        </is>
+      </c>
+      <c r="P72" s="6" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="Q72" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="22" t="inlineStr">
-        <is>
-          <t>交银裕盈纯债债券A</t>
-        </is>
-      </c>
-      <c r="B73" s="23" t="n">
-        <v>519776</v>
-      </c>
-      <c r="C73" s="24" t="n">
-        <v>1.0793</v>
-      </c>
-      <c r="D73" s="25" t="n">
-        <v>140577.44</v>
-      </c>
-      <c r="E73" s="25" t="n">
-        <v>151823.64</v>
-      </c>
-      <c r="F73" s="25" t="n">
-        <v>98.40000000000001</v>
-      </c>
-      <c r="G73" s="24" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="H73" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I73" s="24" t="n">
-        <v>1.0803</v>
-      </c>
-      <c r="J73" s="27" t="n">
-        <v>0.0003</v>
+      <c r="A73" s="2" t="inlineStr">
+        <is>
+          <t>广发中证养老</t>
+        </is>
+      </c>
+      <c r="B73" s="3" t="n">
+        <v>968</v>
+      </c>
+      <c r="C73" s="4" t="n">
+        <v>0.9599</v>
+      </c>
+      <c r="D73" s="5" t="n">
+        <v>390.82</v>
+      </c>
+      <c r="E73" s="5" t="n">
+        <v>386.64</v>
+      </c>
+      <c r="F73" s="5" t="n">
+        <v>11.49</v>
+      </c>
+      <c r="G73" s="4" t="n">
+        <v>0.9893</v>
+      </c>
+      <c r="H73" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I73" s="4" t="n">
+        <v>0.9906</v>
+      </c>
+      <c r="J73" s="7" t="n">
+        <v>0.0086</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>42.17</v>
-      </c>
-      <c r="L73" s="26" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M73" s="26" t="inlineStr">
-        <is>
-          <t>债券</t>
-        </is>
-      </c>
-      <c r="N73" s="26" t="inlineStr">
-        <is>
-          <t>国内债券</t>
-        </is>
-      </c>
-      <c r="O73" s="26" t="inlineStr">
-        <is>
-          <t>可转债</t>
-        </is>
-      </c>
-      <c r="P73" s="26" t="inlineStr">
-        <is>
-          <t>512</t>
-        </is>
-      </c>
-      <c r="Q73" s="26" t="inlineStr">
-        <is>
-          <t>父稳稳的幸福</t>
+        <v>0.51</v>
+      </c>
+      <c r="L73" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M73" s="6" t="inlineStr">
+        <is>
+          <t>A 股</t>
+        </is>
+      </c>
+      <c r="N73" s="6" t="inlineStr">
+        <is>
+          <t>行业股</t>
+        </is>
+      </c>
+      <c r="O73" s="6" t="inlineStr">
+        <is>
+          <t>养老产业</t>
+        </is>
+      </c>
+      <c r="P73" s="6" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="Q73" s="6" t="inlineStr">
+        <is>
+          <t>父螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B74" s="3" t="n">
-        <v>519671</v>
+        <v>501029</v>
       </c>
       <c r="C74" s="4" t="n">
-        <v>1.4264</v>
+        <v>0.9829</v>
       </c>
       <c r="D74" s="5" t="n">
-        <v>1045.13</v>
+        <v>214.89</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>1533.21</v>
+        <v>211.75</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>42.43</v>
+        <v>0.54</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>1.467</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>1.4642</v>
+        <v>0.9897</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K74" s="9" t="n">
-        <v>-2.93</v>
+        <v>0.0121</v>
+      </c>
+      <c r="K74" s="8" t="n">
+        <v>0.92</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5570,17 +5570,17 @@
       </c>
       <c r="N74" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O74" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P74" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q74" s="6" t="inlineStr">
@@ -5592,44 +5592,44 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B75" s="3" t="n">
-        <v>90010</v>
+        <v>1550</v>
       </c>
       <c r="C75" s="4" t="n">
-        <v>1.6518</v>
+        <v>0.6708</v>
       </c>
       <c r="D75" s="5" t="n">
-        <v>888.12</v>
+        <v>212.74</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>1463.62</v>
+        <v>167.43</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>-3.37</v>
+        <v>24.72</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>1.648</v>
+        <v>0.787</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>1.6561</v>
+        <v>0.7874</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0049</v>
+        <v>0.009900000000000001</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>7.19</v>
+        <v>0.09</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5639,17 +5639,17 @@
       </c>
       <c r="N75" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O75" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P75" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q75" s="6" t="inlineStr">
@@ -5661,64 +5661,64 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B76" s="3" t="n">
-        <v>501021</v>
+        <v>501050</v>
       </c>
       <c r="C76" s="4" t="n">
-        <v>1.3485</v>
+        <v>1.2891</v>
       </c>
       <c r="D76" s="5" t="n">
-        <v>898.04</v>
+        <v>62.09</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>1345.17</v>
+        <v>84.94</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>134.17</v>
+        <v>4.9</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.4979</v>
+        <v>1.368</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.4927</v>
+        <v>1.3652</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0035</v>
+        <v>0.0135</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-4.67</v>
+        <v>-0.17</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N76" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O76" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P76" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q76" s="6" t="inlineStr">
@@ -5730,44 +5730,44 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>3318</v>
+        <v>310398</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>0.9329</v>
+        <v>1.4372</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>1358.53</v>
+        <v>25.8</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>1271.86</v>
+        <v>36.2</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>4.48</v>
+        <v>-0.88</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>0.9362</v>
+        <v>1.403</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>0.9437</v>
+        <v>1.4034</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.008</v>
+        <v>0.0112</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>10.19</v>
+        <v>0.01</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,44 +5799,44 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>70023</v>
+        <v>1594</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>1.7966</v>
+        <v>1.2144</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>492.58</v>
+        <v>17.12</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>936.64</v>
+        <v>21.53</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>51.67</v>
+        <v>0.74</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.9015</v>
+        <v>1.2576</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.9147</v>
+        <v>1.2578</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0069</v>
+        <v>0.0133</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>6.5</v>
+        <v>0</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5846,17 +5846,17 @@
       </c>
       <c r="N78" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5868,44 +5868,44 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>建信深证基本面60ETF联接A</t>
+          <t>大成中证红利指数A</t>
         </is>
       </c>
       <c r="B79" s="3" t="n">
-        <v>530015</v>
+        <v>90010</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>2.122</v>
+        <v>1.6561</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>406.95</v>
+        <v>974.37</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>900.78</v>
+        <v>1623.3</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>37.24</v>
+        <v>9.65</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>2.2135</v>
+        <v>1.666</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>2.2286</v>
+        <v>1.6683</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0068</v>
+        <v>0.0074</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>6.14</v>
+        <v>2.24</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5915,66 +5915,66 @@
       </c>
       <c r="N79" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>红利价值</t>
         </is>
       </c>
       <c r="O79" s="6" t="inlineStr">
         <is>
-          <t>基本面60</t>
+          <t>中证红利</t>
         </is>
       </c>
       <c r="P79" s="6" t="inlineStr">
         <is>
-          <t>115</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q79" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>广发中证养老</t>
+          <t>银河沪深300价值指数</t>
         </is>
       </c>
       <c r="B80" s="3" t="n">
-        <v>968</v>
+        <v>519671</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>0.9599</v>
+        <v>1.4251</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>390.82</v>
+        <v>1057.28</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>379.33</v>
+        <v>1569</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>4.18</v>
+        <v>62.27</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>0.9706</v>
+        <v>1.484</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>0.9749</v>
+        <v>1.4845</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0045</v>
+        <v>0.0112</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>1.68</v>
+        <v>0.53</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5984,135 +5984,135 @@
       </c>
       <c r="N80" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O80" s="6" t="inlineStr">
         <is>
-          <t>养老产业</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P80" s="6" t="inlineStr">
         <is>
-          <t>141</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q80" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>华宝红利基金</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>501029</v>
+        <v>501021</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>0.9829</v>
+        <v>1.3514</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>214.89</v>
+        <v>915.97</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>208.21</v>
+        <v>1390.72</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>-3.01</v>
+        <v>152.88</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>0.9689</v>
+        <v>1.5183</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9695</v>
+        <v>1.5172</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0005999999999999999</v>
-      </c>
-      <c r="K81" s="8" t="n">
-        <v>0.13</v>
+        <v>0.0114</v>
+      </c>
+      <c r="K81" s="9" t="n">
+        <v>-1.01</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>红利价值</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>标普红利</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>132</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>天弘中证医药100A</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>1550</v>
+        <v>3318</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.6708</v>
+        <v>0.9334</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>212.74</v>
+        <v>1412.34</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>164.55</v>
+        <v>1352.32</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>21.85</v>
+        <v>34.04</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.7735</v>
+        <v>0.9575</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.7756999999999999</v>
+        <v>0.9585</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0029</v>
+        <v>0.01</v>
       </c>
       <c r="K82" s="8" t="n">
-        <v>0.47</v>
+        <v>1.41</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6122,66 +6122,66 @@
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>全指医药</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>142</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>华夏上证50AH优选指数</t>
+          <t>嘉实深证基本面120联接</t>
         </is>
       </c>
       <c r="B83" s="3" t="n">
-        <v>501050</v>
+        <v>70023</v>
       </c>
       <c r="C83" s="4" t="n">
-        <v>1.2891</v>
+        <v>1.7992</v>
       </c>
       <c r="D83" s="5" t="n">
-        <v>62.09</v>
+        <v>528.99</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>84.13</v>
+        <v>1036.29</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>4.09</v>
+        <v>84.53</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.355</v>
+        <v>1.959</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.3529</v>
+        <v>1.9594</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K83" s="9" t="n">
-        <v>-0.13</v>
+        <v>0.018</v>
+      </c>
+      <c r="K83" s="8" t="n">
+        <v>0.21</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6196,61 +6196,61 @@
       </c>
       <c r="O83" s="6" t="inlineStr">
         <is>
-          <t>50AH</t>
+          <t>基本面120</t>
         </is>
       </c>
       <c r="P83" s="6" t="inlineStr">
         <is>
-          <t>112</t>
+          <t>116</t>
         </is>
       </c>
       <c r="Q83" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>建信深证基本面60ETF联接A</t>
         </is>
       </c>
       <c r="B84" s="3" t="n">
-        <v>310398</v>
+        <v>530015</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>1.4372</v>
+        <v>2.125</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>25.8</v>
+        <v>406.87</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>35.73</v>
+        <v>927.7</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>-1.35</v>
+        <v>63.11</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>1.3849</v>
+        <v>2.2801</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>1.3823</v>
+        <v>2.2805</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K84" s="9" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.018</v>
+      </c>
+      <c r="K84" s="8" t="n">
+        <v>0.16</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6265,61 +6265,61 @@
       </c>
       <c r="O84" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>基本面60</t>
         </is>
       </c>
       <c r="P84" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>115</t>
         </is>
       </c>
       <c r="Q84" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>广发中证养老</t>
         </is>
       </c>
       <c r="B85" s="3" t="n">
-        <v>1594</v>
+        <v>968</v>
       </c>
       <c r="C85" s="4" t="n">
-        <v>1.2144</v>
+        <v>0.9588</v>
       </c>
       <c r="D85" s="5" t="n">
-        <v>17.12</v>
+        <v>426.97</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>21.31</v>
+        <v>422.4</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>0.52</v>
+        <v>13.02</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>1.2446</v>
+        <v>0.9893</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>1.2398</v>
+        <v>0.9906</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K85" s="9" t="n">
-        <v>-0.08</v>
+        <v>0.0086</v>
+      </c>
+      <c r="K85" s="8" t="n">
+        <v>0.5600000000000001</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6334,61 +6334,61 @@
       </c>
       <c r="O85" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>养老产业</t>
         </is>
       </c>
       <c r="P85" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>141</t>
         </is>
       </c>
       <c r="Q85" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>母螺丝钉</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>大成中证红利指数A</t>
+          <t>华宝红利基金</t>
         </is>
       </c>
       <c r="B86" s="3" t="n">
-        <v>90010</v>
+        <v>501029</v>
       </c>
       <c r="C86" s="4" t="n">
-        <v>1.6561</v>
+        <v>0.9824000000000001</v>
       </c>
       <c r="D86" s="5" t="n">
-        <v>974.37</v>
+        <v>227.52</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>1605.76</v>
+        <v>224.2</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>-7.89</v>
+        <v>0.68</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>1.648</v>
+        <v>0.9854000000000001</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>1.6561</v>
+        <v>0.9897</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0049</v>
+        <v>0.0121</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>7.89</v>
+        <v>0.98</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6403,12 +6403,12 @@
       </c>
       <c r="O86" s="6" t="inlineStr">
         <is>
-          <t>中证红利</t>
+          <t>标普红利</t>
         </is>
       </c>
       <c r="P86" s="6" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>132</t>
         </is>
       </c>
       <c r="Q86" s="6" t="inlineStr">
@@ -6420,44 +6420,44 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>银河沪深300价值指数</t>
+          <t>华夏上证50AH优选指数</t>
         </is>
       </c>
       <c r="B87" s="3" t="n">
-        <v>519671</v>
+        <v>501050</v>
       </c>
       <c r="C87" s="4" t="n">
-        <v>1.4251</v>
+        <v>1.284</v>
       </c>
       <c r="D87" s="5" t="n">
-        <v>1057.28</v>
+        <v>142.1</v>
       </c>
       <c r="E87" s="5" t="n">
-        <v>1551.03</v>
+        <v>194.39</v>
       </c>
       <c r="F87" s="5" t="n">
-        <v>44.3</v>
+        <v>11.94</v>
       </c>
       <c r="G87" s="4" t="n">
-        <v>1.467</v>
+        <v>1.368</v>
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.4642</v>
+        <v>1.3652</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0135</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>-2.96</v>
+        <v>-0.4</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6472,12 +6472,12 @@
       </c>
       <c r="O87" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>50AH</t>
         </is>
       </c>
       <c r="P87" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>112</t>
         </is>
       </c>
       <c r="Q87" s="6" t="inlineStr">
@@ -6489,64 +6489,64 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>天弘中证医药100A</t>
         </is>
       </c>
       <c r="B88" s="3" t="n">
-        <v>501021</v>
+        <v>1550</v>
       </c>
       <c r="C88" s="4" t="n">
-        <v>1.3514</v>
+        <v>0.6708</v>
       </c>
       <c r="D88" s="5" t="n">
-        <v>915.97</v>
+        <v>212.74</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>1372.03</v>
+        <v>167.43</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>134.19</v>
+        <v>24.72</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>1.4979</v>
+        <v>0.787</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>1.4927</v>
+        <v>0.7874</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K88" s="9" t="n">
-        <v>-4.76</v>
+        <v>0.009900000000000001</v>
+      </c>
+      <c r="K88" s="8" t="n">
+        <v>0.09</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N88" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O88" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>全指医药</t>
         </is>
       </c>
       <c r="P88" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>142</t>
         </is>
       </c>
       <c r="Q88" s="6" t="inlineStr">
@@ -6558,44 +6558,44 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B89" s="3" t="n">
-        <v>3318</v>
+        <v>1594</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>0.9334</v>
+        <v>1.2142</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>1412.34</v>
+        <v>34.26</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>1322.23</v>
+        <v>43.09</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>3.95</v>
+        <v>1.49</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>0.9362</v>
+        <v>1.2576</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>0.9437</v>
+        <v>1.2578</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.008</v>
+        <v>0.0133</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>10.59</v>
+        <v>0.01</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6605,17 +6605,17 @@
       </c>
       <c r="N89" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O89" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P89" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q89" s="6" t="inlineStr">
@@ -6627,44 +6627,44 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>嘉实深证基本面120联接</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B90" s="3" t="n">
-        <v>70023</v>
+        <v>310398</v>
       </c>
       <c r="C90" s="4" t="n">
-        <v>1.7992</v>
+        <v>1.4372</v>
       </c>
       <c r="D90" s="5" t="n">
-        <v>528.99</v>
+        <v>25.8</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>1005.87</v>
+        <v>36.2</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>54.12</v>
+        <v>-0.88</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.9015</v>
+        <v>1.403</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.9147</v>
+        <v>1.4034</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0069</v>
+        <v>0.0112</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>6.98</v>
+        <v>0.01</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6679,12 +6679,12 @@
       </c>
       <c r="O90" s="6" t="inlineStr">
         <is>
-          <t>基本面120</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P90" s="6" t="inlineStr">
         <is>
-          <t>116</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q90" s="6" t="inlineStr">
@@ -6694,485 +6694,485 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="2" t="inlineStr">
-        <is>
-          <t>建信深证基本面60ETF联接A</t>
-        </is>
-      </c>
-      <c r="B91" s="3" t="n">
-        <v>530015</v>
-      </c>
-      <c r="C91" s="4" t="n">
-        <v>2.125</v>
-      </c>
-      <c r="D91" s="5" t="n">
-        <v>406.87</v>
-      </c>
-      <c r="E91" s="5" t="n">
-        <v>900.61</v>
-      </c>
-      <c r="F91" s="5" t="n">
-        <v>36.01</v>
-      </c>
-      <c r="G91" s="4" t="n">
-        <v>2.2135</v>
-      </c>
-      <c r="H91" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I91" s="4" t="n">
-        <v>2.2286</v>
-      </c>
-      <c r="J91" s="7" t="n">
-        <v>0.0068</v>
+      <c r="A91" s="22" t="inlineStr">
+        <is>
+          <t>交银稳鑫短债债券A</t>
+        </is>
+      </c>
+      <c r="B91" s="23" t="n">
+        <v>6793</v>
+      </c>
+      <c r="C91" s="24" t="n">
+        <v>1.0286</v>
+      </c>
+      <c r="D91" s="25" t="n">
+        <v>171152.16</v>
+      </c>
+      <c r="E91" s="25" t="n">
+        <v>176303.84</v>
+      </c>
+      <c r="F91" s="25" t="n">
+        <v>256.73</v>
+      </c>
+      <c r="G91" s="24" t="n">
+        <v>1.0301</v>
+      </c>
+      <c r="H91" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I91" s="24" t="n">
+        <v>1.0301</v>
+      </c>
+      <c r="J91" s="27" t="n">
+        <v>0.0001</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>6.14</v>
-      </c>
-      <c r="L91" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M91" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N91" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O91" s="6" t="inlineStr">
-        <is>
-          <t>基本面60</t>
-        </is>
-      </c>
-      <c r="P91" s="6" t="inlineStr">
-        <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="Q91" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+        <v>0</v>
+      </c>
+      <c r="L91" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M91" s="26" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N91" s="26" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O91" s="26" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P91" s="26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q91" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="2" t="inlineStr">
-        <is>
-          <t>广发中证养老</t>
-        </is>
-      </c>
-      <c r="B92" s="3" t="n">
-        <v>968</v>
-      </c>
-      <c r="C92" s="4" t="n">
-        <v>0.9588</v>
-      </c>
-      <c r="D92" s="5" t="n">
-        <v>426.97</v>
-      </c>
-      <c r="E92" s="5" t="n">
-        <v>414.42</v>
-      </c>
-      <c r="F92" s="5" t="n">
-        <v>5.04</v>
-      </c>
-      <c r="G92" s="4" t="n">
-        <v>0.9706</v>
-      </c>
-      <c r="H92" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I92" s="4" t="n">
-        <v>0.9749</v>
-      </c>
-      <c r="J92" s="7" t="n">
-        <v>0.0045</v>
+      <c r="A92" s="22" t="inlineStr">
+        <is>
+          <t>交银主题优选</t>
+        </is>
+      </c>
+      <c r="B92" s="23" t="n">
+        <v>519700</v>
+      </c>
+      <c r="C92" s="24" t="n">
+        <v>1.4657</v>
+      </c>
+      <c r="D92" s="25" t="n">
+        <v>11598.58</v>
+      </c>
+      <c r="E92" s="25" t="n">
+        <v>17908.21</v>
+      </c>
+      <c r="F92" s="25" t="n">
+        <v>908.17</v>
+      </c>
+      <c r="G92" s="24" t="n">
+        <v>1.544</v>
+      </c>
+      <c r="H92" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I92" s="24" t="n">
+        <v>1.5479</v>
+      </c>
+      <c r="J92" s="27" t="n">
+        <v>0.0117</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>1.84</v>
-      </c>
-      <c r="L92" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M92" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N92" s="6" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O92" s="6" t="inlineStr">
-        <is>
-          <t>养老产业</t>
-        </is>
-      </c>
-      <c r="P92" s="6" t="inlineStr">
-        <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="Q92" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+        <v>45.23</v>
+      </c>
+      <c r="L92" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M92" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N92" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O92" s="26" t="inlineStr">
+        <is>
+          <t>偏股</t>
+        </is>
+      </c>
+      <c r="P92" s="26" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="Q92" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="2" t="inlineStr">
-        <is>
-          <t>华宝红利基金</t>
-        </is>
-      </c>
-      <c r="B93" s="3" t="n">
-        <v>501029</v>
-      </c>
-      <c r="C93" s="4" t="n">
-        <v>0.9824000000000001</v>
-      </c>
-      <c r="D93" s="5" t="n">
-        <v>227.52</v>
-      </c>
-      <c r="E93" s="5" t="n">
-        <v>220.44</v>
-      </c>
-      <c r="F93" s="5" t="n">
-        <v>-3.07</v>
-      </c>
-      <c r="G93" s="4" t="n">
-        <v>0.9689</v>
-      </c>
-      <c r="H93" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I93" s="4" t="n">
-        <v>0.9695</v>
-      </c>
-      <c r="J93" s="7" t="n">
-        <v>0.0005999999999999999</v>
+      <c r="A93" s="22" t="inlineStr">
+        <is>
+          <t>交银纯债A/B</t>
+        </is>
+      </c>
+      <c r="B93" s="23" t="n">
+        <v>519718</v>
+      </c>
+      <c r="C93" s="24" t="n">
+        <v>1.0759</v>
+      </c>
+      <c r="D93" s="25" t="n">
+        <v>128864.36</v>
+      </c>
+      <c r="E93" s="25" t="n">
+        <v>138915.78</v>
+      </c>
+      <c r="F93" s="25" t="n">
+        <v>270.62</v>
+      </c>
+      <c r="G93" s="24" t="n">
+        <v>1.078</v>
+      </c>
+      <c r="H93" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I93" s="24" t="n">
+        <v>1.0781</v>
+      </c>
+      <c r="J93" s="27" t="n">
+        <v>0.0001</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>0.14</v>
-      </c>
-      <c r="L93" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M93" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N93" s="6" t="inlineStr">
-        <is>
-          <t>红利价值</t>
-        </is>
-      </c>
-      <c r="O93" s="6" t="inlineStr">
-        <is>
-          <t>标普红利</t>
-        </is>
-      </c>
-      <c r="P93" s="6" t="inlineStr">
-        <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="Q93" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+        <v>12.89</v>
+      </c>
+      <c r="L93" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M93" s="26" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N93" s="26" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O93" s="26" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P93" s="26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q93" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="2" t="inlineStr">
-        <is>
-          <t>华夏上证50AH优选指数</t>
-        </is>
-      </c>
-      <c r="B94" s="3" t="n">
-        <v>501050</v>
-      </c>
-      <c r="C94" s="4" t="n">
-        <v>1.284</v>
-      </c>
-      <c r="D94" s="5" t="n">
-        <v>142.1</v>
-      </c>
-      <c r="E94" s="5" t="n">
-        <v>192.55</v>
-      </c>
-      <c r="F94" s="5" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="G94" s="4" t="n">
-        <v>1.355</v>
-      </c>
-      <c r="H94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I94" s="4" t="n">
-        <v>1.3529</v>
-      </c>
-      <c r="J94" s="7" t="n">
-        <v>-0.0015</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="L94" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M94" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N94" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O94" s="6" t="inlineStr">
-        <is>
-          <t>50AH</t>
-        </is>
-      </c>
-      <c r="P94" s="6" t="inlineStr">
-        <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="Q94" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A94" s="22" t="inlineStr">
+        <is>
+          <t>交银双轮动A/B</t>
+        </is>
+      </c>
+      <c r="B94" s="23" t="n">
+        <v>519723</v>
+      </c>
+      <c r="C94" s="24" t="n">
+        <v>1.0784</v>
+      </c>
+      <c r="D94" s="25" t="n">
+        <v>132719.84</v>
+      </c>
+      <c r="E94" s="25" t="n">
+        <v>143204.71</v>
+      </c>
+      <c r="F94" s="25" t="n">
+        <v>79.63</v>
+      </c>
+      <c r="G94" s="24" t="n">
+        <v>1.079</v>
+      </c>
+      <c r="H94" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I94" s="24" t="n">
+        <v>1.0791</v>
+      </c>
+      <c r="J94" s="27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>13.27</v>
+      </c>
+      <c r="L94" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M94" s="26" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N94" s="26" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O94" s="26" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P94" s="26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q94" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="2" t="inlineStr">
-        <is>
-          <t>天弘中证医药100A</t>
-        </is>
-      </c>
-      <c r="B95" s="3" t="n">
-        <v>1550</v>
-      </c>
-      <c r="C95" s="4" t="n">
-        <v>0.6708</v>
-      </c>
-      <c r="D95" s="5" t="n">
-        <v>212.74</v>
-      </c>
-      <c r="E95" s="5" t="n">
-        <v>164.55</v>
-      </c>
-      <c r="F95" s="5" t="n">
-        <v>21.85</v>
-      </c>
-      <c r="G95" s="4" t="n">
-        <v>0.7735</v>
-      </c>
-      <c r="H95" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I95" s="4" t="n">
-        <v>0.7756999999999999</v>
-      </c>
-      <c r="J95" s="7" t="n">
-        <v>0.0029</v>
+      <c r="A95" s="22" t="inlineStr">
+        <is>
+          <t>交银新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B95" s="23" t="n">
+        <v>519752</v>
+      </c>
+      <c r="C95" s="24" t="n">
+        <v>1.2439</v>
+      </c>
+      <c r="D95" s="25" t="n">
+        <v>59685.02</v>
+      </c>
+      <c r="E95" s="25" t="n">
+        <v>74725.64999999999</v>
+      </c>
+      <c r="F95" s="25" t="n">
+        <v>483.45</v>
+      </c>
+      <c r="G95" s="24" t="n">
+        <v>1.252</v>
+      </c>
+      <c r="H95" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I95" s="24" t="n">
+        <v>1.2522</v>
+      </c>
+      <c r="J95" s="27" t="n">
+        <v>0.0018</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>0.47</v>
-      </c>
-      <c r="L95" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M95" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N95" s="6" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O95" s="6" t="inlineStr">
-        <is>
-          <t>全指医药</t>
-        </is>
-      </c>
-      <c r="P95" s="6" t="inlineStr">
-        <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="Q95" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+        <v>11.94</v>
+      </c>
+      <c r="L95" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M95" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N95" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O95" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P95" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q95" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="2" t="inlineStr">
-        <is>
-          <t>天弘中证银行指数A</t>
-        </is>
-      </c>
-      <c r="B96" s="3" t="n">
-        <v>1594</v>
-      </c>
-      <c r="C96" s="4" t="n">
-        <v>1.2142</v>
-      </c>
-      <c r="D96" s="5" t="n">
-        <v>34.26</v>
-      </c>
-      <c r="E96" s="5" t="n">
-        <v>42.64</v>
-      </c>
-      <c r="F96" s="5" t="n">
-        <v>1.04</v>
-      </c>
-      <c r="G96" s="4" t="n">
-        <v>1.2446</v>
-      </c>
-      <c r="H96" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I96" s="4" t="n">
-        <v>1.2398</v>
-      </c>
-      <c r="J96" s="7" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K96" s="9" t="n">
-        <v>-0.16</v>
-      </c>
-      <c r="L96" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M96" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N96" s="6" t="inlineStr">
-        <is>
-          <t>行业股</t>
-        </is>
-      </c>
-      <c r="O96" s="6" t="inlineStr">
-        <is>
-          <t>中证银行</t>
-        </is>
-      </c>
-      <c r="P96" s="6" t="inlineStr">
-        <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="Q96" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A96" s="22" t="inlineStr">
+        <is>
+          <t>交银多策略回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="B96" s="23" t="n">
+        <v>519755</v>
+      </c>
+      <c r="C96" s="24" t="n">
+        <v>1.2894</v>
+      </c>
+      <c r="D96" s="25" t="n">
+        <v>76964.17</v>
+      </c>
+      <c r="E96" s="25" t="n">
+        <v>100207.35</v>
+      </c>
+      <c r="F96" s="25" t="n">
+        <v>969.75</v>
+      </c>
+      <c r="G96" s="24" t="n">
+        <v>1.302</v>
+      </c>
+      <c r="H96" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I96" s="24" t="n">
+        <v>1.3027</v>
+      </c>
+      <c r="J96" s="27" t="n">
+        <v>0.0028</v>
+      </c>
+      <c r="K96" s="8" t="n">
+        <v>53.87</v>
+      </c>
+      <c r="L96" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M96" s="26" t="inlineStr">
+        <is>
+          <t>混合型</t>
+        </is>
+      </c>
+      <c r="N96" s="26" t="inlineStr">
+        <is>
+          <t>股债混合</t>
+        </is>
+      </c>
+      <c r="O96" s="26" t="inlineStr">
+        <is>
+          <t>偏债</t>
+        </is>
+      </c>
+      <c r="P96" s="26" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="Q96" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="2" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300价值指数</t>
-        </is>
-      </c>
-      <c r="B97" s="3" t="n">
-        <v>310398</v>
-      </c>
-      <c r="C97" s="4" t="n">
-        <v>1.4372</v>
-      </c>
-      <c r="D97" s="5" t="n">
-        <v>25.8</v>
-      </c>
-      <c r="E97" s="5" t="n">
-        <v>35.73</v>
-      </c>
-      <c r="F97" s="5" t="n">
-        <v>-1.35</v>
-      </c>
-      <c r="G97" s="4" t="n">
-        <v>1.3849</v>
-      </c>
-      <c r="H97" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-13</t>
-        </is>
-      </c>
-      <c r="I97" s="4" t="n">
-        <v>1.3823</v>
-      </c>
-      <c r="J97" s="7" t="n">
-        <v>-0.0019</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>-0.07000000000000001</v>
-      </c>
-      <c r="L97" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-16 11:30</t>
-        </is>
-      </c>
-      <c r="M97" s="6" t="inlineStr">
-        <is>
-          <t>A 股</t>
-        </is>
-      </c>
-      <c r="N97" s="6" t="inlineStr">
-        <is>
-          <t>大盘股</t>
-        </is>
-      </c>
-      <c r="O97" s="6" t="inlineStr">
-        <is>
-          <t>300价值</t>
-        </is>
-      </c>
-      <c r="P97" s="6" t="inlineStr">
-        <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="Q97" s="6" t="inlineStr">
-        <is>
-          <t>母螺丝钉</t>
+      <c r="A97" s="22" t="inlineStr">
+        <is>
+          <t>交银裕盈纯债债券A</t>
+        </is>
+      </c>
+      <c r="B97" s="23" t="n">
+        <v>519776</v>
+      </c>
+      <c r="C97" s="24" t="n">
+        <v>1.0793</v>
+      </c>
+      <c r="D97" s="25" t="n">
+        <v>140577.44</v>
+      </c>
+      <c r="E97" s="25" t="n">
+        <v>151837.69</v>
+      </c>
+      <c r="F97" s="25" t="n">
+        <v>112.46</v>
+      </c>
+      <c r="G97" s="24" t="n">
+        <v>1.0801</v>
+      </c>
+      <c r="H97" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17</t>
+        </is>
+      </c>
+      <c r="I97" s="24" t="n">
+        <v>1.0803</v>
+      </c>
+      <c r="J97" s="27" t="n">
+        <v>0.0001</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>28.12</v>
+      </c>
+      <c r="L97" s="26" t="inlineStr">
+        <is>
+          <t>2019-12-17 15:00</t>
+        </is>
+      </c>
+      <c r="M97" s="26" t="inlineStr">
+        <is>
+          <t>债券</t>
+        </is>
+      </c>
+      <c r="N97" s="26" t="inlineStr">
+        <is>
+          <t>国内债券</t>
+        </is>
+      </c>
+      <c r="O97" s="26" t="inlineStr">
+        <is>
+          <t>可转债</t>
+        </is>
+      </c>
+      <c r="P97" s="26" t="inlineStr">
+        <is>
+          <t>512</t>
+        </is>
+      </c>
+      <c r="Q97" s="26" t="inlineStr">
+        <is>
+          <t>父稳稳的幸福</t>
         </is>
       </c>
     </row>
@@ -7192,31 +7192,31 @@
         <v>9697.57</v>
       </c>
       <c r="E98" s="31" t="n">
-        <v>10778.85</v>
+        <v>11079.47</v>
       </c>
       <c r="F98" s="31" t="n">
-        <v>577.98</v>
+        <v>878.6</v>
       </c>
       <c r="G98" s="30" t="n">
-        <v>1.1115</v>
+        <v>1.1425</v>
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1228</v>
+        <v>1.1428</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>109.58</v>
+        <v>2.91</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>8677.6</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>9770.98</v>
+        <v>9909.82</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>970.16</v>
+        <v>1109</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.126</v>
+        <v>1.142</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1316</v>
+        <v>1.1424</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0049</v>
+        <v>0.0074</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>48.59</v>
+        <v>3.47</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>5916.98</v>
+        <v>6030.98</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>716.91</v>
+        <v>830.91</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.9706</v>
+        <v>0.9893</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9749</v>
+        <v>0.9906</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0045</v>
+        <v>0.0086</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>26.21</v>
+        <v>7.93</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>5690.49</v>
+        <v>5778.24</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>890.36</v>
+        <v>978.12</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.843</v>
+        <v>0.856</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8448</v>
+        <v>0.8561</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0021</v>
+        <v>0.008800000000000001</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>12.15</v>
+        <v>0.68</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2760.12</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>4573.52</v>
+        <v>4637</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>973.49</v>
+        <v>1036.98</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.657</v>
+        <v>1.68</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6568</v>
+        <v>1.6855</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K102" s="9" t="n">
-        <v>-0.55</v>
+        <v>0.0129</v>
+      </c>
+      <c r="K102" s="8" t="n">
+        <v>15.18</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3492.34</v>
+        <v>3614.87</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>291.95</v>
+        <v>414.48</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.7895</v>
+        <v>0.8172</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.8062</v>
+        <v>0.8169</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0211</v>
-      </c>
-      <c r="K103" s="8" t="n">
-        <v>73.87</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K103" s="9" t="n">
+        <v>-1.33</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>1981.84</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>3412.73</v>
+        <v>3450.38</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>221.57</v>
+        <v>259.22</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.722</v>
+        <v>1.741</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.7288</v>
+        <v>1.7401</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K104" s="8" t="n">
-        <v>13.48</v>
+        <v>0.0035</v>
+      </c>
+      <c r="K104" s="9" t="n">
+        <v>-1.78</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>2046.97</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3377.5</v>
+        <v>3473.71</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>665.27</v>
+        <v>761.47</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.65</v>
+        <v>1.697</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.6668</v>
+        <v>1.7007</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>34.39</v>
+        <v>7.57</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3351.51</v>
+        <v>3453.84</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>151.12</v>
+        <v>253.46</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.5633</v>
+        <v>0.5805</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5691000000000001</v>
+        <v>0.5805</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0103</v>
+        <v>0.0143</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>34.51</v>
+        <v>0</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,17 +7813,17 @@
         <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>2286.19</v>
+        <v>2305.04</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>286.1</v>
+        <v>304.95</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.213</v>
+        <v>1.223</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
@@ -7882,31 +7882,31 @@
         <v>1213.09</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2200.18</v>
+        <v>2254.89</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>600.12</v>
+        <v>654.83</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.8137</v>
+        <v>1.8588</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.8242</v>
+        <v>1.859</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0058</v>
+        <v>0.0114</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>12.74</v>
+        <v>0.24</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1920.23</v>
+        <v>1954.3</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>320.15</v>
+        <v>354.22</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.178</v>
+        <v>1.1989</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1779</v>
+        <v>1.1931</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0001</v>
+        <v>0.0037</v>
       </c>
       <c r="K109" s="9" t="n">
-        <v>-0.16</v>
+        <v>-9.449999999999999</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1861.84</v>
+        <v>1878.73</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>261.76</v>
+        <v>278.64</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.323</v>
+        <v>1.335</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3231</v>
+        <v>1.3252</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K110" s="8" t="n">
-        <v>0.14</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K110" s="9" t="n">
+        <v>-13.79</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-14 05:00</t>
+          <t>2019-12-18 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1374.6</v>
+        <v>1386.64</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>174.54</v>
+        <v>186.58</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.027</v>
+        <v>1.036</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0215</v>
+        <v>1.035</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0053</v>
+        <v>0.0107</v>
       </c>
       <c r="K111" s="9" t="n">
-        <v>-7.36</v>
+        <v>-1.34</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>3350.7</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1316.83</v>
+        <v>1320.18</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>-283.47</v>
+        <v>-280.12</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>0.393</v>
+        <v>0.394</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-12</t>
+          <t>2019-12-16</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.383</v>
+        <v>0.39</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>-0.0103</v>
+        <v>0.0104</v>
       </c>
       <c r="K112" s="9" t="n">
-        <v>-33.51</v>
+        <v>-13.4</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 12:44</t>
+          <t>2019-12-17 15:04</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>1495.03</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1192.88</v>
+        <v>1227.42</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>-7.18</v>
+        <v>27.36</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.7979000000000001</v>
+        <v>0.821</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8063</v>
+        <v>0.8213</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0105</v>
+        <v>0.0119</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>12.56</v>
+        <v>0.45</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>1005.96</v>
+        <v>1026.04</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>205.91</v>
+        <v>225.99</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.1173</v>
+        <v>1.1396</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.1142</v>
+        <v>1.14</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>-0.0028</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>-2.79</v>
+        <v>0.0168</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>0.36</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>890.16</v>
+        <v>895.37</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>90.11</v>
+        <v>95.31999999999999</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.2131</v>
+        <v>1.2202</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.218</v>
+        <v>1.221</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>0.0041</v>
+        <v>-0.0003</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>3.6</v>
+        <v>0.59</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:36</t>
+          <t>2019-12-18 02:29</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>496.13</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>506.9</v>
+        <v>528.4299999999999</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>106.87</v>
+        <v>128.4</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.0217</v>
+        <v>1.0651</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0261</v>
+        <v>1.0655</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0043</v>
+        <v>0.0266</v>
       </c>
       <c r="K116" s="8" t="n">
-        <v>2.18</v>
+        <v>0.2</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>461.49</v>
+        <v>468.95</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>61.48</v>
+        <v>68.94</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.3857</v>
+        <v>1.4081</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.3931</v>
+        <v>1.4078</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0054</v>
-      </c>
-      <c r="K117" s="8" t="n">
-        <v>2.46</v>
+        <v>0.0071</v>
+      </c>
+      <c r="K117" s="9" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>325.61</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>432.41</v>
+        <v>439.9</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>32.4</v>
+        <v>39.89</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.328</v>
+        <v>1.351</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3279</v>
+        <v>1.3512</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0001</v>
-      </c>
-      <c r="K118" s="9" t="n">
-        <v>-0.03</v>
+        <v>0.0129</v>
+      </c>
+      <c r="K118" s="8" t="n">
+        <v>0.07000000000000001</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>275.49</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>426.49</v>
+        <v>428.47</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>26.47</v>
+        <v>28.46</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.5481</v>
+        <v>1.5553</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5427</v>
+        <v>1.5538</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>-0.0035</v>
+        <v>0.0116</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>-1.49</v>
+        <v>-0.41</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 12:00</t>
+          <t>2019-12-17 16:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>206.23</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>412.75</v>
+        <v>423.35</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>12.75</v>
+        <v>23.35</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>2.0014</v>
+        <v>2.0528</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0217</v>
+        <v>2.0542</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K120" s="8" t="n">
-        <v>4.19</v>
+        <v>0.29</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8779,31 +8779,31 @@
         <v>275.96</v>
       </c>
       <c r="E121" s="31" t="n">
-        <v>245.05</v>
+        <v>251.87</v>
       </c>
       <c r="F121" s="31" t="n">
-        <v>16.28</v>
+        <v>23.1</v>
       </c>
       <c r="G121" s="30" t="n">
-        <v>0.888</v>
+        <v>0.9127</v>
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-13</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.897</v>
+        <v>0.9129</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0102</v>
+        <v>0.0129</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>2.48</v>
+        <v>0.06</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16 11:30</t>
+          <t>2019-12-17 15:00</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6683</v>
+        <v>1.663</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>5.57</v>
+        <v>-7.27</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4845</v>
+        <v>1.4812</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>1.35</v>
+        <v>-7.56</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9585</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>3.62</v>
+        <v>0.0008</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>2.53</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3431.57</v>
+        <v>3422.53</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>384.68</v>
+        <v>375.64</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5183</v>
+        <v>1.5143</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5172</v>
+        <v>1.5204</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0114</v>
+        <v>0.0014</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-2.49</v>
+        <v>13.79</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9594</v>
+        <v>1.9577</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0007</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>0.55</v>
+        <v>-1.77</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2805</v>
+        <v>2.2799</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0001</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>0.42</v>
+        <v>-0.21</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>1.39</v>
+        <v>-1.81</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9897</v>
+        <v>0.9837</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.0121</v>
+        <v>-0.0017</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>2.37</v>
+        <v>-0.9399999999999999</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7874</v>
+        <v>0.7812</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>-0.0073</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.21</v>
+        <v>-3.08</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3652</v>
+        <v>1.3648</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-0.79</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>85.65000000000001</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107.71</v>
+        <v>107.82</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.73</v>
+        <v>3.85</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.2576</v>
+        <v>1.2589</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2578</v>
+        <v>1.2588</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0133</v>
+        <v>0.001</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>0.02</v>
+        <v>-0.01</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4034</v>
+        <v>1.4003</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>0.03</v>
+        <v>-0.17</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5805</v>
+        <v>0.5785</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0143</v>
+        <v>-0.0035</v>
       </c>
       <c r="K14" s="8" t="n">
-        <v>0</v>
+        <v>-33.46</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.025</v>
+        <v>3.017</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>-8.1</v>
+        <v>-0.0026</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-29.7</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>36756.72</v>
+        <v>36675.73</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>5389.02</v>
+        <v>5308.03</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>4.0392</v>
+        <v>4.0303</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.042</v>
+        <v>4.027</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0156</v>
+        <v>-0.0037</v>
       </c>
       <c r="K16" s="8" t="n">
-        <v>25.48</v>
+        <v>-30.03</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.675</v>
+        <v>5.67</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.0158</v>
+        <v>-0.0009</v>
       </c>
       <c r="K17" s="8" t="n">
-        <v>38.8</v>
+        <v>-155.2</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.774</v>
+        <v>0.769</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0091</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>-40.56</v>
+        <v>-0.0065</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>-209.56</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.999</v>
+        <v>0.998</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>0.031</v>
-      </c>
-      <c r="K19" s="8" t="n">
-        <v>88.29000000000001</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K19" s="9" t="n">
+        <v>55.59</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.8149999999999999</v>
+        <v>0.838</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>-0.0012</v>
+        <v>0.0282</v>
       </c>
       <c r="K20" s="9" t="n">
-        <v>-51.15</v>
+        <v>733.15</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,31 +1879,31 @@
         <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>14831.1</v>
+        <v>14854.95</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>1979.1</v>
+        <v>2002.95</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>3.2958</v>
+        <v>3.3011</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.292</v>
+        <v>3.295</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>-0.0005999999999999999</v>
-      </c>
-      <c r="K21" s="9" t="n">
-        <v>-17.1</v>
+        <v>0.0009</v>
+      </c>
+      <c r="K21" s="8" t="n">
+        <v>-27.45</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.738</v>
+        <v>1.725</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>0.0134</v>
+        <v>-0.0075</v>
       </c>
       <c r="K22" s="8" t="n">
-        <v>30.36</v>
+        <v>-89.23999999999999</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.374</v>
+        <v>1.359</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0073</v>
-      </c>
-      <c r="K23" s="9" t="n">
-        <v>-10.08</v>
+        <v>-0.0109</v>
+      </c>
+      <c r="K23" s="8" t="n">
+        <v>-226.08</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0542</v>
+        <v>2.0524</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>5.82</v>
+        <v>-1.66</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5805</v>
+        <v>0.5785</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0143</v>
+        <v>-0.0035</v>
       </c>
       <c r="K25" s="8" t="n">
-        <v>0</v>
+        <v>-19.44</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>6.43</v>
+        <v>-8.4</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5804</v>
+        <v>0.5809</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K27" s="9" t="n">
-        <v>-4.43</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K27" s="8" t="n">
+        <v>-0.74</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1424</v>
+        <v>1.1399</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>1.47</v>
+        <v>-7.7</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8169</v>
+        <v>0.8347</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0071</v>
+        <v>0.0215</v>
       </c>
       <c r="K29" s="9" t="n">
-        <v>-1.37</v>
+        <v>79.63</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.859</v>
+        <v>1.8498</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>0.0114</v>
+        <v>-0.0048</v>
       </c>
       <c r="K30" s="8" t="n">
-        <v>0.08</v>
+        <v>-3.61</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0092</v>
+        <v>1.0041</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>0.0114</v>
+        <v>-0.0048</v>
       </c>
       <c r="K31" s="8" t="n">
-        <v>0.15</v>
+        <v>-3.61</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0655</v>
+        <v>1.0681</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0266</v>
-      </c>
-      <c r="K32" s="8" t="n">
-        <v>0.19</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K32" s="9" t="n">
+        <v>1.42</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2088.18</v>
+        <v>2135.88</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>87.45</v>
+        <v>135.15</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.394</v>
+        <v>0.403</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>-21.2</v>
+        <v>0.0128</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-42.4</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2790,13 +2790,13 @@
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3252</v>
+        <v>1.3362</v>
       </c>
       <c r="J34" s="27" t="n">
         <v>0.0009</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-5.65</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
@@ -2859,17 +2859,17 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5538</v>
+        <v>1.5574</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0116</v>
+        <v>0.0014</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>-0.6899999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2933,7 +2933,7 @@
       <c r="J36" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0542</v>
+        <v>2.0524</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>1.47</v>
+        <v>-0.42</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1424</v>
+        <v>1.1399</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>0.73</v>
+        <v>-3.83</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.035</v>
+        <v>1.0336</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="K39" s="9" t="n">
-        <v>-1.06</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K39" s="8" t="n">
+        <v>-2.54</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5804</v>
+        <v>0.5809</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0129</v>
-      </c>
-      <c r="K40" s="9" t="n">
-        <v>-1.09</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K40" s="8" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.8169</v>
+        <v>0.8347</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0071</v>
+        <v>0.0215</v>
       </c>
       <c r="K41" s="9" t="n">
-        <v>-0.37</v>
+        <v>21.47</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>2238.42</v>
+        <v>2241.72</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>238.48</v>
+        <v>241.78</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.2202</v>
+        <v>1.222</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.221</v>
+        <v>1.2211</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0003</v>
+        <v>-0.0007</v>
       </c>
       <c r="K42" s="8" t="n">
-        <v>1.47</v>
+        <v>-1.65</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 02:29</t>
+          <t>2019-12-18 20:20</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3411,13 +3411,13 @@
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3252</v>
+        <v>1.3362</v>
       </c>
       <c r="J43" s="27" t="n">
         <v>0.0009</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>-8.82</v>
+        <v>1.08</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5538</v>
+        <v>1.5574</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0116</v>
+        <v>0.0014</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-1.03</v>
+        <v>1.45</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1874.61</v>
+        <v>1917.43</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>-125.61</v>
+        <v>-82.79000000000001</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0.394</v>
+        <v>0.403</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>-19.03</v>
+        <v>0.0128</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-38.06</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3623,7 +3623,7 @@
       <c r="J46" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>595.47</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1036.71</v>
+        <v>1035.52</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>36.74</v>
+        <v>35.55</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.741</v>
+        <v>1.739</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.7401</v>
+        <v>1.7402</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>0.0035</v>
+        <v>-0.0005</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-0.54</v>
+        <v>0.71</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1424</v>
+        <v>1.1399</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>26.03</v>
+        <v>-136.64</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>82.54000000000001</v>
+        <v>-107.93</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1931</v>
+        <v>1.1986</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>-187.75</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>-9.710000000000001</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34970.82</v>
+        <v>34930.65</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2970.81</v>
+        <v>2930.64</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.741</v>
+        <v>1.739</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.7401</v>
+        <v>1.7402</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>0.0035</v>
+        <v>-0.0005</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-18.08</v>
+        <v>24.1</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8561</v>
+        <v>0.8476</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.008800000000000001</v>
+        <v>-0.0098</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>4.1</v>
+        <v>-344.52</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4106,7 +4106,7 @@
       <c r="J53" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6855</v>
+        <v>1.6765</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0021</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>80.44</v>
+        <v>-51.19</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.14</v>
+        <v>1.1401</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="K55" s="8" t="n">
-        <v>8.470000000000001</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K55" s="9" t="n">
+        <v>10.58</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4308,13 +4308,13 @@
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3252</v>
+        <v>1.3362</v>
       </c>
       <c r="J56" s="33" t="n">
         <v>0.0009</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>-164.43</v>
+        <v>20.13</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.7007</v>
+        <v>1.6967</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>35.26</v>
+        <v>-2.86</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>14683.38</v>
+        <v>15018.78</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-4516.81</v>
+        <v>-4181.41</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.394</v>
+        <v>0.403</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>-149.07</v>
+        <v>0.0128</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>-298.14</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4515,17 +4515,17 @@
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5538</v>
+        <v>1.5574</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0116</v>
+        <v>0.0014</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-10.2</v>
+        <v>14.28</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4589,7 +4589,7 @@
       <c r="J60" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5805</v>
+        <v>0.5785</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0143</v>
+        <v>-0.0035</v>
       </c>
       <c r="K61" s="8" t="n">
-        <v>0</v>
+        <v>-26.81</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.4078</v>
+        <v>1.4086</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0004</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>-1.6</v>
+        <v>2.66</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.9129</v>
+        <v>0.9125</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>1.56</v>
+        <v>-1.56</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0542</v>
+        <v>2.0524</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>4.62</v>
+        <v>-1.32</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.8169</v>
+        <v>0.8347</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0215</v>
       </c>
       <c r="K65" s="9" t="n">
-        <v>-2.36</v>
+        <v>137.43</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9956</v>
+        <v>0.9954</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0119</v>
-      </c>
-      <c r="K66" s="9" t="n">
-        <v>-0.36</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K66" s="8" t="n">
+        <v>-1.07</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4845</v>
+        <v>1.4812</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>0.52</v>
+        <v>-2.93</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.6683</v>
+        <v>1.663</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>2.04</v>
+        <v>-2.66</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5191,31 +5191,31 @@
         <v>898.04</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1363.49</v>
+        <v>1359.9</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>152.49</v>
+        <v>148.9</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.5183</v>
+        <v>1.5143</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.5172</v>
+        <v>1.5204</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>0.0114</v>
+        <v>0.0014</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>-0.99</v>
+        <v>5.48</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.9585</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>1.36</v>
+        <v>0.0008</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>0.95</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.9594</v>
+        <v>1.9577</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0007</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>0.2</v>
+        <v>-0.64</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2.2805</v>
+        <v>2.2799</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0001</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>0.51</v>
+        <v>-0.66</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.9897</v>
+        <v>0.9837</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.0121</v>
+        <v>-0.0017</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>0.92</v>
+        <v>-0.37</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.7874</v>
+        <v>0.7812</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>-0.0073</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>0.09</v>
+        <v>-1.23</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.3652</v>
+        <v>1.3648</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>-0.17</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-0.2</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4034</v>
+        <v>1.4003</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>17.12</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>21.53</v>
+        <v>21.55</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>0.74</v>
+        <v>0.76</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.2576</v>
+        <v>1.2589</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.2578</v>
+        <v>1.2588</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>0</v>
+        <v>0.001</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.6683</v>
+        <v>1.663</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>2.24</v>
+        <v>-2.92</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.4845</v>
+        <v>1.4812</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>0.53</v>
+        <v>-2.96</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6019,31 +6019,31 @@
         <v>915.97</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1390.72</v>
+        <v>1387.05</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>152.88</v>
+        <v>149.21</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.5183</v>
+        <v>1.5143</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.5172</v>
+        <v>1.5204</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0114</v>
+        <v>0.0014</v>
       </c>
       <c r="K81" s="9" t="n">
-        <v>-1.01</v>
+        <v>5.59</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9585</v>
+        <v>0.9582000000000001</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="K82" s="8" t="n">
-        <v>1.41</v>
+        <v>0.0008</v>
+      </c>
+      <c r="K82" s="9" t="n">
+        <v>0.99</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.9594</v>
+        <v>1.9577</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0007</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>0.21</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.2805</v>
+        <v>2.2799</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.018</v>
+        <v>-0.0001</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>0.16</v>
+        <v>-0.08</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>0.5600000000000001</v>
+        <v>-0.73</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>0.9897</v>
+        <v>0.9837</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.0121</v>
+        <v>-0.0017</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>0.98</v>
+        <v>-0.39</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.3652</v>
+        <v>1.3648</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>0.0135</v>
-      </c>
-      <c r="K87" s="9" t="n">
-        <v>-0.4</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K87" s="8" t="n">
+        <v>-0.45</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>0.7874</v>
+        <v>0.7812</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.009900000000000001</v>
+        <v>-0.0073</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>0.09</v>
+        <v>-1.23</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6571,31 +6571,31 @@
         <v>34.26</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>43.09</v>
+        <v>43.13</v>
       </c>
       <c r="F89" s="5" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="G89" s="4" t="n">
-        <v>1.2576</v>
+        <v>1.2589</v>
       </c>
       <c r="H89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1.2578</v>
+        <v>1.2588</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0133</v>
-      </c>
-      <c r="K89" s="8" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
+      </c>
+      <c r="K89" s="9" t="n">
+        <v>-0</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.4034</v>
+        <v>1.4003</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0112</v>
+        <v>-0.0019</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>0.01</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6726,14 +6726,14 @@
         <v>1.0301</v>
       </c>
       <c r="J91" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K91" s="8" t="n">
         <v>0</v>
       </c>
+      <c r="K91" s="9" t="n">
+        <v>0</v>
+      </c>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M91" s="26" t="inlineStr">
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.5479</v>
+        <v>1.5386</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>0.0117</v>
+        <v>-0.0035</v>
       </c>
       <c r="K92" s="8" t="n">
-        <v>45.23</v>
+        <v>-62.63</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.0781</v>
+        <v>1.078</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K93" s="8" t="n">
-        <v>12.89</v>
+        <v>0</v>
+      </c>
+      <c r="K93" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.079</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K94" s="8" t="n">
-        <v>13.27</v>
+        <v>0</v>
+      </c>
+      <c r="K94" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.2522</v>
+        <v>1.2511</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>0.0018</v>
+        <v>-0.0007</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>11.94</v>
+        <v>-53.72</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.3027</v>
+        <v>1.3012</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>0.0028</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>53.87</v>
+        <v>-61.57</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.0803</v>
+        <v>1.0801</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K97" s="8" t="n">
-        <v>28.12</v>
+        <v>0</v>
+      </c>
+      <c r="K97" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1428</v>
+        <v>1.1423</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>2.91</v>
+        <v>-1.94</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1424</v>
+        <v>1.1399</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0074</v>
+        <v>-0.0018</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>3.47</v>
+        <v>-18.22</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9906</v>
+        <v>0.9876</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0086</v>
+        <v>-0.0017</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>7.93</v>
+        <v>-10.36</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8561</v>
+        <v>0.8476</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.008800000000000001</v>
+        <v>-0.0098</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>0.68</v>
+        <v>-56.7</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6855</v>
+        <v>1.6765</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0021</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>15.18</v>
+        <v>-9.66</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.8169</v>
+        <v>0.8347</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0215</v>
       </c>
       <c r="K103" s="9" t="n">
-        <v>-1.33</v>
+        <v>77.41</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7606,31 +7606,31 @@
         <v>1981.84</v>
       </c>
       <c r="E104" s="31" t="n">
-        <v>3450.38</v>
+        <v>3446.42</v>
       </c>
       <c r="F104" s="31" t="n">
-        <v>259.22</v>
+        <v>255.26</v>
       </c>
       <c r="G104" s="30" t="n">
-        <v>1.741</v>
+        <v>1.739</v>
       </c>
       <c r="H104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.7401</v>
+        <v>1.7402</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>0.0035</v>
+        <v>-0.0005</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>-1.78</v>
+        <v>2.38</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.7007</v>
+        <v>1.6967</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>7.57</v>
+        <v>-0.61</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5805</v>
+        <v>0.5785</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>0.0143</v>
+        <v>-0.0035</v>
       </c>
       <c r="K106" s="8" t="n">
-        <v>0</v>
+        <v>-11.9</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7832,7 +7832,7 @@
       <c r="J107" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K107" s="8" t="n">
+      <c r="K107" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.859</v>
+        <v>1.8498</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>0.0114</v>
+        <v>-0.0048</v>
       </c>
       <c r="K108" s="8" t="n">
-        <v>0.24</v>
+        <v>-10.92</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1931</v>
+        <v>1.1986</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0037</v>
-      </c>
-      <c r="K109" s="9" t="n">
-        <v>-9.449999999999999</v>
+        <v>-0.0003</v>
+      </c>
+      <c r="K109" s="8" t="n">
+        <v>-0.49</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8034,13 +8034,13 @@
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3252</v>
+        <v>1.3362</v>
       </c>
       <c r="J110" s="33" t="n">
         <v>0.0009</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>-13.79</v>
+        <v>1.69</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.035</v>
+        <v>1.0336</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0107</v>
-      </c>
-      <c r="K111" s="9" t="n">
-        <v>-1.34</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K111" s="8" t="n">
+        <v>-3.21</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8158,31 +8158,31 @@
         <v>3350.7</v>
       </c>
       <c r="E112" s="31" t="n">
-        <v>1320.18</v>
+        <v>1350.33</v>
       </c>
       <c r="F112" s="31" t="n">
-        <v>-280.12</v>
+        <v>-249.96</v>
       </c>
       <c r="G112" s="30" t="n">
-        <v>0.394</v>
+        <v>0.403</v>
       </c>
       <c r="H112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.39</v>
+        <v>0.395</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0104</v>
-      </c>
-      <c r="K112" s="9" t="n">
-        <v>-13.4</v>
+        <v>0.0128</v>
+      </c>
+      <c r="K112" s="8" t="n">
+        <v>-26.81</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:04</t>
+          <t>2019-12-18 15:04</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8213</v>
+        <v>0.8208</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.0119</v>
+        <v>-0.0003</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>0.45</v>
+        <v>-0.3</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8310,17 +8310,17 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.14</v>
+        <v>1.1401</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0168</v>
-      </c>
-      <c r="K114" s="8" t="n">
-        <v>0.36</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K114" s="9" t="n">
+        <v>0.45</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8365,31 +8365,31 @@
         <v>733.79</v>
       </c>
       <c r="E115" s="31" t="n">
-        <v>895.37</v>
+        <v>896.6900000000001</v>
       </c>
       <c r="F115" s="31" t="n">
-        <v>95.31999999999999</v>
+        <v>96.64</v>
       </c>
       <c r="G115" s="30" t="n">
-        <v>1.2202</v>
+        <v>1.222</v>
       </c>
       <c r="H115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.221</v>
+        <v>1.2211</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0003</v>
+        <v>-0.0007</v>
       </c>
       <c r="K115" s="8" t="n">
-        <v>0.59</v>
+        <v>-0.66</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 02:29</t>
+          <t>2019-12-18 20:20</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0655</v>
+        <v>1.0681</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0266</v>
-      </c>
-      <c r="K116" s="8" t="n">
-        <v>0.2</v>
+        <v>0.0029</v>
+      </c>
+      <c r="K116" s="9" t="n">
+        <v>1.49</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8517,17 +8517,17 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.4078</v>
+        <v>1.4086</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0071</v>
+        <v>0.0004</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>-0.1</v>
+        <v>0.17</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8586,17 +8586,17 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3512</v>
+        <v>1.3482</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0021</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>-0.91</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8655,17 +8655,17 @@
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5538</v>
+        <v>1.5574</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0116</v>
+        <v>0.0014</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>-0.41</v>
+        <v>0.58</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 16:00</t>
+          <t>2019-12-18 16:00</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8724,17 +8724,17 @@
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0542</v>
+        <v>2.0524</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K120" s="8" t="n">
-        <v>0.29</v>
+        <v>-0.08</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8793,17 +8793,17 @@
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.9129</v>
+        <v>0.9125</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0129</v>
+        <v>-0.0002</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>0.06</v>
+        <v>-0.06</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17 15:00</t>
+          <t>2019-12-18 15:00</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
@@ -562,37 +562,37 @@
         <v>90010</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.6508</v>
+        <v>1.6512</v>
       </c>
       <c r="D2" s="5" t="n">
-        <v>2422.08</v>
+        <v>2489.76</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4035.19</v>
+        <v>4135.49</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>36.82</v>
+        <v>24.4</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.666</v>
+        <v>1.661</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.663</v>
+        <v>1.6632</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>-7.27</v>
+        <v>5.48</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -631,37 +631,37 @@
         <v>519671</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>1.4268</v>
+        <v>1.4284</v>
       </c>
       <c r="D3" s="5" t="n">
-        <v>2699.6</v>
+        <v>2772.32</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>4006.21</v>
+        <v>4105.81</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>154.42</v>
+        <v>145.82</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.484</v>
+        <v>1.481</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4812</v>
+        <v>1.4892</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0055</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>-7.56</v>
+        <v>22.73</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -700,37 +700,37 @@
         <v>3318</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>0.9331</v>
+        <v>0.9338</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>3620.67</v>
+        <v>3726.73</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3466.79</v>
+        <v>3570.58</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>88.34</v>
+        <v>90.56</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9575</v>
+        <v>0.9581</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9586</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="K4" s="9" t="n">
-        <v>2.53</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K4" s="8" t="n">
+        <v>1.86</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5204</v>
+        <v>1.5102</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>0.0014</v>
+        <v>-0.0027</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>13.79</v>
+        <v>-9.27</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,31 +844,31 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2670.84</v>
+        <v>2668.93</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>218.55</v>
+        <v>216.64</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.959</v>
+        <v>1.9576</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9577</v>
+        <v>1.9649</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0037</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>-1.77</v>
+        <v>9.949999999999999</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -907,37 +907,37 @@
         <v>530015</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>2.1257</v>
+        <v>2.1311</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>1059.44</v>
+        <v>1097.22</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2415.63</v>
+        <v>2501.44</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163.58</v>
+        <v>163.16</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2801</v>
+        <v>2.2798</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2799</v>
+        <v>2.2928</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>-0.0001</v>
+        <v>0.0057</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>-0.21</v>
+        <v>14.26</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1056</v>
+        <v>1054.82</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>32.45</v>
+        <v>31.28</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>-1.81</v>
+        <v>3.63</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>542.36</v>
+        <v>541.76</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>1.49</v>
+        <v>0.88</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>0.9854000000000001</v>
+        <v>0.9843</v>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9837</v>
+        <v>0.9852</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>-0.9399999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>418.58</v>
+        <v>415.28</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>61.8</v>
+        <v>58.51</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.787</v>
+        <v>0.7808</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7823</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>-0.0073</v>
+        <v>0.0019</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>-3.08</v>
+        <v>0.8</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1199,21 +1199,21 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3648</v>
+        <v>1.3654</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>-0.79</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K11" s="9" t="n">
+        <v>-0.64</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1252,16 +1252,16 @@
         <v>1594</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>1.214</v>
+        <v>1.2357</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>85.65000000000001</v>
+        <v>165.68</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>107.82</v>
+        <v>208.57</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.85</v>
+        <v>3.84</v>
       </c>
       <c r="G12" s="4" t="n">
         <v>1.2589</v>
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2588</v>
+        <v>1.2658</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0055</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>-0.01</v>
+        <v>1.14</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90.48999999999999</v>
+        <v>90.33</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.22</v>
+        <v>-2.39</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.403</v>
+        <v>1.4004</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4003</v>
+        <v>1.4076</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0051</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>-0.17</v>
+        <v>0.46</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>16731.88</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>9712.860000000001</v>
+        <v>9671.030000000001</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-2287.25</v>
+        <v>-2329.08</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.5805</v>
+        <v>0.578</v>
       </c>
       <c r="H14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>-33.46</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>-1.67</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>8175.6</v>
+        <v>8154</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>1865.7</v>
+        <v>1844.1</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.028</v>
+        <v>3.02</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.017</v>
+        <v>3.022</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.0026</v>
+        <v>0.0017</v>
       </c>
       <c r="K15" s="8" t="n">
-        <v>-29.7</v>
+        <v>5.4</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.027</v>
+        <v>4.029</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0037</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>-30.03</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K16" s="9" t="n">
+        <v>-11.83</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>220151.2</v>
+        <v>220100.76</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>2832.4</v>
+        <v>2781.96</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>5.674</v>
+        <v>5.6727</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.67</v>
+        <v>5.667</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0009</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>-155.2</v>
+        <v>-0.0005</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>-221.16</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>26201.76</v>
+        <v>26083.46</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>-3440.84</v>
+        <v>-3559.14</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.7752</v>
+        <v>0.7717000000000001</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.769</v>
+        <v>0.77</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>-0.0065</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>-209.56</v>
+        <v>0.0013</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>-57.46</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>32579.01</v>
+        <v>32677.11</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>6974.91</v>
+        <v>7073.01</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.9963</v>
+        <v>0.9993</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.998</v>
+        <v>0.995</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.001</v>
+        <v>-0.003</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>55.59</v>
+        <v>-140.61</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,31 +1810,31 @@
         <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>27842.65</v>
+        <v>28442.81</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>-1790.25</v>
+        <v>-1190.09</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>0.8165</v>
+        <v>0.8341</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.838</v>
+        <v>0.842</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0282</v>
-      </c>
-      <c r="K20" s="9" t="n">
-        <v>733.15</v>
+        <v>0.0048</v>
+      </c>
+      <c r="K20" s="8" t="n">
+        <v>269.39</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.295</v>
+        <v>3.298</v>
       </c>
       <c r="J21" s="21" t="n">
         <v>0.0009</v>
       </c>
-      <c r="K21" s="8" t="n">
-        <v>-27.45</v>
+      <c r="K21" s="9" t="n">
+        <v>-13.95</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,31 +1948,31 @@
         <v>9200</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>15959.24</v>
+        <v>15877.36</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>3088.44</v>
+        <v>3006.56</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.7347</v>
+        <v>1.7258</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.725</v>
+        <v>1.721</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0075</v>
-      </c>
-      <c r="K22" s="8" t="n">
-        <v>-89.23999999999999</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K22" s="9" t="n">
+        <v>-44.16</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,31 +2017,31 @@
         <v>14400</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>19795.68</v>
+        <v>19594.08</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>1493.28</v>
+        <v>1291.68</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>1.3747</v>
+        <v>1.3607</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.359</v>
+        <v>1.363</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>-0.0109</v>
+        <v>0.0029</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>-226.08</v>
+        <v>33.12</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8534.559999999999</v>
+        <v>8524.16</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>530.5</v>
+        <v>520.11</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.0528</v>
+        <v>2.0503</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0524</v>
+        <v>2.0505</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>-1.66</v>
+        <v>0.83</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5643.62</v>
+        <v>5619.32</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>307.22</v>
+        <v>282.91</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.5805</v>
+        <v>0.578</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>-19.44</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>-0.97</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4891.06</v>
+        <v>4885.62</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>221.98</v>
+        <v>216.55</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>-8.4</v>
+        <v>16.81</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2303,21 +2303,21 @@
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5809</v>
+        <v>0.5810999999999999</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>-0.74</v>
+        <v>0.74</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4185.44</v>
+        <v>4174.45</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>183.62</v>
+        <v>172.62</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.142</v>
+        <v>1.139</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1399</v>
+        <v>1.1405</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>-7.7</v>
+        <v>5.5</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3718.71</v>
+        <v>3792.88</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>383.61</v>
+        <v>457.79</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.8172</v>
+        <v>0.8335</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8347</v>
+        <v>0.841</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="K29" s="9" t="n">
-        <v>79.63</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K29" s="8" t="n">
+        <v>34.13</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>744.6900000000001</v>
+        <v>741.09</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>77.68000000000001</v>
+        <v>74.08</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.8588</v>
+        <v>1.8498</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8498</v>
+        <v>1.8435</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K30" s="8" t="n">
-        <v>-3.61</v>
+        <v>-0.0034</v>
+      </c>
+      <c r="K30" s="9" t="n">
+        <v>-2.52</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>742.9299999999999</v>
+        <v>739.76</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>75.91</v>
+        <v>72.75</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.009</v>
+        <v>1.0047</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0041</v>
+        <v>1.0011</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K31" s="8" t="n">
-        <v>-3.61</v>
+        <v>-0.0036</v>
+      </c>
+      <c r="K31" s="9" t="n">
+        <v>-2.65</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>504.7</v>
+        <v>506.02</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>37.81</v>
+        <v>39.14</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>1.0651</v>
+        <v>1.0679</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0681</v>
+        <v>1.0641</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>0.0029</v>
+        <v>-0.0035</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>1.42</v>
+        <v>-1.8</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2721,17 +2721,17 @@
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K33" s="8" t="n">
-        <v>-42.4</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K33" s="9" t="n">
+        <v>-26.5</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>770.03</v>
+        <v>780.41</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>103.02</v>
+        <v>113.4</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.335</v>
+        <v>1.353</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3362</v>
+        <v>1.3525</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>0.6899999999999999</v>
+        <v>-0.29</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 05:00</t>
+          <t>2019-12-19 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>714.92</v>
+        <v>716.4</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>47.94</v>
+        <v>49.41</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.5553</v>
+        <v>1.5585</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5574</v>
+        <v>1.5542</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>0.0014</v>
+        <v>-0.0028</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>0.97</v>
+        <v>-1.98</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,17 +2914,17 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>748.17</v>
+        <v>742.66</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>81.18000000000001</v>
+        <v>75.67</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.223</v>
+        <v>1.214</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
@@ -2933,7 +2933,7 @@
       <c r="J36" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="9" t="n">
+      <c r="K36" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2148.73</v>
+        <v>2146.11</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>148.74</v>
+        <v>146.12</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>2.0528</v>
+        <v>2.0503</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0524</v>
+        <v>2.0505</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>-0.42</v>
+        <v>0.21</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2085.18</v>
+        <v>2079.7</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>85.09</v>
+        <v>79.61</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.142</v>
+        <v>1.139</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1399</v>
+        <v>1.1405</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>-3.83</v>
+        <v>2.74</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1097.3</v>
+        <v>1094.12</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>97.34</v>
+        <v>94.16</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.036</v>
+        <v>1.033</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0336</v>
+        <v>1.0334</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0023</v>
+        <v>0.0004</v>
       </c>
       <c r="K39" s="8" t="n">
-        <v>-2.54</v>
+        <v>0.42</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3200,21 +3200,21 @@
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5809</v>
+        <v>0.5810999999999999</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>-0.18</v>
+        <v>0.18</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1002.73</v>
+        <v>1022.73</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>2.7</v>
+        <v>22.7</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.8172</v>
+        <v>0.8335</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.8347</v>
+        <v>0.841</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="K41" s="9" t="n">
-        <v>21.47</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K41" s="8" t="n">
+        <v>9.199999999999999</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2211</v>
+        <v>1.2208</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K42" s="8" t="n">
-        <v>-1.65</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K42" s="9" t="n">
+        <v>-2.2</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 20:20</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1201.26</v>
+        <v>1217.46</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>201.29</v>
+        <v>217.49</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.335</v>
+        <v>1.353</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3362</v>
+        <v>1.3525</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>1.08</v>
+        <v>-0.45</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 05:00</t>
+          <t>2019-12-19 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1071.63</v>
+        <v>1073.84</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>71.66</v>
+        <v>73.86</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5553</v>
+        <v>1.5585</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5574</v>
+        <v>1.5542</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>0.0014</v>
+        <v>-0.0028</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>1.45</v>
+        <v>-2.96</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3549,17 +3549,17 @@
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K45" s="8" t="n">
-        <v>-38.06</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K45" s="9" t="n">
+        <v>-23.79</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,17 +3604,17 @@
         <v>953.96</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1166.69</v>
+        <v>1158.11</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>166.66</v>
+        <v>158.07</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.223</v>
+        <v>1.214</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
@@ -3623,7 +3623,7 @@
       <c r="J46" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="9" t="n">
+      <c r="K46" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.7402</v>
+        <v>1.7381</v>
       </c>
       <c r="J47" s="27" t="n">
         <v>-0.0005</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>0.71</v>
+        <v>-0.54</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>74303.46000000001</v>
+        <v>74108.27</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>7983.39</v>
+        <v>7788.2</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.142</v>
+        <v>1.139</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1399</v>
+        <v>1.1405</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>-136.64</v>
+        <v>97.59999999999999</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>62810.66</v>
+        <v>62740.82</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>4609.37</v>
+        <v>4539.54</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>-107.93</v>
+        <v>215.87</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>38808.74</v>
+        <v>38818.45</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>6807.47</v>
+        <v>6817.18</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.1989</v>
+        <v>1.1992</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1986</v>
+        <v>1.1995</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K50" s="8" t="n">
-        <v>-9.710000000000001</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.7402</v>
+        <v>1.7381</v>
       </c>
       <c r="J51" s="33" t="n">
         <v>-0.0005</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>24.1</v>
+        <v>-18.08</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>35108.74</v>
+        <v>34772.42</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4548.55</v>
+        <v>4212.23</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.856</v>
+        <v>0.8478</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8476</v>
+        <v>0.8491</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>-0.0098</v>
+        <v>0.0015</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>-344.52</v>
+        <v>53.32</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,17 +4087,17 @@
         <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>25336.44</v>
+        <v>25149.99</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>2734.6</v>
+        <v>2548.15</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.223</v>
+        <v>1.214</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
@@ -4106,7 +4106,7 @@
       <c r="J53" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="9" t="n">
+      <c r="K53" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
@@ -4156,31 +4156,31 @@
         <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>24569.34</v>
+        <v>24496.22</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>5368.69</v>
+        <v>5295.57</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.68</v>
+        <v>1.675</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6765</v>
+        <v>1.6755</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>-0.0021</v>
+        <v>0.0003</v>
       </c>
       <c r="K54" s="8" t="n">
-        <v>-51.19</v>
+        <v>7.31</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>24118.41</v>
+        <v>24129</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>4916.38</v>
+        <v>4926.96</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.1396</v>
+        <v>1.1401</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1401</v>
+        <v>1.1442</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K55" s="9" t="n">
-        <v>10.58</v>
+        <v>0.0036</v>
+      </c>
+      <c r="K55" s="8" t="n">
+        <v>86.77</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>22399.26</v>
+        <v>22701.27</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>3197.98</v>
+        <v>3499.99</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.335</v>
+        <v>1.353</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3362</v>
+        <v>1.3525</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>20.13</v>
+        <v>-8.390000000000001</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 05:00</t>
+          <t>2019-12-19 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>16172.09</v>
+        <v>16143.5</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>3371.65</v>
+        <v>3343.06</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.697</v>
+        <v>1.694</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6967</v>
+        <v>1.6942</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>-2.86</v>
+        <v>1.91</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4446,17 +4446,17 @@
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K58" s="8" t="n">
-        <v>-298.14</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K58" s="9" t="n">
+        <v>-186.34</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>10573.74</v>
+        <v>10595.49</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>673.73</v>
+        <v>695.49</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.5553</v>
+        <v>1.5585</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5574</v>
+        <v>1.5542</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>0.0014</v>
+        <v>-0.0028</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>14.28</v>
+        <v>-29.23</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4570,17 +4570,17 @@
         <v>5609.79</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7556.39</v>
+        <v>7573.22</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>2411.09</v>
+        <v>2427.92</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.347</v>
+        <v>1.35</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
@@ -4589,7 +4589,7 @@
       <c r="J60" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="9" t="n">
+      <c r="K60" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7780.98</v>
+        <v>7747.47</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1380.6</v>
+        <v>1347.09</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.5805</v>
+        <v>0.578</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>-26.81</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>-1.34</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7503.23</v>
+        <v>7510.16</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>1103.02</v>
+        <v>1109.95</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4081</v>
+        <v>1.4094</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
         <v>1.4086</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>0.0004</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>2.66</v>
+        <v>-4.26</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4787,21 +4787,21 @@
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.9125</v>
+        <v>0.9127999999999999</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>-1.56</v>
+        <v>0.78</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6773.5</v>
+        <v>6765.25</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>373.19</v>
+        <v>364.94</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>2.0528</v>
+        <v>2.0503</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0524</v>
+        <v>2.0505</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>-1.32</v>
+        <v>0.66</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>7852.99</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6417.46</v>
+        <v>6545.47</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>17.28</v>
+        <v>145.28</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.8172</v>
+        <v>0.8335</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.8347</v>
+        <v>0.841</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="K65" s="9" t="n">
-        <v>137.43</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K65" s="8" t="n">
+        <v>58.9</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>3580.2</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>3564.81</v>
+        <v>3563.02</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>64.8</v>
+        <v>63.01</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.9957</v>
+        <v>0.9952</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9954</v>
+        <v>0.9972</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.002</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>-1.07</v>
+        <v>7.16</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5047,37 +5047,37 @@
         <v>519671</v>
       </c>
       <c r="C67" s="4" t="n">
-        <v>1.4264</v>
+        <v>1.4272</v>
       </c>
       <c r="D67" s="5" t="n">
-        <v>1045.13</v>
+        <v>1059.67</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1550.97</v>
+        <v>1569.37</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>60.2</v>
+        <v>57.01</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.484</v>
+        <v>1.481</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4812</v>
+        <v>1.4892</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0055</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>-2.93</v>
+        <v>8.69</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5116,37 +5116,37 @@
         <v>90010</v>
       </c>
       <c r="C68" s="4" t="n">
-        <v>1.6518</v>
+        <v>1.6521</v>
       </c>
       <c r="D68" s="5" t="n">
-        <v>888.12</v>
+        <v>901.66</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1479.61</v>
+        <v>1497.66</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>12.61</v>
+        <v>8.02</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1.666</v>
+        <v>1.661</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.663</v>
+        <v>1.6632</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>-2.66</v>
+        <v>1.98</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.5204</v>
+        <v>1.5102</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>0.0014</v>
+        <v>-0.0027</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>5.48</v>
+        <v>-3.68</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5254,37 +5254,37 @@
         <v>3318</v>
       </c>
       <c r="C70" s="4" t="n">
-        <v>0.9329</v>
+        <v>0.9333</v>
       </c>
       <c r="D70" s="5" t="n">
-        <v>1358.53</v>
+        <v>1379.75</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1300.79</v>
+        <v>1321.94</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>33.42</v>
+        <v>34.22</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>0.9575</v>
+        <v>0.9581</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.9582000000000001</v>
+        <v>0.9586</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.0008</v>
-      </c>
-      <c r="K70" s="9" t="n">
-        <v>0.95</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K70" s="8" t="n">
+        <v>0.6899999999999999</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5329,31 +5329,31 @@
         <v>492.58</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>964.96</v>
+        <v>964.27</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>79.98999999999999</v>
+        <v>79.31</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1.959</v>
+        <v>1.9576</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.9577</v>
+        <v>1.9649</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0037</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>-0.64</v>
+        <v>3.6</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5392,37 +5392,37 @@
         <v>530015</v>
       </c>
       <c r="C72" s="4" t="n">
-        <v>2.122</v>
+        <v>2.1249</v>
       </c>
       <c r="D72" s="5" t="n">
-        <v>406.95</v>
+        <v>414.51</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>927.89</v>
+        <v>945</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>64.34</v>
+        <v>64.20999999999999</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>2.2801</v>
+        <v>2.2798</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2.2799</v>
+        <v>2.2928</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>-0.0001</v>
+        <v>0.0057</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>-0.08</v>
+        <v>5.39</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>390.82</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>386.64</v>
+        <v>386.21</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>11.49</v>
+        <v>11.06</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>-0.66</v>
+        <v>1.33</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>214.89</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>211.75</v>
+        <v>211.52</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>0.54</v>
+        <v>0.3</v>
       </c>
       <c r="G74" s="4" t="n">
-        <v>0.9854000000000001</v>
+        <v>0.9843</v>
       </c>
       <c r="H74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.9837</v>
+        <v>0.9852</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>-0.37</v>
+        <v>0.19</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>212.74</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>167.43</v>
+        <v>166.11</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>24.72</v>
+        <v>23.4</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>0.787</v>
+        <v>0.7808</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7823</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>-0.0073</v>
+        <v>0.0019</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>-1.23</v>
+        <v>0.32</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5684,21 +5684,21 @@
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.3648</v>
+        <v>1.3654</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K76" s="8" t="n">
-        <v>-0.2</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K76" s="9" t="n">
+        <v>-0.16</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5730,44 +5730,44 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300价值指数</t>
+          <t>天弘中证银行指数A</t>
         </is>
       </c>
       <c r="B77" s="3" t="n">
-        <v>310398</v>
+        <v>1594</v>
       </c>
       <c r="C77" s="4" t="n">
-        <v>1.4372</v>
+        <v>1.2358</v>
       </c>
       <c r="D77" s="5" t="n">
-        <v>25.8</v>
+        <v>33.12</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>36.2</v>
+        <v>41.69</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>-0.88</v>
+        <v>0.77</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.403</v>
+        <v>1.2589</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.4003</v>
+        <v>1.2658</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0055</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.23</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5777,17 +5777,17 @@
       </c>
       <c r="N77" s="6" t="inlineStr">
         <is>
-          <t>大盘股</t>
+          <t>行业股</t>
         </is>
       </c>
       <c r="O77" s="6" t="inlineStr">
         <is>
-          <t>300价值</t>
+          <t>中证银行</t>
         </is>
       </c>
       <c r="P77" s="6" t="inlineStr">
         <is>
-          <t>114</t>
+          <t>146</t>
         </is>
       </c>
       <c r="Q77" s="6" t="inlineStr">
@@ -5799,26 +5799,26 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>天弘中证银行指数A</t>
+          <t>申万菱信沪深300价值指数</t>
         </is>
       </c>
       <c r="B78" s="3" t="n">
-        <v>1594</v>
+        <v>310398</v>
       </c>
       <c r="C78" s="4" t="n">
-        <v>1.2144</v>
+        <v>1.4372</v>
       </c>
       <c r="D78" s="5" t="n">
-        <v>17.12</v>
+        <v>25.8</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>21.55</v>
+        <v>36.13</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>0.76</v>
+        <v>-0.95</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.2589</v>
+        <v>1.4004</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.2588</v>
+        <v>1.4076</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K78" s="9" t="n">
-        <v>-0</v>
+        <v>0.0051</v>
+      </c>
+      <c r="K78" s="8" t="n">
+        <v>0.19</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5846,17 +5846,17 @@
       </c>
       <c r="N78" s="6" t="inlineStr">
         <is>
-          <t>行业股</t>
+          <t>大盘股</t>
         </is>
       </c>
       <c r="O78" s="6" t="inlineStr">
         <is>
-          <t>中证银行</t>
+          <t>300价值</t>
         </is>
       </c>
       <c r="P78" s="6" t="inlineStr">
         <is>
-          <t>146</t>
+          <t>114</t>
         </is>
       </c>
       <c r="Q78" s="6" t="inlineStr">
@@ -5875,37 +5875,37 @@
         <v>90010</v>
       </c>
       <c r="C79" s="4" t="n">
-        <v>1.6561</v>
+        <v>1.6564</v>
       </c>
       <c r="D79" s="5" t="n">
-        <v>974.37</v>
+        <v>1001.44</v>
       </c>
       <c r="E79" s="5" t="n">
-        <v>1623.3</v>
+        <v>1663.39</v>
       </c>
       <c r="F79" s="5" t="n">
-        <v>9.65</v>
+        <v>4.61</v>
       </c>
       <c r="G79" s="4" t="n">
-        <v>1.666</v>
+        <v>1.661</v>
       </c>
       <c r="H79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.663</v>
+        <v>1.6632</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>-2.92</v>
+        <v>2.2</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5944,37 +5944,37 @@
         <v>519671</v>
       </c>
       <c r="C80" s="4" t="n">
-        <v>1.4251</v>
+        <v>1.4267</v>
       </c>
       <c r="D80" s="5" t="n">
-        <v>1057.28</v>
+        <v>1086.37</v>
       </c>
       <c r="E80" s="5" t="n">
-        <v>1569</v>
+        <v>1608.91</v>
       </c>
       <c r="F80" s="5" t="n">
-        <v>62.27</v>
+        <v>58.99</v>
       </c>
       <c r="G80" s="4" t="n">
-        <v>1.484</v>
+        <v>1.481</v>
       </c>
       <c r="H80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.4812</v>
+        <v>1.4892</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0055</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>-2.96</v>
+        <v>8.91</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -6006,26 +6006,26 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>华宝香港中小</t>
+          <t>景顺长城中证500低波动</t>
         </is>
       </c>
       <c r="B81" s="3" t="n">
-        <v>501021</v>
+        <v>3318</v>
       </c>
       <c r="C81" s="4" t="n">
-        <v>1.3514</v>
+        <v>0.9342</v>
       </c>
       <c r="D81" s="5" t="n">
-        <v>915.97</v>
+        <v>1454.76</v>
       </c>
       <c r="E81" s="5" t="n">
-        <v>1387.05</v>
+        <v>1393.81</v>
       </c>
       <c r="F81" s="5" t="n">
-        <v>149.21</v>
+        <v>34.77</v>
       </c>
       <c r="G81" s="4" t="n">
-        <v>1.5143</v>
+        <v>0.9581</v>
       </c>
       <c r="H81" s="6" t="inlineStr">
         <is>
@@ -6033,37 +6033,37 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>1.5204</v>
+        <v>0.9586</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0014</v>
-      </c>
-      <c r="K81" s="9" t="n">
-        <v>5.59</v>
+        <v>0.0005</v>
+      </c>
+      <c r="K81" s="8" t="n">
+        <v>0.73</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
         <is>
-          <t>海外新兴</t>
+          <t>A 股</t>
         </is>
       </c>
       <c r="N81" s="6" t="inlineStr">
         <is>
-          <t>香港</t>
+          <t>中小盘股</t>
         </is>
       </c>
       <c r="O81" s="6" t="inlineStr">
         <is>
-          <t>香港中小</t>
+          <t>500低波动</t>
         </is>
       </c>
       <c r="P81" s="6" t="inlineStr">
         <is>
-          <t>213</t>
+          <t>122</t>
         </is>
       </c>
       <c r="Q81" s="6" t="inlineStr">
@@ -6075,64 +6075,64 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>景顺长城中证500低波动</t>
+          <t>华宝香港中小</t>
         </is>
       </c>
       <c r="B82" s="3" t="n">
-        <v>3318</v>
+        <v>501021</v>
       </c>
       <c r="C82" s="4" t="n">
-        <v>0.9334</v>
+        <v>1.3514</v>
       </c>
       <c r="D82" s="5" t="n">
-        <v>1412.34</v>
+        <v>915.97</v>
       </c>
       <c r="E82" s="5" t="n">
-        <v>1352.32</v>
+        <v>1387.05</v>
       </c>
       <c r="F82" s="5" t="n">
-        <v>34.04</v>
+        <v>149.21</v>
       </c>
       <c r="G82" s="4" t="n">
-        <v>0.9575</v>
+        <v>1.5143</v>
       </c>
       <c r="H82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>0.9582000000000001</v>
+        <v>1.5102</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>0.0008</v>
+        <v>-0.0027</v>
       </c>
       <c r="K82" s="9" t="n">
-        <v>0.99</v>
+        <v>-3.76</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
         <is>
-          <t>A 股</t>
+          <t>海外新兴</t>
         </is>
       </c>
       <c r="N82" s="6" t="inlineStr">
         <is>
-          <t>中小盘股</t>
+          <t>香港</t>
         </is>
       </c>
       <c r="O82" s="6" t="inlineStr">
         <is>
-          <t>500低波动</t>
+          <t>香港中小</t>
         </is>
       </c>
       <c r="P82" s="6" t="inlineStr">
         <is>
-          <t>122</t>
+          <t>213</t>
         </is>
       </c>
       <c r="Q82" s="6" t="inlineStr">
@@ -6157,31 +6157,31 @@
         <v>528.99</v>
       </c>
       <c r="E83" s="5" t="n">
-        <v>1036.29</v>
+        <v>1035.55</v>
       </c>
       <c r="F83" s="5" t="n">
-        <v>84.53</v>
+        <v>83.79000000000001</v>
       </c>
       <c r="G83" s="4" t="n">
-        <v>1.959</v>
+        <v>1.9576</v>
       </c>
       <c r="H83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.9577</v>
+        <v>1.9649</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>-0.0007</v>
+        <v>0.0037</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>-0.6899999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6220,37 +6220,37 @@
         <v>530015</v>
       </c>
       <c r="C84" s="4" t="n">
-        <v>2.125</v>
+        <v>2.1306</v>
       </c>
       <c r="D84" s="5" t="n">
-        <v>406.87</v>
+        <v>421.98</v>
       </c>
       <c r="E84" s="5" t="n">
-        <v>927.7</v>
+        <v>962.03</v>
       </c>
       <c r="F84" s="5" t="n">
-        <v>63.11</v>
+        <v>62.96</v>
       </c>
       <c r="G84" s="4" t="n">
-        <v>2.2801</v>
+        <v>2.2798</v>
       </c>
       <c r="H84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.2799</v>
+        <v>2.2928</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>-0.0001</v>
+        <v>0.0057</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>-0.08</v>
+        <v>5.49</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6295,31 +6295,31 @@
         <v>426.97</v>
       </c>
       <c r="E85" s="5" t="n">
-        <v>422.4</v>
+        <v>421.93</v>
       </c>
       <c r="F85" s="5" t="n">
-        <v>13.02</v>
+        <v>12.55</v>
       </c>
       <c r="G85" s="4" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>-0.73</v>
+        <v>1.45</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6364,31 +6364,31 @@
         <v>227.52</v>
       </c>
       <c r="E86" s="5" t="n">
-        <v>224.2</v>
+        <v>223.95</v>
       </c>
       <c r="F86" s="5" t="n">
-        <v>0.68</v>
+        <v>0.43</v>
       </c>
       <c r="G86" s="4" t="n">
-        <v>0.9854000000000001</v>
+        <v>0.9843</v>
       </c>
       <c r="H86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>0.9837</v>
+        <v>0.9852</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>-0.0017</v>
+        <v>0.001</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>-0.39</v>
+        <v>0.2</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6443,21 +6443,21 @@
       </c>
       <c r="H87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.3648</v>
+        <v>1.3654</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0024</v>
-      </c>
-      <c r="K87" s="8" t="n">
-        <v>-0.45</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K87" s="9" t="n">
+        <v>-0.37</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6502,31 +6502,31 @@
         <v>212.74</v>
       </c>
       <c r="E88" s="5" t="n">
-        <v>167.43</v>
+        <v>166.11</v>
       </c>
       <c r="F88" s="5" t="n">
-        <v>24.72</v>
+        <v>23.4</v>
       </c>
       <c r="G88" s="4" t="n">
-        <v>0.787</v>
+        <v>0.7808</v>
       </c>
       <c r="H88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>0.7812</v>
+        <v>0.7823</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>-0.0073</v>
+        <v>0.0019</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>-1.23</v>
+        <v>0.32</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6565,13 +6565,13 @@
         <v>1594</v>
       </c>
       <c r="C89" s="4" t="n">
-        <v>1.2142</v>
+        <v>1.2358</v>
       </c>
       <c r="D89" s="5" t="n">
-        <v>34.26</v>
+        <v>66.28</v>
       </c>
       <c r="E89" s="5" t="n">
-        <v>43.13</v>
+        <v>83.44</v>
       </c>
       <c r="F89" s="5" t="n">
         <v>1.53</v>
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1.2588</v>
+        <v>1.2658</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.001</v>
-      </c>
-      <c r="K89" s="9" t="n">
-        <v>-0</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K89" s="8" t="n">
+        <v>0.46</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6640,31 +6640,31 @@
         <v>25.8</v>
       </c>
       <c r="E90" s="5" t="n">
-        <v>36.2</v>
+        <v>36.13</v>
       </c>
       <c r="F90" s="5" t="n">
-        <v>-0.88</v>
+        <v>-0.95</v>
       </c>
       <c r="G90" s="4" t="n">
-        <v>1.403</v>
+        <v>1.4004</v>
       </c>
       <c r="H90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.4003</v>
+        <v>1.4076</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>-0.0019</v>
+        <v>0.0051</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>-0.07000000000000001</v>
+        <v>0.19</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6709,31 +6709,31 @@
         <v>171152.16</v>
       </c>
       <c r="E91" s="25" t="n">
-        <v>176303.84</v>
+        <v>176320.96</v>
       </c>
       <c r="F91" s="25" t="n">
-        <v>256.73</v>
+        <v>273.84</v>
       </c>
       <c r="G91" s="24" t="n">
-        <v>1.0301</v>
+        <v>1.0302</v>
       </c>
       <c r="H91" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I91" s="24" t="n">
-        <v>1.0301</v>
+        <v>1.0303</v>
       </c>
       <c r="J91" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K91" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K91" s="8" t="n">
+        <v>17.12</v>
       </c>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M91" s="26" t="inlineStr">
@@ -6778,31 +6778,31 @@
         <v>11598.58</v>
       </c>
       <c r="E92" s="25" t="n">
-        <v>17908.21</v>
+        <v>17977.8</v>
       </c>
       <c r="F92" s="25" t="n">
-        <v>908.17</v>
+        <v>977.76</v>
       </c>
       <c r="G92" s="24" t="n">
-        <v>1.544</v>
+        <v>1.55</v>
       </c>
       <c r="H92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.5386</v>
+        <v>1.5483</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K92" s="8" t="n">
-        <v>-62.63</v>
+        <v>-0.0011</v>
+      </c>
+      <c r="K92" s="9" t="n">
+        <v>-19.72</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6857,21 +6857,21 @@
       </c>
       <c r="H93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.078</v>
+        <v>1.0781</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K93" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K93" s="8" t="n">
+        <v>12.89</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
@@ -6926,21 +6926,21 @@
       </c>
       <c r="H94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.079</v>
+        <v>1.0791</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K94" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K94" s="8" t="n">
+        <v>13.27</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
@@ -6985,31 +6985,31 @@
         <v>59685.02</v>
       </c>
       <c r="E95" s="25" t="n">
-        <v>74725.64999999999</v>
+        <v>74665.96000000001</v>
       </c>
       <c r="F95" s="25" t="n">
-        <v>483.45</v>
+        <v>423.76</v>
       </c>
       <c r="G95" s="24" t="n">
-        <v>1.252</v>
+        <v>1.251</v>
       </c>
       <c r="H95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.2511</v>
+        <v>1.2512</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>-0.0007</v>
+        <v>0.0001</v>
       </c>
       <c r="K95" s="8" t="n">
-        <v>-53.72</v>
+        <v>11.94</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7054,31 +7054,31 @@
         <v>76964.17</v>
       </c>
       <c r="E96" s="25" t="n">
-        <v>100207.35</v>
+        <v>100130.39</v>
       </c>
       <c r="F96" s="25" t="n">
-        <v>969.75</v>
+        <v>892.78</v>
       </c>
       <c r="G96" s="24" t="n">
-        <v>1.302</v>
+        <v>1.301</v>
       </c>
       <c r="H96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.3012</v>
+        <v>1.3022</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>0.0009</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>-61.57</v>
+        <v>92.36</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
@@ -7123,31 +7123,31 @@
         <v>140577.44</v>
       </c>
       <c r="E97" s="25" t="n">
-        <v>151837.69</v>
+        <v>151865.81</v>
       </c>
       <c r="F97" s="25" t="n">
-        <v>112.46</v>
+        <v>140.58</v>
       </c>
       <c r="G97" s="24" t="n">
-        <v>1.0801</v>
+        <v>1.0803</v>
       </c>
       <c r="H97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.0801</v>
+        <v>1.0804</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K97" s="9" t="n">
-        <v>0</v>
+        <v>0.0001</v>
+      </c>
+      <c r="K97" s="8" t="n">
+        <v>14.06</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7202,21 +7202,21 @@
       </c>
       <c r="H98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1423</v>
+        <v>1.1426</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>-1.94</v>
+        <v>0.97</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7261,31 +7261,31 @@
         <v>8677.6</v>
       </c>
       <c r="E99" s="31" t="n">
-        <v>9909.82</v>
+        <v>9883.790000000001</v>
       </c>
       <c r="F99" s="31" t="n">
-        <v>1109</v>
+        <v>1082.96</v>
       </c>
       <c r="G99" s="30" t="n">
-        <v>1.142</v>
+        <v>1.139</v>
       </c>
       <c r="H99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1399</v>
+        <v>1.1405</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>-0.0018</v>
+        <v>0.0013</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>-18.22</v>
+        <v>13.02</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7330,31 +7330,31 @@
         <v>6096.21</v>
       </c>
       <c r="E100" s="31" t="n">
-        <v>6030.98</v>
+        <v>6024.27</v>
       </c>
       <c r="F100" s="31" t="n">
-        <v>830.91</v>
+        <v>824.21</v>
       </c>
       <c r="G100" s="30" t="n">
-        <v>0.9893</v>
+        <v>0.9882</v>
       </c>
       <c r="H100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9876</v>
+        <v>0.9916</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>-0.0017</v>
+        <v>0.0034</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>-10.36</v>
+        <v>20.73</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7399,31 +7399,31 @@
         <v>6750.28</v>
       </c>
       <c r="E101" s="31" t="n">
-        <v>5778.24</v>
+        <v>5722.89</v>
       </c>
       <c r="F101" s="31" t="n">
-        <v>978.12</v>
+        <v>922.76</v>
       </c>
       <c r="G101" s="30" t="n">
-        <v>0.856</v>
+        <v>0.8478</v>
       </c>
       <c r="H101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8476</v>
+        <v>0.8491</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>-0.0098</v>
+        <v>0.0015</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>-56.7</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7468,31 +7468,31 @@
         <v>2760.12</v>
       </c>
       <c r="E102" s="31" t="n">
-        <v>4637</v>
+        <v>4623.2</v>
       </c>
       <c r="F102" s="31" t="n">
-        <v>1036.98</v>
+        <v>1023.18</v>
       </c>
       <c r="G102" s="30" t="n">
-        <v>1.68</v>
+        <v>1.675</v>
       </c>
       <c r="H102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6765</v>
+        <v>1.6755</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>-0.0021</v>
+        <v>0.0003</v>
       </c>
       <c r="K102" s="8" t="n">
-        <v>-9.66</v>
+        <v>1.38</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7537,31 +7537,31 @@
         <v>4423.48</v>
       </c>
       <c r="E103" s="31" t="n">
-        <v>3614.87</v>
+        <v>3686.97</v>
       </c>
       <c r="F103" s="31" t="n">
-        <v>414.48</v>
+        <v>486.58</v>
       </c>
       <c r="G103" s="30" t="n">
-        <v>0.8172</v>
+        <v>0.8335</v>
       </c>
       <c r="H103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.8347</v>
+        <v>0.841</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.0215</v>
-      </c>
-      <c r="K103" s="9" t="n">
-        <v>77.41</v>
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K103" s="8" t="n">
+        <v>33.18</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.7402</v>
+        <v>1.7381</v>
       </c>
       <c r="J104" s="33" t="n">
         <v>-0.0005</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>2.38</v>
+        <v>-1.78</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7675,31 +7675,31 @@
         <v>2046.97</v>
       </c>
       <c r="E105" s="31" t="n">
-        <v>3473.71</v>
+        <v>3467.57</v>
       </c>
       <c r="F105" s="31" t="n">
-        <v>761.47</v>
+        <v>755.33</v>
       </c>
       <c r="G105" s="30" t="n">
-        <v>1.697</v>
+        <v>1.694</v>
       </c>
       <c r="H105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.6967</v>
+        <v>1.6942</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>-0.61</v>
+        <v>0.41</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7744,31 +7744,31 @@
         <v>5949.77</v>
       </c>
       <c r="E106" s="31" t="n">
-        <v>3453.84</v>
+        <v>3438.97</v>
       </c>
       <c r="F106" s="31" t="n">
-        <v>253.46</v>
+        <v>238.59</v>
       </c>
       <c r="G106" s="30" t="n">
-        <v>0.5805</v>
+        <v>0.578</v>
       </c>
       <c r="H106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5785</v>
+        <v>0.5779</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0035</v>
-      </c>
-      <c r="K106" s="8" t="n">
-        <v>-11.9</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K106" s="9" t="n">
+        <v>-0.59</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:25</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7813,17 +7813,17 @@
         <v>1884.74</v>
       </c>
       <c r="E107" s="31" t="n">
-        <v>2305.04</v>
+        <v>2288.07</v>
       </c>
       <c r="F107" s="31" t="n">
-        <v>304.95</v>
+        <v>287.99</v>
       </c>
       <c r="G107" s="30" t="n">
-        <v>1.223</v>
+        <v>1.214</v>
       </c>
       <c r="H107" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I107" s="30" t="n">
@@ -7832,7 +7832,7 @@
       <c r="J107" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K107" s="9" t="n">
+      <c r="K107" s="8" t="n">
         <v>0</v>
       </c>
       <c r="L107" s="32" t="inlineStr">
@@ -7882,31 +7882,31 @@
         <v>1213.09</v>
       </c>
       <c r="E108" s="31" t="n">
-        <v>2254.89</v>
+        <v>2243.97</v>
       </c>
       <c r="F108" s="31" t="n">
-        <v>654.83</v>
+        <v>643.91</v>
       </c>
       <c r="G108" s="30" t="n">
-        <v>1.8588</v>
+        <v>1.8498</v>
       </c>
       <c r="H108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.8498</v>
+        <v>1.8435</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0048</v>
-      </c>
-      <c r="K108" s="8" t="n">
-        <v>-10.92</v>
+        <v>-0.0034</v>
+      </c>
+      <c r="K108" s="9" t="n">
+        <v>-7.64</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:27</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7951,31 +7951,31 @@
         <v>1630.08</v>
       </c>
       <c r="E109" s="31" t="n">
-        <v>1954.3</v>
+        <v>1954.79</v>
       </c>
       <c r="F109" s="31" t="n">
-        <v>354.22</v>
+        <v>354.71</v>
       </c>
       <c r="G109" s="30" t="n">
-        <v>1.1989</v>
+        <v>1.1992</v>
       </c>
       <c r="H109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1986</v>
+        <v>1.1995</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.0002</v>
       </c>
       <c r="K109" s="8" t="n">
-        <v>-0.49</v>
+        <v>0.49</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8020,31 +8020,31 @@
         <v>1407.29</v>
       </c>
       <c r="E110" s="31" t="n">
-        <v>1878.73</v>
+        <v>1904.06</v>
       </c>
       <c r="F110" s="31" t="n">
-        <v>278.64</v>
+        <v>303.97</v>
       </c>
       <c r="G110" s="30" t="n">
-        <v>1.335</v>
+        <v>1.353</v>
       </c>
       <c r="H110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-16</t>
+          <t>2019-12-17</t>
         </is>
       </c>
       <c r="I110" s="30" t="n">
-        <v>1.3362</v>
+        <v>1.3525</v>
       </c>
       <c r="J110" s="33" t="n">
-        <v>0.0009</v>
+        <v>-0.0003</v>
       </c>
       <c r="K110" s="9" t="n">
-        <v>1.69</v>
+        <v>-0.7</v>
       </c>
       <c r="L110" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 05:00</t>
+          <t>2019-12-19 05:00</t>
         </is>
       </c>
       <c r="M110" s="32" t="inlineStr">
@@ -8089,31 +8089,31 @@
         <v>1338.46</v>
       </c>
       <c r="E111" s="31" t="n">
-        <v>1386.64</v>
+        <v>1382.63</v>
       </c>
       <c r="F111" s="31" t="n">
-        <v>186.58</v>
+        <v>182.57</v>
       </c>
       <c r="G111" s="30" t="n">
-        <v>1.036</v>
+        <v>1.033</v>
       </c>
       <c r="H111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0336</v>
+        <v>1.0334</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>-0.0023</v>
+        <v>0.0004</v>
       </c>
       <c r="K111" s="8" t="n">
-        <v>-3.21</v>
+        <v>0.54</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8172,17 +8172,17 @@
         </is>
       </c>
       <c r="I112" s="30" t="n">
-        <v>0.395</v>
+        <v>0.398</v>
       </c>
       <c r="J112" s="33" t="n">
-        <v>0.0128</v>
-      </c>
-      <c r="K112" s="8" t="n">
-        <v>-26.81</v>
+        <v>0.0076</v>
+      </c>
+      <c r="K112" s="9" t="n">
+        <v>-16.75</v>
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:04</t>
+          <t>2019-12-19 10:28</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8227,31 +8227,31 @@
         <v>1495.03</v>
       </c>
       <c r="E113" s="31" t="n">
-        <v>1227.42</v>
+        <v>1226.67</v>
       </c>
       <c r="F113" s="31" t="n">
-        <v>27.36</v>
+        <v>26.61</v>
       </c>
       <c r="G113" s="30" t="n">
-        <v>0.821</v>
+        <v>0.8205</v>
       </c>
       <c r="H113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8208</v>
+        <v>0.8221000000000001</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.002</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>-0.3</v>
+        <v>2.39</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8296,31 +8296,31 @@
         <v>900.35</v>
       </c>
       <c r="E114" s="31" t="n">
-        <v>1026.04</v>
+        <v>1026.49</v>
       </c>
       <c r="F114" s="31" t="n">
-        <v>225.99</v>
+        <v>226.44</v>
       </c>
       <c r="G114" s="30" t="n">
-        <v>1.1396</v>
+        <v>1.1401</v>
       </c>
       <c r="H114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.1401</v>
+        <v>1.1442</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K114" s="9" t="n">
-        <v>0.45</v>
+        <v>0.0036</v>
+      </c>
+      <c r="K114" s="8" t="n">
+        <v>3.69</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8379,17 +8379,17 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2211</v>
+        <v>1.2208</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K115" s="8" t="n">
-        <v>-0.66</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K115" s="9" t="n">
+        <v>-0.88</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 20:20</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8434,31 +8434,31 @@
         <v>496.13</v>
       </c>
       <c r="E116" s="31" t="n">
-        <v>528.4299999999999</v>
+        <v>529.8200000000001</v>
       </c>
       <c r="F116" s="31" t="n">
-        <v>128.4</v>
+        <v>129.79</v>
       </c>
       <c r="G116" s="30" t="n">
-        <v>1.0651</v>
+        <v>1.0679</v>
       </c>
       <c r="H116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0681</v>
+        <v>1.0641</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>0.0029</v>
+        <v>-0.0035</v>
       </c>
       <c r="K116" s="9" t="n">
-        <v>1.49</v>
+        <v>-1.89</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8503,31 +8503,31 @@
         <v>333.04</v>
       </c>
       <c r="E117" s="31" t="n">
-        <v>468.95</v>
+        <v>469.39</v>
       </c>
       <c r="F117" s="31" t="n">
-        <v>68.94</v>
+        <v>69.37</v>
       </c>
       <c r="G117" s="30" t="n">
-        <v>1.4081</v>
+        <v>1.4094</v>
       </c>
       <c r="H117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I117" s="30" t="n">
         <v>1.4086</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>0.0004</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>0.17</v>
+        <v>-0.27</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8572,31 +8572,31 @@
         <v>325.61</v>
       </c>
       <c r="E118" s="31" t="n">
-        <v>439.9</v>
+        <v>438.92</v>
       </c>
       <c r="F118" s="31" t="n">
-        <v>39.89</v>
+        <v>38.91</v>
       </c>
       <c r="G118" s="30" t="n">
-        <v>1.351</v>
+        <v>1.348</v>
       </c>
       <c r="H118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3482</v>
+        <v>1.3486</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>-0.0021</v>
+        <v>0.0005</v>
       </c>
       <c r="K118" s="8" t="n">
-        <v>-0.91</v>
+        <v>0.2</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8641,31 +8641,31 @@
         <v>275.49</v>
       </c>
       <c r="E119" s="31" t="n">
-        <v>428.47</v>
+        <v>429.35</v>
       </c>
       <c r="F119" s="31" t="n">
-        <v>28.46</v>
+        <v>29.34</v>
       </c>
       <c r="G119" s="30" t="n">
-        <v>1.5553</v>
+        <v>1.5585</v>
       </c>
       <c r="H119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5574</v>
+        <v>1.5542</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>0.0014</v>
+        <v>-0.0028</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>0.58</v>
+        <v>-1.18</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 16:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8710,31 +8710,31 @@
         <v>206.23</v>
       </c>
       <c r="E120" s="31" t="n">
-        <v>423.35</v>
+        <v>422.83</v>
       </c>
       <c r="F120" s="31" t="n">
-        <v>23.35</v>
+        <v>22.83</v>
       </c>
       <c r="G120" s="30" t="n">
-        <v>2.0528</v>
+        <v>2.0503</v>
       </c>
       <c r="H120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0524</v>
+        <v>2.0505</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K120" s="8" t="n">
-        <v>-0.08</v>
+        <v>0.04</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8789,21 +8789,21 @@
       </c>
       <c r="H121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.9125</v>
+        <v>0.9127999999999999</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>-0.0002</v>
+        <v>0.0001</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>-0.06</v>
+        <v>0.03</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18 15:00</t>
+          <t>2019-12-19 10:26</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -462,7 +462,7 @@
     <col customWidth="1" max="13" min="13" width="9.600000000000001"/>
     <col customWidth="1" max="14" min="14" width="9.600000000000001"/>
     <col customWidth="1" max="15" min="15" width="12"/>
-    <col customWidth="1" max="17" min="17" width="16"/>
+    <col customWidth="1" max="17" min="17" width="14.4"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -582,17 +582,17 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6632</v>
+        <v>1.6629</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>5.48</v>
+        <v>4.73</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="Q2" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -651,17 +651,17 @@
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.4892</v>
+        <v>1.484</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.002</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>22.73</v>
+        <v>8.32</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -686,7 +686,7 @@
       </c>
       <c r="Q3" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -720,17 +720,17 @@
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9586</v>
+        <v>0.9609</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.0029</v>
       </c>
       <c r="K4" s="8" t="n">
-        <v>1.86</v>
+        <v>10.43</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="Q4" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -789,17 +789,17 @@
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5102</v>
+        <v>1.5087</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0037</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-9.27</v>
+        <v>-12.66</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -824,7 +824,7 @@
       </c>
       <c r="Q5" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -858,17 +858,17 @@
         </is>
       </c>
       <c r="I6" s="4" t="n">
-        <v>1.9649</v>
+        <v>1.963</v>
       </c>
       <c r="J6" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0028</v>
       </c>
       <c r="K6" s="8" t="n">
-        <v>9.949999999999999</v>
+        <v>7.36</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -893,7 +893,7 @@
       </c>
       <c r="Q6" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -927,17 +927,17 @@
         </is>
       </c>
       <c r="I7" s="4" t="n">
-        <v>2.2928</v>
+        <v>2.2885</v>
       </c>
       <c r="J7" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0038</v>
       </c>
       <c r="K7" s="8" t="n">
-        <v>14.26</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="Q7" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -996,17 +996,17 @@
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K8" s="8" t="n">
-        <v>3.63</v>
+        <v>5.34</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1031,7 +1031,7 @@
       </c>
       <c r="Q8" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1065,17 +1065,17 @@
         </is>
       </c>
       <c r="I9" s="4" t="n">
-        <v>0.9852</v>
+        <v>0.9846</v>
       </c>
       <c r="J9" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1100,7 +1100,7 @@
       </c>
       <c r="Q9" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1134,17 +1134,17 @@
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7823</v>
+        <v>0.7847</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0019</v>
+        <v>0.0049</v>
       </c>
       <c r="K10" s="8" t="n">
-        <v>0.8</v>
+        <v>2.07</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="Q10" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1203,17 +1203,17 @@
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3654</v>
+        <v>1.3612</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0049</v>
       </c>
       <c r="K11" s="9" t="n">
-        <v>-0.64</v>
+        <v>-1.69</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1238,7 +1238,7 @@
       </c>
       <c r="Q11" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1272,17 +1272,17 @@
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2658</v>
+        <v>1.2611</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0017</v>
       </c>
       <c r="K12" s="8" t="n">
-        <v>1.14</v>
+        <v>0.36</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1307,7 +1307,7 @@
       </c>
       <c r="Q12" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1341,17 +1341,17 @@
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4076</v>
+        <v>1.4032</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.002</v>
       </c>
       <c r="K13" s="8" t="n">
-        <v>0.46</v>
+        <v>0.18</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1376,7 +1376,7 @@
       </c>
       <c r="Q13" s="6" t="inlineStr">
         <is>
-          <t>螺丝钉定投</t>
+          <t>螺丝钉</t>
         </is>
       </c>
     </row>
@@ -1410,17 +1410,17 @@
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5779</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K14" s="9" t="n">
-        <v>-1.67</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K14" s="8" t="n">
+        <v>18.41</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1479,17 +1479,17 @@
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.022</v>
+        <v>3.014</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K15" s="8" t="n">
-        <v>5.4</v>
+        <v>-0.001</v>
+      </c>
+      <c r="K15" s="9" t="n">
+        <v>-16.2</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1548,17 +1548,17 @@
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.029</v>
+        <v>4.024</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>0.0005</v>
+        <v>-0.0007</v>
       </c>
       <c r="K16" s="9" t="n">
-        <v>-11.83</v>
+        <v>-57.33</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1617,17 +1617,17 @@
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.667</v>
+        <v>5.682</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>-0.0005</v>
-      </c>
-      <c r="K17" s="9" t="n">
-        <v>-221.16</v>
+        <v>0.0021</v>
+      </c>
+      <c r="K17" s="8" t="n">
+        <v>360.84</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1686,17 +1686,17 @@
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.77</v>
+        <v>0.772</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0013</v>
-      </c>
-      <c r="K18" s="9" t="n">
-        <v>-57.46</v>
+        <v>0.0039</v>
+      </c>
+      <c r="K18" s="8" t="n">
+        <v>10.14</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1755,17 +1755,17 @@
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.995</v>
+        <v>0.994</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.003</v>
+        <v>-0.004</v>
       </c>
       <c r="K19" s="9" t="n">
-        <v>-140.61</v>
+        <v>-173.31</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1824,17 +1824,17 @@
         </is>
       </c>
       <c r="I20" s="18" t="n">
-        <v>0.842</v>
+        <v>0.843</v>
       </c>
       <c r="J20" s="21" t="n">
-        <v>0.0048</v>
+        <v>0.006</v>
       </c>
       <c r="K20" s="8" t="n">
-        <v>269.39</v>
+        <v>303.49</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1893,17 +1893,17 @@
         </is>
       </c>
       <c r="I21" s="18" t="n">
-        <v>3.298</v>
+        <v>3.292</v>
       </c>
       <c r="J21" s="21" t="n">
-        <v>0.0009</v>
+        <v>-0.0009</v>
       </c>
       <c r="K21" s="9" t="n">
-        <v>-13.95</v>
+        <v>-40.95</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1962,17 +1962,17 @@
         </is>
       </c>
       <c r="I22" s="18" t="n">
-        <v>1.721</v>
+        <v>1.724</v>
       </c>
       <c r="J22" s="21" t="n">
-        <v>-0.0023</v>
+        <v>-0.0005999999999999999</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-44.16</v>
+        <v>-16.56</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2031,17 +2031,17 @@
         </is>
       </c>
       <c r="I23" s="18" t="n">
-        <v>1.363</v>
+        <v>1.366</v>
       </c>
       <c r="J23" s="21" t="n">
-        <v>0.0029</v>
+        <v>0.0052</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>33.12</v>
+        <v>76.31999999999999</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2100,17 +2100,17 @@
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0505</v>
+        <v>2.0534</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>0.83</v>
+        <v>12.89</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2135,7 +2135,7 @@
       </c>
       <c r="Q24" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2169,17 +2169,17 @@
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5779</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K25" s="9" t="n">
-        <v>-0.97</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K25" s="8" t="n">
+        <v>10.69</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2204,7 +2204,7 @@
       </c>
       <c r="Q25" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2238,17 +2238,17 @@
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K26" s="8" t="n">
-        <v>16.81</v>
+        <v>24.72</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2273,7 +2273,7 @@
       </c>
       <c r="Q26" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2307,17 +2307,17 @@
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5810999999999999</v>
+        <v>0.5819</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>0.74</v>
+        <v>6.64</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2342,7 +2342,7 @@
       </c>
       <c r="Q27" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2376,17 +2376,17 @@
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1405</v>
+        <v>1.1403</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>5.5</v>
+        <v>4.76</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2411,7 +2411,7 @@
       </c>
       <c r="Q28" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2445,17 +2445,17 @@
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.841</v>
+        <v>0.8405</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K29" s="8" t="n">
-        <v>34.13</v>
+        <v>31.85</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2480,7 +2480,7 @@
       </c>
       <c r="Q29" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2514,17 +2514,17 @@
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.8435</v>
+        <v>1.848</v>
       </c>
       <c r="J30" s="27" t="n">
-        <v>-0.0034</v>
+        <v>-0.001</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>-2.52</v>
+        <v>-0.72</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2549,7 +2549,7 @@
       </c>
       <c r="Q30" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2583,17 +2583,17 @@
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0011</v>
+        <v>1.0039</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0036</v>
+        <v>-0.0008</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>-2.65</v>
+        <v>-0.59</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2618,7 +2618,7 @@
       </c>
       <c r="Q31" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2652,17 +2652,17 @@
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0641</v>
+        <v>1.0631</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0035</v>
+        <v>-0.0045</v>
       </c>
       <c r="K32" s="9" t="n">
-        <v>-1.8</v>
+        <v>-2.27</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2687,7 +2687,7 @@
       </c>
       <c r="Q32" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2756,7 +2756,7 @@
       </c>
       <c r="Q33" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2825,7 +2825,7 @@
       </c>
       <c r="Q34" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2859,17 +2859,17 @@
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5542</v>
+        <v>1.5524</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>-0.0028</v>
+        <v>-0.0039</v>
       </c>
       <c r="K35" s="9" t="n">
-        <v>-1.98</v>
+        <v>-2.8</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2894,7 +2894,7 @@
       </c>
       <c r="Q35" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2963,7 +2963,7 @@
       </c>
       <c r="Q36" s="26" t="inlineStr">
         <is>
-          <t>且慢补充 150 份</t>
+          <t>且慢 150 份</t>
         </is>
       </c>
     </row>
@@ -2997,17 +2997,17 @@
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0505</v>
+        <v>2.0534</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>0.21</v>
+        <v>3.24</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3066,17 +3066,17 @@
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1405</v>
+        <v>1.1403</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>2.74</v>
+        <v>2.37</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3135,17 +3135,17 @@
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0334</v>
+        <v>1.0305</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K39" s="8" t="n">
-        <v>0.42</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K39" s="9" t="n">
+        <v>-2.65</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3204,17 +3204,17 @@
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5810999999999999</v>
+        <v>0.5819</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>0.18</v>
+        <v>1.63</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3273,17 +3273,17 @@
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.841</v>
+        <v>0.8405</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K41" s="8" t="n">
-        <v>9.199999999999999</v>
+        <v>8.59</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3342,17 +3342,17 @@
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2208</v>
+        <v>1.2202</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>-2.2</v>
+        <v>-3.3</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3480,17 +3480,17 @@
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5542</v>
+        <v>1.5524</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0028</v>
+        <v>-0.0039</v>
       </c>
       <c r="K44" s="9" t="n">
-        <v>-2.96</v>
+        <v>-4.2</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3559,7 +3559,7 @@
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3687,17 +3687,17 @@
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.7381</v>
+        <v>1.737</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>-0.0005</v>
+        <v>-0.0012</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-0.54</v>
+        <v>-1.19</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3756,17 +3756,17 @@
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1405</v>
+        <v>1.1403</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>97.59999999999999</v>
+        <v>84.58</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3825,17 +3825,17 @@
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K49" s="8" t="n">
-        <v>215.87</v>
+        <v>317.45</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3894,17 +3894,17 @@
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1995</v>
+        <v>1.1977</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K50" s="8" t="n">
-        <v>9.710000000000001</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K50" s="9" t="n">
+        <v>-48.56</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3963,17 +3963,17 @@
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.7381</v>
+        <v>1.737</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0012</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-18.08</v>
+        <v>-40.17</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4032,17 +4032,17 @@
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8491</v>
+        <v>0.8511</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0015</v>
+        <v>0.0039</v>
       </c>
       <c r="K52" s="8" t="n">
-        <v>53.32</v>
+        <v>135.35</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4170,17 +4170,17 @@
         </is>
       </c>
       <c r="I54" s="30" t="n">
-        <v>1.6755</v>
+        <v>1.6728</v>
       </c>
       <c r="J54" s="33" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K54" s="8" t="n">
-        <v>7.31</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K54" s="9" t="n">
+        <v>-32.17</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4239,17 +4239,17 @@
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1442</v>
+        <v>1.1403</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0036</v>
+        <v>0.0002</v>
       </c>
       <c r="K55" s="8" t="n">
-        <v>86.77</v>
+        <v>4.23</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4377,17 +4377,17 @@
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6942</v>
+        <v>1.6971</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0018</v>
       </c>
       <c r="K57" s="8" t="n">
-        <v>1.91</v>
+        <v>29.54</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4515,17 +4515,17 @@
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5542</v>
+        <v>1.5524</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0039</v>
       </c>
       <c r="K59" s="9" t="n">
-        <v>-29.23</v>
+        <v>-41.47</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4653,17 +4653,17 @@
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5779</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K61" s="9" t="n">
-        <v>-1.34</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K61" s="8" t="n">
+        <v>14.74</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4722,17 +4722,17 @@
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.4086</v>
+        <v>1.407</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0017</v>
       </c>
       <c r="K62" s="9" t="n">
-        <v>-4.26</v>
+        <v>-12.79</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4791,17 +4791,17 @@
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.9127999999999999</v>
+        <v>0.9143</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0018</v>
       </c>
       <c r="K63" s="8" t="n">
-        <v>0.78</v>
+        <v>12.45</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4860,17 +4860,17 @@
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0505</v>
+        <v>2.0534</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>0.66</v>
+        <v>10.23</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4929,17 +4929,17 @@
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.841</v>
+        <v>0.8405</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K65" s="8" t="n">
-        <v>58.9</v>
+        <v>54.97</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4998,17 +4998,17 @@
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9972</v>
+        <v>0.9993</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.002</v>
+        <v>0.0041</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>7.16</v>
+        <v>14.68</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5067,17 +5067,17 @@
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.4892</v>
+        <v>1.484</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.002</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>8.69</v>
+        <v>3.18</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5102,7 +5102,7 @@
       </c>
       <c r="Q67" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5136,17 +5136,17 @@
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.6632</v>
+        <v>1.6629</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>1.98</v>
+        <v>1.71</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5171,7 +5171,7 @@
       </c>
       <c r="Q68" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5205,17 +5205,17 @@
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.5102</v>
+        <v>1.5087</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0037</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>-3.68</v>
+        <v>-5.03</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5240,7 +5240,7 @@
       </c>
       <c r="Q69" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5274,17 +5274,17 @@
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.9586</v>
+        <v>0.9609</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.0029</v>
       </c>
       <c r="K70" s="8" t="n">
-        <v>0.6899999999999999</v>
+        <v>3.86</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5309,7 +5309,7 @@
       </c>
       <c r="Q70" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5343,17 +5343,17 @@
         </is>
       </c>
       <c r="I71" s="4" t="n">
-        <v>1.9649</v>
+        <v>1.963</v>
       </c>
       <c r="J71" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0028</v>
       </c>
       <c r="K71" s="8" t="n">
-        <v>3.6</v>
+        <v>2.66</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5378,7 +5378,7 @@
       </c>
       <c r="Q71" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5412,17 +5412,17 @@
         </is>
       </c>
       <c r="I72" s="4" t="n">
-        <v>2.2928</v>
+        <v>2.2885</v>
       </c>
       <c r="J72" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0038</v>
       </c>
       <c r="K72" s="8" t="n">
-        <v>5.39</v>
+        <v>3.61</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5447,7 +5447,7 @@
       </c>
       <c r="Q72" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5481,17 +5481,17 @@
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K73" s="8" t="n">
-        <v>1.33</v>
+        <v>1.95</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5516,7 +5516,7 @@
       </c>
       <c r="Q73" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5550,17 +5550,17 @@
         </is>
       </c>
       <c r="I74" s="4" t="n">
-        <v>0.9852</v>
+        <v>0.9846</v>
       </c>
       <c r="J74" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>0.19</v>
+        <v>0.06</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5585,7 +5585,7 @@
       </c>
       <c r="Q74" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5619,17 +5619,17 @@
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.7823</v>
+        <v>0.7847</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0019</v>
+        <v>0.0049</v>
       </c>
       <c r="K75" s="8" t="n">
-        <v>0.32</v>
+        <v>0.83</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5654,7 +5654,7 @@
       </c>
       <c r="Q75" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5688,17 +5688,17 @@
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.3654</v>
+        <v>1.3612</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0049</v>
       </c>
       <c r="K76" s="9" t="n">
-        <v>-0.16</v>
+        <v>-0.42</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5723,7 +5723,7 @@
       </c>
       <c r="Q76" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5757,17 +5757,17 @@
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.2658</v>
+        <v>1.2611</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0017</v>
       </c>
       <c r="K77" s="8" t="n">
-        <v>0.23</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5792,7 +5792,7 @@
       </c>
       <c r="Q77" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5826,17 +5826,17 @@
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4076</v>
+        <v>1.4032</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.002</v>
       </c>
       <c r="K78" s="8" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M78" s="6" t="inlineStr">
@@ -5861,7 +5861,7 @@
       </c>
       <c r="Q78" s="6" t="inlineStr">
         <is>
-          <t>父螺丝钉</t>
+          <t>螺丝钉父</t>
         </is>
       </c>
     </row>
@@ -5895,17 +5895,17 @@
         </is>
       </c>
       <c r="I79" s="4" t="n">
-        <v>1.6632</v>
+        <v>1.6629</v>
       </c>
       <c r="J79" s="7" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K79" s="8" t="n">
-        <v>2.2</v>
+        <v>1.9</v>
       </c>
       <c r="L79" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M79" s="6" t="inlineStr">
@@ -5930,7 +5930,7 @@
       </c>
       <c r="Q79" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -5964,17 +5964,17 @@
         </is>
       </c>
       <c r="I80" s="4" t="n">
-        <v>1.4892</v>
+        <v>1.484</v>
       </c>
       <c r="J80" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.002</v>
       </c>
       <c r="K80" s="8" t="n">
-        <v>8.91</v>
+        <v>3.26</v>
       </c>
       <c r="L80" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M80" s="6" t="inlineStr">
@@ -5999,7 +5999,7 @@
       </c>
       <c r="Q80" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6033,17 +6033,17 @@
         </is>
       </c>
       <c r="I81" s="4" t="n">
-        <v>0.9586</v>
+        <v>0.9609</v>
       </c>
       <c r="J81" s="7" t="n">
-        <v>0.0005</v>
+        <v>0.0029</v>
       </c>
       <c r="K81" s="8" t="n">
-        <v>0.73</v>
+        <v>4.07</v>
       </c>
       <c r="L81" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M81" s="6" t="inlineStr">
@@ -6068,7 +6068,7 @@
       </c>
       <c r="Q81" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6102,17 +6102,17 @@
         </is>
       </c>
       <c r="I82" s="4" t="n">
-        <v>1.5102</v>
+        <v>1.5087</v>
       </c>
       <c r="J82" s="7" t="n">
-        <v>-0.0027</v>
+        <v>-0.0037</v>
       </c>
       <c r="K82" s="9" t="n">
-        <v>-3.76</v>
+        <v>-5.13</v>
       </c>
       <c r="L82" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M82" s="6" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="Q82" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6171,17 +6171,17 @@
         </is>
       </c>
       <c r="I83" s="4" t="n">
-        <v>1.9649</v>
+        <v>1.963</v>
       </c>
       <c r="J83" s="7" t="n">
-        <v>0.0037</v>
+        <v>0.0028</v>
       </c>
       <c r="K83" s="8" t="n">
-        <v>3.86</v>
+        <v>2.86</v>
       </c>
       <c r="L83" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M83" s="6" t="inlineStr">
@@ -6206,7 +6206,7 @@
       </c>
       <c r="Q83" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6240,17 +6240,17 @@
         </is>
       </c>
       <c r="I84" s="4" t="n">
-        <v>2.2928</v>
+        <v>2.2885</v>
       </c>
       <c r="J84" s="7" t="n">
-        <v>0.0057</v>
+        <v>0.0038</v>
       </c>
       <c r="K84" s="8" t="n">
-        <v>5.49</v>
+        <v>3.67</v>
       </c>
       <c r="L84" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M84" s="6" t="inlineStr">
@@ -6275,7 +6275,7 @@
       </c>
       <c r="Q84" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6309,17 +6309,17 @@
         </is>
       </c>
       <c r="I85" s="4" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J85" s="7" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K85" s="8" t="n">
-        <v>1.45</v>
+        <v>2.13</v>
       </c>
       <c r="L85" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M85" s="6" t="inlineStr">
@@ -6344,7 +6344,7 @@
       </c>
       <c r="Q85" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6378,17 +6378,17 @@
         </is>
       </c>
       <c r="I86" s="4" t="n">
-        <v>0.9852</v>
+        <v>0.9846</v>
       </c>
       <c r="J86" s="7" t="n">
-        <v>0.001</v>
+        <v>0.0003</v>
       </c>
       <c r="K86" s="8" t="n">
-        <v>0.2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L86" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M86" s="6" t="inlineStr">
@@ -6413,7 +6413,7 @@
       </c>
       <c r="Q86" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6447,17 +6447,17 @@
         </is>
       </c>
       <c r="I87" s="4" t="n">
-        <v>1.3654</v>
+        <v>1.3612</v>
       </c>
       <c r="J87" s="7" t="n">
-        <v>-0.0019</v>
+        <v>-0.0049</v>
       </c>
       <c r="K87" s="9" t="n">
-        <v>-0.37</v>
+        <v>-0.97</v>
       </c>
       <c r="L87" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M87" s="6" t="inlineStr">
@@ -6482,7 +6482,7 @@
       </c>
       <c r="Q87" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6516,17 +6516,17 @@
         </is>
       </c>
       <c r="I88" s="4" t="n">
-        <v>0.7823</v>
+        <v>0.7847</v>
       </c>
       <c r="J88" s="7" t="n">
-        <v>0.0019</v>
+        <v>0.0049</v>
       </c>
       <c r="K88" s="8" t="n">
-        <v>0.32</v>
+        <v>0.83</v>
       </c>
       <c r="L88" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M88" s="6" t="inlineStr">
@@ -6551,7 +6551,7 @@
       </c>
       <c r="Q88" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6585,17 +6585,17 @@
         </is>
       </c>
       <c r="I89" s="4" t="n">
-        <v>1.2658</v>
+        <v>1.2611</v>
       </c>
       <c r="J89" s="7" t="n">
-        <v>0.0055</v>
+        <v>0.0017</v>
       </c>
       <c r="K89" s="8" t="n">
-        <v>0.46</v>
+        <v>0.15</v>
       </c>
       <c r="L89" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M89" s="6" t="inlineStr">
@@ -6620,7 +6620,7 @@
       </c>
       <c r="Q89" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6654,17 +6654,17 @@
         </is>
       </c>
       <c r="I90" s="4" t="n">
-        <v>1.4076</v>
+        <v>1.4032</v>
       </c>
       <c r="J90" s="7" t="n">
-        <v>0.0051</v>
+        <v>0.002</v>
       </c>
       <c r="K90" s="8" t="n">
-        <v>0.19</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="L90" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M90" s="6" t="inlineStr">
@@ -6689,7 +6689,7 @@
       </c>
       <c r="Q90" s="6" t="inlineStr">
         <is>
-          <t>母螺丝钉</t>
+          <t>螺丝钉母</t>
         </is>
       </c>
     </row>
@@ -6723,17 +6723,17 @@
         </is>
       </c>
       <c r="I91" s="24" t="n">
-        <v>1.0303</v>
+        <v>1.0305</v>
       </c>
       <c r="J91" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="K91" s="8" t="n">
-        <v>17.12</v>
+        <v>51.35</v>
       </c>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M91" s="26" t="inlineStr">
@@ -6758,7 +6758,7 @@
       </c>
       <c r="Q91" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -6792,17 +6792,17 @@
         </is>
       </c>
       <c r="I92" s="24" t="n">
-        <v>1.5483</v>
+        <v>1.5563</v>
       </c>
       <c r="J92" s="27" t="n">
-        <v>-0.0011</v>
-      </c>
-      <c r="K92" s="9" t="n">
-        <v>-19.72</v>
+        <v>0.0041</v>
+      </c>
+      <c r="K92" s="8" t="n">
+        <v>73.06999999999999</v>
       </c>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M92" s="26" t="inlineStr">
@@ -6827,7 +6827,7 @@
       </c>
       <c r="Q92" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -6861,17 +6861,17 @@
         </is>
       </c>
       <c r="I93" s="24" t="n">
-        <v>1.0781</v>
+        <v>1.0783</v>
       </c>
       <c r="J93" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0003</v>
       </c>
       <c r="K93" s="8" t="n">
-        <v>12.89</v>
+        <v>38.66</v>
       </c>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M93" s="26" t="inlineStr">
@@ -6896,7 +6896,7 @@
       </c>
       <c r="Q93" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -6930,17 +6930,17 @@
         </is>
       </c>
       <c r="I94" s="24" t="n">
-        <v>1.0791</v>
+        <v>1.0792</v>
       </c>
       <c r="J94" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K94" s="8" t="n">
-        <v>13.27</v>
+        <v>26.54</v>
       </c>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M94" s="26" t="inlineStr">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="Q94" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -6999,17 +6999,17 @@
         </is>
       </c>
       <c r="I95" s="24" t="n">
-        <v>1.2512</v>
+        <v>1.2507</v>
       </c>
       <c r="J95" s="27" t="n">
-        <v>0.0001</v>
-      </c>
-      <c r="K95" s="8" t="n">
-        <v>11.94</v>
+        <v>-0.0002</v>
+      </c>
+      <c r="K95" s="9" t="n">
+        <v>-17.91</v>
       </c>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M95" s="26" t="inlineStr">
@@ -7034,7 +7034,7 @@
       </c>
       <c r="Q95" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -7068,17 +7068,17 @@
         </is>
       </c>
       <c r="I96" s="24" t="n">
-        <v>1.3022</v>
+        <v>1.3012</v>
       </c>
       <c r="J96" s="27" t="n">
-        <v>0.0009</v>
+        <v>0.0002</v>
       </c>
       <c r="K96" s="8" t="n">
-        <v>92.36</v>
+        <v>15.39</v>
       </c>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M96" s="26" t="inlineStr">
@@ -7103,7 +7103,7 @@
       </c>
       <c r="Q96" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -7137,17 +7137,17 @@
         </is>
       </c>
       <c r="I97" s="24" t="n">
-        <v>1.0804</v>
+        <v>1.0805</v>
       </c>
       <c r="J97" s="27" t="n">
-        <v>0.0001</v>
+        <v>0.0002</v>
       </c>
       <c r="K97" s="8" t="n">
-        <v>14.06</v>
+        <v>28.12</v>
       </c>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M97" s="26" t="inlineStr">
@@ -7172,7 +7172,7 @@
       </c>
       <c r="Q97" s="26" t="inlineStr">
         <is>
-          <t>父稳稳的幸福</t>
+          <t>稳稳的幸福父</t>
         </is>
       </c>
     </row>
@@ -7206,17 +7206,17 @@
         </is>
       </c>
       <c r="I98" s="30" t="n">
-        <v>1.1426</v>
+        <v>1.1446</v>
       </c>
       <c r="J98" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0018</v>
       </c>
       <c r="K98" s="8" t="n">
-        <v>0.97</v>
+        <v>20.36</v>
       </c>
       <c r="L98" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M98" s="32" t="inlineStr">
@@ -7241,7 +7241,7 @@
       </c>
       <c r="Q98" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7275,17 +7275,17 @@
         </is>
       </c>
       <c r="I99" s="30" t="n">
-        <v>1.1405</v>
+        <v>1.1403</v>
       </c>
       <c r="J99" s="33" t="n">
-        <v>0.0013</v>
+        <v>0.0011</v>
       </c>
       <c r="K99" s="8" t="n">
-        <v>13.02</v>
+        <v>11.28</v>
       </c>
       <c r="L99" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M99" s="32" t="inlineStr">
@@ -7310,7 +7310,7 @@
       </c>
       <c r="Q99" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7344,17 +7344,17 @@
         </is>
       </c>
       <c r="I100" s="30" t="n">
-        <v>0.9916</v>
+        <v>0.9932</v>
       </c>
       <c r="J100" s="33" t="n">
-        <v>0.0034</v>
+        <v>0.005</v>
       </c>
       <c r="K100" s="8" t="n">
-        <v>20.73</v>
+        <v>30.48</v>
       </c>
       <c r="L100" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M100" s="32" t="inlineStr">
@@ -7379,7 +7379,7 @@
       </c>
       <c r="Q100" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7413,17 +7413,17 @@
         </is>
       </c>
       <c r="I101" s="30" t="n">
-        <v>0.8491</v>
+        <v>0.8511</v>
       </c>
       <c r="J101" s="33" t="n">
-        <v>0.0015</v>
+        <v>0.0039</v>
       </c>
       <c r="K101" s="8" t="n">
-        <v>8.779999999999999</v>
+        <v>22.28</v>
       </c>
       <c r="L101" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M101" s="32" t="inlineStr">
@@ -7448,7 +7448,7 @@
       </c>
       <c r="Q101" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7482,17 +7482,17 @@
         </is>
       </c>
       <c r="I102" s="30" t="n">
-        <v>1.6755</v>
+        <v>1.6728</v>
       </c>
       <c r="J102" s="33" t="n">
-        <v>0.0003</v>
-      </c>
-      <c r="K102" s="8" t="n">
-        <v>1.38</v>
+        <v>-0.0013</v>
+      </c>
+      <c r="K102" s="9" t="n">
+        <v>-6.07</v>
       </c>
       <c r="L102" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M102" s="32" t="inlineStr">
@@ -7517,7 +7517,7 @@
       </c>
       <c r="Q102" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7551,17 +7551,17 @@
         </is>
       </c>
       <c r="I103" s="30" t="n">
-        <v>0.841</v>
+        <v>0.8405</v>
       </c>
       <c r="J103" s="33" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K103" s="8" t="n">
-        <v>33.18</v>
+        <v>30.96</v>
       </c>
       <c r="L103" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M103" s="32" t="inlineStr">
@@ -7586,7 +7586,7 @@
       </c>
       <c r="Q103" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7620,17 +7620,17 @@
         </is>
       </c>
       <c r="I104" s="30" t="n">
-        <v>1.7381</v>
+        <v>1.737</v>
       </c>
       <c r="J104" s="33" t="n">
-        <v>-0.0005</v>
+        <v>-0.0012</v>
       </c>
       <c r="K104" s="9" t="n">
-        <v>-1.78</v>
+        <v>-3.96</v>
       </c>
       <c r="L104" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M104" s="32" t="inlineStr">
@@ -7655,7 +7655,7 @@
       </c>
       <c r="Q104" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7689,17 +7689,17 @@
         </is>
       </c>
       <c r="I105" s="30" t="n">
-        <v>1.6942</v>
+        <v>1.6971</v>
       </c>
       <c r="J105" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0018</v>
       </c>
       <c r="K105" s="8" t="n">
-        <v>0.41</v>
+        <v>6.35</v>
       </c>
       <c r="L105" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M105" s="32" t="inlineStr">
@@ -7724,7 +7724,7 @@
       </c>
       <c r="Q105" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7758,17 +7758,17 @@
         </is>
       </c>
       <c r="I106" s="30" t="n">
-        <v>0.5779</v>
+        <v>0.5790999999999999</v>
       </c>
       <c r="J106" s="33" t="n">
-        <v>-0.0002</v>
-      </c>
-      <c r="K106" s="9" t="n">
-        <v>-0.59</v>
+        <v>0.0019</v>
+      </c>
+      <c r="K106" s="8" t="n">
+        <v>6.54</v>
       </c>
       <c r="L106" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:25</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M106" s="32" t="inlineStr">
@@ -7793,7 +7793,7 @@
       </c>
       <c r="Q106" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7862,7 +7862,7 @@
       </c>
       <c r="Q107" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7896,17 +7896,17 @@
         </is>
       </c>
       <c r="I108" s="30" t="n">
-        <v>1.8435</v>
+        <v>1.848</v>
       </c>
       <c r="J108" s="33" t="n">
-        <v>-0.0034</v>
+        <v>-0.001</v>
       </c>
       <c r="K108" s="9" t="n">
-        <v>-7.64</v>
+        <v>-2.18</v>
       </c>
       <c r="L108" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:27</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M108" s="32" t="inlineStr">
@@ -7931,7 +7931,7 @@
       </c>
       <c r="Q108" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -7965,17 +7965,17 @@
         </is>
       </c>
       <c r="I109" s="30" t="n">
-        <v>1.1995</v>
+        <v>1.1977</v>
       </c>
       <c r="J109" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K109" s="8" t="n">
-        <v>0.49</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K109" s="9" t="n">
+        <v>-2.45</v>
       </c>
       <c r="L109" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M109" s="32" t="inlineStr">
@@ -8000,7 +8000,7 @@
       </c>
       <c r="Q109" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8069,7 +8069,7 @@
       </c>
       <c r="Q110" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8103,17 +8103,17 @@
         </is>
       </c>
       <c r="I111" s="30" t="n">
-        <v>1.0334</v>
+        <v>1.0305</v>
       </c>
       <c r="J111" s="33" t="n">
-        <v>0.0004</v>
-      </c>
-      <c r="K111" s="8" t="n">
-        <v>0.54</v>
+        <v>-0.0024</v>
+      </c>
+      <c r="K111" s="9" t="n">
+        <v>-3.35</v>
       </c>
       <c r="L111" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M111" s="32" t="inlineStr">
@@ -8138,7 +8138,7 @@
       </c>
       <c r="Q111" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8182,7 +8182,7 @@
       </c>
       <c r="L112" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:28</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M112" s="32" t="inlineStr">
@@ -8207,7 +8207,7 @@
       </c>
       <c r="Q112" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8241,17 +8241,17 @@
         </is>
       </c>
       <c r="I113" s="30" t="n">
-        <v>0.8221000000000001</v>
+        <v>0.8239</v>
       </c>
       <c r="J113" s="33" t="n">
-        <v>0.002</v>
+        <v>0.0041</v>
       </c>
       <c r="K113" s="8" t="n">
-        <v>2.39</v>
+        <v>5.08</v>
       </c>
       <c r="L113" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M113" s="32" t="inlineStr">
@@ -8276,7 +8276,7 @@
       </c>
       <c r="Q113" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8310,17 +8310,17 @@
         </is>
       </c>
       <c r="I114" s="30" t="n">
-        <v>1.1442</v>
+        <v>1.1403</v>
       </c>
       <c r="J114" s="33" t="n">
-        <v>0.0036</v>
+        <v>0.0002</v>
       </c>
       <c r="K114" s="8" t="n">
-        <v>3.69</v>
+        <v>0.18</v>
       </c>
       <c r="L114" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M114" s="32" t="inlineStr">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="Q114" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8379,17 +8379,17 @@
         </is>
       </c>
       <c r="I115" s="30" t="n">
-        <v>1.2208</v>
+        <v>1.2202</v>
       </c>
       <c r="J115" s="33" t="n">
-        <v>-0.001</v>
+        <v>-0.0015</v>
       </c>
       <c r="K115" s="9" t="n">
-        <v>-0.88</v>
+        <v>-1.32</v>
       </c>
       <c r="L115" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M115" s="32" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="Q115" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8448,17 +8448,17 @@
         </is>
       </c>
       <c r="I116" s="30" t="n">
-        <v>1.0641</v>
+        <v>1.0631</v>
       </c>
       <c r="J116" s="33" t="n">
-        <v>-0.0035</v>
+        <v>-0.0045</v>
       </c>
       <c r="K116" s="9" t="n">
-        <v>-1.89</v>
+        <v>-2.38</v>
       </c>
       <c r="L116" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M116" s="32" t="inlineStr">
@@ -8483,7 +8483,7 @@
       </c>
       <c r="Q116" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8517,17 +8517,17 @@
         </is>
       </c>
       <c r="I117" s="30" t="n">
-        <v>1.4086</v>
+        <v>1.407</v>
       </c>
       <c r="J117" s="33" t="n">
-        <v>-0.0005999999999999999</v>
+        <v>-0.0017</v>
       </c>
       <c r="K117" s="9" t="n">
-        <v>-0.27</v>
+        <v>-0.8</v>
       </c>
       <c r="L117" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:42</t>
         </is>
       </c>
       <c r="M117" s="32" t="inlineStr">
@@ -8552,7 +8552,7 @@
       </c>
       <c r="Q117" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8586,17 +8586,17 @@
         </is>
       </c>
       <c r="I118" s="30" t="n">
-        <v>1.3486</v>
+        <v>1.3463</v>
       </c>
       <c r="J118" s="33" t="n">
-        <v>0.0005</v>
-      </c>
-      <c r="K118" s="8" t="n">
-        <v>0.2</v>
+        <v>-0.0012</v>
+      </c>
+      <c r="K118" s="9" t="n">
+        <v>-0.55</v>
       </c>
       <c r="L118" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M118" s="32" t="inlineStr">
@@ -8621,7 +8621,7 @@
       </c>
       <c r="Q118" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8655,17 +8655,17 @@
         </is>
       </c>
       <c r="I119" s="30" t="n">
-        <v>1.5542</v>
+        <v>1.5524</v>
       </c>
       <c r="J119" s="33" t="n">
-        <v>-0.0028</v>
+        <v>-0.0039</v>
       </c>
       <c r="K119" s="9" t="n">
-        <v>-1.18</v>
+        <v>-1.68</v>
       </c>
       <c r="L119" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M119" s="32" t="inlineStr">
@@ -8690,7 +8690,7 @@
       </c>
       <c r="Q119" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8724,17 +8724,17 @@
         </is>
       </c>
       <c r="I120" s="30" t="n">
-        <v>2.0505</v>
+        <v>2.0534</v>
       </c>
       <c r="J120" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0015</v>
       </c>
       <c r="K120" s="8" t="n">
-        <v>0.04</v>
+        <v>0.64</v>
       </c>
       <c r="L120" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:43</t>
         </is>
       </c>
       <c r="M120" s="32" t="inlineStr">
@@ -8759,7 +8759,7 @@
       </c>
       <c r="Q120" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>
@@ -8793,17 +8793,17 @@
         </is>
       </c>
       <c r="I121" s="30" t="n">
-        <v>0.9127999999999999</v>
+        <v>0.9143</v>
       </c>
       <c r="J121" s="33" t="n">
-        <v>0.0001</v>
+        <v>0.0018</v>
       </c>
       <c r="K121" s="8" t="n">
-        <v>0.03</v>
+        <v>0.44</v>
       </c>
       <c r="L121" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 10:26</t>
+          <t>2019-12-19 14:44</t>
         </is>
       </c>
       <c r="M121" s="32" t="inlineStr">
@@ -8828,7 +8828,7 @@
       </c>
       <c r="Q121" s="32" t="inlineStr">
         <is>
-          <t>母天天基金</t>
+          <t>天天基金母</t>
         </is>
       </c>
     </row>

--- a/scripts/output/201912/全家/全家整体收益估算.xlsx
+++ b/scripts/output/201912/全家/全家整体收益估算.xlsx
@@ -54,12 +54,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F8696B"/>
+        <fgColor rgb="0063BE7B"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="0063BE7B"/>
+        <fgColor rgb="00F8696B"/>
       </patternFill>
     </fill>
     <fill>
@@ -568,31 +568,31 @@
         <v>2489.76</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>4135.49</v>
+        <v>4147.94</v>
       </c>
       <c r="F2" s="5" t="n">
-        <v>24.4</v>
+        <v>36.85</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.661</v>
+        <v>1.666</v>
       </c>
       <c r="H2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>1.6629</v>
+        <v>1.6631</v>
       </c>
       <c r="J2" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K2" s="8" t="n">
-        <v>4.73</v>
+        <v>-7.22</v>
       </c>
       <c r="L2" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M2" s="6" t="inlineStr">
@@ -637,31 +637,31 @@
         <v>2772.32</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>4105.81</v>
+        <v>4114.12</v>
       </c>
       <c r="F3" s="5" t="n">
-        <v>145.82</v>
+        <v>154.14</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>1.481</v>
+        <v>1.484</v>
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I3" s="4" t="n">
-        <v>1.484</v>
+        <v>1.4835</v>
       </c>
       <c r="J3" s="7" t="n">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
       <c r="K3" s="8" t="n">
-        <v>8.32</v>
+        <v>-1.39</v>
       </c>
       <c r="L3" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M3" s="6" t="inlineStr">
@@ -706,31 +706,31 @@
         <v>3726.73</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3570.58</v>
+        <v>3578.78</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>90.56</v>
+        <v>98.76000000000001</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>0.9581</v>
+        <v>0.9603</v>
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I4" s="4" t="n">
-        <v>0.9609</v>
+        <v>0.9607</v>
       </c>
       <c r="J4" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K4" s="8" t="n">
-        <v>10.43</v>
+        <v>0.0028</v>
+      </c>
+      <c r="K4" s="9" t="n">
+        <v>1.49</v>
       </c>
       <c r="L4" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M4" s="6" t="inlineStr">
@@ -775,31 +775,31 @@
         <v>2260.14</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>3422.53</v>
+        <v>3400.61</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>375.64</v>
+        <v>353.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>1.5143</v>
+        <v>1.5046</v>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I5" s="4" t="n">
-        <v>1.5087</v>
+        <v>1.51</v>
       </c>
       <c r="J5" s="7" t="n">
-        <v>-0.0037</v>
+        <v>-0.0028</v>
       </c>
       <c r="K5" s="9" t="n">
-        <v>-12.66</v>
+        <v>12.2</v>
       </c>
       <c r="L5" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 16:00</t>
         </is>
       </c>
       <c r="M5" s="6" t="inlineStr">
@@ -844,17 +844,17 @@
         <v>1363.37</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2668.93</v>
+        <v>2676.3</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>216.64</v>
+        <v>224</v>
       </c>
       <c r="G6" s="4" t="n">
-        <v>1.9576</v>
+        <v>1.963</v>
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I6" s="4" t="n">
@@ -863,12 +863,12 @@
       <c r="J6" s="7" t="n">
         <v>0.0028</v>
       </c>
-      <c r="K6" s="8" t="n">
-        <v>7.36</v>
+      <c r="K6" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L6" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M6" s="6" t="inlineStr">
@@ -913,17 +913,17 @@
         <v>1097.22</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2501.44</v>
+        <v>2510.77</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>163.16</v>
+        <v>172.48</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>2.2798</v>
+        <v>2.2883</v>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I7" s="4" t="n">
@@ -932,12 +932,12 @@
       <c r="J7" s="7" t="n">
         <v>0.0038</v>
       </c>
-      <c r="K7" s="8" t="n">
-        <v>9.550000000000001</v>
+      <c r="K7" s="9" t="n">
+        <v>0.22</v>
       </c>
       <c r="L7" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M7" s="6" t="inlineStr">
@@ -982,31 +982,31 @@
         <v>1067.42</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1054.82</v>
+        <v>1060.16</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>31.28</v>
+        <v>36.61</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>0.9882</v>
+        <v>0.9932</v>
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I8" s="4" t="n">
-        <v>0.9932</v>
+        <v>0.9936</v>
       </c>
       <c r="J8" s="7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K8" s="8" t="n">
-        <v>5.34</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K8" s="9" t="n">
+        <v>0.43</v>
       </c>
       <c r="L8" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M8" s="6" t="inlineStr">
@@ -1051,31 +1051,31 @@
         <v>550.4</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>541.76</v>
+        <v>543.35</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.88</v>
+        <v>2.48</v>
       </c>
       <c r="G9" s="4" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="I9" s="4" t="n">
         <v>0.9843</v>
       </c>
-      <c r="H9" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-18</t>
-        </is>
-      </c>
-      <c r="I9" s="4" t="n">
-        <v>0.9846</v>
-      </c>
       <c r="J9" s="7" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="K9" s="8" t="n">
-        <v>0.17</v>
+        <v>-1.6</v>
       </c>
       <c r="L9" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M9" s="6" t="inlineStr">
@@ -1120,31 +1120,31 @@
         <v>531.87</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>415.28</v>
+        <v>416.51</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>58.51</v>
+        <v>59.73</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>0.7808</v>
+        <v>0.7831</v>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I10" s="4" t="n">
-        <v>0.7847</v>
+        <v>0.7844</v>
       </c>
       <c r="J10" s="7" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>2.07</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K10" s="9" t="n">
+        <v>0.6899999999999999</v>
       </c>
       <c r="L10" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M10" s="6" t="inlineStr">
@@ -1189,31 +1189,31 @@
         <v>247.91</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>339.14</v>
+        <v>337.9</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25.88</v>
+        <v>24.64</v>
       </c>
       <c r="G11" s="4" t="n">
-        <v>1.368</v>
+        <v>1.363</v>
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I11" s="4" t="n">
-        <v>1.3612</v>
+        <v>1.3614</v>
       </c>
       <c r="J11" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K11" s="9" t="n">
-        <v>-1.69</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K11" s="8" t="n">
+        <v>-0.4</v>
       </c>
       <c r="L11" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M11" s="6" t="inlineStr">
@@ -1258,31 +1258,31 @@
         <v>165.68</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>208.57</v>
+        <v>208.89</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.84</v>
+        <v>4.16</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>1.2589</v>
+        <v>1.2608</v>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I12" s="4" t="n">
-        <v>1.2611</v>
+        <v>1.2608</v>
       </c>
       <c r="J12" s="7" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K12" s="8" t="n">
-        <v>0.36</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K12" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L12" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M12" s="6" t="inlineStr">
@@ -1327,31 +1327,31 @@
         <v>64.5</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>90.33</v>
+        <v>90.47</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-2.39</v>
+        <v>-2.24</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>1.4004</v>
+        <v>1.4026</v>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I13" s="4" t="n">
-        <v>1.4032</v>
+        <v>1.4028</v>
       </c>
       <c r="J13" s="7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K13" s="8" t="n">
-        <v>0.18</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K13" s="9" t="n">
+        <v>0.01</v>
       </c>
       <c r="L13" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M13" s="6" t="inlineStr">
@@ -1396,31 +1396,31 @@
         <v>16731.88</v>
       </c>
       <c r="E14" s="13" t="n">
-        <v>9671.030000000001</v>
+        <v>9686.09</v>
       </c>
       <c r="F14" s="13" t="n">
-        <v>-2329.08</v>
+        <v>-2314.02</v>
       </c>
       <c r="G14" s="12" t="n">
-        <v>0.578</v>
+        <v>0.5789</v>
       </c>
       <c r="H14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I14" s="12" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5789</v>
       </c>
       <c r="J14" s="15" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K14" s="8" t="n">
-        <v>18.41</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K14" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M14" s="14" t="inlineStr">
@@ -1465,31 +1465,31 @@
         <v>2700</v>
       </c>
       <c r="E15" s="19" t="n">
-        <v>8154</v>
+        <v>8132.4</v>
       </c>
       <c r="F15" s="19" t="n">
-        <v>1844.1</v>
+        <v>1822.5</v>
       </c>
       <c r="G15" s="18" t="n">
-        <v>3.02</v>
+        <v>3.012</v>
       </c>
       <c r="H15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I15" s="18" t="n">
-        <v>3.014</v>
+        <v>3.01</v>
       </c>
       <c r="J15" s="21" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="K15" s="9" t="n">
-        <v>-16.2</v>
+        <v>-0.0023</v>
+      </c>
+      <c r="K15" s="8" t="n">
+        <v>-5.4</v>
       </c>
       <c r="L15" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M15" s="20" t="inlineStr">
@@ -1534,31 +1534,31 @@
         <v>9100</v>
       </c>
       <c r="E16" s="19" t="n">
-        <v>36675.73</v>
+        <v>36624.77</v>
       </c>
       <c r="F16" s="19" t="n">
-        <v>5308.03</v>
+        <v>5257.07</v>
       </c>
       <c r="G16" s="18" t="n">
-        <v>4.0303</v>
+        <v>4.0247</v>
       </c>
       <c r="H16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I16" s="18" t="n">
-        <v>4.024</v>
+        <v>4.02</v>
       </c>
       <c r="J16" s="21" t="n">
-        <v>-0.0007</v>
-      </c>
-      <c r="K16" s="9" t="n">
-        <v>-57.33</v>
+        <v>-0.0017</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>-42.77</v>
       </c>
       <c r="L16" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M16" s="20" t="inlineStr">
@@ -1603,31 +1603,31 @@
         <v>38800</v>
       </c>
       <c r="E17" s="19" t="n">
-        <v>220100.76</v>
+        <v>220395.64</v>
       </c>
       <c r="F17" s="19" t="n">
-        <v>2781.96</v>
+        <v>3076.84</v>
       </c>
       <c r="G17" s="18" t="n">
-        <v>5.6727</v>
+        <v>5.6803</v>
       </c>
       <c r="H17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I17" s="18" t="n">
-        <v>5.682</v>
+        <v>5.684</v>
       </c>
       <c r="J17" s="21" t="n">
-        <v>0.0021</v>
-      </c>
-      <c r="K17" s="8" t="n">
-        <v>360.84</v>
+        <v>0.0025</v>
+      </c>
+      <c r="K17" s="9" t="n">
+        <v>143.56</v>
       </c>
       <c r="L17" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M17" s="20" t="inlineStr">
@@ -1672,31 +1672,31 @@
         <v>33800</v>
       </c>
       <c r="E18" s="19" t="n">
-        <v>26083.46</v>
+        <v>26127.4</v>
       </c>
       <c r="F18" s="19" t="n">
-        <v>-3559.14</v>
+        <v>-3515.2</v>
       </c>
       <c r="G18" s="18" t="n">
-        <v>0.7717000000000001</v>
+        <v>0.773</v>
       </c>
       <c r="H18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I18" s="18" t="n">
-        <v>0.772</v>
+        <v>0.773</v>
       </c>
       <c r="J18" s="21" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K18" s="8" t="n">
-        <v>10.14</v>
+        <v>0.0052</v>
+      </c>
+      <c r="K18" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L18" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M18" s="20" t="inlineStr">
@@ -1741,31 +1741,31 @@
         <v>32700</v>
       </c>
       <c r="E19" s="19" t="n">
-        <v>32677.11</v>
+        <v>32516.88</v>
       </c>
       <c r="F19" s="19" t="n">
-        <v>7073.01</v>
+        <v>6912.78</v>
       </c>
       <c r="G19" s="18" t="n">
-        <v>0.9993</v>
+        <v>0.9944</v>
       </c>
       <c r="H19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I19" s="18" t="n">
-        <v>0.994</v>
+        <v>0.993</v>
       </c>
       <c r="J19" s="21" t="n">
-        <v>-0.004</v>
-      </c>
-      <c r="K19" s="9" t="n">
-        <v>-173.31</v>
+        <v>-0.005</v>
+      </c>
+      <c r="K19" s="8" t="n">
+        <v>-45.78</v>
       </c>
       <c r="L19" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M19" s="20" t="inlineStr">
@@ -1810,17 +1810,17 @@
         <v>34100</v>
       </c>
       <c r="E20" s="19" t="n">
-        <v>28442.81</v>
+        <v>28701.97</v>
       </c>
       <c r="F20" s="19" t="n">
-        <v>-1190.09</v>
+        <v>-930.9299999999999</v>
       </c>
       <c r="G20" s="18" t="n">
-        <v>0.8341</v>
+        <v>0.8417</v>
       </c>
       <c r="H20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I20" s="18" t="n">
@@ -1829,12 +1829,12 @@
       <c r="J20" s="21" t="n">
         <v>0.006</v>
       </c>
-      <c r="K20" s="8" t="n">
-        <v>303.49</v>
+      <c r="K20" s="9" t="n">
+        <v>44.33</v>
       </c>
       <c r="L20" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M20" s="20" t="inlineStr">
@@ -1879,17 +1879,17 @@
         <v>4500</v>
       </c>
       <c r="E21" s="19" t="n">
-        <v>14854.95</v>
+        <v>14823</v>
       </c>
       <c r="F21" s="19" t="n">
-        <v>2002.95</v>
+        <v>1971</v>
       </c>
       <c r="G21" s="18" t="n">
-        <v>3.3011</v>
+        <v>3.294</v>
       </c>
       <c r="H21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I21" s="18" t="n">
@@ -1898,12 +1898,12 @@
       <c r="J21" s="21" t="n">
         <v>-0.0009</v>
       </c>
-      <c r="K21" s="9" t="n">
-        <v>-40.95</v>
+      <c r="K21" s="8" t="n">
+        <v>-9</v>
       </c>
       <c r="L21" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M21" s="20" t="inlineStr">
@@ -1948,17 +1948,17 @@
         <v>9200</v>
       </c>
       <c r="E22" s="19" t="n">
-        <v>15877.36</v>
+        <v>15859.88</v>
       </c>
       <c r="F22" s="19" t="n">
-        <v>3006.56</v>
+        <v>2989.08</v>
       </c>
       <c r="G22" s="18" t="n">
-        <v>1.7258</v>
+        <v>1.7239</v>
       </c>
       <c r="H22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I22" s="18" t="n">
@@ -1968,11 +1968,11 @@
         <v>-0.0005999999999999999</v>
       </c>
       <c r="K22" s="9" t="n">
-        <v>-16.56</v>
+        <v>0.92</v>
       </c>
       <c r="L22" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:04</t>
         </is>
       </c>
       <c r="M22" s="20" t="inlineStr">
@@ -2017,17 +2017,17 @@
         <v>14400</v>
       </c>
       <c r="E23" s="19" t="n">
-        <v>19594.08</v>
+        <v>19680.48</v>
       </c>
       <c r="F23" s="19" t="n">
-        <v>1291.68</v>
+        <v>1378.08</v>
       </c>
       <c r="G23" s="18" t="n">
-        <v>1.3607</v>
+        <v>1.3667</v>
       </c>
       <c r="H23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I23" s="18" t="n">
@@ -2037,11 +2037,11 @@
         <v>0.0052</v>
       </c>
       <c r="K23" s="8" t="n">
-        <v>76.31999999999999</v>
+        <v>-10.08</v>
       </c>
       <c r="L23" s="20" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:04</t>
         </is>
       </c>
       <c r="M23" s="20" t="inlineStr">
@@ -2086,31 +2086,31 @@
         <v>4157.52</v>
       </c>
       <c r="E24" s="25" t="n">
-        <v>8524.16</v>
+        <v>8540.379999999999</v>
       </c>
       <c r="F24" s="25" t="n">
-        <v>520.11</v>
+        <v>536.3200000000001</v>
       </c>
       <c r="G24" s="24" t="n">
-        <v>2.0503</v>
+        <v>2.0542</v>
       </c>
       <c r="H24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I24" s="24" t="n">
-        <v>2.0534</v>
+        <v>2.0528</v>
       </c>
       <c r="J24" s="27" t="n">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="K24" s="8" t="n">
-        <v>12.89</v>
+        <v>-5.82</v>
       </c>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M24" s="26" t="inlineStr">
@@ -2155,31 +2155,31 @@
         <v>9722</v>
       </c>
       <c r="E25" s="25" t="n">
-        <v>5619.32</v>
+        <v>5628.07</v>
       </c>
       <c r="F25" s="25" t="n">
-        <v>282.91</v>
+        <v>291.66</v>
       </c>
       <c r="G25" s="24" t="n">
-        <v>0.578</v>
+        <v>0.5789</v>
       </c>
       <c r="H25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I25" s="24" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5789</v>
       </c>
       <c r="J25" s="27" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K25" s="8" t="n">
-        <v>10.69</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K25" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M25" s="26" t="inlineStr">
@@ -2224,31 +2224,31 @@
         <v>4943.96</v>
       </c>
       <c r="E26" s="25" t="n">
-        <v>4885.62</v>
+        <v>4910.34</v>
       </c>
       <c r="F26" s="25" t="n">
-        <v>216.55</v>
+        <v>241.27</v>
       </c>
       <c r="G26" s="24" t="n">
-        <v>0.9882</v>
+        <v>0.9932</v>
       </c>
       <c r="H26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I26" s="24" t="n">
-        <v>0.9932</v>
+        <v>0.9936</v>
       </c>
       <c r="J26" s="27" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K26" s="8" t="n">
-        <v>24.72</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K26" s="9" t="n">
+        <v>1.98</v>
       </c>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M26" s="26" t="inlineStr">
@@ -2293,31 +2293,31 @@
         <v>7379.54</v>
       </c>
       <c r="E27" s="25" t="n">
-        <v>4287.51</v>
+        <v>4294.89</v>
       </c>
       <c r="F27" s="25" t="n">
-        <v>285.59</v>
+        <v>292.97</v>
       </c>
       <c r="G27" s="24" t="n">
-        <v>0.581</v>
+        <v>0.582</v>
       </c>
       <c r="H27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I27" s="24" t="n">
-        <v>0.5819</v>
+        <v>0.5817</v>
       </c>
       <c r="J27" s="27" t="n">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="K27" s="8" t="n">
-        <v>6.64</v>
+        <v>-2.21</v>
       </c>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M27" s="26" t="inlineStr">
@@ -2362,31 +2362,31 @@
         <v>3665.01</v>
       </c>
       <c r="E28" s="25" t="n">
-        <v>4174.45</v>
+        <v>4181.78</v>
       </c>
       <c r="F28" s="25" t="n">
-        <v>172.62</v>
+        <v>179.95</v>
       </c>
       <c r="G28" s="24" t="n">
-        <v>1.139</v>
+        <v>1.141</v>
       </c>
       <c r="H28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I28" s="24" t="n">
-        <v>1.1403</v>
+        <v>1.1404</v>
       </c>
       <c r="J28" s="27" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K28" s="8" t="n">
-        <v>4.76</v>
+        <v>-2.2</v>
       </c>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M28" s="26" t="inlineStr">
@@ -2431,31 +2431,31 @@
         <v>4550.55</v>
       </c>
       <c r="E29" s="25" t="n">
-        <v>3792.88</v>
+        <v>3824.74</v>
       </c>
       <c r="F29" s="25" t="n">
-        <v>457.79</v>
+        <v>489.64</v>
       </c>
       <c r="G29" s="24" t="n">
-        <v>0.8335</v>
+        <v>0.8405</v>
       </c>
       <c r="H29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I29" s="24" t="n">
-        <v>0.8405</v>
+        <v>0.8413</v>
       </c>
       <c r="J29" s="27" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="K29" s="8" t="n">
-        <v>31.85</v>
+        <v>0.0094</v>
+      </c>
+      <c r="K29" s="9" t="n">
+        <v>3.64</v>
       </c>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M29" s="26" t="inlineStr">
@@ -2500,31 +2500,31 @@
         <v>400.63</v>
       </c>
       <c r="E30" s="25" t="n">
-        <v>741.09</v>
+        <v>740.3200000000001</v>
       </c>
       <c r="F30" s="25" t="n">
-        <v>74.08</v>
+        <v>73.31999999999999</v>
       </c>
       <c r="G30" s="24" t="n">
-        <v>1.8498</v>
+        <v>1.8479</v>
       </c>
       <c r="H30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I30" s="24" t="n">
-        <v>1.848</v>
+        <v>1.8479</v>
       </c>
       <c r="J30" s="27" t="n">
         <v>-0.001</v>
       </c>
       <c r="K30" s="9" t="n">
-        <v>-0.72</v>
+        <v>0</v>
       </c>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M30" s="26" t="inlineStr">
@@ -2569,31 +2569,31 @@
         <v>736.3</v>
       </c>
       <c r="E31" s="25" t="n">
-        <v>739.76</v>
+        <v>738.73</v>
       </c>
       <c r="F31" s="25" t="n">
-        <v>72.75</v>
+        <v>71.72</v>
       </c>
       <c r="G31" s="24" t="n">
-        <v>1.0047</v>
+        <v>1.0033</v>
       </c>
       <c r="H31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I31" s="24" t="n">
-        <v>1.0039</v>
+        <v>1.0037</v>
       </c>
       <c r="J31" s="27" t="n">
-        <v>-0.0008</v>
+        <v>-0.001</v>
       </c>
       <c r="K31" s="9" t="n">
-        <v>-0.59</v>
+        <v>0.29</v>
       </c>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M31" s="26" t="inlineStr">
@@ -2638,31 +2638,31 @@
         <v>473.85</v>
       </c>
       <c r="E32" s="25" t="n">
-        <v>506.02</v>
+        <v>503.7</v>
       </c>
       <c r="F32" s="25" t="n">
-        <v>39.14</v>
+        <v>36.82</v>
       </c>
       <c r="G32" s="24" t="n">
-        <v>1.0679</v>
+        <v>1.063</v>
       </c>
       <c r="H32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I32" s="24" t="n">
-        <v>1.0631</v>
+        <v>1.0629</v>
       </c>
       <c r="J32" s="27" t="n">
-        <v>-0.0045</v>
-      </c>
-      <c r="K32" s="9" t="n">
-        <v>-2.27</v>
+        <v>-0.0047</v>
+      </c>
+      <c r="K32" s="8" t="n">
+        <v>-0.05</v>
       </c>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M32" s="26" t="inlineStr">
@@ -2707,31 +2707,31 @@
         <v>5299.96</v>
       </c>
       <c r="E33" s="25" t="n">
-        <v>2135.88</v>
+        <v>2146.48</v>
       </c>
       <c r="F33" s="25" t="n">
-        <v>135.15</v>
+        <v>145.75</v>
       </c>
       <c r="G33" s="24" t="n">
-        <v>0.403</v>
+        <v>0.405</v>
       </c>
       <c r="H33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I33" s="24" t="n">
-        <v>0.398</v>
+        <v>0.399</v>
       </c>
       <c r="J33" s="27" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K33" s="9" t="n">
-        <v>-26.5</v>
+        <v>0.0101</v>
+      </c>
+      <c r="K33" s="8" t="n">
+        <v>-31.8</v>
       </c>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:04</t>
         </is>
       </c>
       <c r="M33" s="26" t="inlineStr">
@@ -2776,31 +2776,31 @@
         <v>576.8</v>
       </c>
       <c r="E34" s="25" t="n">
-        <v>780.41</v>
+        <v>781.5599999999999</v>
       </c>
       <c r="F34" s="25" t="n">
-        <v>113.4</v>
+        <v>114.55</v>
       </c>
       <c r="G34" s="24" t="n">
-        <v>1.353</v>
+        <v>1.355</v>
       </c>
       <c r="H34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I34" s="24" t="n">
-        <v>1.3525</v>
+        <v>1.357</v>
       </c>
       <c r="J34" s="27" t="n">
-        <v>-0.0003</v>
+        <v>0.003</v>
       </c>
       <c r="K34" s="9" t="n">
-        <v>-0.29</v>
+        <v>1.15</v>
       </c>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 05:00</t>
+          <t>2019-12-20 05:00</t>
         </is>
       </c>
       <c r="M34" s="26" t="inlineStr">
@@ -2845,31 +2845,31 @@
         <v>459.67</v>
       </c>
       <c r="E35" s="25" t="n">
-        <v>716.4</v>
+        <v>714.5599999999999</v>
       </c>
       <c r="F35" s="25" t="n">
-        <v>49.41</v>
+        <v>47.58</v>
       </c>
       <c r="G35" s="24" t="n">
-        <v>1.5585</v>
+        <v>1.5545</v>
       </c>
       <c r="H35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I35" s="24" t="n">
-        <v>1.5524</v>
+        <v>1.5541</v>
       </c>
       <c r="J35" s="27" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K35" s="9" t="n">
-        <v>-2.8</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K35" s="8" t="n">
+        <v>-0.18</v>
       </c>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 16:00</t>
         </is>
       </c>
       <c r="M35" s="26" t="inlineStr">
@@ -2914,17 +2914,17 @@
         <v>611.75</v>
       </c>
       <c r="E36" s="25" t="n">
-        <v>742.66</v>
+        <v>740.22</v>
       </c>
       <c r="F36" s="25" t="n">
-        <v>75.67</v>
+        <v>73.23</v>
       </c>
       <c r="G36" s="24" t="n">
-        <v>1.214</v>
+        <v>1.21</v>
       </c>
       <c r="H36" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I36" s="24" t="n">
@@ -2933,7 +2933,7 @@
       <c r="J36" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K36" s="8" t="n">
+      <c r="K36" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L36" s="26" t="inlineStr">
@@ -2983,31 +2983,31 @@
         <v>1046.73</v>
       </c>
       <c r="E37" s="25" t="n">
-        <v>2146.11</v>
+        <v>2150.19</v>
       </c>
       <c r="F37" s="25" t="n">
-        <v>146.12</v>
+        <v>150.21</v>
       </c>
       <c r="G37" s="24" t="n">
-        <v>2.0503</v>
+        <v>2.0542</v>
       </c>
       <c r="H37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I37" s="24" t="n">
-        <v>2.0534</v>
+        <v>2.0528</v>
       </c>
       <c r="J37" s="27" t="n">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="K37" s="8" t="n">
-        <v>3.24</v>
+        <v>-1.47</v>
       </c>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M37" s="26" t="inlineStr">
@@ -3052,31 +3052,31 @@
         <v>1825.9</v>
       </c>
       <c r="E38" s="25" t="n">
-        <v>2079.7</v>
+        <v>2083.35</v>
       </c>
       <c r="F38" s="25" t="n">
-        <v>79.61</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="G38" s="24" t="n">
-        <v>1.139</v>
+        <v>1.141</v>
       </c>
       <c r="H38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I38" s="24" t="n">
-        <v>1.1403</v>
+        <v>1.1404</v>
       </c>
       <c r="J38" s="27" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K38" s="8" t="n">
-        <v>2.37</v>
+        <v>-1.1</v>
       </c>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M38" s="26" t="inlineStr">
@@ -3121,31 +3121,31 @@
         <v>1059.17</v>
       </c>
       <c r="E39" s="25" t="n">
-        <v>1094.12</v>
+        <v>1090.95</v>
       </c>
       <c r="F39" s="25" t="n">
-        <v>94.16</v>
+        <v>90.98</v>
       </c>
       <c r="G39" s="24" t="n">
-        <v>1.033</v>
+        <v>1.03</v>
       </c>
       <c r="H39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I39" s="24" t="n">
-        <v>1.0305</v>
+        <v>1.0304</v>
       </c>
       <c r="J39" s="27" t="n">
-        <v>-0.0024</v>
+        <v>-0.0026</v>
       </c>
       <c r="K39" s="9" t="n">
-        <v>-2.65</v>
+        <v>0.42</v>
       </c>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M39" s="26" t="inlineStr">
@@ -3190,31 +3190,31 @@
         <v>1812.7</v>
       </c>
       <c r="E40" s="25" t="n">
-        <v>1053.18</v>
+        <v>1054.99</v>
       </c>
       <c r="F40" s="25" t="n">
-        <v>53.11</v>
+        <v>54.92</v>
       </c>
       <c r="G40" s="24" t="n">
-        <v>0.581</v>
+        <v>0.582</v>
       </c>
       <c r="H40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I40" s="24" t="n">
-        <v>0.5819</v>
+        <v>0.5817</v>
       </c>
       <c r="J40" s="27" t="n">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="K40" s="8" t="n">
-        <v>1.63</v>
+        <v>-0.54</v>
       </c>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M40" s="26" t="inlineStr">
@@ -3259,31 +3259,31 @@
         <v>1227.03</v>
       </c>
       <c r="E41" s="25" t="n">
-        <v>1022.73</v>
+        <v>1031.32</v>
       </c>
       <c r="F41" s="25" t="n">
-        <v>22.7</v>
+        <v>31.29</v>
       </c>
       <c r="G41" s="24" t="n">
-        <v>0.8335</v>
+        <v>0.8405</v>
       </c>
       <c r="H41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I41" s="24" t="n">
-        <v>0.8405</v>
+        <v>0.8413</v>
       </c>
       <c r="J41" s="27" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="K41" s="8" t="n">
-        <v>8.59</v>
+        <v>0.0094</v>
+      </c>
+      <c r="K41" s="9" t="n">
+        <v>0.98</v>
       </c>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M41" s="26" t="inlineStr">
@@ -3328,31 +3328,31 @@
         <v>1834.47</v>
       </c>
       <c r="E42" s="25" t="n">
-        <v>2241.72</v>
+        <v>2237.14</v>
       </c>
       <c r="F42" s="25" t="n">
-        <v>241.78</v>
+        <v>237.2</v>
       </c>
       <c r="G42" s="24" t="n">
-        <v>1.222</v>
+        <v>1.2195</v>
       </c>
       <c r="H42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I42" s="24" t="n">
-        <v>1.2202</v>
+        <v>1.2213</v>
       </c>
       <c r="J42" s="27" t="n">
-        <v>-0.0015</v>
+        <v>0.0015</v>
       </c>
       <c r="K42" s="9" t="n">
-        <v>-3.3</v>
+        <v>3.3</v>
       </c>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-20 09:08</t>
         </is>
       </c>
       <c r="M42" s="26" t="inlineStr">
@@ -3397,31 +3397,31 @@
         <v>899.8200000000001</v>
       </c>
       <c r="E43" s="25" t="n">
-        <v>1217.46</v>
+        <v>1219.26</v>
       </c>
       <c r="F43" s="25" t="n">
-        <v>217.49</v>
+        <v>219.29</v>
       </c>
       <c r="G43" s="24" t="n">
-        <v>1.353</v>
+        <v>1.355</v>
       </c>
       <c r="H43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I43" s="24" t="n">
-        <v>1.3525</v>
+        <v>1.357</v>
       </c>
       <c r="J43" s="27" t="n">
-        <v>-0.0003</v>
+        <v>0.003</v>
       </c>
       <c r="K43" s="9" t="n">
-        <v>-0.45</v>
+        <v>1.8</v>
       </c>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 05:00</t>
+          <t>2019-12-20 05:00</t>
         </is>
       </c>
       <c r="M43" s="26" t="inlineStr">
@@ -3466,31 +3466,31 @@
         <v>689.02</v>
       </c>
       <c r="E44" s="25" t="n">
-        <v>1073.84</v>
+        <v>1071.08</v>
       </c>
       <c r="F44" s="25" t="n">
-        <v>73.86</v>
+        <v>71.11</v>
       </c>
       <c r="G44" s="24" t="n">
-        <v>1.5585</v>
+        <v>1.5545</v>
       </c>
       <c r="H44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I44" s="24" t="n">
-        <v>1.5524</v>
+        <v>1.5541</v>
       </c>
       <c r="J44" s="27" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K44" s="9" t="n">
-        <v>-4.2</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K44" s="8" t="n">
+        <v>-0.28</v>
       </c>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 16:00</t>
         </is>
       </c>
       <c r="M44" s="26" t="inlineStr">
@@ -3535,31 +3535,31 @@
         <v>4757.9</v>
       </c>
       <c r="E45" s="25" t="n">
-        <v>1917.43</v>
+        <v>1926.95</v>
       </c>
       <c r="F45" s="25" t="n">
-        <v>-82.79000000000001</v>
+        <v>-73.27</v>
       </c>
       <c r="G45" s="24" t="n">
-        <v>0.403</v>
+        <v>0.405</v>
       </c>
       <c r="H45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I45" s="24" t="n">
-        <v>0.398</v>
+        <v>0.399</v>
       </c>
       <c r="J45" s="27" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K45" s="9" t="n">
-        <v>-23.79</v>
+        <v>0.0101</v>
+      </c>
+      <c r="K45" s="8" t="n">
+        <v>-28.55</v>
       </c>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:04</t>
         </is>
       </c>
       <c r="M45" s="26" t="inlineStr">
@@ -3604,17 +3604,17 @@
         <v>953.96</v>
       </c>
       <c r="E46" s="25" t="n">
-        <v>1158.11</v>
+        <v>1154.29</v>
       </c>
       <c r="F46" s="25" t="n">
-        <v>158.07</v>
+        <v>154.26</v>
       </c>
       <c r="G46" s="24" t="n">
-        <v>1.214</v>
+        <v>1.21</v>
       </c>
       <c r="H46" s="26" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I46" s="24" t="n">
@@ -3623,7 +3623,7 @@
       <c r="J46" s="27" t="n">
         <v>0</v>
       </c>
-      <c r="K46" s="8" t="n">
+      <c r="K46" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L46" s="26" t="inlineStr">
@@ -3673,31 +3673,31 @@
         <v>595.47</v>
       </c>
       <c r="E47" s="25" t="n">
-        <v>1035.52</v>
+        <v>1033.74</v>
       </c>
       <c r="F47" s="25" t="n">
-        <v>35.55</v>
+        <v>33.76</v>
       </c>
       <c r="G47" s="24" t="n">
-        <v>1.739</v>
+        <v>1.736</v>
       </c>
       <c r="H47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I47" s="24" t="n">
-        <v>1.737</v>
+        <v>1.7363</v>
       </c>
       <c r="J47" s="27" t="n">
-        <v>-0.0012</v>
+        <v>-0.0015</v>
       </c>
       <c r="K47" s="9" t="n">
-        <v>-1.19</v>
+        <v>0.18</v>
       </c>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M47" s="26" t="inlineStr">
@@ -3742,31 +3742,31 @@
         <v>65064.33</v>
       </c>
       <c r="E48" s="31" t="n">
-        <v>74108.27</v>
+        <v>74238.39999999999</v>
       </c>
       <c r="F48" s="31" t="n">
-        <v>7788.2</v>
+        <v>7918.33</v>
       </c>
       <c r="G48" s="30" t="n">
-        <v>1.139</v>
+        <v>1.141</v>
       </c>
       <c r="H48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I48" s="30" t="n">
-        <v>1.1403</v>
+        <v>1.1404</v>
       </c>
       <c r="J48" s="33" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K48" s="8" t="n">
-        <v>84.58</v>
+        <v>-39.04</v>
       </c>
       <c r="L48" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M48" s="32" t="inlineStr">
@@ -3811,31 +3811,31 @@
         <v>63490</v>
       </c>
       <c r="E49" s="31" t="n">
-        <v>62740.82</v>
+        <v>63058.27</v>
       </c>
       <c r="F49" s="31" t="n">
-        <v>4539.54</v>
+        <v>4856.99</v>
       </c>
       <c r="G49" s="30" t="n">
-        <v>0.9882</v>
+        <v>0.9932</v>
       </c>
       <c r="H49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I49" s="30" t="n">
-        <v>0.9932</v>
+        <v>0.9936</v>
       </c>
       <c r="J49" s="33" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K49" s="8" t="n">
-        <v>317.45</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K49" s="9" t="n">
+        <v>25.4</v>
       </c>
       <c r="L49" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M49" s="32" t="inlineStr">
@@ -3880,31 +3880,31 @@
         <v>32370.29</v>
       </c>
       <c r="E50" s="31" t="n">
-        <v>38818.45</v>
+        <v>38805.5</v>
       </c>
       <c r="F50" s="31" t="n">
-        <v>6817.18</v>
+        <v>6804.23</v>
       </c>
       <c r="G50" s="30" t="n">
-        <v>1.1992</v>
+        <v>1.1988</v>
       </c>
       <c r="H50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I50" s="30" t="n">
-        <v>1.1977</v>
+        <v>1.1974</v>
       </c>
       <c r="J50" s="33" t="n">
-        <v>-0.0012</v>
-      </c>
-      <c r="K50" s="9" t="n">
-        <v>-48.56</v>
+        <v>-0.0015</v>
+      </c>
+      <c r="K50" s="8" t="n">
+        <v>-45.32</v>
       </c>
       <c r="L50" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M50" s="32" t="inlineStr">
@@ -3949,31 +3949,31 @@
         <v>20086.63</v>
       </c>
       <c r="E51" s="31" t="n">
-        <v>34930.65</v>
+        <v>34870.39</v>
       </c>
       <c r="F51" s="31" t="n">
-        <v>2930.64</v>
+        <v>2870.38</v>
       </c>
       <c r="G51" s="30" t="n">
-        <v>1.739</v>
+        <v>1.736</v>
       </c>
       <c r="H51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I51" s="30" t="n">
-        <v>1.737</v>
+        <v>1.7363</v>
       </c>
       <c r="J51" s="33" t="n">
-        <v>-0.0012</v>
+        <v>-0.0015</v>
       </c>
       <c r="K51" s="9" t="n">
-        <v>-40.17</v>
+        <v>6.03</v>
       </c>
       <c r="L51" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M51" s="32" t="inlineStr">
@@ -4018,31 +4018,31 @@
         <v>41014.88</v>
       </c>
       <c r="E52" s="31" t="n">
-        <v>34772.42</v>
+        <v>34915.97</v>
       </c>
       <c r="F52" s="31" t="n">
-        <v>4212.23</v>
+        <v>4355.78</v>
       </c>
       <c r="G52" s="30" t="n">
-        <v>0.8478</v>
+        <v>0.8512999999999999</v>
       </c>
       <c r="H52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I52" s="30" t="n">
-        <v>0.8511</v>
+        <v>0.8514</v>
       </c>
       <c r="J52" s="33" t="n">
-        <v>0.0039</v>
-      </c>
-      <c r="K52" s="8" t="n">
-        <v>135.35</v>
+        <v>0.0043</v>
+      </c>
+      <c r="K52" s="9" t="n">
+        <v>4.1</v>
       </c>
       <c r="L52" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M52" s="32" t="inlineStr">
@@ -4087,17 +4087,17 @@
         <v>20716.63</v>
       </c>
       <c r="E53" s="31" t="n">
-        <v>25149.99</v>
+        <v>25067.12</v>
       </c>
       <c r="F53" s="31" t="n">
-        <v>2548.15</v>
+        <v>2465.28</v>
       </c>
       <c r="G53" s="30" t="n">
-        <v>1.214</v>
+        <v>1.21</v>
       </c>
       <c r="H53" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I53" s="30" t="n">
@@ -4106,7 +4106,7 @@
       <c r="J53" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K53" s="8" t="n">
+      <c r="K53" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L53" s="32" t="inlineStr">
@@ -4156,17 +4156,17 @@
         <v>14624.61</v>
       </c>
       <c r="E54" s="31" t="n">
-        <v>24496.22</v>
+        <v>24437.72</v>
       </c>
       <c r="F54" s="31" t="n">
-        <v>5295.57</v>
+        <v>5237.07</v>
       </c>
       <c r="G54" s="30" t="n">
-        <v>1.675</v>
+        <v>1.671</v>
       </c>
       <c r="H54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I54" s="30" t="n">
@@ -4176,11 +4176,11 @@
         <v>-0.0013</v>
       </c>
       <c r="K54" s="9" t="n">
-        <v>-32.17</v>
+        <v>26.32</v>
       </c>
       <c r="L54" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M54" s="32" t="inlineStr">
@@ -4225,31 +4225,31 @@
         <v>21163.93</v>
       </c>
       <c r="E55" s="31" t="n">
-        <v>24129</v>
+        <v>24122.65</v>
       </c>
       <c r="F55" s="31" t="n">
-        <v>4926.96</v>
+        <v>4920.61</v>
       </c>
       <c r="G55" s="30" t="n">
-        <v>1.1401</v>
+        <v>1.1398</v>
       </c>
       <c r="H55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I55" s="30" t="n">
-        <v>1.1403</v>
+        <v>1.14</v>
       </c>
       <c r="J55" s="33" t="n">
-        <v>0.0002</v>
-      </c>
-      <c r="K55" s="8" t="n">
+        <v>-0.0001</v>
+      </c>
+      <c r="K55" s="9" t="n">
         <v>4.23</v>
       </c>
       <c r="L55" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M55" s="32" t="inlineStr">
@@ -4294,31 +4294,31 @@
         <v>16778.47</v>
       </c>
       <c r="E56" s="31" t="n">
-        <v>22701.27</v>
+        <v>22734.83</v>
       </c>
       <c r="F56" s="31" t="n">
-        <v>3499.99</v>
+        <v>3533.55</v>
       </c>
       <c r="G56" s="30" t="n">
-        <v>1.353</v>
+        <v>1.355</v>
       </c>
       <c r="H56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I56" s="30" t="n">
-        <v>1.3525</v>
+        <v>1.357</v>
       </c>
       <c r="J56" s="33" t="n">
-        <v>-0.0003</v>
+        <v>0.003</v>
       </c>
       <c r="K56" s="9" t="n">
-        <v>-8.390000000000001</v>
+        <v>33.56</v>
       </c>
       <c r="L56" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 05:00</t>
+          <t>2019-12-20 05:00</t>
         </is>
       </c>
       <c r="M56" s="32" t="inlineStr">
@@ -4363,31 +4363,31 @@
         <v>9529.809999999999</v>
       </c>
       <c r="E57" s="31" t="n">
-        <v>16143.5</v>
+        <v>16153.03</v>
       </c>
       <c r="F57" s="31" t="n">
-        <v>3343.06</v>
+        <v>3352.59</v>
       </c>
       <c r="G57" s="30" t="n">
-        <v>1.694</v>
+        <v>1.695</v>
       </c>
       <c r="H57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I57" s="30" t="n">
-        <v>1.6971</v>
+        <v>1.6961</v>
       </c>
       <c r="J57" s="33" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K57" s="8" t="n">
-        <v>29.54</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K57" s="9" t="n">
+        <v>10.48</v>
       </c>
       <c r="L57" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M57" s="32" t="inlineStr">
@@ -4432,31 +4432,31 @@
         <v>37267.45</v>
       </c>
       <c r="E58" s="31" t="n">
-        <v>15018.78</v>
+        <v>15093.32</v>
       </c>
       <c r="F58" s="31" t="n">
-        <v>-4181.41</v>
+        <v>-4106.87</v>
       </c>
       <c r="G58" s="30" t="n">
-        <v>0.403</v>
+        <v>0.405</v>
       </c>
       <c r="H58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I58" s="30" t="n">
-        <v>0.398</v>
+        <v>0.399</v>
       </c>
       <c r="J58" s="33" t="n">
-        <v>0.0076</v>
-      </c>
-      <c r="K58" s="9" t="n">
-        <v>-186.34</v>
+        <v>0.0101</v>
+      </c>
+      <c r="K58" s="8" t="n">
+        <v>-223.6</v>
       </c>
       <c r="L58" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:04</t>
         </is>
       </c>
       <c r="M58" s="32" t="inlineStr">
@@ -4501,31 +4501,31 @@
         <v>6798.52</v>
       </c>
       <c r="E59" s="31" t="n">
-        <v>10595.49</v>
+        <v>10568.3</v>
       </c>
       <c r="F59" s="31" t="n">
-        <v>695.49</v>
+        <v>668.29</v>
       </c>
       <c r="G59" s="30" t="n">
-        <v>1.5585</v>
+        <v>1.5545</v>
       </c>
       <c r="H59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I59" s="30" t="n">
-        <v>1.5524</v>
+        <v>1.5541</v>
       </c>
       <c r="J59" s="33" t="n">
-        <v>-0.0039</v>
-      </c>
-      <c r="K59" s="9" t="n">
-        <v>-41.47</v>
+        <v>-0.0029</v>
+      </c>
+      <c r="K59" s="8" t="n">
+        <v>-2.72</v>
       </c>
       <c r="L59" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 16:00</t>
         </is>
       </c>
       <c r="M59" s="32" t="inlineStr">
@@ -4570,17 +4570,17 @@
         <v>5609.79</v>
       </c>
       <c r="E60" s="31" t="n">
-        <v>7573.22</v>
+        <v>7578.83</v>
       </c>
       <c r="F60" s="31" t="n">
-        <v>2427.92</v>
+        <v>2433.53</v>
       </c>
       <c r="G60" s="30" t="n">
-        <v>1.35</v>
+        <v>1.351</v>
       </c>
       <c r="H60" s="32" t="inlineStr">
         <is>
-          <t>2019-12-17</t>
+          <t>2019-12-18</t>
         </is>
       </c>
       <c r="I60" s="30" t="n">
@@ -4589,7 +4589,7 @@
       <c r="J60" s="33" t="n">
         <v>0</v>
       </c>
-      <c r="K60" s="8" t="n">
+      <c r="K60" s="9" t="n">
         <v>0</v>
       </c>
       <c r="L60" s="32" t="inlineStr">
@@ -4639,31 +4639,31 @@
         <v>13403.92</v>
       </c>
       <c r="E61" s="31" t="n">
-        <v>7747.47</v>
+        <v>7759.53</v>
       </c>
       <c r="F61" s="31" t="n">
-        <v>1347.09</v>
+        <v>1359.16</v>
       </c>
       <c r="G61" s="30" t="n">
-        <v>0.578</v>
+        <v>0.5789</v>
       </c>
       <c r="H61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I61" s="30" t="n">
-        <v>0.5790999999999999</v>
+        <v>0.5789</v>
       </c>
       <c r="J61" s="33" t="n">
-        <v>0.0019</v>
-      </c>
-      <c r="K61" s="8" t="n">
-        <v>14.74</v>
+        <v>0.0016</v>
+      </c>
+      <c r="K61" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L61" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M61" s="32" t="inlineStr">
@@ -4708,31 +4708,31 @@
         <v>5328.62</v>
       </c>
       <c r="E62" s="31" t="n">
-        <v>7510.16</v>
+        <v>7499.5</v>
       </c>
       <c r="F62" s="31" t="n">
-        <v>1109.95</v>
+        <v>1099.29</v>
       </c>
       <c r="G62" s="30" t="n">
-        <v>1.4094</v>
+        <v>1.4074</v>
       </c>
       <c r="H62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I62" s="30" t="n">
-        <v>1.407</v>
+        <v>1.4068</v>
       </c>
       <c r="J62" s="33" t="n">
-        <v>-0.0017</v>
-      </c>
-      <c r="K62" s="9" t="n">
-        <v>-12.79</v>
+        <v>-0.0019</v>
+      </c>
+      <c r="K62" s="8" t="n">
+        <v>-3.2</v>
       </c>
       <c r="L62" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M62" s="32" t="inlineStr">
@@ -4777,31 +4777,31 @@
         <v>7778.64</v>
       </c>
       <c r="E63" s="31" t="n">
-        <v>7099.56</v>
+        <v>7107.34</v>
       </c>
       <c r="F63" s="31" t="n">
-        <v>98.79000000000001</v>
+        <v>106.57</v>
       </c>
       <c r="G63" s="30" t="n">
-        <v>0.9127</v>
+        <v>0.9137</v>
       </c>
       <c r="H63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I63" s="30" t="n">
-        <v>0.9143</v>
+        <v>0.9137999999999999</v>
       </c>
       <c r="J63" s="33" t="n">
-        <v>0.0018</v>
-      </c>
-      <c r="K63" s="8" t="n">
-        <v>12.45</v>
+        <v>0.0012</v>
+      </c>
+      <c r="K63" s="9" t="n">
+        <v>0.78</v>
       </c>
       <c r="L63" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M63" s="32" t="inlineStr">
@@ -4846,31 +4846,31 @@
         <v>3299.64</v>
       </c>
       <c r="E64" s="31" t="n">
-        <v>6765.25</v>
+        <v>6778.12</v>
       </c>
       <c r="F64" s="31" t="n">
-        <v>364.94</v>
+        <v>377.81</v>
       </c>
       <c r="G64" s="30" t="n">
-        <v>2.0503</v>
+        <v>2.0542</v>
       </c>
       <c r="H64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I64" s="30" t="n">
-        <v>2.0534</v>
+        <v>2.0528</v>
       </c>
       <c r="J64" s="33" t="n">
-        <v>0.0015</v>
+        <v>0.0012</v>
       </c>
       <c r="K64" s="8" t="n">
-        <v>10.23</v>
+        <v>-4.62</v>
       </c>
       <c r="L64" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M64" s="32" t="inlineStr">
@@ -4915,31 +4915,31 @@
         <v>7852.99</v>
       </c>
       <c r="E65" s="31" t="n">
-        <v>6545.47</v>
+        <v>6600.44</v>
       </c>
       <c r="F65" s="31" t="n">
-        <v>145.28</v>
+        <v>200.25</v>
       </c>
       <c r="G65" s="30" t="n">
-        <v>0.8335</v>
+        <v>0.8405</v>
       </c>
       <c r="H65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I65" s="30" t="n">
-        <v>0.8405</v>
+        <v>0.8413</v>
       </c>
       <c r="J65" s="33" t="n">
-        <v>0.008500000000000001</v>
-      </c>
-      <c r="K65" s="8" t="n">
-        <v>54.97</v>
+        <v>0.0094</v>
+      </c>
+      <c r="K65" s="9" t="n">
+        <v>6.28</v>
       </c>
       <c r="L65" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M65" s="32" t="inlineStr">
@@ -4984,31 +4984,31 @@
         <v>3580.2</v>
       </c>
       <c r="E66" s="31" t="n">
-        <v>3563.02</v>
+        <v>3579.13</v>
       </c>
       <c r="F66" s="31" t="n">
-        <v>63.01</v>
+        <v>79.12</v>
       </c>
       <c r="G66" s="30" t="n">
-        <v>0.9952</v>
+        <v>0.9997</v>
       </c>
       <c r="H66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I66" s="30" t="n">
-        <v>0.9993</v>
+        <v>0.9994</v>
       </c>
       <c r="J66" s="33" t="n">
-        <v>0.0041</v>
+        <v>0.0042</v>
       </c>
       <c r="K66" s="8" t="n">
-        <v>14.68</v>
+        <v>-1.07</v>
       </c>
       <c r="L66" s="32" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M66" s="32" t="inlineStr">
@@ -5053,31 +5053,31 @@
         <v>1059.67</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1569.37</v>
+        <v>1572.55</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>57.01</v>
+        <v>60.19</v>
       </c>
       <c r="G67" s="4" t="n">
-        <v>1.481</v>
+        <v>1.484</v>
       </c>
       <c r="H67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I67" s="4" t="n">
-        <v>1.484</v>
+        <v>1.4835</v>
       </c>
       <c r="J67" s="7" t="n">
-        <v>0.002</v>
+        <v>0.0017</v>
       </c>
       <c r="K67" s="8" t="n">
-        <v>3.18</v>
+        <v>-0.53</v>
       </c>
       <c r="L67" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M67" s="6" t="inlineStr">
@@ -5122,31 +5122,31 @@
         <v>901.66</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>1497.66</v>
+        <v>1502.17</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>8.02</v>
+        <v>12.53</v>
       </c>
       <c r="G68" s="4" t="n">
-        <v>1.661</v>
+        <v>1.666</v>
       </c>
       <c r="H68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I68" s="4" t="n">
-        <v>1.6629</v>
+        <v>1.6631</v>
       </c>
       <c r="J68" s="7" t="n">
-        <v>0.0011</v>
+        <v>0.0012</v>
       </c>
       <c r="K68" s="8" t="n">
-        <v>1.71</v>
+        <v>-2.61</v>
       </c>
       <c r="L68" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M68" s="6" t="inlineStr">
@@ -5191,31 +5191,31 @@
         <v>898.04</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>1359.9</v>
+        <v>1351.19</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>148.9</v>
+        <v>140.18</v>
       </c>
       <c r="G69" s="4" t="n">
-        <v>1.5143</v>
+        <v>1.5046</v>
       </c>
       <c r="H69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I69" s="4" t="n">
-        <v>1.5087</v>
+        <v>1.51</v>
       </c>
       <c r="J69" s="7" t="n">
-        <v>-0.0037</v>
+        <v>-0.0028</v>
       </c>
       <c r="K69" s="9" t="n">
-        <v>-5.03</v>
+        <v>4.85</v>
       </c>
       <c r="L69" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 16:00</t>
         </is>
       </c>
       <c r="M69" s="6" t="inlineStr">
@@ -5260,31 +5260,31 @@
         <v>1379.75</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1321.94</v>
+        <v>1324.97</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>34.22</v>
+        <v>37.25</v>
       </c>
       <c r="G70" s="4" t="n">
-        <v>0.9581</v>
+        <v>0.9603</v>
       </c>
       <c r="H70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I70" s="4" t="n">
-        <v>0.9609</v>
+        <v>0.9607</v>
       </c>
       <c r="J70" s="7" t="n">
-        <v>0.0029</v>
-      </c>
-      <c r="K70" s="8" t="n">
-        <v>3.86</v>
+        <v>0.0028</v>
+      </c>
+      <c r="K70" s="9" t="n">
+        <v>0.55</v>
       </c>
       <c r="L70" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M70" s="6" t="inlineStr">
@@ -5329,17 +5329,17 @@
         <v>492.58</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>964.27</v>
+        <v>966.9299999999999</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>79.31</v>
+        <v>81.97</v>
       </c>
       <c r="G71" s="4" t="n">
-        <v>1.9576</v>
+        <v>1.963</v>
       </c>
       <c r="H71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I71" s="4" t="n">
@@ -5348,12 +5348,12 @@
       <c r="J71" s="7" t="n">
         <v>0.0028</v>
       </c>
-      <c r="K71" s="8" t="n">
-        <v>2.66</v>
+      <c r="K71" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L71" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M71" s="6" t="inlineStr">
@@ -5398,17 +5398,17 @@
         <v>414.51</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>945</v>
+        <v>948.52</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>64.20999999999999</v>
+        <v>67.73</v>
       </c>
       <c r="G72" s="4" t="n">
-        <v>2.2798</v>
+        <v>2.2883</v>
       </c>
       <c r="H72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I72" s="4" t="n">
@@ -5417,12 +5417,12 @@
       <c r="J72" s="7" t="n">
         <v>0.0038</v>
       </c>
-      <c r="K72" s="8" t="n">
-        <v>3.61</v>
+      <c r="K72" s="9" t="n">
+        <v>0.08</v>
       </c>
       <c r="L72" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M72" s="6" t="inlineStr">
@@ -5467,31 +5467,31 @@
         <v>390.82</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>386.21</v>
+        <v>388.16</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>11.06</v>
+        <v>13.01</v>
       </c>
       <c r="G73" s="4" t="n">
-        <v>0.9882</v>
+        <v>0.9932</v>
       </c>
       <c r="H73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I73" s="4" t="n">
-        <v>0.9932</v>
+        <v>0.9936</v>
       </c>
       <c r="J73" s="7" t="n">
-        <v>0.005</v>
-      </c>
-      <c r="K73" s="8" t="n">
-        <v>1.95</v>
+        <v>0.0055</v>
+      </c>
+      <c r="K73" s="9" t="n">
+        <v>0.16</v>
       </c>
       <c r="L73" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M73" s="6" t="inlineStr">
@@ -5536,31 +5536,31 @@
         <v>214.89</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>211.52</v>
+        <v>212.14</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>0.3</v>
+        <v>0.92</v>
       </c>
       <c r="G74" s="4" t="n">
+        <v>0.9872</v>
+      </c>
+      <c r="H74" s="6" t="inlineStr">
+        <is>
+          <t>2019-12-19</t>
+        </is>
+      </c>
+      <c r="I74" s="4" t="n">
         <v>0.9843</v>
       </c>
-      <c r="H74" s="6" t="inlineStr">
-        <is>
-          <t>2019-12-18</t>
-        </is>
-      </c>
-      <c r="I74" s="4" t="n">
-        <v>0.9846</v>
-      </c>
       <c r="J74" s="7" t="n">
-        <v>0.0003</v>
+        <v>0</v>
       </c>
       <c r="K74" s="8" t="n">
-        <v>0.06</v>
+        <v>-0.62</v>
       </c>
       <c r="L74" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M74" s="6" t="inlineStr">
@@ -5605,31 +5605,31 @@
         <v>212.74</v>
       </c>
       <c r="E75" s="5" t="n">
-        <v>166.11</v>
+        <v>166.6</v>
       </c>
       <c r="F75" s="5" t="n">
-        <v>23.4</v>
+        <v>23.89</v>
       </c>
       <c r="G75" s="4" t="n">
-        <v>0.7808</v>
+        <v>0.7831</v>
       </c>
       <c r="H75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I75" s="4" t="n">
-        <v>0.7847</v>
+        <v>0.7844</v>
       </c>
       <c r="J75" s="7" t="n">
-        <v>0.0049</v>
-      </c>
-      <c r="K75" s="8" t="n">
-        <v>0.83</v>
+        <v>0.0047</v>
+      </c>
+      <c r="K75" s="9" t="n">
+        <v>0.28</v>
       </c>
       <c r="L75" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:43</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M75" s="6" t="inlineStr">
@@ -5674,31 +5674,31 @@
         <v>62.09</v>
       </c>
       <c r="E76" s="5" t="n">
-        <v>84.94</v>
+        <v>84.63</v>
       </c>
       <c r="F76" s="5" t="n">
-        <v>4.9</v>
+        <v>4.59</v>
       </c>
       <c r="G76" s="4" t="n">
-        <v>1.368</v>
+        <v>1.363</v>
       </c>
       <c r="H76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I76" s="4" t="n">
-        <v>1.3612</v>
+        <v>1.3614</v>
       </c>
       <c r="J76" s="7" t="n">
-        <v>-0.0049</v>
-      </c>
-      <c r="K76" s="9" t="n">
-        <v>-0.42</v>
+        <v>-0.0048</v>
+      </c>
+      <c r="K76" s="8" t="n">
+        <v>-0.1</v>
       </c>
       <c r="L76" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M76" s="6" t="inlineStr">
@@ -5743,31 +5743,31 @@
         <v>33.12</v>
       </c>
       <c r="E77" s="5" t="n">
-        <v>41.69</v>
+        <v>41.76</v>
       </c>
       <c r="F77" s="5" t="n">
-        <v>0.77</v>
+        <v>0.83</v>
       </c>
       <c r="G77" s="4" t="n">
-        <v>1.2589</v>
+        <v>1.2608</v>
       </c>
       <c r="H77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I77" s="4" t="n">
-        <v>1.2611</v>
+        <v>1.2608</v>
       </c>
       <c r="J77" s="7" t="n">
-        <v>0.0017</v>
-      </c>
-      <c r="K77" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0015</v>
+      </c>
+      <c r="K77" s="9" t="n">
+        <v>0</v>
       </c>
       <c r="L77" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:44</t>
+          <t>2019-12-19 15:00</t>
         </is>
       </c>
       <c r="M77" s="6" t="inlineStr">
@@ -5812,31 +5812,31 @@
         <v>25.8</v>
       </c>
       <c r="E78" s="5" t="n">
-        <v>36.13</v>
+        <v>36.19</v>
       </c>
       <c r="F78" s="5" t="n">
-        <v>-0.95</v>
+        <v>-0.89</v>
       </c>
       <c r="G78" s="4" t="n">
-        <v>1.4004</v>
+        <v>1.4026</v>
       </c>
       <c r="H78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-18</t>
+          <t>2019-12-19</t>
         </is>
       </c>
       <c r="I78" s="4" t="n">
-        <v>1.4032</v>
+        <v>1.4028</v>
       </c>
       <c r="J78" s="7" t="n">
-        <v>0.002</v>
-      </c>
-      <c r="K78" s="8" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.0017</v>
+      </c>
+      <c r="K78" s="9" t="n">
+        <v>0.01</v>
       </c>
       <c r="L78" s="6" t="inlineStr">
         <is>
-          <t>2019-12-19 14:42</t>
+